--- a/compare.xlsx
+++ b/compare.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$104</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
   <si>
     <t>香扒饭</t>
   </si>
@@ -33,9 +36,6 @@
     <t>青城爱未恋</t>
   </si>
   <si>
-    <t>零拾</t>
-  </si>
-  <si>
     <t>雪潇然c</t>
   </si>
   <si>
@@ -330,15 +330,9 @@
     <t>′浪浪</t>
   </si>
   <si>
-    <t>云虛</t>
-  </si>
-  <si>
     <t>傾舞情儿</t>
   </si>
   <si>
-    <t>几度</t>
-  </si>
-  <si>
     <t>君换言</t>
   </si>
   <si>
@@ -469,6 +463,9 @@
   </si>
   <si>
     <t>浩浩</t>
+  </si>
+  <si>
+    <t>云虚</t>
   </si>
 </sst>
 </file>
@@ -789,7 +786,7 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,829 +797,778 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="b">
-        <f>ISNUMBER(FIND(B$1:B$300,A1))</f>
-        <v>0</v>
+      <c r="C1" t="e">
+        <f>VLOOKUP("*"&amp;A1&amp;"*",B:B,3,0)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="b">
-        <f t="shared" ref="C2:C17" si="0">ISNUMBER(FIND(B$1:B$300,A2))</f>
-        <v>0</v>
+      <c r="C2" t="e">
+        <f t="shared" ref="C2:C21" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,3,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C3" t="e">
+        <f>VLOOKUP("*"&amp;A3&amp;"*",B:B,3,0)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>127</v>
       </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>128</v>
       </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>129</v>
       </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>130</v>
       </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>131</v>
       </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>132</v>
       </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>133</v>
       </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>134</v>
       </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <f ca="1">EXACT(C39,B:B)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>135</v>
       </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:C55" ca="1" si="1">EXACT(C40,B:B)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>136</v>
       </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>137</v>
       </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>149</v>
-      </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" t="b">
-        <f>EXACT(A43,B32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>138</v>
       </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>139</v>
       </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>140</v>
       </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>141</v>
       </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>142</v>
       </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>143</v>
       </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>144</v>
       </c>
-      <c r="B50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>145</v>
       </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>53</v>
       </c>
-      <c r="C54">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
       <c r="B56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C104"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compare.xlsx
+++ b/compare.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="622">
   <si>
     <t>青羽墨染云</t>
   </si>
@@ -231,12 +231,6 @@
     <t>叶菡</t>
   </si>
   <si>
-    <t>雲嫣</t>
-  </si>
-  <si>
-    <t>拌饭</t>
-  </si>
-  <si>
     <t>柒叶浅</t>
   </si>
   <si>
@@ -249,15 +243,9 @@
     <t>淺笙</t>
   </si>
   <si>
-    <t>几度</t>
-  </si>
-  <si>
     <t>意邪</t>
   </si>
   <si>
-    <t>蚩尤</t>
-  </si>
-  <si>
     <t>阿锟猫</t>
   </si>
   <si>
@@ -267,9 +255,6 @@
     <t>山高</t>
   </si>
   <si>
-    <t>暮夏</t>
-  </si>
-  <si>
     <t>柯南</t>
   </si>
   <si>
@@ -1068,12 +1053,6 @@
     <t>天真无邪大胡子</t>
   </si>
   <si>
-    <t>古巷烟雨</t>
-  </si>
-  <si>
-    <t>淡若清风</t>
-  </si>
-  <si>
     <t>邱少</t>
   </si>
   <si>
@@ -1116,9 +1095,6 @@
     <t>三狗蛋</t>
   </si>
   <si>
-    <t>小免</t>
-  </si>
-  <si>
     <t>我是小官人</t>
   </si>
   <si>
@@ -1797,15 +1773,9 @@
     <t>kiyomi、</t>
   </si>
   <si>
-    <t>Fatescorpio</t>
-  </si>
-  <si>
     <t>一抹煙雨落繁</t>
   </si>
   <si>
-    <t>九州</t>
-  </si>
-  <si>
     <t>机智勇敢的小免</t>
   </si>
   <si>
@@ -1815,42 +1785,21 @@
     <t>张良</t>
   </si>
   <si>
-    <t>在下唐</t>
-  </si>
-  <si>
     <t>开封拍卖行</t>
   </si>
   <si>
     <t>凝烟</t>
   </si>
   <si>
-    <t>的殇</t>
-  </si>
-  <si>
-    <t>那年</t>
-  </si>
-  <si>
     <t>瑾年</t>
   </si>
   <si>
-    <t>浅笙</t>
-  </si>
-  <si>
-    <t>舞情儿</t>
-  </si>
-  <si>
     <t>内涵</t>
   </si>
   <si>
-    <t>墨舞</t>
-  </si>
-  <si>
     <t>小炮</t>
   </si>
   <si>
-    <t>小萌耍太白</t>
-  </si>
-  <si>
     <t>微光</t>
   </si>
   <si>
@@ -1863,9 +1812,6 @@
     <t>晓汐</t>
   </si>
   <si>
-    <t>诗涵</t>
-  </si>
-  <si>
     <t>离殇天</t>
   </si>
   <si>
@@ -1875,49 +1821,73 @@
     <t>月薇</t>
   </si>
   <si>
-    <t>梦觞徒弟</t>
-  </si>
-  <si>
-    <t>花兮兮</t>
-  </si>
-  <si>
-    <t>青丝枫</t>
-  </si>
-  <si>
-    <t>阿准</t>
-  </si>
-  <si>
     <t>羽殇</t>
   </si>
   <si>
-    <t>浠尘</t>
-  </si>
-  <si>
-    <t>太晩</t>
-  </si>
-  <si>
-    <t>南宫</t>
-  </si>
-  <si>
-    <t>天香</t>
-  </si>
-  <si>
-    <t>小晩</t>
-  </si>
-  <si>
-    <t>独孤</t>
-  </si>
-  <si>
-    <t>太极至</t>
-  </si>
-  <si>
-    <t>她有清</t>
-  </si>
-  <si>
     <t>方得</t>
   </si>
   <si>
-    <t>君</t>
+    <t>牛奶</t>
+  </si>
+  <si>
+    <t>秦友善</t>
+  </si>
+  <si>
+    <t>阿淮</t>
+  </si>
+  <si>
+    <t>骄傲的龙王</t>
+  </si>
+  <si>
+    <t>初馨</t>
+  </si>
+  <si>
+    <t>她有清喉</t>
+  </si>
+  <si>
+    <t>永恒</t>
+  </si>
+  <si>
+    <t>池小晩</t>
+  </si>
+  <si>
+    <t>浪浪</t>
+  </si>
+  <si>
+    <t>落花</t>
+  </si>
+  <si>
+    <t>大叔别跑</t>
+  </si>
+  <si>
+    <t>梦呓</t>
+  </si>
+  <si>
+    <t>梦太晩</t>
+  </si>
+  <si>
+    <t>花谢人凋零</t>
+  </si>
+  <si>
+    <t>倾城</t>
+  </si>
+  <si>
+    <t>浩浩</t>
+  </si>
+  <si>
+    <t>董</t>
+  </si>
+  <si>
+    <t>晓月梦</t>
+  </si>
+  <si>
+    <t>沐浠</t>
+  </si>
+  <si>
+    <t>虫</t>
+  </si>
+  <si>
+    <t>月光</t>
   </si>
 </sst>
 </file>
@@ -2235,10 +2205,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C96" sqref="C1:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,201 +2221,201 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
       <c r="C1" t="str">
         <f>VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
-        <v>FateLibra</v>
+        <v>南宫絮语</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>591</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C65" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,1,0)</f>
-        <v>FateScorpio</v>
+        <v>城南穷鬼赵四</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>°°</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>592</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>一抹煙雨落繁華</v>
+        <v>巡山的人</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>乌莲娜</v>
+        <v>异逍遥</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>593</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>一人一枪闯九州</v>
+        <v>我是天香的啊</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>631</v>
+        <v>357</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>丿Muc丨君丶陌</v>
+        <v>我是小官人</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>597</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>在下唐言</v>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>465</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>安蠢蠢</v>
+        <v>时钟轻摇孤独</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>432</v>
+        <v>598</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>成溪</v>
+        <v>绫月薇</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>拌饭萌面酥</v>
+        <v>机智勇敢的小猪</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>晓月梦澈</v>
+        <v>浪迹小秦</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>曲终无意</v>
+        <v>一直梨花压海棠</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>601</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>595</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>树儿高高长</v>
+        <v>独孤沐白</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>602</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>格殺</v>
+        <v>秦友善。</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>623</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -2452,669 +2423,668 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>447</v>
+        <v>603</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>榕月</v>
+        <v>小阿淮呀</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>622</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>沐浠尘</v>
+        <v>零拾</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>男人应有的自豪</v>
+        <v>青丝枫凌</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>434</v>
+        <v>604</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>轻素剪云端</v>
+        <v>骄傲的龙王丶</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>邱少</v>
+        <v>任离流</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>陌丶羽殇</v>
+        <v>一个有内涵的人</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>605</v>
       </c>
       <c r="B24" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>陌路莫回</v>
+        <v>丶初馨</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>435</v>
+        <v>615</v>
       </c>
       <c r="B25" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>鱼小小</v>
+        <v>墨舞丶倾城</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>271</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>鱼香</v>
+        <v>墨韵轩华</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>风暖伤</v>
+        <v>太极至尊</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>606</v>
       </c>
       <c r="B28" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>东风路三狗蛋</v>
+        <v>丶她有清喉</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>儒丶张良</v>
+        <v>方得始終</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>591</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>其实想玩刀客</v>
+        <v>机智勇敢的小炮</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>592</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>叶菡</v>
+        <v>神丶陌上微光</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>597</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>在下唐言</v>
+        <v>怒怒怒怒火</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>奶小牛丶</v>
+        <v>洛城紫陌浸云影春晴</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>594</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>山高丶木易</v>
+        <v>墨雨丶晓枫</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>开封拍卖行</v>
+        <v>冷晓汐灬</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>599</v>
+        <v>531</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>木易丶凝烟</v>
+        <v>月怜诗涵</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>彡电竞丿柯南乄</v>
+        <v>椛灯</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>607</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>框框</v>
+        <v>永恒只为等待</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>608</v>
+      </c>
+      <c r="B39" t="s">
+        <v>368</v>
+      </c>
+      <c r="C39" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>609</v>
+      </c>
+      <c r="B40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>′浪浪</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>596</v>
+      </c>
+      <c r="B41" t="s">
+        <v>370</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>离殇天丶</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>530</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>艾尔艾路弗</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>371</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>诸天花雨</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>雪糕失望</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>610</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>落花丶醉</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>356</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>东风路三狗蛋</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>621</v>
+      </c>
+      <c r="B47" t="s">
+        <v>372</v>
+      </c>
+      <c r="C47" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>586</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>儒丶张良</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>373</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>其实想玩刀客</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>374</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>叶菡</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>470</v>
+      </c>
+      <c r="B51" t="s">
+        <v>375</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>在下唐银</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>611</v>
+      </c>
+      <c r="B52" t="s">
+        <v>376</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>大叔别跑啊</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>377</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" t="s">
+        <v>378</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>山高丶木易</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>587</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>开封拍卖行</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>588</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>木易丶凝烟</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>379</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>彡电竞丿柯南乄</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>框框</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>612</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>梦呓ゝ</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>18</v>
       </c>
-      <c r="B39" t="s">
-        <v>376</v>
-      </c>
-      <c r="C39" t="str">
+      <c r="B60" t="s">
+        <v>380</v>
+      </c>
+      <c r="C60" t="str">
         <f t="shared" si="0"/>
         <v>洪时雪</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>349</v>
-      </c>
-      <c r="B40" t="s">
-        <v>377</v>
-      </c>
-      <c r="C40" t="str">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>616</v>
+      </c>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="str">
         <f t="shared" si="0"/>
-        <v>淡若清风過丶</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>378</v>
-      </c>
-      <c r="C41" t="str">
+        <v>浩浩丶浩</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" t="str">
         <f t="shared" si="0"/>
         <v>潇洒仗剑天下</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" t="str">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
+        <v>381</v>
+      </c>
+      <c r="C63" t="str">
         <f t="shared" si="0"/>
         <v>煌煌</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>589</v>
+      </c>
+      <c r="B64" t="s">
+        <v>382</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>瑾年ゝ</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>10</v>
       </c>
-      <c r="B43" t="s">
-        <v>379</v>
-      </c>
-      <c r="C43" t="str">
+      <c r="B65" t="s">
+        <v>383</v>
+      </c>
+      <c r="C65" t="str">
         <f t="shared" si="0"/>
         <v>等我出轻语</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>紫舞流年</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>纯洁友善的暮夏</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>600</v>
-      </c>
-      <c r="B46" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>纯洁友善的殇</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" t="s">
-        <v>380</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>荡荡</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>601</v>
-      </c>
-      <c r="B48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>那年红颜</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>381</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>青城爱未恋</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>382</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>青羽墨染云</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>602</v>
-      </c>
-      <c r="B51" t="s">
-        <v>383</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>瑾年ゝ</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" t="s">
-        <v>384</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>苍镜</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>603</v>
-      </c>
-      <c r="B53" t="s">
-        <v>385</v>
-      </c>
-      <c r="C53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>386</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>任离流</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>604</v>
-      </c>
-      <c r="B55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>倾舞情儿</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>605</v>
-      </c>
-      <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>一个有内涵的人</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" t="s">
-        <v>387</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v>几度度丶</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>606</v>
-      </c>
-      <c r="B58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v>墨舞丶倾城</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" t="str">
-        <f t="shared" si="0"/>
-        <v>墨韵轩华</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>628</v>
-      </c>
-      <c r="B60" t="s">
-        <v>388</v>
-      </c>
-      <c r="C60" t="str">
-        <f t="shared" si="0"/>
-        <v>太极至尊</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>629</v>
-      </c>
-      <c r="B61" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" t="str">
-        <f t="shared" si="0"/>
-        <v>丶她有清喉</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>630</v>
-      </c>
-      <c r="B62" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v>方得始終</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>607</v>
-      </c>
-      <c r="B63" t="s">
-        <v>389</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v>机智勇敢的小炮</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>608</v>
-      </c>
-      <c r="B64" t="s">
-        <v>390</v>
-      </c>
-      <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v>小萌耍太白丶</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>609</v>
-      </c>
-      <c r="B65" t="s">
-        <v>391</v>
-      </c>
-      <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v>神丶陌上微光</v>
-      </c>
-    </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ref="C66:C99" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
-        <v>怒怒怒怒火</v>
+        <v>紫舞流年</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>610</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="1"/>
-        <v>洛城紫陌浸云影春晴</v>
+        <v>纯洁友善的殇</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>611</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
-        <v>墨雨丶晓枫</v>
+        <v>艾莉亞史塔克</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>612</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
-        <v>冷晓汐灬</v>
+        <v>苍镜</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>613</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
-        <v>月怜诗涵</v>
+        <v>荡荡</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>617</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
-        <v>椛灯</v>
+        <v>董锋</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>545</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
-        <v>武藏野剑太</v>
+        <v>蝶舞旧梦</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>626</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
@@ -3122,522 +3092,508 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
       <c r="B74" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
-        <v>离殇天丶</v>
+        <v>一抹煙雨落繁華</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>538</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
-        <v>艾尔艾路弗</v>
+        <v>乌莲娜</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
-        <v>蚩尤魔人</v>
+        <v>在下唐言</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
-        <v>裴述</v>
+        <v>墨萧炎</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
-        <v>诸天花雨</v>
+        <v>安好晴天</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B79" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C79" t="str">
         <f>VLOOKUP("*"&amp;A79&amp;"*",B:B,1,0)</f>
-        <v>我是天香的啊</v>
+        <v>晓月梦澈</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>624</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
-        <v>南宫絮语</v>
+        <v>曲终无意</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>348</v>
+        <v>584</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
-      </c>
-      <c r="C81" t="str">
-        <f t="shared" si="1"/>
-        <v>古巷烟雨断桥殇</v>
+        <v>127</v>
+      </c>
+      <c r="C81" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>133</v>
+        <v>585</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
-        <v>只想做个好人</v>
+        <v>树儿高高长</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>368</v>
+        <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
-        <v>城南穷鬼赵四</v>
+        <v>格殺</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>367</v>
+        <v>613</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" t="str">
-        <f t="shared" si="1"/>
-        <v>墨河</v>
+        <v>129</v>
+      </c>
+      <c r="C84" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>439</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
-        <v>异逍遥</v>
+        <v>榕月</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>365</v>
+        <v>619</v>
       </c>
       <c r="B86" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
-        <v>我是小官人</v>
+        <v>沐浠尘</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>615</v>
+        <v>310</v>
       </c>
       <c r="B87" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
+        <v>甄心</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>461</v>
       </c>
       <c r="B88" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
+        <v>白芹</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B89" t="s">
         <v>46</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
-        <v>绫月薇</v>
+        <v>花谢人凋零。</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>620</v>
       </c>
       <c r="B90" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
-        <v>机智勇敢的小猪</v>
+        <v>璐小虫</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>71</v>
+        <v>426</v>
       </c>
       <c r="B91" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
-        <v>柒叶浅</v>
+        <v>轻素剪云端</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
-      </c>
-      <c r="C92" t="e">
+        <v>133</v>
+      </c>
+      <c r="C92" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>陌丶羽殇</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
-        <v>浪迹小秦</v>
+        <v>陌路莫回</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>427</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
-        <v>一直梨花压海棠</v>
+        <v>鱼小小</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>627</v>
+        <v>527</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
-        <v>独孤沐白</v>
+        <v>°°</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>618</v>
+        <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
-        <v>花兮兮兮兮</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>73</v>
-      </c>
+        <v>淺笙</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
-        <v>零拾</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>619</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>39</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
-        <v>青丝枫凌</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>69</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
-        <v>灬醉丨雲嫣</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>620</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
@@ -3647,7 +3603,7 @@
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
@@ -3657,17 +3613,17 @@
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
@@ -3682,22 +3638,22 @@
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
@@ -3707,152 +3663,152 @@
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
@@ -3862,37 +3818,37 @@
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
@@ -3902,112 +3858,112 @@
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
@@ -4017,77 +3973,77 @@
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
@@ -4097,17 +4053,17 @@
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
@@ -4117,22 +4073,22 @@
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
@@ -4142,32 +4098,32 @@
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
@@ -4177,57 +4133,57 @@
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
@@ -4237,12 +4193,12 @@
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
@@ -4252,117 +4208,117 @@
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
@@ -4372,7 +4328,7 @@
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
@@ -4387,32 +4343,32 @@
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
@@ -4427,12 +4383,12 @@
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
@@ -4442,12 +4398,12 @@
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
@@ -4457,12 +4413,12 @@
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
@@ -4482,52 +4438,52 @@
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
@@ -4537,17 +4493,17 @@
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
@@ -4557,72 +4513,72 @@
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
@@ -4632,17 +4588,17 @@
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
@@ -4652,32 +4608,32 @@
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.25">
@@ -4687,137 +4643,137 @@
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
@@ -4827,52 +4783,52 @@
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.25">
@@ -4882,12 +4838,12 @@
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.25">
@@ -4897,122 +4853,122 @@
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
@@ -5032,52 +4988,52 @@
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.25">
@@ -5102,17 +5058,17 @@
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.25">
@@ -5132,17 +5088,17 @@
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.25">
@@ -5152,22 +5108,22 @@
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.25">
@@ -5177,17 +5133,17 @@
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.25">
@@ -5197,47 +5153,47 @@
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.25">
@@ -5247,12 +5203,12 @@
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.25">
@@ -5262,52 +5218,52 @@
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B467" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.25">
@@ -5317,7 +5273,7 @@
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.25">
@@ -5327,67 +5283,67 @@
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B480" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B482" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B485" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B488" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B489" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.25">
@@ -5397,22 +5353,22 @@
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B493" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.25">
@@ -5422,12 +5378,12 @@
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B497" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.25">
@@ -5437,192 +5393,192 @@
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B500" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="501" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B501" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="502" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B502" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="503" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B503" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="504" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B504" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="505" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B505" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="506" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B506" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="507" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B507" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="508" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B508" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="509" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B509" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="510" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B510" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="511" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B511" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="512" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B512" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="513" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B513" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="514" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B514" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="515" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B515" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="516" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B516" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="517" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B517" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="518" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B518" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="519" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B519" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="520" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B520" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="521" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B521" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="522" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B522" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="523" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B523" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="524" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B524" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="525" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B525" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="526" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B526" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="527" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B527" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="528" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B528" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="529" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B529" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="530" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B530" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="531" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B531" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B532" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="533" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B533" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B534" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="535" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B535" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="536" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B536" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="537" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B537" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="538" spans="2:2" x14ac:dyDescent="0.25">
@@ -5632,32 +5588,32 @@
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B539" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="540" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B540" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="541" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B541" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B542" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="543" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B543" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="544" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B544" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="545" spans="2:2" x14ac:dyDescent="0.25">
@@ -5667,32 +5623,32 @@
     </row>
     <row r="546" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B546" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="547" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B547" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="548" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B548" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B549" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="550" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B550" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="551" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B551" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="552" spans="2:2" x14ac:dyDescent="0.25">
@@ -5702,87 +5658,87 @@
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B553" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="554" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B554" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B555" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B556" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B557" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B558" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="559" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B559" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B560" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B561" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="562" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B562" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="563" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B563" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="564" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B564" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B565" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B566" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="567" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B567" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B568" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="569" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B569" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="570" spans="2:2" x14ac:dyDescent="0.25">
@@ -5792,16 +5748,113 @@
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B571" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B572" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C572"/>
+  <autoFilter ref="C1:C572">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="′浪浪"/>
+        <filter val="°°"/>
+        <filter val="一个有内涵的人"/>
+        <filter val="一抹煙雨落繁華"/>
+        <filter val="一直梨花压海棠"/>
+        <filter val="东风路三狗蛋"/>
+        <filter val="丶初馨"/>
+        <filter val="丶她有清喉"/>
+        <filter val="乌莲娜"/>
+        <filter val="任离流"/>
+        <filter val="儒丶张良"/>
+        <filter val="其实想玩刀客"/>
+        <filter val="冷晓汐灬"/>
+        <filter val="叶菡"/>
+        <filter val="在下唐言"/>
+        <filter val="在下唐银"/>
+        <filter val="城南穷鬼赵四"/>
+        <filter val="墨河"/>
+        <filter val="墨舞丶倾城"/>
+        <filter val="墨萧炎"/>
+        <filter val="墨雨丶晓枫"/>
+        <filter val="墨韵轩华"/>
+        <filter val="大叔别跑啊"/>
+        <filter val="太极至尊"/>
+        <filter val="安好晴天"/>
+        <filter val="小阿淮呀"/>
+        <filter val="山高丶木易"/>
+        <filter val="巡山的人"/>
+        <filter val="开封拍卖行"/>
+        <filter val="异逍遥"/>
+        <filter val="彡电竞丿柯南乄"/>
+        <filter val="怒怒怒怒火"/>
+        <filter val="我是天香的啊"/>
+        <filter val="我是小官人"/>
+        <filter val="折扇浪漫"/>
+        <filter val="方得始終"/>
+        <filter val="时钟轻摇孤独"/>
+        <filter val="晓月梦澈"/>
+        <filter val="曲终无意"/>
+        <filter val="月怜诗涵"/>
+        <filter val="木易丶凝烟"/>
+        <filter val="机智勇敢的小免"/>
+        <filter val="机智勇敢的小炮"/>
+        <filter val="机智勇敢的小猪"/>
+        <filter val="树儿高高长"/>
+        <filter val="格殺"/>
+        <filter val="框框"/>
+        <filter val="梦呓ゝ"/>
+        <filter val="梦太晚"/>
+        <filter val="梦太晩"/>
+        <filter val="椛灯"/>
+        <filter val="榕月"/>
+        <filter val="永恒只为等待"/>
+        <filter val="池小晚"/>
+        <filter val="池小晩"/>
+        <filter val="沐浠尘"/>
+        <filter val="洛城紫陌浸云影春晴"/>
+        <filter val="洪时雪"/>
+        <filter val="浩浩丶浩"/>
+        <filter val="浪迹小秦"/>
+        <filter val="淺笙"/>
+        <filter val="潇洒仗剑天下"/>
+        <filter val="煌煌"/>
+        <filter val="独孤沐白"/>
+        <filter val="瑾年ゝ"/>
+        <filter val="璐小虫"/>
+        <filter val="甄心"/>
+        <filter val="白芹"/>
+        <filter val="神丶陌上微光"/>
+        <filter val="离殇天丶"/>
+        <filter val="秦友善。"/>
+        <filter val="等我出轻语"/>
+        <filter val="紫舞流年"/>
+        <filter val="纯洁友善的殇"/>
+        <filter val="绫月薇"/>
+        <filter val="艾尔艾路弗"/>
+        <filter val="艾莉亞史塔克"/>
+        <filter val="花谢人凋零。"/>
+        <filter val="苍镜"/>
+        <filter val="荡荡"/>
+        <filter val="落花丶醉"/>
+        <filter val="董锋"/>
+        <filter val="蝶舞旧梦"/>
+        <filter val="诸天花雨"/>
+        <filter val="轻素剪云端"/>
+        <filter val="陌丶羽殇"/>
+        <filter val="陌路莫回"/>
+        <filter val="雪糕失望"/>
+        <filter val="零拾"/>
+        <filter val="青丝枫凌"/>
+        <filter val="骄傲的龙王丶"/>
+        <filter val="鱼小小"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compare.xlsx
+++ b/compare.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="609">
   <si>
     <t>青羽墨染云</t>
   </si>
@@ -225,9 +225,6 @@
     <t>怒火</t>
   </si>
   <si>
-    <t>刀客</t>
-  </si>
-  <si>
     <t>叶菡</t>
   </si>
   <si>
@@ -249,1645 +246,1609 @@
     <t>阿锟猫</t>
   </si>
   <si>
+    <t>山高</t>
+  </si>
+  <si>
+    <t>潇洒</t>
+  </si>
+  <si>
+    <t>煌煌</t>
+  </si>
+  <si>
+    <t>苍镜</t>
+  </si>
+  <si>
+    <t>董汉卿</t>
+  </si>
+  <si>
+    <t>蝶舞旧梦</t>
+  </si>
+  <si>
+    <t>凡哥的祖父</t>
+  </si>
+  <si>
+    <t>池小猫</t>
+  </si>
+  <si>
+    <t>乌莲娜</t>
+  </si>
+  <si>
+    <t>安好晴天</t>
+  </si>
+  <si>
+    <t>曲终无意</t>
+  </si>
+  <si>
+    <t>机智勇敢的小月</t>
+  </si>
+  <si>
+    <t>冰心儿</t>
+  </si>
+  <si>
+    <t>一飚一</t>
+  </si>
+  <si>
+    <t>紫藤花下</t>
+  </si>
+  <si>
+    <t>子月生木</t>
+  </si>
+  <si>
+    <t>颓废老男人</t>
+  </si>
+  <si>
+    <t>晚街听风</t>
+  </si>
+  <si>
+    <t>澪澪</t>
+  </si>
+  <si>
+    <t>冷殘心</t>
+  </si>
+  <si>
+    <t>玉面天魁</t>
+  </si>
+  <si>
+    <t>捣蛋神将</t>
+  </si>
+  <si>
+    <t>早晨的傍晚</t>
+  </si>
+  <si>
+    <t>慕落弦</t>
+  </si>
+  <si>
+    <t>心念旧人颜</t>
+  </si>
+  <si>
+    <t>画未弥笙</t>
+  </si>
+  <si>
+    <t>Qiu徒</t>
+  </si>
+  <si>
+    <t>劳资好萌好可爱</t>
+  </si>
+  <si>
+    <t>自在帝天</t>
+  </si>
+  <si>
+    <t>无所不能小奇葩</t>
+  </si>
+  <si>
+    <t>拌饭萌面酥</t>
+  </si>
+  <si>
+    <t>比逗是念着反</t>
+  </si>
+  <si>
+    <t>暮川</t>
+  </si>
+  <si>
+    <t>李月怜</t>
+  </si>
+  <si>
+    <t>静听唯美慯</t>
+  </si>
+  <si>
+    <t>独孤沐白</t>
+  </si>
+  <si>
+    <t>丨龙哥丿</t>
+  </si>
+  <si>
+    <t>亲爱的未闻花名</t>
+  </si>
+  <si>
+    <t>今非惜</t>
+  </si>
+  <si>
+    <t>诚如神之所说</t>
+  </si>
+  <si>
+    <t>墨如渊</t>
+  </si>
+  <si>
+    <t>太极神尊</t>
+  </si>
+  <si>
+    <t>断涯</t>
+  </si>
+  <si>
+    <t>沐玉洁</t>
+  </si>
+  <si>
+    <t>帝喾</t>
+  </si>
+  <si>
+    <t>晚下</t>
+  </si>
+  <si>
+    <t>苏云昭</t>
+  </si>
+  <si>
+    <t>冬日雪</t>
+  </si>
+  <si>
+    <t>无琴无音</t>
+  </si>
+  <si>
+    <t>太阳骑士炮灰</t>
+  </si>
+  <si>
+    <t>只想做个好人</t>
+  </si>
+  <si>
+    <t>蘃</t>
+  </si>
+  <si>
+    <t>旒觞</t>
+  </si>
+  <si>
+    <t>唏嘘流年</t>
+  </si>
+  <si>
+    <t>毕夏有毓</t>
+  </si>
+  <si>
+    <t>罗斯基</t>
+  </si>
+  <si>
+    <t>天之舞卿月</t>
+  </si>
+  <si>
+    <t>多情劍客无情劍</t>
+  </si>
+  <si>
+    <t>魂腥</t>
+  </si>
+  <si>
+    <t>欢脱的柚子</t>
+  </si>
+  <si>
+    <t>嘟小楼</t>
+  </si>
+  <si>
+    <t>白轻寒</t>
+  </si>
+  <si>
+    <t>青丝枫凌</t>
+  </si>
+  <si>
+    <t>離尺</t>
+  </si>
+  <si>
+    <t>蝶舞云</t>
+  </si>
+  <si>
+    <t>百媚众生生</t>
+  </si>
+  <si>
+    <t>肆虐丶龙</t>
+  </si>
+  <si>
+    <t>殺丶无忌</t>
+  </si>
+  <si>
+    <t>假老练</t>
+  </si>
+  <si>
+    <t>孤独无香</t>
+  </si>
+  <si>
+    <t>宫梓歌</t>
+  </si>
+  <si>
+    <t>英雄咕咕叫</t>
+  </si>
+  <si>
+    <t>她心屿</t>
+  </si>
+  <si>
+    <t>久成病</t>
+  </si>
+  <si>
+    <t>不灭死神</t>
+  </si>
+  <si>
+    <t>帝君虹</t>
+  </si>
+  <si>
+    <t>孤影惊残梦</t>
+  </si>
+  <si>
+    <t>纳兰柔弱</t>
+  </si>
+  <si>
+    <t>倚楼听風</t>
+  </si>
+  <si>
+    <t>南眸</t>
+  </si>
+  <si>
+    <t>泪成殇</t>
+  </si>
+  <si>
+    <t>小卤蛋丶</t>
+  </si>
+  <si>
+    <t>神丶陌上微光</t>
+  </si>
+  <si>
+    <t>影流皇族</t>
+  </si>
+  <si>
+    <t>凱蒂喵</t>
+  </si>
+  <si>
+    <t>做人不要太认真</t>
+  </si>
+  <si>
+    <t>不疯魔不可活</t>
+  </si>
+  <si>
+    <t>慕容北</t>
+  </si>
+  <si>
+    <t>凡人的梦</t>
+  </si>
+  <si>
+    <t>千雪冰鳳</t>
+  </si>
+  <si>
+    <t>红毛</t>
+  </si>
+  <si>
+    <t>仁剑震音扬</t>
+  </si>
+  <si>
+    <t>放肆流逝的年华</t>
+  </si>
+  <si>
+    <t>墨雨丶晓枫</t>
+  </si>
+  <si>
+    <t>天使二号</t>
+  </si>
+  <si>
+    <t>闻素问</t>
+  </si>
+  <si>
+    <t>蚩尤魔人</t>
+  </si>
+  <si>
+    <t>酣梦恰此时光丶</t>
+  </si>
+  <si>
+    <t>梦里和你千百次</t>
+  </si>
+  <si>
+    <t>长河的水儿不浑</t>
+  </si>
+  <si>
+    <t>雪糕失望</t>
+  </si>
+  <si>
+    <t>祁寻文</t>
+  </si>
+  <si>
+    <t>贫胸琪</t>
+  </si>
+  <si>
+    <t>画芊骨</t>
+  </si>
+  <si>
+    <t>天下誰人不知吾</t>
+  </si>
+  <si>
+    <t>火之鸟</t>
+  </si>
+  <si>
+    <t>女神绘梨衣</t>
+  </si>
+  <si>
+    <t>椛灯</t>
+  </si>
+  <si>
+    <t>小猖獗</t>
+  </si>
+  <si>
+    <t>大雪青衣</t>
+  </si>
+  <si>
+    <t>张大跑</t>
+  </si>
+  <si>
+    <t>涛声依旧彡</t>
+  </si>
+  <si>
+    <t>随你几时丶</t>
+  </si>
+  <si>
+    <t>轻笑忘</t>
+  </si>
+  <si>
+    <t>何处繁华笙歌落</t>
+  </si>
+  <si>
+    <t>琴若璃</t>
+  </si>
+  <si>
+    <t>月华司</t>
+  </si>
+  <si>
+    <t>唐一出</t>
+  </si>
+  <si>
+    <t>南宫璃夢</t>
+  </si>
+  <si>
+    <t>绑定小蜜的</t>
+  </si>
+  <si>
+    <t>一夜幕星河一</t>
+  </si>
+  <si>
+    <t>刃歌</t>
+  </si>
+  <si>
+    <t>初墨凝</t>
+  </si>
+  <si>
+    <t>凡哥的父亲</t>
+  </si>
+  <si>
+    <t>夜袭寡妇寨</t>
+  </si>
+  <si>
+    <t>明天不见</t>
+  </si>
+  <si>
+    <t>倾国不倾城</t>
+  </si>
+  <si>
+    <t>黒无常</t>
+  </si>
+  <si>
+    <t>偏不</t>
+  </si>
+  <si>
+    <t>其实想玩刀客</t>
+  </si>
+  <si>
+    <t>志方</t>
+  </si>
+  <si>
+    <t>东风路大狗蛋</t>
+  </si>
+  <si>
+    <t>宴渊</t>
+  </si>
+  <si>
+    <t>伐青</t>
+  </si>
+  <si>
+    <t>东风路四蛋</t>
+  </si>
+  <si>
+    <t>蠢小椰丶</t>
+  </si>
+  <si>
+    <t>周晓默</t>
+  </si>
+  <si>
+    <t>九袋丐</t>
+  </si>
+  <si>
+    <t>锁麟囊</t>
+  </si>
+  <si>
+    <t>叶廖</t>
+  </si>
+  <si>
+    <t>落花丶醉</t>
+  </si>
+  <si>
+    <t>畔水</t>
+  </si>
+  <si>
+    <t>帅气无敌康爸爸</t>
+  </si>
+  <si>
+    <t>疾风嗍</t>
+  </si>
+  <si>
+    <t>大叔别跑啊</t>
+  </si>
+  <si>
+    <t>风暖伤</t>
+  </si>
+  <si>
+    <t>商岚研</t>
+  </si>
+  <si>
+    <t>转身落尽空城泪</t>
+  </si>
+  <si>
+    <t>逸雅星</t>
+  </si>
+  <si>
+    <t>淫淫</t>
+  </si>
+  <si>
+    <t>濯清莲而不妖</t>
+  </si>
+  <si>
+    <t>唐舞桐灬</t>
+  </si>
+  <si>
+    <t>Tusy</t>
+  </si>
+  <si>
+    <t>生气的小黄瓜</t>
+  </si>
+  <si>
+    <t>夜刃劫</t>
+  </si>
+  <si>
+    <t>服部藏马</t>
+  </si>
+  <si>
+    <t>一丿登</t>
+  </si>
+  <si>
+    <t>摩诃大梵天</t>
+  </si>
+  <si>
+    <t>张家的</t>
+  </si>
+  <si>
+    <t>凋零之光</t>
+  </si>
+  <si>
+    <t>甄洛儿</t>
+  </si>
+  <si>
+    <t>白析</t>
+  </si>
+  <si>
+    <t>冷晓汐灬</t>
+  </si>
+  <si>
+    <t>歌风路丶三狗蛋</t>
+  </si>
+  <si>
+    <t>潇湘灬墨染</t>
+  </si>
+  <si>
+    <t>、征戮天下</t>
+  </si>
+  <si>
+    <t>Yennefer</t>
+  </si>
+  <si>
+    <t>茶凉言尽丶</t>
+  </si>
+  <si>
+    <t>辉哥哥</t>
+  </si>
+  <si>
+    <t>萧尧</t>
+  </si>
+  <si>
+    <t>喝脉动割动脉</t>
+  </si>
+  <si>
+    <t>暗裔凋零</t>
+  </si>
+  <si>
+    <t>思贤</t>
+  </si>
+  <si>
+    <t>彡电竞丿柯南乄</t>
+  </si>
+  <si>
+    <t>黑色灬玫瑰丿</t>
+  </si>
+  <si>
+    <t>黑寡妇的小胸罩</t>
+  </si>
+  <si>
+    <t>青衫隐丶</t>
+  </si>
+  <si>
+    <t>嚜韵轩華</t>
+  </si>
+  <si>
+    <t>众人皆醒我独醉</t>
+  </si>
+  <si>
+    <t>燕雨莲</t>
+  </si>
+  <si>
+    <t>踏马清月夜</t>
+  </si>
+  <si>
+    <t>锦衣卫知秋</t>
+  </si>
+  <si>
+    <t>情多多哆情</t>
+  </si>
+  <si>
+    <t>关翔予</t>
+  </si>
+  <si>
+    <t>千世丶</t>
+  </si>
+  <si>
+    <t>苏樰</t>
+  </si>
+  <si>
+    <t>剑护灬霓裳</t>
+  </si>
+  <si>
+    <t>范二一样的男子</t>
+  </si>
+  <si>
+    <t>鱼香</t>
+  </si>
+  <si>
+    <t>机智勇敢的小兔</t>
+  </si>
+  <si>
+    <t>守护锋</t>
+  </si>
+  <si>
+    <t>古手梨花sama</t>
+  </si>
+  <si>
+    <t>＂子墨</t>
+  </si>
+  <si>
+    <t>随風而去</t>
+  </si>
+  <si>
+    <t>聂人王</t>
+  </si>
+  <si>
+    <t>FateLibra</t>
+  </si>
+  <si>
+    <t>FateScorpio</t>
+  </si>
+  <si>
+    <t>舞恋月</t>
+  </si>
+  <si>
+    <t>机器人神钩</t>
+  </si>
+  <si>
+    <t>偷得浮珄半日闲</t>
+  </si>
+  <si>
+    <t>任我行灬</t>
+  </si>
+  <si>
+    <t>態小白</t>
+  </si>
+  <si>
+    <t>回头我就在身后</t>
+  </si>
+  <si>
+    <t>雪遥</t>
+  </si>
+  <si>
+    <t>壕坑</t>
+  </si>
+  <si>
+    <t>桥轻</t>
+  </si>
+  <si>
+    <t>冷非颜</t>
+  </si>
+  <si>
+    <t>傲视群雄初SS丶</t>
+  </si>
+  <si>
+    <t>柠小檬丶</t>
+  </si>
+  <si>
+    <t>撑起雨伞</t>
+  </si>
+  <si>
+    <t>别说吻我</t>
+  </si>
+  <si>
+    <t>南音灬北执</t>
+  </si>
+  <si>
+    <t>暖心城</t>
+  </si>
+  <si>
+    <t>丶灬珞瑜</t>
+  </si>
+  <si>
+    <t>秋水云嫣</t>
+  </si>
+  <si>
+    <t>奥迪网</t>
+  </si>
+  <si>
+    <t>钟离三昧</t>
+  </si>
+  <si>
+    <t>鸟食</t>
+  </si>
+  <si>
+    <t>梦中、有你</t>
+  </si>
+  <si>
+    <t>闲卿丶</t>
+  </si>
+  <si>
+    <t>风影</t>
+  </si>
+  <si>
+    <t>太世小白</t>
+  </si>
+  <si>
+    <t>男人应有的自豪</t>
+  </si>
+  <si>
+    <t>狂灬黑</t>
+  </si>
+  <si>
+    <t>梨花黛雨</t>
+  </si>
+  <si>
+    <t>丶神楽</t>
+  </si>
+  <si>
+    <t>沐浠尘</t>
+  </si>
+  <si>
+    <t>凉山伯</t>
+  </si>
+  <si>
+    <t>谷梁莫雨</t>
+  </si>
+  <si>
+    <t>孟青</t>
+  </si>
+  <si>
+    <t>荆轲已逝高渐离</t>
+  </si>
+  <si>
+    <t>葉窕</t>
+  </si>
+  <si>
+    <t>甄心</t>
+  </si>
+  <si>
+    <t>蘭若</t>
+  </si>
+  <si>
+    <t>水晶般的人儿</t>
+  </si>
+  <si>
+    <t>鱼爸爸</t>
+  </si>
+  <si>
+    <t>孤鸾°</t>
+  </si>
+  <si>
+    <t>神威司空阿龙</t>
+  </si>
+  <si>
+    <t>千樽雪</t>
+  </si>
+  <si>
+    <t>薛无衡</t>
+  </si>
+  <si>
+    <t>花儿盛盛开</t>
+  </si>
+  <si>
+    <t>墨韵玄风</t>
+  </si>
+  <si>
+    <t>然後怎樣</t>
+  </si>
+  <si>
+    <t>夜澜潇湘</t>
+  </si>
+  <si>
+    <t>丶薛日天</t>
+  </si>
+  <si>
+    <t>狄万钧</t>
+  </si>
+  <si>
+    <t>暮小曦丶</t>
+  </si>
+  <si>
+    <t>子车振</t>
+  </si>
+  <si>
+    <t>＊下水道的白</t>
+  </si>
+  <si>
+    <t>盖世呆头洋</t>
+  </si>
+  <si>
+    <t>丐帮汪剑通</t>
+  </si>
+  <si>
+    <t>秋影</t>
+  </si>
+  <si>
+    <t>独孤几度</t>
+  </si>
+  <si>
+    <t>前女友</t>
+  </si>
+  <si>
+    <t>君i陌离</t>
+  </si>
+  <si>
+    <t>花花小小师妹</t>
+  </si>
+  <si>
+    <t>太白洗衣液</t>
+  </si>
+  <si>
+    <t>胡大力</t>
+  </si>
+  <si>
+    <t>漂洋過海來看伱</t>
+  </si>
+  <si>
+    <t>风舞雩</t>
+  </si>
+  <si>
+    <t>长安不复</t>
+  </si>
+  <si>
+    <t>情场浪子轩GG丶</t>
+  </si>
+  <si>
+    <t>＊团灭专用奶</t>
+  </si>
+  <si>
+    <t>唐倾梦吟</t>
+  </si>
+  <si>
+    <t>天真无邪大胡子</t>
+  </si>
+  <si>
+    <t>邱少</t>
+  </si>
+  <si>
+    <t>叶行云</t>
+  </si>
+  <si>
+    <t>潇懿风</t>
+  </si>
+  <si>
+    <t>南宫元</t>
+  </si>
+  <si>
+    <t>破穿</t>
+  </si>
+  <si>
+    <t>唐杜里</t>
+  </si>
+  <si>
+    <t>执笔丶殇</t>
+  </si>
+  <si>
+    <t>值符开门</t>
+  </si>
+  <si>
+    <t>落雨晴天</t>
+  </si>
+  <si>
+    <t>南宫筱晗</t>
+  </si>
+  <si>
+    <t>夏璇静枫b</t>
+  </si>
+  <si>
+    <t>蝶舞见花红</t>
+  </si>
+  <si>
+    <t>煌煌</t>
+  </si>
+  <si>
+    <t>三狗蛋</t>
+  </si>
+  <si>
+    <t>我是小官人</t>
+  </si>
+  <si>
+    <t>浪迹小秦</t>
+  </si>
+  <si>
+    <t>墨河</t>
+  </si>
+  <si>
+    <t>城南穷鬼赵四</t>
+  </si>
+  <si>
+    <t>小阿淮呀</t>
+  </si>
+  <si>
+    <t>折扇浪漫</t>
+  </si>
+  <si>
+    <t>南宫絮语</t>
+  </si>
+  <si>
+    <t>白衣涡阳</t>
+  </si>
+  <si>
+    <t>眉间一点白</t>
+  </si>
+  <si>
+    <t>弑天灬妖妖</t>
+  </si>
+  <si>
+    <t>安定将军丶</t>
+  </si>
+  <si>
+    <t>花兮兮兮兮</t>
+  </si>
+  <si>
+    <t>麒哲琬</t>
+  </si>
+  <si>
+    <t>Sky云烟</t>
+  </si>
+  <si>
+    <t>子皿</t>
+  </si>
+  <si>
+    <t>吕小栋</t>
+  </si>
+  <si>
+    <t>我曰你外爷吃翔</t>
+  </si>
+  <si>
+    <t>司徒空珏</t>
+  </si>
+  <si>
+    <t>橘色花茶</t>
+  </si>
+  <si>
+    <t>几度度丶</t>
+  </si>
+  <si>
+    <t>丶哆啦A萌</t>
+  </si>
+  <si>
+    <t>临风望月爱啪啪</t>
+  </si>
+  <si>
+    <t>微爱月</t>
+  </si>
+  <si>
+    <t>顾云深</t>
+  </si>
+  <si>
+    <t>芳华乱一世</t>
+  </si>
+  <si>
+    <t>夢觴丶</t>
+  </si>
+  <si>
+    <t>半夏唯美</t>
+  </si>
+  <si>
+    <t>绫月薇</t>
+  </si>
+  <si>
+    <t>羽烈王姬野</t>
+  </si>
+  <si>
+    <t>奶茶味果糖ˇ</t>
+  </si>
+  <si>
+    <t>唐枫易</t>
+  </si>
+  <si>
+    <t>傾城灬妖娆</t>
+  </si>
+  <si>
+    <t>芉仞膤</t>
+  </si>
+  <si>
+    <t>点点小小熊</t>
+  </si>
+  <si>
+    <t>林傲霜</t>
+  </si>
+  <si>
+    <t>鬼家三少</t>
+  </si>
+  <si>
+    <t>琴紫芊</t>
+  </si>
+  <si>
+    <t>追求月亮的星星</t>
+  </si>
+  <si>
+    <t>晚风与你灬</t>
+  </si>
+  <si>
+    <t>秦友善。</t>
+  </si>
+  <si>
+    <t>以武会仙</t>
+  </si>
+  <si>
+    <t>哎哟你不懂</t>
+  </si>
+  <si>
+    <t>Cc夢嘟嘟灬</t>
+  </si>
+  <si>
+    <t>菜菜聪</t>
+  </si>
+  <si>
+    <t>牛奶奶奶奶</t>
+  </si>
+  <si>
+    <t>烟渳離</t>
+  </si>
+  <si>
+    <t>我是天香的啊</t>
+  </si>
+  <si>
+    <t>日晴天</t>
+  </si>
+  <si>
+    <t>鑫儿子</t>
+  </si>
+  <si>
+    <t>凶光外露的熊</t>
+  </si>
+  <si>
+    <t>依然的闲云</t>
+  </si>
+  <si>
+    <t>萌动胖迪</t>
+  </si>
+  <si>
+    <t>他们不让玩0 0 0</t>
+  </si>
+  <si>
+    <t>剑舞天涯</t>
+  </si>
+  <si>
+    <t>苏五娘</t>
+  </si>
+  <si>
+    <t>沐伯乾</t>
+  </si>
+  <si>
+    <t>我就一煞笔</t>
+  </si>
+  <si>
+    <t>右逝</t>
+  </si>
+  <si>
+    <t>万宥茚黧</t>
+  </si>
+  <si>
+    <t>谁家娇妻守空房</t>
+  </si>
+  <si>
+    <t>娇软の小屁股</t>
+  </si>
+  <si>
+    <t>〇卝亗卝〇</t>
+  </si>
+  <si>
+    <t>薛小姐</t>
+  </si>
+  <si>
+    <t>霎那丶芳华</t>
+  </si>
+  <si>
+    <t>凌雲汤圆</t>
+  </si>
+  <si>
+    <t>凯贼阔里</t>
+  </si>
+  <si>
+    <t>花谢人凋零。</t>
+  </si>
+  <si>
+    <t>成溪</t>
+  </si>
+  <si>
+    <t>在下唐言</t>
+  </si>
+  <si>
+    <t>轻素剪云端</t>
+  </si>
+  <si>
+    <t>鱼小小</t>
+  </si>
+  <si>
+    <t>甜宅宅</t>
+  </si>
+  <si>
+    <t>孤鸿芊芊</t>
+  </si>
+  <si>
+    <t>芝麻花生馅儿饺</t>
+  </si>
+  <si>
+    <t>绝丿情剑</t>
+  </si>
+  <si>
+    <t>丿Muc丨君丶陌</t>
+  </si>
+  <si>
+    <t>阮蠢蠢</t>
+  </si>
+  <si>
+    <t>繁星若珠璀璨</t>
+  </si>
+  <si>
+    <t>天涯路渺渺</t>
+  </si>
+  <si>
+    <t>邓紫棋的小鲜肉</t>
+  </si>
+  <si>
+    <t>乔峰1987</t>
+  </si>
+  <si>
+    <t>飞花已逝殇梦影</t>
+  </si>
+  <si>
+    <t>榕月</t>
+  </si>
+  <si>
+    <t>萧楚琬</t>
+  </si>
+  <si>
+    <t>浪哩个浪</t>
+  </si>
+  <si>
+    <t>银月如殇</t>
+  </si>
+  <si>
+    <t>可爱的明珠</t>
+  </si>
+  <si>
+    <t>肉色金箍棒</t>
+  </si>
+  <si>
+    <t>zz蠢蠢的你</t>
+  </si>
+  <si>
+    <t>冬初暮雪</t>
+  </si>
+  <si>
+    <t>璐小虫</t>
+  </si>
+  <si>
+    <t>夜深人静。。</t>
+  </si>
+  <si>
+    <t>半雨慕苒晴暖夏</t>
+  </si>
+  <si>
+    <t>别碰我的葫芦</t>
+  </si>
+  <si>
+    <t>大王有点方</t>
+  </si>
+  <si>
+    <t>赤月</t>
+  </si>
+  <si>
+    <t>神威再见</t>
+  </si>
+  <si>
+    <t>親訫</t>
+  </si>
+  <si>
+    <t>陌丶羽殇</t>
+  </si>
+  <si>
+    <t>欧阳少琴</t>
+  </si>
+  <si>
+    <t>安蠢蠢</t>
+  </si>
+  <si>
+    <t>一截儿丶</t>
+  </si>
+  <si>
+    <t>丐帮金鹏长老</t>
+  </si>
+  <si>
+    <t>我的好老公</t>
+  </si>
+  <si>
+    <t>白芹</t>
+  </si>
+  <si>
+    <t>哎为什么</t>
+  </si>
+  <si>
+    <t>吕月凝</t>
+  </si>
+  <si>
+    <t>柳剑明</t>
+  </si>
+  <si>
+    <t>觅含丷</t>
+  </si>
+  <si>
+    <t>北辰心凝魔法少女杜芸松</t>
+  </si>
+  <si>
+    <t>开封拍卖行</t>
+  </si>
+  <si>
+    <t>空虚公子萧四无</t>
+  </si>
+  <si>
+    <t>纯洁友善的殇</t>
+  </si>
+  <si>
+    <t>在下唐银</t>
+  </si>
+  <si>
+    <t>儒丶张良</t>
+  </si>
+  <si>
+    <t>青骢绝骑塑天荒</t>
+  </si>
+  <si>
+    <t>梦呓ゝ</t>
+  </si>
+  <si>
+    <t>丐帮萌主</t>
+  </si>
+  <si>
+    <t>为了黄书</t>
+  </si>
+  <si>
+    <t>乏乏</t>
+  </si>
+  <si>
+    <t>曾经的麻辣</t>
+  </si>
+  <si>
+    <t>何月凡</t>
+  </si>
+  <si>
+    <t>骄傲的龙王丶</t>
+  </si>
+  <si>
+    <t>、陌上看花</t>
+  </si>
+  <si>
+    <t>花落时节与君别</t>
+  </si>
+  <si>
+    <t>回忆不曾悲伤</t>
+  </si>
+  <si>
+    <t>海問香</t>
+  </si>
+  <si>
+    <t>人生失控</t>
+  </si>
+  <si>
+    <t>秦空痕</t>
+  </si>
+  <si>
+    <t>小兔兔几</t>
+  </si>
+  <si>
+    <t>大牛又鸟又鸟</t>
+  </si>
+  <si>
+    <t>日狗溅人心</t>
+  </si>
+  <si>
+    <t>董锋</t>
+  </si>
+  <si>
+    <t>追风少年鹰老七</t>
+  </si>
+  <si>
+    <t>瑾年ゝ</t>
+  </si>
+  <si>
+    <t>尉军进</t>
+  </si>
+  <si>
+    <t>楚狂丶</t>
+  </si>
+  <si>
+    <t>君兮墨</t>
+  </si>
+  <si>
+    <t>活阎王123</t>
+  </si>
+  <si>
+    <t>鲲鹏子</t>
+  </si>
+  <si>
+    <t>筮渊</t>
+  </si>
+  <si>
+    <t>潇潇秦衾</t>
+  </si>
+  <si>
+    <t>寂星岚</t>
+  </si>
+  <si>
+    <t>灬鬼丶舞灬</t>
+  </si>
+  <si>
+    <t>天花葬血</t>
+  </si>
+  <si>
+    <t>渐式</t>
+  </si>
+  <si>
+    <t>纯情少妇马芳玲</t>
+  </si>
+  <si>
+    <t>七情剑伶慕容英</t>
+  </si>
+  <si>
+    <t>月牙冲天</t>
+  </si>
+  <si>
+    <t>入梦落樱满熏香</t>
+  </si>
+  <si>
+    <t>炖猪肘丶</t>
+  </si>
+  <si>
+    <t>友善的小内衣</t>
+  </si>
+  <si>
+    <t>柒果果</t>
+  </si>
+  <si>
+    <t>涵涵小公举</t>
+  </si>
+  <si>
+    <t>昔昔</t>
+  </si>
+  <si>
+    <t>友善的咸鱼白</t>
+  </si>
+  <si>
+    <t>劍問兲涯覓紅颜</t>
+  </si>
+  <si>
+    <t>纯洁友善的暮夏</t>
+  </si>
+  <si>
+    <t>可爱琳</t>
+  </si>
+  <si>
+    <t>满分</t>
+  </si>
+  <si>
+    <t>阿翔翔</t>
+  </si>
+  <si>
+    <t>青春亮丽欣妈妈</t>
+  </si>
+  <si>
+    <t>风吹裤衩鸡鸡甩</t>
+  </si>
+  <si>
+    <t>我是败家媳妇</t>
+  </si>
+  <si>
+    <t>可可咔</t>
+  </si>
+  <si>
+    <t>无情小萌羊</t>
+  </si>
+  <si>
+    <t>储舜</t>
+  </si>
+  <si>
+    <t>Sunnyboy丶桔子</t>
+  </si>
+  <si>
+    <t>邂逅ゝ</t>
+  </si>
+  <si>
+    <t>洛城紫陌浸云影春晴</t>
+  </si>
+  <si>
+    <t>°°</t>
+  </si>
+  <si>
+    <t>墨舞丶倾城</t>
+  </si>
+  <si>
+    <t>机智勇敢的小炮</t>
+  </si>
+  <si>
+    <t>艾尔艾路弗</t>
+  </si>
+  <si>
+    <t>月怜诗涵</t>
+  </si>
+  <si>
+    <t>离殇天丶</t>
+  </si>
+  <si>
+    <t>一个有内涵的人</t>
+  </si>
+  <si>
+    <t>咸鱼1 0 1</t>
+  </si>
+  <si>
+    <t>丶初馨</t>
+  </si>
+  <si>
+    <t>东北枭雄赵本山</t>
+  </si>
+  <si>
+    <t>武藏野剑太</t>
+  </si>
+  <si>
+    <t>小萌耍太白丶</t>
+  </si>
+  <si>
+    <t>慕容佩</t>
+  </si>
+  <si>
+    <t>桜染</t>
+  </si>
+  <si>
+    <t>一曲月霜寒</t>
+  </si>
+  <si>
+    <t>顾輕</t>
+  </si>
+  <si>
+    <t>天宫狂少</t>
+  </si>
+  <si>
+    <t>姬如影</t>
+  </si>
+  <si>
+    <t>小叮咚姣姣</t>
+  </si>
+  <si>
+    <t>旧人谙</t>
+  </si>
+  <si>
+    <t>青纪纱</t>
+  </si>
+  <si>
+    <t>予你我好梦</t>
+  </si>
+  <si>
+    <t>茗爷</t>
+  </si>
+  <si>
+    <t>永恒只为等待</t>
+  </si>
+  <si>
+    <t>嗯哼丶一刀</t>
+  </si>
+  <si>
+    <t>白梓伶</t>
+  </si>
+  <si>
+    <t>最喜欢你了</t>
+  </si>
+  <si>
+    <t>燕南辉</t>
+  </si>
+  <si>
+    <t>Puppet丶半心人</t>
+  </si>
+  <si>
+    <t>双马尾小学妹</t>
+  </si>
+  <si>
+    <t>kingdan</t>
+  </si>
+  <si>
+    <t>奈亻可</t>
+  </si>
+  <si>
+    <t>归海异道</t>
+  </si>
+  <si>
+    <t>流韵丶</t>
+  </si>
+  <si>
+    <t>上官益涵</t>
+  </si>
+  <si>
+    <t>???????</t>
+  </si>
+  <si>
+    <t>遗憾出诗意</t>
+  </si>
+  <si>
+    <t>黑大侠Ⅰ</t>
+  </si>
+  <si>
+    <t>翁瑞婷</t>
+  </si>
+  <si>
+    <t>移星</t>
+  </si>
+  <si>
+    <t>舉杯獨醉</t>
+  </si>
+  <si>
+    <t>唐糖～</t>
+  </si>
+  <si>
+    <t>一诗月一</t>
+  </si>
+  <si>
+    <t>風云</t>
+  </si>
+  <si>
+    <t>字拙</t>
+  </si>
+  <si>
+    <t>江玉静</t>
+  </si>
+  <si>
+    <t>ParTing丶R</t>
+  </si>
+  <si>
+    <t>慕容媚</t>
+  </si>
+  <si>
+    <t>思念永远美好</t>
+  </si>
+  <si>
+    <t>唐步枯</t>
+  </si>
+  <si>
+    <t>棠无双</t>
+  </si>
+  <si>
+    <t>冬凝寒</t>
+  </si>
+  <si>
+    <t>骨绊橙</t>
+  </si>
+  <si>
+    <t>比打我</t>
+  </si>
+  <si>
+    <t>穆小七灬</t>
+  </si>
+  <si>
+    <t>kiyomi、</t>
+  </si>
+  <si>
+    <t>机智勇敢的小免</t>
+  </si>
+  <si>
+    <t>树儿</t>
+  </si>
+  <si>
+    <t>张良</t>
+  </si>
+  <si>
+    <t>小炮</t>
+  </si>
+  <si>
+    <t>微光</t>
+  </si>
+  <si>
+    <t>春晴</t>
+  </si>
+  <si>
+    <t>晓汐</t>
+  </si>
+  <si>
+    <t>折扇浪漫</t>
+  </si>
+  <si>
+    <t>月薇</t>
+  </si>
+  <si>
+    <t>方得</t>
+  </si>
+  <si>
+    <t>池小晩</t>
+  </si>
+  <si>
+    <t>梦太晩</t>
+  </si>
+  <si>
+    <t>九州</t>
+  </si>
+  <si>
+    <t>小屁股</t>
+  </si>
+  <si>
+    <t>花兮兮</t>
+  </si>
+  <si>
+    <t>大星</t>
+  </si>
+  <si>
+    <t>鹰老七</t>
+  </si>
+  <si>
+    <t>墨舞</t>
+  </si>
+  <si>
+    <t>大夫</t>
+  </si>
+  <si>
+    <t>小萌耍太白</t>
+  </si>
+  <si>
+    <t>城南穷鬼</t>
+  </si>
+  <si>
     <t>奶小牛</t>
   </si>
   <si>
-    <t>山高</t>
+    <t>幻之凝雪</t>
   </si>
   <si>
     <t>柯南</t>
   </si>
   <si>
-    <t>潇洒</t>
-  </si>
-  <si>
-    <t>煌煌</t>
-  </si>
-  <si>
-    <t>苍镜</t>
-  </si>
-  <si>
     <t>荡荡</t>
   </si>
   <si>
-    <t>董汉卿</t>
-  </si>
-  <si>
-    <t>蝶舞旧梦</t>
-  </si>
-  <si>
-    <t>凡哥的祖父</t>
-  </si>
-  <si>
-    <t>池小猫</t>
-  </si>
-  <si>
-    <t>乌莲娜</t>
-  </si>
-  <si>
-    <t>安好晴天</t>
-  </si>
-  <si>
-    <t>曲终无意</t>
-  </si>
-  <si>
-    <t>机智勇敢的小月</t>
-  </si>
-  <si>
-    <t>冰心儿</t>
-  </si>
-  <si>
-    <t>一飚一</t>
-  </si>
-  <si>
-    <t>紫藤花下</t>
-  </si>
-  <si>
-    <t>子月生木</t>
-  </si>
-  <si>
-    <t>颓废老男人</t>
-  </si>
-  <si>
-    <t>晚街听风</t>
-  </si>
-  <si>
-    <t>澪澪</t>
-  </si>
-  <si>
-    <t>冷殘心</t>
-  </si>
-  <si>
-    <t>玉面天魁</t>
-  </si>
-  <si>
-    <t>捣蛋神将</t>
-  </si>
-  <si>
-    <t>早晨的傍晚</t>
-  </si>
-  <si>
-    <t>慕落弦</t>
-  </si>
-  <si>
-    <t>心念旧人颜</t>
-  </si>
-  <si>
-    <t>画未弥笙</t>
-  </si>
-  <si>
-    <t>Qiu徒</t>
-  </si>
-  <si>
-    <t>劳资好萌好可爱</t>
-  </si>
-  <si>
-    <t>自在帝天</t>
-  </si>
-  <si>
-    <t>无所不能小奇葩</t>
-  </si>
-  <si>
-    <t>拌饭萌面酥</t>
-  </si>
-  <si>
-    <t>比逗是念着反</t>
-  </si>
-  <si>
-    <t>暮川</t>
-  </si>
-  <si>
-    <t>李月怜</t>
-  </si>
-  <si>
-    <t>静听唯美慯</t>
-  </si>
-  <si>
-    <t>独孤沐白</t>
-  </si>
-  <si>
-    <t>丨龙哥丿</t>
-  </si>
-  <si>
-    <t>亲爱的未闻花名</t>
-  </si>
-  <si>
-    <t>今非惜</t>
-  </si>
-  <si>
-    <t>诚如神之所说</t>
-  </si>
-  <si>
-    <t>墨如渊</t>
-  </si>
-  <si>
-    <t>太极神尊</t>
-  </si>
-  <si>
-    <t>断涯</t>
-  </si>
-  <si>
-    <t>沐玉洁</t>
-  </si>
-  <si>
-    <t>帝喾</t>
-  </si>
-  <si>
-    <t>晚下</t>
-  </si>
-  <si>
-    <t>苏云昭</t>
-  </si>
-  <si>
-    <t>冬日雪</t>
-  </si>
-  <si>
-    <t>无琴无音</t>
-  </si>
-  <si>
-    <t>太阳骑士炮灰</t>
-  </si>
-  <si>
-    <t>只想做个好人</t>
-  </si>
-  <si>
-    <t>蘃</t>
-  </si>
-  <si>
-    <t>旒觞</t>
-  </si>
-  <si>
-    <t>唏嘘流年</t>
-  </si>
-  <si>
-    <t>毕夏有毓</t>
-  </si>
-  <si>
-    <t>罗斯基</t>
-  </si>
-  <si>
-    <t>天之舞卿月</t>
-  </si>
-  <si>
-    <t>多情劍客无情劍</t>
-  </si>
-  <si>
-    <t>魂腥</t>
-  </si>
-  <si>
-    <t>欢脱的柚子</t>
-  </si>
-  <si>
-    <t>嘟小楼</t>
-  </si>
-  <si>
-    <t>白轻寒</t>
-  </si>
-  <si>
-    <t>青丝枫凌</t>
-  </si>
-  <si>
-    <t>離尺</t>
-  </si>
-  <si>
-    <t>蝶舞云</t>
-  </si>
-  <si>
-    <t>百媚众生生</t>
-  </si>
-  <si>
-    <t>肆虐丶龙</t>
-  </si>
-  <si>
-    <t>殺丶无忌</t>
-  </si>
-  <si>
-    <t>假老练</t>
-  </si>
-  <si>
-    <t>孤独无香</t>
-  </si>
-  <si>
-    <t>宫梓歌</t>
-  </si>
-  <si>
-    <t>英雄咕咕叫</t>
-  </si>
-  <si>
-    <t>她心屿</t>
-  </si>
-  <si>
-    <t>久成病</t>
-  </si>
-  <si>
-    <t>不灭死神</t>
-  </si>
-  <si>
-    <t>帝君虹</t>
-  </si>
-  <si>
-    <t>孤影惊残梦</t>
-  </si>
-  <si>
-    <t>纳兰柔弱</t>
-  </si>
-  <si>
-    <t>倚楼听風</t>
-  </si>
-  <si>
-    <t>南眸</t>
-  </si>
-  <si>
-    <t>泪成殇</t>
-  </si>
-  <si>
-    <t>小卤蛋丶</t>
-  </si>
-  <si>
-    <t>神丶陌上微光</t>
-  </si>
-  <si>
-    <t>影流皇族</t>
-  </si>
-  <si>
-    <t>凱蒂喵</t>
-  </si>
-  <si>
-    <t>做人不要太认真</t>
-  </si>
-  <si>
-    <t>不疯魔不可活</t>
-  </si>
-  <si>
-    <t>慕容北</t>
-  </si>
-  <si>
-    <t>凡人的梦</t>
-  </si>
-  <si>
-    <t>千雪冰鳳</t>
-  </si>
-  <si>
-    <t>红毛</t>
-  </si>
-  <si>
-    <t>仁剑震音扬</t>
-  </si>
-  <si>
-    <t>放肆流逝的年华</t>
-  </si>
-  <si>
-    <t>墨雨丶晓枫</t>
-  </si>
-  <si>
-    <t>天使二号</t>
-  </si>
-  <si>
-    <t>闻素问</t>
-  </si>
-  <si>
-    <t>蚩尤魔人</t>
-  </si>
-  <si>
-    <t>酣梦恰此时光丶</t>
-  </si>
-  <si>
-    <t>梦里和你千百次</t>
-  </si>
-  <si>
-    <t>长河的水儿不浑</t>
-  </si>
-  <si>
-    <t>雪糕失望</t>
-  </si>
-  <si>
-    <t>祁寻文</t>
-  </si>
-  <si>
-    <t>贫胸琪</t>
-  </si>
-  <si>
-    <t>画芊骨</t>
-  </si>
-  <si>
-    <t>天下誰人不知吾</t>
-  </si>
-  <si>
-    <t>火之鸟</t>
-  </si>
-  <si>
-    <t>女神绘梨衣</t>
-  </si>
-  <si>
-    <t>椛灯</t>
-  </si>
-  <si>
-    <t>小猖獗</t>
-  </si>
-  <si>
-    <t>大雪青衣</t>
-  </si>
-  <si>
-    <t>张大跑</t>
-  </si>
-  <si>
-    <t>涛声依旧彡</t>
-  </si>
-  <si>
-    <t>随你几时丶</t>
-  </si>
-  <si>
-    <t>轻笑忘</t>
-  </si>
-  <si>
-    <t>何处繁华笙歌落</t>
-  </si>
-  <si>
-    <t>琴若璃</t>
-  </si>
-  <si>
-    <t>月华司</t>
-  </si>
-  <si>
-    <t>唐一出</t>
-  </si>
-  <si>
-    <t>南宫璃夢</t>
-  </si>
-  <si>
-    <t>绑定小蜜的</t>
-  </si>
-  <si>
-    <t>一夜幕星河一</t>
-  </si>
-  <si>
-    <t>刃歌</t>
-  </si>
-  <si>
-    <t>初墨凝</t>
-  </si>
-  <si>
-    <t>凡哥的父亲</t>
-  </si>
-  <si>
-    <t>夜袭寡妇寨</t>
-  </si>
-  <si>
-    <t>明天不见</t>
-  </si>
-  <si>
-    <t>倾国不倾城</t>
-  </si>
-  <si>
-    <t>黒无常</t>
-  </si>
-  <si>
-    <t>偏不</t>
-  </si>
-  <si>
-    <t>其实想玩刀客</t>
-  </si>
-  <si>
-    <t>志方</t>
-  </si>
-  <si>
-    <t>东风路大狗蛋</t>
-  </si>
-  <si>
-    <t>宴渊</t>
-  </si>
-  <si>
-    <t>伐青</t>
-  </si>
-  <si>
-    <t>东风路四蛋</t>
-  </si>
-  <si>
-    <t>蠢小椰丶</t>
-  </si>
-  <si>
-    <t>周晓默</t>
-  </si>
-  <si>
-    <t>九袋丐</t>
-  </si>
-  <si>
-    <t>锁麟囊</t>
-  </si>
-  <si>
-    <t>叶廖</t>
-  </si>
-  <si>
-    <t>落花丶醉</t>
-  </si>
-  <si>
-    <t>畔水</t>
-  </si>
-  <si>
-    <t>帅气无敌康爸爸</t>
-  </si>
-  <si>
-    <t>疾风嗍</t>
-  </si>
-  <si>
-    <t>大叔别跑啊</t>
-  </si>
-  <si>
-    <t>风暖伤</t>
-  </si>
-  <si>
-    <t>商岚研</t>
-  </si>
-  <si>
-    <t>转身落尽空城泪</t>
-  </si>
-  <si>
-    <t>逸雅星</t>
-  </si>
-  <si>
-    <t>淫淫</t>
-  </si>
-  <si>
-    <t>濯清莲而不妖</t>
-  </si>
-  <si>
-    <t>唐舞桐灬</t>
-  </si>
-  <si>
-    <t>Tusy</t>
-  </si>
-  <si>
-    <t>生气的小黄瓜</t>
-  </si>
-  <si>
-    <t>夜刃劫</t>
-  </si>
-  <si>
-    <t>服部藏马</t>
-  </si>
-  <si>
-    <t>一丿登</t>
-  </si>
-  <si>
-    <t>摩诃大梵天</t>
-  </si>
-  <si>
-    <t>张家的</t>
-  </si>
-  <si>
-    <t>凋零之光</t>
-  </si>
-  <si>
-    <t>甄洛儿</t>
-  </si>
-  <si>
-    <t>白析</t>
-  </si>
-  <si>
-    <t>冷晓汐灬</t>
-  </si>
-  <si>
-    <t>歌风路丶三狗蛋</t>
-  </si>
-  <si>
-    <t>潇湘灬墨染</t>
-  </si>
-  <si>
-    <t>、征戮天下</t>
-  </si>
-  <si>
-    <t>Yennefer</t>
-  </si>
-  <si>
-    <t>茶凉言尽丶</t>
-  </si>
-  <si>
-    <t>辉哥哥</t>
-  </si>
-  <si>
-    <t>萧尧</t>
-  </si>
-  <si>
-    <t>喝脉动割动脉</t>
-  </si>
-  <si>
-    <t>暗裔凋零</t>
-  </si>
-  <si>
-    <t>思贤</t>
-  </si>
-  <si>
-    <t>彡电竞丿柯南乄</t>
-  </si>
-  <si>
-    <t>黑色灬玫瑰丿</t>
-  </si>
-  <si>
-    <t>黑寡妇的小胸罩</t>
-  </si>
-  <si>
-    <t>青衫隐丶</t>
-  </si>
-  <si>
-    <t>嚜韵轩華</t>
-  </si>
-  <si>
-    <t>众人皆醒我独醉</t>
-  </si>
-  <si>
-    <t>燕雨莲</t>
-  </si>
-  <si>
-    <t>踏马清月夜</t>
-  </si>
-  <si>
-    <t>锦衣卫知秋</t>
-  </si>
-  <si>
-    <t>情多多哆情</t>
-  </si>
-  <si>
-    <t>关翔予</t>
-  </si>
-  <si>
-    <t>千世丶</t>
-  </si>
-  <si>
-    <t>苏樰</t>
-  </si>
-  <si>
-    <t>剑护灬霓裳</t>
-  </si>
-  <si>
-    <t>范二一样的男子</t>
-  </si>
-  <si>
-    <t>鱼香</t>
-  </si>
-  <si>
-    <t>机智勇敢的小兔</t>
-  </si>
-  <si>
-    <t>守护锋</t>
-  </si>
-  <si>
-    <t>古手梨花sama</t>
-  </si>
-  <si>
-    <t>＂子墨</t>
-  </si>
-  <si>
-    <t>随風而去</t>
-  </si>
-  <si>
-    <t>聂人王</t>
-  </si>
-  <si>
-    <t>FateLibra</t>
-  </si>
-  <si>
-    <t>FateScorpio</t>
-  </si>
-  <si>
-    <t>舞恋月</t>
-  </si>
-  <si>
-    <t>机器人神钩</t>
-  </si>
-  <si>
-    <t>偷得浮珄半日闲</t>
-  </si>
-  <si>
-    <t>任我行灬</t>
-  </si>
-  <si>
-    <t>態小白</t>
-  </si>
-  <si>
-    <t>回头我就在身后</t>
-  </si>
-  <si>
-    <t>雪遥</t>
-  </si>
-  <si>
-    <t>壕坑</t>
-  </si>
-  <si>
-    <t>桥轻</t>
-  </si>
-  <si>
-    <t>冷非颜</t>
-  </si>
-  <si>
-    <t>傲视群雄初SS丶</t>
-  </si>
-  <si>
-    <t>柠小檬丶</t>
-  </si>
-  <si>
-    <t>撑起雨伞</t>
-  </si>
-  <si>
-    <t>别说吻我</t>
-  </si>
-  <si>
-    <t>南音灬北执</t>
-  </si>
-  <si>
-    <t>暖心城</t>
-  </si>
-  <si>
-    <t>丶灬珞瑜</t>
-  </si>
-  <si>
-    <t>秋水云嫣</t>
-  </si>
-  <si>
-    <t>奥迪网</t>
-  </si>
-  <si>
-    <t>钟离三昧</t>
-  </si>
-  <si>
-    <t>鸟食</t>
-  </si>
-  <si>
-    <t>梦中、有你</t>
-  </si>
-  <si>
-    <t>闲卿丶</t>
-  </si>
-  <si>
-    <t>风影</t>
-  </si>
-  <si>
-    <t>太世小白</t>
-  </si>
-  <si>
-    <t>男人应有的自豪</t>
-  </si>
-  <si>
-    <t>狂灬黑</t>
-  </si>
-  <si>
-    <t>梨花黛雨</t>
-  </si>
-  <si>
-    <t>丶神楽</t>
-  </si>
-  <si>
-    <t>沐浠尘</t>
-  </si>
-  <si>
-    <t>凉山伯</t>
-  </si>
-  <si>
-    <t>谷梁莫雨</t>
-  </si>
-  <si>
-    <t>孟青</t>
-  </si>
-  <si>
-    <t>荆轲已逝高渐离</t>
-  </si>
-  <si>
-    <t>葉窕</t>
-  </si>
-  <si>
-    <t>甄心</t>
-  </si>
-  <si>
-    <t>蘭若</t>
-  </si>
-  <si>
-    <t>水晶般的人儿</t>
-  </si>
-  <si>
-    <t>鱼爸爸</t>
-  </si>
-  <si>
-    <t>孤鸾°</t>
-  </si>
-  <si>
-    <t>神威司空阿龙</t>
-  </si>
-  <si>
-    <t>千樽雪</t>
-  </si>
-  <si>
-    <t>薛无衡</t>
-  </si>
-  <si>
-    <t>花儿盛盛开</t>
-  </si>
-  <si>
-    <t>墨韵玄风</t>
-  </si>
-  <si>
-    <t>然後怎樣</t>
-  </si>
-  <si>
-    <t>夜澜潇湘</t>
-  </si>
-  <si>
-    <t>丶薛日天</t>
-  </si>
-  <si>
-    <t>狄万钧</t>
-  </si>
-  <si>
-    <t>暮小曦丶</t>
-  </si>
-  <si>
-    <t>子车振</t>
-  </si>
-  <si>
-    <t>＊下水道的白</t>
-  </si>
-  <si>
-    <t>盖世呆头洋</t>
-  </si>
-  <si>
-    <t>丐帮汪剑通</t>
-  </si>
-  <si>
-    <t>秋影</t>
-  </si>
-  <si>
-    <t>独孤几度</t>
-  </si>
-  <si>
-    <t>前女友</t>
-  </si>
-  <si>
-    <t>君i陌离</t>
-  </si>
-  <si>
-    <t>花花小小师妹</t>
-  </si>
-  <si>
-    <t>太白洗衣液</t>
-  </si>
-  <si>
-    <t>胡大力</t>
-  </si>
-  <si>
-    <t>漂洋過海來看伱</t>
-  </si>
-  <si>
-    <t>风舞雩</t>
-  </si>
-  <si>
-    <t>长安不复</t>
-  </si>
-  <si>
-    <t>情场浪子轩GG丶</t>
-  </si>
-  <si>
-    <t>＊团灭专用奶</t>
-  </si>
-  <si>
-    <t>唐倾梦吟</t>
-  </si>
-  <si>
-    <t>天真无邪大胡子</t>
-  </si>
-  <si>
-    <t>邱少</t>
-  </si>
-  <si>
-    <t>叶行云</t>
-  </si>
-  <si>
-    <t>潇懿风</t>
-  </si>
-  <si>
-    <t>南宫元</t>
-  </si>
-  <si>
-    <t>破穿</t>
-  </si>
-  <si>
-    <t>唐杜里</t>
-  </si>
-  <si>
-    <t>执笔丶殇</t>
-  </si>
-  <si>
-    <t>值符开门</t>
-  </si>
-  <si>
-    <t>落雨晴天</t>
-  </si>
-  <si>
-    <t>南宫筱晗</t>
-  </si>
-  <si>
-    <t>夏璇静枫b</t>
-  </si>
-  <si>
-    <t>蝶舞见花红</t>
-  </si>
-  <si>
-    <t>煌煌</t>
-  </si>
-  <si>
-    <t>三狗蛋</t>
-  </si>
-  <si>
-    <t>我是小官人</t>
-  </si>
-  <si>
-    <t>浪迹小秦</t>
-  </si>
-  <si>
-    <t>墨河</t>
-  </si>
-  <si>
-    <t>城南穷鬼赵四</t>
-  </si>
-  <si>
-    <t>小阿淮呀</t>
-  </si>
-  <si>
-    <t>折扇浪漫</t>
-  </si>
-  <si>
-    <t>南宫絮语</t>
-  </si>
-  <si>
-    <t>白衣涡阳</t>
-  </si>
-  <si>
-    <t>眉间一点白</t>
-  </si>
-  <si>
-    <t>弑天灬妖妖</t>
-  </si>
-  <si>
-    <t>安定将军丶</t>
-  </si>
-  <si>
-    <t>花兮兮兮兮</t>
-  </si>
-  <si>
-    <t>麒哲琬</t>
-  </si>
-  <si>
-    <t>Sky云烟</t>
-  </si>
-  <si>
-    <t>子皿</t>
-  </si>
-  <si>
-    <t>吕小栋</t>
-  </si>
-  <si>
-    <t>我曰你外爷吃翔</t>
-  </si>
-  <si>
-    <t>司徒空珏</t>
-  </si>
-  <si>
-    <t>橘色花茶</t>
-  </si>
-  <si>
-    <t>几度度丶</t>
-  </si>
-  <si>
-    <t>丶哆啦A萌</t>
-  </si>
-  <si>
-    <t>临风望月爱啪啪</t>
-  </si>
-  <si>
-    <t>微爱月</t>
-  </si>
-  <si>
-    <t>顾云深</t>
-  </si>
-  <si>
-    <t>芳华乱一世</t>
-  </si>
-  <si>
-    <t>夢觴丶</t>
-  </si>
-  <si>
-    <t>半夏唯美</t>
-  </si>
-  <si>
-    <t>绫月薇</t>
-  </si>
-  <si>
-    <t>羽烈王姬野</t>
-  </si>
-  <si>
-    <t>奶茶味果糖ˇ</t>
-  </si>
-  <si>
-    <t>唐枫易</t>
-  </si>
-  <si>
-    <t>傾城灬妖娆</t>
-  </si>
-  <si>
-    <t>芉仞膤</t>
-  </si>
-  <si>
-    <t>点点小小熊</t>
-  </si>
-  <si>
-    <t>林傲霜</t>
-  </si>
-  <si>
-    <t>鬼家三少</t>
-  </si>
-  <si>
-    <t>琴紫芊</t>
-  </si>
-  <si>
-    <t>追求月亮的星星</t>
-  </si>
-  <si>
-    <t>晚风与你灬</t>
-  </si>
-  <si>
-    <t>秦友善。</t>
-  </si>
-  <si>
-    <t>以武会仙</t>
-  </si>
-  <si>
-    <t>哎哟你不懂</t>
-  </si>
-  <si>
-    <t>Cc夢嘟嘟灬</t>
-  </si>
-  <si>
-    <t>菜菜聪</t>
-  </si>
-  <si>
-    <t>牛奶奶奶奶</t>
-  </si>
-  <si>
-    <t>烟渳離</t>
-  </si>
-  <si>
-    <t>我是天香的啊</t>
-  </si>
-  <si>
-    <t>日晴天</t>
-  </si>
-  <si>
-    <t>鑫儿子</t>
-  </si>
-  <si>
-    <t>凶光外露的熊</t>
-  </si>
-  <si>
-    <t>依然的闲云</t>
-  </si>
-  <si>
-    <t>萌动胖迪</t>
-  </si>
-  <si>
-    <t>他们不让玩0 0 0</t>
-  </si>
-  <si>
-    <t>剑舞天涯</t>
-  </si>
-  <si>
-    <t>苏五娘</t>
-  </si>
-  <si>
-    <t>沐伯乾</t>
-  </si>
-  <si>
-    <t>我就一煞笔</t>
-  </si>
-  <si>
-    <t>右逝</t>
-  </si>
-  <si>
-    <t>万宥茚黧</t>
-  </si>
-  <si>
-    <t>谁家娇妻守空房</t>
-  </si>
-  <si>
-    <t>娇软の小屁股</t>
-  </si>
-  <si>
-    <t>〇卝亗卝〇</t>
-  </si>
-  <si>
-    <t>薛小姐</t>
-  </si>
-  <si>
-    <t>霎那丶芳华</t>
-  </si>
-  <si>
-    <t>凌雲汤圆</t>
-  </si>
-  <si>
-    <t>凯贼阔里</t>
-  </si>
-  <si>
-    <t>花谢人凋零。</t>
-  </si>
-  <si>
-    <t>成溪</t>
-  </si>
-  <si>
-    <t>在下唐言</t>
-  </si>
-  <si>
-    <t>轻素剪云端</t>
-  </si>
-  <si>
-    <t>鱼小小</t>
-  </si>
-  <si>
-    <t>甜宅宅</t>
-  </si>
-  <si>
-    <t>孤鸿芊芊</t>
-  </si>
-  <si>
-    <t>芝麻花生馅儿饺</t>
-  </si>
-  <si>
-    <t>绝丿情剑</t>
-  </si>
-  <si>
-    <t>丿Muc丨君丶陌</t>
-  </si>
-  <si>
-    <t>阮蠢蠢</t>
-  </si>
-  <si>
-    <t>繁星若珠璀璨</t>
-  </si>
-  <si>
-    <t>天涯路渺渺</t>
-  </si>
-  <si>
-    <t>邓紫棋的小鲜肉</t>
-  </si>
-  <si>
-    <t>乔峰1987</t>
-  </si>
-  <si>
-    <t>飞花已逝殇梦影</t>
-  </si>
-  <si>
-    <t>榕月</t>
-  </si>
-  <si>
-    <t>萧楚琬</t>
-  </si>
-  <si>
-    <t>浪哩个浪</t>
-  </si>
-  <si>
-    <t>银月如殇</t>
-  </si>
-  <si>
-    <t>可爱的明珠</t>
-  </si>
-  <si>
-    <t>肉色金箍棒</t>
-  </si>
-  <si>
-    <t>zz蠢蠢的你</t>
-  </si>
-  <si>
-    <t>冬初暮雪</t>
-  </si>
-  <si>
-    <t>璐小虫</t>
-  </si>
-  <si>
-    <t>夜深人静。。</t>
-  </si>
-  <si>
-    <t>半雨慕苒晴暖夏</t>
-  </si>
-  <si>
-    <t>别碰我的葫芦</t>
-  </si>
-  <si>
-    <t>大王有点方</t>
-  </si>
-  <si>
-    <t>赤月</t>
-  </si>
-  <si>
-    <t>神威再见</t>
-  </si>
-  <si>
-    <t>親訫</t>
-  </si>
-  <si>
-    <t>陌丶羽殇</t>
-  </si>
-  <si>
-    <t>欧阳少琴</t>
-  </si>
-  <si>
-    <t>安蠢蠢</t>
-  </si>
-  <si>
-    <t>一截儿丶</t>
-  </si>
-  <si>
-    <t>丐帮金鹏长老</t>
-  </si>
-  <si>
-    <t>我的好老公</t>
-  </si>
-  <si>
-    <t>白芹</t>
-  </si>
-  <si>
-    <t>哎为什么</t>
-  </si>
-  <si>
-    <t>吕月凝</t>
-  </si>
-  <si>
-    <t>柳剑明</t>
-  </si>
-  <si>
-    <t>觅含丷</t>
-  </si>
-  <si>
-    <t>北辰心凝魔法少女杜芸松</t>
-  </si>
-  <si>
-    <t>开封拍卖行</t>
-  </si>
-  <si>
-    <t>空虚公子萧四无</t>
-  </si>
-  <si>
-    <t>纯洁友善的殇</t>
-  </si>
-  <si>
-    <t>在下唐银</t>
-  </si>
-  <si>
-    <t>儒丶张良</t>
-  </si>
-  <si>
-    <t>青骢绝骑塑天荒</t>
-  </si>
-  <si>
-    <t>梦呓ゝ</t>
-  </si>
-  <si>
-    <t>丐帮萌主</t>
-  </si>
-  <si>
-    <t>为了黄书</t>
-  </si>
-  <si>
-    <t>乏乏</t>
-  </si>
-  <si>
-    <t>曾经的麻辣</t>
-  </si>
-  <si>
-    <t>何月凡</t>
-  </si>
-  <si>
-    <t>骄傲的龙王丶</t>
-  </si>
-  <si>
-    <t>、陌上看花</t>
-  </si>
-  <si>
-    <t>花落时节与君别</t>
-  </si>
-  <si>
-    <t>回忆不曾悲伤</t>
-  </si>
-  <si>
-    <t>海問香</t>
-  </si>
-  <si>
-    <t>人生失控</t>
-  </si>
-  <si>
-    <t>秦空痕</t>
-  </si>
-  <si>
-    <t>小兔兔几</t>
-  </si>
-  <si>
-    <t>大牛又鸟又鸟</t>
-  </si>
-  <si>
-    <t>日狗溅人心</t>
-  </si>
-  <si>
-    <t>董锋</t>
-  </si>
-  <si>
-    <t>追风少年鹰老七</t>
-  </si>
-  <si>
-    <t>瑾年ゝ</t>
-  </si>
-  <si>
-    <t>尉军进</t>
-  </si>
-  <si>
-    <t>楚狂丶</t>
-  </si>
-  <si>
-    <t>君兮墨</t>
-  </si>
-  <si>
-    <t>活阎王123</t>
-  </si>
-  <si>
-    <t>鲲鹏子</t>
-  </si>
-  <si>
-    <t>筮渊</t>
-  </si>
-  <si>
-    <t>潇潇秦衾</t>
-  </si>
-  <si>
-    <t>寂星岚</t>
-  </si>
-  <si>
-    <t>灬鬼丶舞灬</t>
-  </si>
-  <si>
-    <t>天花葬血</t>
-  </si>
-  <si>
-    <t>渐式</t>
-  </si>
-  <si>
-    <t>纯情少妇马芳玲</t>
-  </si>
-  <si>
-    <t>七情剑伶慕容英</t>
-  </si>
-  <si>
-    <t>月牙冲天</t>
-  </si>
-  <si>
-    <t>入梦落樱满熏香</t>
-  </si>
-  <si>
-    <t>炖猪肘丶</t>
-  </si>
-  <si>
-    <t>友善的小内衣</t>
-  </si>
-  <si>
-    <t>柒果果</t>
-  </si>
-  <si>
-    <t>涵涵小公举</t>
-  </si>
-  <si>
-    <t>昔昔</t>
-  </si>
-  <si>
-    <t>友善的咸鱼白</t>
-  </si>
-  <si>
-    <t>劍問兲涯覓紅颜</t>
-  </si>
-  <si>
-    <t>纯洁友善的暮夏</t>
-  </si>
-  <si>
-    <t>可爱琳</t>
-  </si>
-  <si>
-    <t>满分</t>
-  </si>
-  <si>
-    <t>阿翔翔</t>
-  </si>
-  <si>
-    <t>青春亮丽欣妈妈</t>
-  </si>
-  <si>
-    <t>风吹裤衩鸡鸡甩</t>
-  </si>
-  <si>
-    <t>我是败家媳妇</t>
-  </si>
-  <si>
-    <t>可可咔</t>
-  </si>
-  <si>
-    <t>无情小萌羊</t>
-  </si>
-  <si>
-    <t>储舜</t>
-  </si>
-  <si>
-    <t>Sunnyboy丶桔子</t>
-  </si>
-  <si>
-    <t>邂逅ゝ</t>
-  </si>
-  <si>
-    <t>洛城紫陌浸云影春晴</t>
-  </si>
-  <si>
-    <t>°°</t>
-  </si>
-  <si>
-    <t>墨舞丶倾城</t>
-  </si>
-  <si>
-    <t>机智勇敢的小炮</t>
-  </si>
-  <si>
-    <t>艾尔艾路弗</t>
-  </si>
-  <si>
-    <t>月怜诗涵</t>
-  </si>
-  <si>
-    <t>离殇天丶</t>
-  </si>
-  <si>
-    <t>一个有内涵的人</t>
-  </si>
-  <si>
-    <t>咸鱼1 0 1</t>
-  </si>
-  <si>
-    <t>丶初馨</t>
-  </si>
-  <si>
-    <t>东北枭雄赵本山</t>
-  </si>
-  <si>
-    <t>武藏野剑太</t>
-  </si>
-  <si>
-    <t>小萌耍太白丶</t>
-  </si>
-  <si>
-    <t>慕容佩</t>
-  </si>
-  <si>
-    <t>桜染</t>
-  </si>
-  <si>
-    <t>一曲月霜寒</t>
-  </si>
-  <si>
-    <t>顾輕</t>
-  </si>
-  <si>
-    <t>天宫狂少</t>
-  </si>
-  <si>
-    <t>姬如影</t>
-  </si>
-  <si>
-    <t>小叮咚姣姣</t>
-  </si>
-  <si>
-    <t>旧人谙</t>
-  </si>
-  <si>
-    <t>青纪纱</t>
-  </si>
-  <si>
-    <t>予你我好梦</t>
-  </si>
-  <si>
-    <t>茗爷</t>
-  </si>
-  <si>
-    <t>永恒只为等待</t>
-  </si>
-  <si>
-    <t>嗯哼丶一刀</t>
-  </si>
-  <si>
-    <t>白梓伶</t>
-  </si>
-  <si>
-    <t>最喜欢你了</t>
-  </si>
-  <si>
-    <t>燕南辉</t>
-  </si>
-  <si>
-    <t>Puppet丶半心人</t>
-  </si>
-  <si>
-    <t>双马尾小学妹</t>
-  </si>
-  <si>
-    <t>kingdan</t>
-  </si>
-  <si>
-    <t>奈亻可</t>
-  </si>
-  <si>
-    <t>归海异道</t>
-  </si>
-  <si>
-    <t>流韵丶</t>
-  </si>
-  <si>
-    <t>上官益涵</t>
-  </si>
-  <si>
-    <t>???????</t>
-  </si>
-  <si>
-    <t>遗憾出诗意</t>
-  </si>
-  <si>
-    <t>黑大侠Ⅰ</t>
-  </si>
-  <si>
-    <t>翁瑞婷</t>
-  </si>
-  <si>
-    <t>移星</t>
-  </si>
-  <si>
-    <t>舉杯獨醉</t>
-  </si>
-  <si>
-    <t>唐糖～</t>
-  </si>
-  <si>
-    <t>一诗月一</t>
-  </si>
-  <si>
-    <t>風云</t>
-  </si>
-  <si>
-    <t>字拙</t>
-  </si>
-  <si>
-    <t>江玉静</t>
-  </si>
-  <si>
-    <t>ParTing丶R</t>
-  </si>
-  <si>
-    <t>慕容媚</t>
-  </si>
-  <si>
-    <t>思念永远美好</t>
-  </si>
-  <si>
-    <t>唐步枯</t>
-  </si>
-  <si>
-    <t>棠无双</t>
-  </si>
-  <si>
-    <t>冬凝寒</t>
-  </si>
-  <si>
-    <t>骨绊橙</t>
-  </si>
-  <si>
-    <t>比打我</t>
-  </si>
-  <si>
-    <t>穆小七灬</t>
-  </si>
-  <si>
-    <t>kiyomi、</t>
-  </si>
-  <si>
     <t>一抹煙雨落繁</t>
   </si>
   <si>
-    <t>机智勇敢的小免</t>
-  </si>
-  <si>
-    <t>树儿</t>
-  </si>
-  <si>
-    <t>张良</t>
-  </si>
-  <si>
-    <t>开封拍卖行</t>
-  </si>
-  <si>
-    <t>凝烟</t>
-  </si>
-  <si>
-    <t>瑾年</t>
-  </si>
-  <si>
-    <t>内涵</t>
-  </si>
-  <si>
-    <t>小炮</t>
-  </si>
-  <si>
-    <t>微光</t>
-  </si>
-  <si>
-    <t>春晴</t>
-  </si>
-  <si>
-    <t>晓枫</t>
-  </si>
-  <si>
-    <t>晓汐</t>
-  </si>
-  <si>
-    <t>离殇天</t>
-  </si>
-  <si>
-    <t>折扇浪漫</t>
-  </si>
-  <si>
-    <t>月薇</t>
-  </si>
-  <si>
-    <t>羽殇</t>
-  </si>
-  <si>
-    <t>方得</t>
-  </si>
-  <si>
-    <t>牛奶</t>
-  </si>
-  <si>
-    <t>秦友善</t>
-  </si>
-  <si>
-    <t>阿淮</t>
-  </si>
-  <si>
-    <t>骄傲的龙王</t>
-  </si>
-  <si>
-    <t>初馨</t>
-  </si>
-  <si>
-    <t>她有清喉</t>
-  </si>
-  <si>
-    <t>永恒</t>
-  </si>
-  <si>
-    <t>池小晩</t>
-  </si>
-  <si>
-    <t>浪浪</t>
-  </si>
-  <si>
-    <t>落花</t>
-  </si>
-  <si>
-    <t>大叔别跑</t>
-  </si>
-  <si>
-    <t>梦呓</t>
-  </si>
-  <si>
-    <t>梦太晩</t>
-  </si>
-  <si>
-    <t>花谢人凋零</t>
-  </si>
-  <si>
-    <t>倾城</t>
-  </si>
-  <si>
-    <t>浩浩</t>
-  </si>
-  <si>
-    <t>董</t>
-  </si>
-  <si>
-    <t>晓月梦</t>
-  </si>
-  <si>
-    <t>沐浠</t>
-  </si>
-  <si>
-    <t>虫</t>
-  </si>
-  <si>
-    <t>月光</t>
+    <t>水道的白</t>
+  </si>
+  <si>
+    <t>我是天香</t>
+  </si>
+  <si>
+    <t>墨染</t>
+  </si>
+  <si>
+    <t>梦觞</t>
   </si>
 </sst>
 </file>
@@ -2205,11 +2166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C96" sqref="C1:C96"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,86 +2181,85 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>363</v>
+        <v>569</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
       <c r="C1" t="str">
         <f>VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
-        <v>南宫絮语</v>
+        <v>ParTing丶R</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C65" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,1,0)</f>
-        <v>城南穷鬼赵四</v>
+        <v>FateLibra</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>墨河</v>
+        <v>FateScorpio</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>巡山的人</v>
+        <v>任离流</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>异逍遥</v>
+        <v>倾舞情儿</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>596</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>我是天香的啊</v>
+        <v>墨舞丶倾城</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>我是小官人</v>
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2312,110 +2271,110 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
+        <v>无名唐大夫</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>588</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>时钟轻摇孤独</v>
+        <v>方得始終</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>绫月薇</v>
+        <v>机智勇敢的小炮</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>598</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>机智勇敢的小猪</v>
+        <v>小萌耍太白丶</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>583</v>
+      </c>
+      <c r="B12" t="s">
         <v>358</v>
-      </c>
-      <c r="B12" t="s">
-        <v>362</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>浪迹小秦</v>
+        <v>神丶陌上微光</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>一直梨花压海棠</v>
+        <v>怒怒怒怒火</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>585</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>独孤沐白</v>
+        <v>冷晓汐灬</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>602</v>
+        <v>527</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>秦友善。</v>
+        <v>月怜诗涵</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>533</v>
       </c>
       <c r="B17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -2423,950 +2382,851 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>小阿淮呀</v>
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>526</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>零拾</v>
+        <v>艾尔艾路弗</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>青丝枫凌</v>
+        <v>雪糕失望</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>骄傲的龙王丶</v>
+        <v>娇软の小屁股</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>606</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>任离流</v>
+        <v>我是天香的啊</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>590</v>
+        <v>353</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>一个有内涵的人</v>
+        <v>我是小官人</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="B24" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>丶初馨</v>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>615</v>
+        <v>587</v>
       </c>
       <c r="B25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>墨舞丶倾城</v>
+        <v>绫月薇</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>墨韵轩华</v>
+        <v>机智勇敢的小猪</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>608</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>太极至尊</v>
+        <v>梦觞丶</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>606</v>
+        <v>354</v>
       </c>
       <c r="B28" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>丶她有清喉</v>
+        <v>浪迹小秦</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>600</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>方得始終</v>
+        <v>一直梨花压海棠</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>机智勇敢的小炮</v>
+        <v>花兮兮兮兮</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>592</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>神丶陌上微光</v>
+        <v>零拾</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>怒怒怒怒火</v>
+        <v>青丝枫凌</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>洛城紫陌浸云影春晴</v>
+        <v>城南穷鬼赵四</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>594</v>
+        <v>219</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>墨雨丶晓枫</v>
+        <v>风暖伤</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>595</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>冷晓汐灬</v>
+        <v>东风路三狗蛋</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>月怜诗涵</v>
+        <v>儒丶张良</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>椛灯</v>
+        <v>关翔予</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>607</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>永恒只为等待</v>
+        <v>叶菡</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C39" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B40" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>′浪浪</v>
+        <v>奶小牛丶</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>596</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>离殇天丶</v>
+        <v>山高丶木易</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>530</v>
+        <v>601</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>艾尔艾路弗</v>
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>602</v>
       </c>
       <c r="B43" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>诸天花雨</v>
+        <v>彡电竞丿柯南乄</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>雪糕失望</v>
+        <v>框框</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>610</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>落花丶醉</v>
+        <v>洪时雪</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>356</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>东风路三狗蛋</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>潇洒仗剑天下</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B47" t="s">
-        <v>372</v>
-      </c>
-      <c r="C47" t="e">
+        <v>368</v>
+      </c>
+      <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>潇湘灬墨染</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>586</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>儒丶张良</v>
+        <v>煌煌</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>其实想玩刀客</v>
+        <v>艾莉亞史塔克</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>603</v>
       </c>
       <c r="B50" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>叶菡</v>
+        <v>荡荡</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>470</v>
+        <v>595</v>
       </c>
       <c r="B51" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>在下唐银</v>
+        <v>追风少年鹰老七</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B52" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>大叔别跑啊</v>
+        <v>一抹煙雨落繁華</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>605</v>
       </c>
       <c r="B53" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>591</v>
       </c>
       <c r="B54" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
-        <v>山高丶木易</v>
+        <v>一人一枪闯九州</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>587</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
-        <v>开封拍卖行</v>
+        <v>墨萧炎</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
-        <v>木易丶凝烟</v>
+        <v>树儿高高长</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
-        <v>彡电竞丿柯南乄</v>
+        <v>格七</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
-        <v>框框</v>
+        <v>格殺</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>612</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
-        <v>梦呓ゝ</v>
+        <v>榕月</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="B60" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
-        <v>洪时雪</v>
+        <v>沐浠尘</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>616</v>
+        <v>339</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
-        <v>浩浩丶浩</v>
+        <v>邱少</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
-        <v>潇洒仗剑天下</v>
+        <v>陌路莫回</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
-        <v>煌煌</v>
+        <v>鱼小小</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>589</v>
+        <v>523</v>
       </c>
       <c r="B64" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
-        <v>瑾年ゝ</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>10</v>
-      </c>
+        <v>°°</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
-        <v>等我出轻语</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>9</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ref="C66:C99" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
-        <v>紫舞流年</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>469</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="1"/>
-        <v>纯洁友善的殇</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
-        <v>艾莉亞史塔克</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>80</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
-        <v>苍镜</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>81</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
-        <v>荡荡</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>617</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
-        <v>董锋</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>83</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
-        <v>蝶舞旧梦</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>85</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>583</v>
-      </c>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
-        <v>一抹煙雨落繁華</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>86</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
-        <v>乌莲娜</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>425</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
-        <v>在下唐言</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>44</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>387</v>
-      </c>
-      <c r="C77" t="str">
-        <f t="shared" si="1"/>
-        <v>墨萧炎</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>87</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C77" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
-        <v>安好晴天</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>618</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C79" t="str">
         <f>VLOOKUP("*"&amp;A79&amp;"*",B:B,1,0)</f>
-        <v>晓月梦澈</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>88</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
-        <v>曲终无意</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>584</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C81" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>585</v>
-      </c>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
-        <v>树儿高高长</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>25</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
-        <v>格殺</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>613</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>439</v>
-      </c>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
-        <v>榕月</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>619</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
-        <v>沐浠尘</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>310</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
-        <v>甄心</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>461</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
-        <v>白芹</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>614</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>46</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
-        <v>花谢人凋零。</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>620</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
-        <v>璐小虫</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>426</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
-        <v>轻素剪云端</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>599</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
-        <v>陌丶羽殇</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>2</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
-        <v>陌路莫回</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>427</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
-        <v>鱼小小</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>527</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
-        <v>°°</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>72</v>
-      </c>
+        <v>时钟轻摇孤独</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
-        <v>淺笙</v>
+        <v>时钟轻摇孤独</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
@@ -3384,7 +3244,7 @@
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
@@ -3393,207 +3253,207 @@
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
@@ -3603,7 +3463,7 @@
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
@@ -3613,17 +3473,17 @@
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
@@ -3638,22 +3498,22 @@
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
@@ -3663,152 +3523,152 @@
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
@@ -3818,37 +3678,37 @@
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
@@ -3858,112 +3718,112 @@
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
@@ -3973,77 +3833,77 @@
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
@@ -4053,17 +3913,17 @@
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
@@ -4073,22 +3933,22 @@
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
@@ -4098,32 +3958,32 @@
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
@@ -4133,57 +3993,57 @@
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
@@ -4193,12 +4053,12 @@
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
@@ -4208,117 +4068,117 @@
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
@@ -4328,7 +4188,7 @@
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
@@ -4343,32 +4203,32 @@
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
@@ -4383,12 +4243,12 @@
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
@@ -4398,12 +4258,12 @@
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
@@ -4413,12 +4273,12 @@
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4288,7 @@
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
@@ -4438,52 +4298,52 @@
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
@@ -4493,17 +4353,17 @@
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
@@ -4513,72 +4373,72 @@
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
@@ -4588,17 +4448,17 @@
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
@@ -4608,32 +4468,32 @@
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.25">
@@ -4643,137 +4503,137 @@
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
@@ -4783,52 +4643,52 @@
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.25">
@@ -4838,12 +4698,12 @@
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.25">
@@ -4853,122 +4713,122 @@
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
@@ -4988,52 +4848,52 @@
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.25">
@@ -5058,17 +4918,17 @@
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.25">
@@ -5088,17 +4948,17 @@
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.25">
@@ -5108,22 +4968,22 @@
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.25">
@@ -5133,17 +4993,17 @@
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.25">
@@ -5153,47 +5013,47 @@
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.25">
@@ -5203,12 +5063,12 @@
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.25">
@@ -5218,52 +5078,52 @@
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B467" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.25">
@@ -5273,7 +5133,7 @@
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.25">
@@ -5283,67 +5143,67 @@
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B480" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B482" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B485" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B488" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B489" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.25">
@@ -5353,22 +5213,22 @@
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B493" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.25">
@@ -5378,12 +5238,12 @@
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B497" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.25">
@@ -5393,192 +5253,192 @@
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B500" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="501" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B501" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="502" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B502" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="503" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B503" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="504" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B504" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="505" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B505" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="506" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B506" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="507" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B507" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="508" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B508" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="509" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B509" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="510" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B510" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="511" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B511" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="512" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B512" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="513" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B513" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="514" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B514" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="515" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B515" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="516" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B516" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="517" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B517" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="518" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B518" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="519" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B519" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="520" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B520" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="521" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B521" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="522" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B522" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="523" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B523" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="524" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B524" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="525" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B525" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="526" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B526" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="527" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B527" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="528" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B528" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="529" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B529" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="530" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B530" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="531" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B531" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B532" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="533" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B533" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="534" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B534" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="535" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B535" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="536" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B536" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="537" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B537" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="538" spans="2:2" x14ac:dyDescent="0.25">
@@ -5588,32 +5448,32 @@
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B539" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="540" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B540" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="541" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B541" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B542" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="543" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B543" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="544" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B544" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="545" spans="2:2" x14ac:dyDescent="0.25">
@@ -5623,32 +5483,32 @@
     </row>
     <row r="546" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B546" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="547" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B547" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="548" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B548" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B549" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="550" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B550" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="551" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B551" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="552" spans="2:2" x14ac:dyDescent="0.25">
@@ -5658,87 +5518,87 @@
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B553" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="554" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B554" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B555" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B556" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B557" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B558" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="559" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B559" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B560" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B561" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="562" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B562" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="563" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B563" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="564" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B564" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B565" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B566" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="567" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B567" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B568" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="569" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B569" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="570" spans="2:2" x14ac:dyDescent="0.25">
@@ -5748,113 +5608,16 @@
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B571" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B572" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C572">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="′浪浪"/>
-        <filter val="°°"/>
-        <filter val="一个有内涵的人"/>
-        <filter val="一抹煙雨落繁華"/>
-        <filter val="一直梨花压海棠"/>
-        <filter val="东风路三狗蛋"/>
-        <filter val="丶初馨"/>
-        <filter val="丶她有清喉"/>
-        <filter val="乌莲娜"/>
-        <filter val="任离流"/>
-        <filter val="儒丶张良"/>
-        <filter val="其实想玩刀客"/>
-        <filter val="冷晓汐灬"/>
-        <filter val="叶菡"/>
-        <filter val="在下唐言"/>
-        <filter val="在下唐银"/>
-        <filter val="城南穷鬼赵四"/>
-        <filter val="墨河"/>
-        <filter val="墨舞丶倾城"/>
-        <filter val="墨萧炎"/>
-        <filter val="墨雨丶晓枫"/>
-        <filter val="墨韵轩华"/>
-        <filter val="大叔别跑啊"/>
-        <filter val="太极至尊"/>
-        <filter val="安好晴天"/>
-        <filter val="小阿淮呀"/>
-        <filter val="山高丶木易"/>
-        <filter val="巡山的人"/>
-        <filter val="开封拍卖行"/>
-        <filter val="异逍遥"/>
-        <filter val="彡电竞丿柯南乄"/>
-        <filter val="怒怒怒怒火"/>
-        <filter val="我是天香的啊"/>
-        <filter val="我是小官人"/>
-        <filter val="折扇浪漫"/>
-        <filter val="方得始終"/>
-        <filter val="时钟轻摇孤独"/>
-        <filter val="晓月梦澈"/>
-        <filter val="曲终无意"/>
-        <filter val="月怜诗涵"/>
-        <filter val="木易丶凝烟"/>
-        <filter val="机智勇敢的小免"/>
-        <filter val="机智勇敢的小炮"/>
-        <filter val="机智勇敢的小猪"/>
-        <filter val="树儿高高长"/>
-        <filter val="格殺"/>
-        <filter val="框框"/>
-        <filter val="梦呓ゝ"/>
-        <filter val="梦太晚"/>
-        <filter val="梦太晩"/>
-        <filter val="椛灯"/>
-        <filter val="榕月"/>
-        <filter val="永恒只为等待"/>
-        <filter val="池小晚"/>
-        <filter val="池小晩"/>
-        <filter val="沐浠尘"/>
-        <filter val="洛城紫陌浸云影春晴"/>
-        <filter val="洪时雪"/>
-        <filter val="浩浩丶浩"/>
-        <filter val="浪迹小秦"/>
-        <filter val="淺笙"/>
-        <filter val="潇洒仗剑天下"/>
-        <filter val="煌煌"/>
-        <filter val="独孤沐白"/>
-        <filter val="瑾年ゝ"/>
-        <filter val="璐小虫"/>
-        <filter val="甄心"/>
-        <filter val="白芹"/>
-        <filter val="神丶陌上微光"/>
-        <filter val="离殇天丶"/>
-        <filter val="秦友善。"/>
-        <filter val="等我出轻语"/>
-        <filter val="紫舞流年"/>
-        <filter val="纯洁友善的殇"/>
-        <filter val="绫月薇"/>
-        <filter val="艾尔艾路弗"/>
-        <filter val="艾莉亞史塔克"/>
-        <filter val="花谢人凋零。"/>
-        <filter val="苍镜"/>
-        <filter val="荡荡"/>
-        <filter val="落花丶醉"/>
-        <filter val="董锋"/>
-        <filter val="蝶舞旧梦"/>
-        <filter val="诸天花雨"/>
-        <filter val="轻素剪云端"/>
-        <filter val="陌丶羽殇"/>
-        <filter val="陌路莫回"/>
-        <filter val="雪糕失望"/>
-        <filter val="零拾"/>
-        <filter val="青丝枫凌"/>
-        <filter val="骄傲的龙王丶"/>
-        <filter val="鱼小小"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C572"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compare.xlsx
+++ b/compare.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="612">
   <si>
     <t>青羽墨染云</t>
   </si>
@@ -93,9 +93,6 @@
     <t>梦觞丶</t>
   </si>
   <si>
-    <t>梦太晚</t>
-  </si>
-  <si>
     <t>框框</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>阿锟猫</t>
   </si>
   <si>
-    <t>山高</t>
-  </si>
-  <si>
     <t>潇洒</t>
   </si>
   <si>
@@ -1767,21 +1761,9 @@
     <t>树儿</t>
   </si>
   <si>
-    <t>张良</t>
-  </si>
-  <si>
     <t>小炮</t>
   </si>
   <si>
-    <t>微光</t>
-  </si>
-  <si>
-    <t>春晴</t>
-  </si>
-  <si>
-    <t>晓汐</t>
-  </si>
-  <si>
     <t>折扇浪漫</t>
   </si>
   <si>
@@ -1794,42 +1776,21 @@
     <t>池小晩</t>
   </si>
   <si>
-    <t>梦太晩</t>
-  </si>
-  <si>
     <t>九州</t>
   </si>
   <si>
-    <t>小屁股</t>
-  </si>
-  <si>
     <t>花兮兮</t>
   </si>
   <si>
-    <t>大星</t>
-  </si>
-  <si>
     <t>鹰老七</t>
   </si>
   <si>
     <t>墨舞</t>
   </si>
   <si>
-    <t>大夫</t>
-  </si>
-  <si>
-    <t>小萌耍太白</t>
-  </si>
-  <si>
-    <t>城南穷鬼</t>
-  </si>
-  <si>
     <t>奶小牛</t>
   </si>
   <si>
-    <t>幻之凝雪</t>
-  </si>
-  <si>
     <t>柯南</t>
   </si>
   <si>
@@ -1839,16 +1800,64 @@
     <t>一抹煙雨落繁</t>
   </si>
   <si>
-    <t>水道的白</t>
-  </si>
-  <si>
-    <t>我是天香</t>
-  </si>
-  <si>
-    <t>墨染</t>
-  </si>
-  <si>
-    <t>梦觞</t>
+    <t>奈</t>
+  </si>
+  <si>
+    <t>无言上青楼</t>
+  </si>
+  <si>
+    <t>牛奶奶</t>
+  </si>
+  <si>
+    <t>雲嫣</t>
+  </si>
+  <si>
+    <t>初馨</t>
+  </si>
+  <si>
+    <t>放肆流逝</t>
+  </si>
+  <si>
+    <t>晓枫</t>
+  </si>
+  <si>
+    <t>浪浪</t>
+  </si>
+  <si>
+    <t>简单爱</t>
+  </si>
+  <si>
+    <t>花名</t>
+  </si>
+  <si>
+    <t>刀客</t>
+  </si>
+  <si>
+    <t>小阿镜</t>
+  </si>
+  <si>
+    <t>开封拍卖行</t>
+  </si>
+  <si>
+    <t>浩浩</t>
+  </si>
+  <si>
+    <t>淡若清风</t>
+  </si>
+  <si>
+    <t>那年</t>
+  </si>
+  <si>
+    <t>拌饭</t>
+  </si>
+  <si>
+    <t>红着脸</t>
+  </si>
+  <si>
+    <t>花谢人凋零</t>
+  </si>
+  <si>
+    <t>阿</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2178,7 @@
   <dimension ref="A1:C572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,10 +2190,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="str">
         <f>VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
@@ -2193,1277 +2202,953 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>521</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C65" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,1,0)</f>
-        <v>FateLibra</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>FateScorpio</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>任离流</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>倾舞情儿</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>596</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>墨舞丶倾城</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>579</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>597</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>无名唐大夫</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>方得始終</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>582</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>机智勇敢的小炮</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>598</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>小萌耍太白丶</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>神丶陌上微光</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>593</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>怒怒怒怒火</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>579</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>585</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>冷晓汐灬</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>527</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>月怜诗涵</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>594</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>585</v>
+      </c>
+      <c r="B20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>611</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>595</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
         <v>359</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>472</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>596</v>
+      </c>
+      <c r="B28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>587</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>582</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>579</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>597</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>598</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>583</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>599</v>
+      </c>
+      <c r="B39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>600</v>
+      </c>
+      <c r="B41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>524</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>601</v>
+      </c>
+      <c r="B43" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>350</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>602</v>
+      </c>
+      <c r="B47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>588</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>603</v>
+      </c>
+      <c r="B49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>604</v>
+      </c>
+      <c r="B50" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>589</v>
+      </c>
+      <c r="B51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>589</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>526</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>艾尔艾路弗</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" t="s">
-        <v>360</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>雪糕失望</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>592</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>娇软の小屁股</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>606</v>
-      </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>我是天香的啊</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>353</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>我是小官人</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>586</v>
-      </c>
-      <c r="B24" t="s">
-        <v>361</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>587</v>
-      </c>
-      <c r="B25" t="s">
-        <v>362</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>绫月薇</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>机智勇敢的小猪</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>608</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>梦觞丶</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>354</v>
-      </c>
-      <c r="B28" t="s">
-        <v>363</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>浪迹小秦</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>一直梨花压海棠</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>593</v>
-      </c>
-      <c r="B30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>花兮兮兮兮</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>零拾</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>青丝枫凌</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>599</v>
-      </c>
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>城南穷鬼赵四</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>风暖伤</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>352</v>
-      </c>
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>东风路三狗蛋</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>581</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>儒丶张良</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>257</v>
-      </c>
-      <c r="B37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>关翔予</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>叶菡</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>594</v>
-      </c>
-      <c r="B39" t="s">
-        <v>364</v>
-      </c>
-      <c r="C39" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>600</v>
-      </c>
-      <c r="B40" t="s">
-        <v>365</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>奶小牛丶</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>366</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>山高丶木易</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>601</v>
-      </c>
-      <c r="B42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>602</v>
-      </c>
-      <c r="B43" t="s">
-        <v>367</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>彡电竞丿柯南乄</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>框框</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>洪时雪</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>潇洒仗剑天下</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>607</v>
-      </c>
-      <c r="B47" t="s">
-        <v>368</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>潇湘灬墨染</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>煌煌</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" t="s">
-        <v>369</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>艾莉亞史塔克</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>603</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>370</v>
       </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>荡荡</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>595</v>
-      </c>
-      <c r="B51" t="s">
-        <v>371</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>追风少年鹰老七</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>604</v>
-      </c>
-      <c r="B52" t="s">
-        <v>372</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>一抹煙雨落繁華</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>605</v>
       </c>
       <c r="B53" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>606</v>
+      </c>
+      <c r="B54" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
         <v>373</v>
       </c>
-      <c r="C53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>607</v>
+      </c>
+      <c r="B60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>590</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>586</v>
+      </c>
+      <c r="B64" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>591</v>
       </c>
-      <c r="B54" t="s">
-        <v>374</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>一人一枪闯九州</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>墨萧炎</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>580</v>
-      </c>
-      <c r="B56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>树儿高高长</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" t="s">
-        <v>375</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v>格七</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>584</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>418</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>608</v>
+      </c>
+      <c r="B72" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>577</v>
+      </c>
+      <c r="B75" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>578</v>
+      </c>
+      <c r="B76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>25</v>
       </c>
-      <c r="B58" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v>格殺</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>435</v>
-      </c>
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" t="str">
-        <f t="shared" si="0"/>
-        <v>榕月</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>300</v>
-      </c>
-      <c r="B60" t="s">
-        <v>376</v>
-      </c>
-      <c r="C60" t="str">
-        <f t="shared" si="0"/>
-        <v>沐浠尘</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>339</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="B77" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>433</v>
+      </c>
+      <c r="B79" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>298</v>
+      </c>
+      <c r="B80" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>609</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>610</v>
+      </c>
+      <c r="B82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>421</v>
+      </c>
+      <c r="B83" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>114</v>
       </c>
-      <c r="C61" t="str">
-        <f t="shared" si="0"/>
-        <v>邱少</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v>陌路莫回</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>423</v>
-      </c>
-      <c r="B63" t="s">
-        <v>377</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v>鱼小小</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>523</v>
-      </c>
-      <c r="B64" t="s">
-        <v>378</v>
-      </c>
-      <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v>°°</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>379</v>
-      </c>
-      <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>380</v>
-      </c>
-      <c r="C66" t="str">
-        <f t="shared" ref="C66:C99" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>381</v>
-      </c>
-      <c r="C72" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>343</v>
-      </c>
-      <c r="C74" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>382</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>383</v>
-      </c>
-      <c r="C77" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>384</v>
-      </c>
-      <c r="C78" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>385</v>
-      </c>
-      <c r="C79" t="str">
-        <f>VLOOKUP("*"&amp;A79&amp;"*",B:B,1,0)</f>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>386</v>
-      </c>
-      <c r="C80" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>387</v>
-      </c>
-      <c r="C83" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>125</v>
-      </c>
-      <c r="C84" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>127</v>
-      </c>
-      <c r="C86" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>388</v>
-      </c>
-      <c r="C87" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>389</v>
-      </c>
-      <c r="C88" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>390</v>
-      </c>
-      <c r="C90" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>295</v>
-      </c>
-      <c r="C91" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>130</v>
-      </c>
-      <c r="C93" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>391</v>
-      </c>
-      <c r="C96" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>392</v>
-      </c>
-      <c r="C97" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>39</v>
-      </c>
-      <c r="C98" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
@@ -3473,437 +3158,437 @@
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
@@ -3913,137 +3598,137 @@
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
@@ -4053,132 +3738,132 @@
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
@@ -4188,7 +3873,7 @@
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
@@ -4203,37 +3888,37 @@
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
@@ -4243,27 +3928,27 @@
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
@@ -4273,192 +3958,192 @@
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
@@ -4468,32 +4153,32 @@
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.25">
@@ -4503,137 +4188,137 @@
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
@@ -4643,52 +4328,52 @@
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.25">
@@ -4698,12 +4383,12 @@
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.25">
@@ -4713,122 +4398,122 @@
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
@@ -4838,7 +4523,7 @@
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.25">
@@ -4848,87 +4533,87 @@
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.25">
@@ -4938,27 +4623,27 @@
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.25">
@@ -4968,162 +4653,162 @@
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B451" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B467" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.25">
@@ -5133,117 +4818,117 @@
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B480" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B482" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B485" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B488" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B489" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B491" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B493" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B496" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B497" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.25">
@@ -5253,192 +4938,192 @@
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B500" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="501" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B501" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="502" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B502" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="503" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B503" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="504" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B504" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="505" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B505" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="506" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B506" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="507" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B507" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="508" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B508" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="509" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B509" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="510" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B510" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="511" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B511" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="512" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B512" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="513" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B513" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="514" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B514" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="515" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B515" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="516" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B516" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="517" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B517" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="518" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B518" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="519" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B519" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="520" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B520" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="521" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B521" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="522" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B522" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="523" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B523" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="524" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B524" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="525" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B525" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="526" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B526" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="527" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B527" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="528" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B528" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="529" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B529" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="530" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B530" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="531" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B531" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B532" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="533" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B533" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="534" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B534" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="535" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B535" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="536" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B536" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="537" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B537" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="538" spans="2:2" x14ac:dyDescent="0.25">
@@ -5448,172 +5133,172 @@
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B539" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="540" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B540" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="541" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B541" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B542" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="543" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B543" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="544" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B544" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="545" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B545" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="546" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B546" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="547" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B547" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="548" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B548" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B549" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="550" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B550" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="551" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B551" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="552" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B552" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B553" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="554" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B554" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B555" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B556" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B557" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B558" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="559" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B559" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B560" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B561" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="562" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B562" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="563" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B563" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="564" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B564" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B565" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B566" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="567" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B567" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B568" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="569" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B569" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="570" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B570" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B571" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B572" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="604">
   <si>
     <t>青羽墨染云</t>
   </si>
@@ -30,9 +30,6 @@
     <t>青城爱未恋</t>
   </si>
   <si>
-    <t>陌路莫回</t>
-  </si>
-  <si>
     <t>那年红颜</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>时钟轻摇孤独</t>
   </si>
   <si>
-    <t>无名唐大夫</t>
-  </si>
-  <si>
     <t>方得始終</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>凯</t>
   </si>
   <si>
-    <t>冷晓汐丶</t>
-  </si>
-  <si>
     <t>再见是否红着脸</t>
   </si>
   <si>
@@ -186,9 +177,6 @@
     <t>丿几度度丶</t>
   </si>
   <si>
-    <t>丶她有清喉</t>
-  </si>
-  <si>
     <t>东风路三狗蛋</t>
   </si>
   <si>
@@ -228,9 +216,6 @@
     <t>柒叶浅</t>
   </si>
   <si>
-    <t>海棠</t>
-  </si>
-  <si>
     <t>零拾</t>
   </si>
   <si>
@@ -258,9 +243,6 @@
     <t>蝶舞旧梦</t>
   </si>
   <si>
-    <t>凡哥的祖父</t>
-  </si>
-  <si>
     <t>池小猫</t>
   </si>
   <si>
@@ -306,18 +288,9 @@
     <t>捣蛋神将</t>
   </si>
   <si>
-    <t>早晨的傍晚</t>
-  </si>
-  <si>
     <t>慕落弦</t>
   </si>
   <si>
-    <t>心念旧人颜</t>
-  </si>
-  <si>
-    <t>画未弥笙</t>
-  </si>
-  <si>
     <t>Qiu徒</t>
   </si>
   <si>
@@ -384,9 +357,6 @@
     <t>冬日雪</t>
   </si>
   <si>
-    <t>无琴无音</t>
-  </si>
-  <si>
     <t>太阳骑士炮灰</t>
   </si>
   <si>
@@ -396,24 +366,12 @@
     <t>蘃</t>
   </si>
   <si>
-    <t>旒觞</t>
-  </si>
-  <si>
     <t>唏嘘流年</t>
   </si>
   <si>
     <t>毕夏有毓</t>
   </si>
   <si>
-    <t>罗斯基</t>
-  </si>
-  <si>
-    <t>天之舞卿月</t>
-  </si>
-  <si>
-    <t>多情劍客无情劍</t>
-  </si>
-  <si>
     <t>魂腥</t>
   </si>
   <si>
@@ -453,9 +411,6 @@
     <t>宫梓歌</t>
   </si>
   <si>
-    <t>英雄咕咕叫</t>
-  </si>
-  <si>
     <t>她心屿</t>
   </si>
   <si>
@@ -477,9 +432,6 @@
     <t>倚楼听風</t>
   </si>
   <si>
-    <t>南眸</t>
-  </si>
-  <si>
     <t>泪成殇</t>
   </si>
   <si>
@@ -495,9 +447,6 @@
     <t>凱蒂喵</t>
   </si>
   <si>
-    <t>做人不要太认真</t>
-  </si>
-  <si>
     <t>不疯魔不可活</t>
   </si>
   <si>
@@ -534,9 +483,6 @@
     <t>酣梦恰此时光丶</t>
   </si>
   <si>
-    <t>梦里和你千百次</t>
-  </si>
-  <si>
     <t>长河的水儿不浑</t>
   </si>
   <si>
@@ -552,9 +498,6 @@
     <t>画芊骨</t>
   </si>
   <si>
-    <t>天下誰人不知吾</t>
-  </si>
-  <si>
     <t>火之鸟</t>
   </si>
   <si>
@@ -672,9 +615,6 @@
     <t>疾风嗍</t>
   </si>
   <si>
-    <t>大叔别跑啊</t>
-  </si>
-  <si>
     <t>风暖伤</t>
   </si>
   <si>
@@ -705,9 +645,6 @@
     <t>夜刃劫</t>
   </si>
   <si>
-    <t>服部藏马</t>
-  </si>
-  <si>
     <t>一丿登</t>
   </si>
   <si>
@@ -774,9 +711,6 @@
     <t>嚜韵轩華</t>
   </si>
   <si>
-    <t>众人皆醒我独醉</t>
-  </si>
-  <si>
     <t>燕雨莲</t>
   </si>
   <si>
@@ -792,9 +726,6 @@
     <t>关翔予</t>
   </si>
   <si>
-    <t>千世丶</t>
-  </si>
-  <si>
     <t>苏樰</t>
   </si>
   <si>
@@ -813,9 +744,6 @@
     <t>守护锋</t>
   </si>
   <si>
-    <t>古手梨花sama</t>
-  </si>
-  <si>
     <t>＂子墨</t>
   </si>
   <si>
@@ -903,9 +831,6 @@
     <t>风影</t>
   </si>
   <si>
-    <t>太世小白</t>
-  </si>
-  <si>
     <t>男人应有的自豪</t>
   </si>
   <si>
@@ -924,9 +849,6 @@
     <t>凉山伯</t>
   </si>
   <si>
-    <t>谷梁莫雨</t>
-  </si>
-  <si>
     <t>孟青</t>
   </si>
   <si>
@@ -939,9 +861,6 @@
     <t>甄心</t>
   </si>
   <si>
-    <t>蘭若</t>
-  </si>
-  <si>
     <t>水晶般的人儿</t>
   </si>
   <si>
@@ -1026,9 +945,6 @@
     <t>情场浪子轩GG丶</t>
   </si>
   <si>
-    <t>＊团灭专用奶</t>
-  </si>
-  <si>
     <t>唐倾梦吟</t>
   </si>
   <si>
@@ -1062,9 +978,6 @@
     <t>落雨晴天</t>
   </si>
   <si>
-    <t>南宫筱晗</t>
-  </si>
-  <si>
     <t>夏璇静枫b</t>
   </si>
   <si>
@@ -1074,9 +987,6 @@
     <t>煌煌</t>
   </si>
   <si>
-    <t>三狗蛋</t>
-  </si>
-  <si>
     <t>我是小官人</t>
   </si>
   <si>
@@ -1107,18 +1017,12 @@
     <t>弑天灬妖妖</t>
   </si>
   <si>
-    <t>安定将军丶</t>
-  </si>
-  <si>
     <t>花兮兮兮兮</t>
   </si>
   <si>
     <t>麒哲琬</t>
   </si>
   <si>
-    <t>Sky云烟</t>
-  </si>
-  <si>
     <t>子皿</t>
   </si>
   <si>
@@ -1128,18 +1032,9 @@
     <t>我曰你外爷吃翔</t>
   </si>
   <si>
-    <t>司徒空珏</t>
-  </si>
-  <si>
-    <t>橘色花茶</t>
-  </si>
-  <si>
     <t>几度度丶</t>
   </si>
   <si>
-    <t>丶哆啦A萌</t>
-  </si>
-  <si>
     <t>临风望月爱啪啪</t>
   </si>
   <si>
@@ -1149,9 +1044,6 @@
     <t>顾云深</t>
   </si>
   <si>
-    <t>芳华乱一世</t>
-  </si>
-  <si>
     <t>夢觴丶</t>
   </si>
   <si>
@@ -1161,51 +1053,24 @@
     <t>绫月薇</t>
   </si>
   <si>
-    <t>羽烈王姬野</t>
-  </si>
-  <si>
     <t>奶茶味果糖ˇ</t>
   </si>
   <si>
     <t>唐枫易</t>
   </si>
   <si>
-    <t>傾城灬妖娆</t>
-  </si>
-  <si>
-    <t>芉仞膤</t>
-  </si>
-  <si>
     <t>点点小小熊</t>
   </si>
   <si>
-    <t>林傲霜</t>
-  </si>
-  <si>
-    <t>鬼家三少</t>
-  </si>
-  <si>
     <t>琴紫芊</t>
   </si>
   <si>
-    <t>追求月亮的星星</t>
-  </si>
-  <si>
     <t>晚风与你灬</t>
   </si>
   <si>
     <t>秦友善。</t>
   </si>
   <si>
-    <t>以武会仙</t>
-  </si>
-  <si>
-    <t>哎哟你不懂</t>
-  </si>
-  <si>
-    <t>Cc夢嘟嘟灬</t>
-  </si>
-  <si>
     <t>菜菜聪</t>
   </si>
   <si>
@@ -1233,9 +1098,6 @@
     <t>萌动胖迪</t>
   </si>
   <si>
-    <t>他们不让玩0 0 0</t>
-  </si>
-  <si>
     <t>剑舞天涯</t>
   </si>
   <si>
@@ -1260,12 +1122,6 @@
     <t>娇软の小屁股</t>
   </si>
   <si>
-    <t>〇卝亗卝〇</t>
-  </si>
-  <si>
-    <t>薛小姐</t>
-  </si>
-  <si>
     <t>霎那丶芳华</t>
   </si>
   <si>
@@ -1290,9 +1146,6 @@
     <t>鱼小小</t>
   </si>
   <si>
-    <t>甜宅宅</t>
-  </si>
-  <si>
     <t>孤鸿芊芊</t>
   </si>
   <si>
@@ -1305,9 +1158,6 @@
     <t>丿Muc丨君丶陌</t>
   </si>
   <si>
-    <t>阮蠢蠢</t>
-  </si>
-  <si>
     <t>繁星若珠璀璨</t>
   </si>
   <si>
@@ -1320,9 +1170,6 @@
     <t>乔峰1987</t>
   </si>
   <si>
-    <t>飞花已逝殇梦影</t>
-  </si>
-  <si>
     <t>榕月</t>
   </si>
   <si>
@@ -1359,9 +1206,6 @@
     <t>别碰我的葫芦</t>
   </si>
   <si>
-    <t>大王有点方</t>
-  </si>
-  <si>
     <t>赤月</t>
   </si>
   <si>
@@ -1371,18 +1215,9 @@
     <t>親訫</t>
   </si>
   <si>
-    <t>陌丶羽殇</t>
-  </si>
-  <si>
     <t>欧阳少琴</t>
   </si>
   <si>
-    <t>安蠢蠢</t>
-  </si>
-  <si>
-    <t>一截儿丶</t>
-  </si>
-  <si>
     <t>丐帮金鹏长老</t>
   </si>
   <si>
@@ -1404,9 +1239,6 @@
     <t>觅含丷</t>
   </si>
   <si>
-    <t>北辰心凝魔法少女杜芸松</t>
-  </si>
-  <si>
     <t>开封拍卖行</t>
   </si>
   <si>
@@ -1425,9 +1257,6 @@
     <t>青骢绝骑塑天荒</t>
   </si>
   <si>
-    <t>梦呓ゝ</t>
-  </si>
-  <si>
     <t>丐帮萌主</t>
   </si>
   <si>
@@ -1458,9 +1287,6 @@
     <t>海問香</t>
   </si>
   <si>
-    <t>人生失控</t>
-  </si>
-  <si>
     <t>秦空痕</t>
   </si>
   <si>
@@ -1473,30 +1299,15 @@
     <t>日狗溅人心</t>
   </si>
   <si>
-    <t>董锋</t>
-  </si>
-  <si>
     <t>追风少年鹰老七</t>
   </si>
   <si>
-    <t>瑾年ゝ</t>
-  </si>
-  <si>
     <t>尉军进</t>
   </si>
   <si>
-    <t>楚狂丶</t>
-  </si>
-  <si>
     <t>君兮墨</t>
   </si>
   <si>
-    <t>活阎王123</t>
-  </si>
-  <si>
-    <t>鲲鹏子</t>
-  </si>
-  <si>
     <t>筮渊</t>
   </si>
   <si>
@@ -1506,15 +1317,6 @@
     <t>寂星岚</t>
   </si>
   <si>
-    <t>灬鬼丶舞灬</t>
-  </si>
-  <si>
-    <t>天花葬血</t>
-  </si>
-  <si>
-    <t>渐式</t>
-  </si>
-  <si>
     <t>纯情少妇马芳玲</t>
   </si>
   <si>
@@ -1536,9 +1338,6 @@
     <t>柒果果</t>
   </si>
   <si>
-    <t>涵涵小公举</t>
-  </si>
-  <si>
     <t>昔昔</t>
   </si>
   <si>
@@ -1581,12 +1380,6 @@
     <t>Sunnyboy丶桔子</t>
   </si>
   <si>
-    <t>邂逅ゝ</t>
-  </si>
-  <si>
-    <t>洛城紫陌浸云影春晴</t>
-  </si>
-  <si>
     <t>°°</t>
   </si>
   <si>
@@ -1608,9 +1401,6 @@
     <t>一个有内涵的人</t>
   </si>
   <si>
-    <t>咸鱼1 0 1</t>
-  </si>
-  <si>
     <t>丶初馨</t>
   </si>
   <si>
@@ -1623,9 +1413,6 @@
     <t>小萌耍太白丶</t>
   </si>
   <si>
-    <t>慕容佩</t>
-  </si>
-  <si>
     <t>桜染</t>
   </si>
   <si>
@@ -1668,9 +1455,6 @@
     <t>最喜欢你了</t>
   </si>
   <si>
-    <t>燕南辉</t>
-  </si>
-  <si>
     <t>Puppet丶半心人</t>
   </si>
   <si>
@@ -1680,21 +1464,12 @@
     <t>kingdan</t>
   </si>
   <si>
-    <t>奈亻可</t>
-  </si>
-  <si>
     <t>归海异道</t>
   </si>
   <si>
     <t>流韵丶</t>
   </si>
   <si>
-    <t>上官益涵</t>
-  </si>
-  <si>
-    <t>???????</t>
-  </si>
-  <si>
     <t>遗憾出诗意</t>
   </si>
   <si>
@@ -1707,9 +1482,6 @@
     <t>移星</t>
   </si>
   <si>
-    <t>舉杯獨醉</t>
-  </si>
-  <si>
     <t>唐糖～</t>
   </si>
   <si>
@@ -1734,9 +1506,6 @@
     <t>思念永远美好</t>
   </si>
   <si>
-    <t>唐步枯</t>
-  </si>
-  <si>
     <t>棠无双</t>
   </si>
   <si>
@@ -1746,18 +1515,6 @@
     <t>骨绊橙</t>
   </si>
   <si>
-    <t>比打我</t>
-  </si>
-  <si>
-    <t>穆小七灬</t>
-  </si>
-  <si>
-    <t>kiyomi、</t>
-  </si>
-  <si>
-    <t>机智勇敢的小免</t>
-  </si>
-  <si>
     <t>树儿</t>
   </si>
   <si>
@@ -1773,21 +1530,12 @@
     <t>方得</t>
   </si>
   <si>
-    <t>池小晩</t>
-  </si>
-  <si>
-    <t>九州</t>
-  </si>
-  <si>
     <t>花兮兮</t>
   </si>
   <si>
     <t>鹰老七</t>
   </si>
   <si>
-    <t>墨舞</t>
-  </si>
-  <si>
     <t>奶小牛</t>
   </si>
   <si>
@@ -1797,67 +1545,295 @@
     <t>荡荡</t>
   </si>
   <si>
-    <t>一抹煙雨落繁</t>
-  </si>
-  <si>
-    <t>奈</t>
-  </si>
-  <si>
     <t>无言上青楼</t>
   </si>
   <si>
-    <t>牛奶奶</t>
-  </si>
-  <si>
-    <t>雲嫣</t>
-  </si>
-  <si>
-    <t>初馨</t>
-  </si>
-  <si>
-    <t>放肆流逝</t>
-  </si>
-  <si>
-    <t>晓枫</t>
-  </si>
-  <si>
-    <t>浪浪</t>
-  </si>
-  <si>
-    <t>简单爱</t>
-  </si>
-  <si>
-    <t>花名</t>
-  </si>
-  <si>
     <t>刀客</t>
   </si>
   <si>
-    <t>小阿镜</t>
-  </si>
-  <si>
-    <t>开封拍卖行</t>
-  </si>
-  <si>
-    <t>浩浩</t>
-  </si>
-  <si>
     <t>淡若清风</t>
   </si>
   <si>
     <t>那年</t>
   </si>
   <si>
-    <t>拌饭</t>
-  </si>
-  <si>
     <t>红着脸</t>
   </si>
   <si>
     <t>花谢人凋零</t>
   </si>
   <si>
-    <t>阿</t>
+    <t>青衫逝</t>
+  </si>
+  <si>
+    <t>凌渃尘</t>
+  </si>
+  <si>
+    <t>秦歌笑</t>
+  </si>
+  <si>
+    <t>乐无欢</t>
+  </si>
+  <si>
+    <t>江人何年初见月</t>
+  </si>
+  <si>
+    <t>一夜风雪</t>
+  </si>
+  <si>
+    <t>金少远</t>
+  </si>
+  <si>
+    <t>来自美利坚的剑</t>
+  </si>
+  <si>
+    <t>六丶花</t>
+  </si>
+  <si>
+    <t>别潇潇</t>
+  </si>
+  <si>
+    <t>座下吹箫小童子</t>
+  </si>
+  <si>
+    <t>真武小诗妹</t>
+  </si>
+  <si>
+    <t>墨麟杉</t>
+  </si>
+  <si>
+    <t>玻璃夕阳</t>
+  </si>
+  <si>
+    <t>流浪的小花狼</t>
+  </si>
+  <si>
+    <t>墨钰轩</t>
+  </si>
+  <si>
+    <t>翎絡</t>
+  </si>
+  <si>
+    <t>下一秒つ秒你</t>
+  </si>
+  <si>
+    <t>人剑则无敌</t>
+  </si>
+  <si>
+    <t>祗园之舞</t>
+  </si>
+  <si>
+    <t>心天之痕</t>
+  </si>
+  <si>
+    <t>刃莫锐</t>
+  </si>
+  <si>
+    <t>再幾次晚安</t>
+  </si>
+  <si>
+    <t>冷血〃</t>
+  </si>
+  <si>
+    <t>丨拂晓丶</t>
+  </si>
+  <si>
+    <t>淡淡思念</t>
+  </si>
+  <si>
+    <t>莘歆悦</t>
+  </si>
+  <si>
+    <t>帝古</t>
+  </si>
+  <si>
+    <t>若乀风</t>
+  </si>
+  <si>
+    <t>上宫雅檬</t>
+  </si>
+  <si>
+    <t>么准</t>
+  </si>
+  <si>
+    <t>他们不让玩神威</t>
+  </si>
+  <si>
+    <t>我是赵医生</t>
+  </si>
+  <si>
+    <t>谶木</t>
+  </si>
+  <si>
+    <t>唯我一剑</t>
+  </si>
+  <si>
+    <t>丶奇怪的瞄</t>
+  </si>
+  <si>
+    <t>唐雪棠</t>
+  </si>
+  <si>
+    <t>友善的大夫</t>
+  </si>
+  <si>
+    <t>咸鱼天香</t>
+  </si>
+  <si>
+    <t>丨寻她丶丨</t>
+  </si>
+  <si>
+    <t>我一直没有曾经</t>
+  </si>
+  <si>
+    <t>苏諵</t>
+  </si>
+  <si>
+    <t>豿仔</t>
+  </si>
+  <si>
+    <t>ParTing丶X</t>
+  </si>
+  <si>
+    <t>我爱我榕</t>
+  </si>
+  <si>
+    <t>丶依弦</t>
+  </si>
+  <si>
+    <t>李破风</t>
+  </si>
+  <si>
+    <t>执手写悲伤</t>
+  </si>
+  <si>
+    <t>简单愛</t>
+  </si>
+  <si>
+    <t>反正我是最小的</t>
+  </si>
+  <si>
+    <t>魅丿无情</t>
+  </si>
+  <si>
+    <t>余温重拾丶</t>
+  </si>
+  <si>
+    <t>菁樂一紫枫</t>
+  </si>
+  <si>
+    <t>手中玫瑰赠予谁</t>
+  </si>
+  <si>
+    <t>追随壹生</t>
+  </si>
+  <si>
+    <t>东瀛浪人展梦魂</t>
+  </si>
+  <si>
+    <t>女神、</t>
+  </si>
+  <si>
+    <t>擎天、、</t>
+  </si>
+  <si>
+    <t>飞羽绝尘</t>
+  </si>
+  <si>
+    <t>那年今若、</t>
+  </si>
+  <si>
+    <t>分分钟的等待</t>
+  </si>
+  <si>
+    <t>徽州酒癫</t>
+  </si>
+  <si>
+    <t>萝卜土豆丝</t>
+  </si>
+  <si>
+    <t>小阿鏡</t>
+  </si>
+  <si>
+    <t>蠢蠢的我</t>
+  </si>
+  <si>
+    <t>五六柒</t>
+  </si>
+  <si>
+    <t>Actors丶纤旧</t>
+  </si>
+  <si>
+    <t>魔法少女杜芸松</t>
+  </si>
+  <si>
+    <t>洛城紫陌浸云影</t>
+  </si>
+  <si>
+    <t>夕眸</t>
+  </si>
+  <si>
+    <t>罗愫</t>
+  </si>
+  <si>
+    <t>一豚豚一</t>
+  </si>
+  <si>
+    <t>韩灵菲</t>
+  </si>
+  <si>
+    <t>黑夜中的耗子</t>
+  </si>
+  <si>
+    <t>＊蘭先森</t>
+  </si>
+  <si>
+    <t>等风与你</t>
+  </si>
+  <si>
+    <t>墨渱</t>
+  </si>
+  <si>
+    <t>请叫我柳岩</t>
+  </si>
+  <si>
+    <t>北辰心凝</t>
+  </si>
+  <si>
+    <t>只会躺不输出</t>
+  </si>
+  <si>
+    <t>小屁股</t>
+  </si>
+  <si>
+    <t>我是天香的</t>
+  </si>
+  <si>
+    <t>浪迹小</t>
+  </si>
+  <si>
+    <t>阿淮</t>
+  </si>
+  <si>
+    <t>梦太晚</t>
+  </si>
+  <si>
+    <t>剪云端</t>
+  </si>
+  <si>
+    <t>小萌耍太白</t>
+  </si>
+  <si>
+    <t>山高</t>
+  </si>
+  <si>
+    <t>那年红</t>
+  </si>
+  <si>
+    <t>潇湘</t>
+  </si>
+  <si>
+    <t>陌路</t>
   </si>
 </sst>
 </file>
@@ -2175,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C572"/>
+  <dimension ref="A1:C991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,3115 +2166,5321 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="str">
+        <v>513</v>
+      </c>
+      <c r="C1" t="e">
         <f>VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
-        <v>ParTing丶R</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>521</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>514</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C52" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,1,0)</f>
+        <v>吕小栋</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>城南穷鬼赵四</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>593</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>322</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>娇软の小屁股</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>594</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>325</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>我是天香的啊</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>353</v>
+        <v>337</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>我是小官人</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>499</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>323</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>无言上青楼</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>592</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>352</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>绫月薇</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>517</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>43</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>江人何年初见月</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>595</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>27</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>浪迹小秦</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>580</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>327</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>独孤沐白</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>593</v>
+        <v>502</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>花兮兮兮兮</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>331</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>小阿淮呀</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>365</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>零拾</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>青丝枫凌</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>513</v>
       </c>
       <c r="B17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>青衫逝</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>594</v>
+        <v>497</v>
       </c>
       <c r="B18" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>树儿高高长</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>格七</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>格殺</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>597</v>
+      </c>
+      <c r="B21" t="s">
+        <v>516</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>榕月</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>沐浠尘</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>511</v>
+      </c>
+      <c r="B24" t="s">
+        <v>330</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>再见是否红着脸</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>512</v>
+      </c>
+      <c r="B25" t="s">
+        <v>517</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>花谢人凋零。</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>598</v>
+      </c>
+      <c r="B26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>轻素剪云端</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>603</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>373</v>
+      </c>
+      <c r="B28" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>鱼小小</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" t="s">
+        <v>507</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>鱼香</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>585</v>
-      </c>
-      <c r="B20" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>611</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>万心忧</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>518</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>墨韵轩华</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>501</v>
+      </c>
+      <c r="B32" t="s">
+        <v>519</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>方得始終</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>498</v>
+      </c>
+      <c r="B33" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>595</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>机智勇敢的小炮</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>599</v>
+      </c>
+      <c r="B34" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>小萌耍太白丶</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>怒怒怒怒火</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>472</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>椛灯</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>455</v>
+      </c>
+      <c r="B37" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>艾尔艾路弗</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>596</v>
-      </c>
-      <c r="B28" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>587</v>
-      </c>
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>582</v>
-      </c>
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>579</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>597</v>
-      </c>
-      <c r="B35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>598</v>
-      </c>
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>583</v>
-      </c>
-      <c r="B38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>诸天花雨</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>599</v>
+        <v>508</v>
       </c>
       <c r="B39" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>其实想玩刀客</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>504</v>
       </c>
       <c r="B40" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>奶小牛丶</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>600</v>
       </c>
       <c r="B41" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>山高丶木易</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>505</v>
+      </c>
+      <c r="B42" t="s">
+        <v>522</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>彡电竞丿柯南乄</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>509</v>
+      </c>
+      <c r="B43" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>淡若清风過丶</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>潇洒仗剑天下</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>602</v>
+      </c>
+      <c r="B45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>潇湘灬墨染</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>煌煌</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>紫舞流年</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>紫雨幽雲</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>506</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>荡荡</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>510</v>
+      </c>
+      <c r="B50" t="s">
+        <v>334</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>那年今若、</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>601</v>
+      </c>
+      <c r="B51" t="s">
+        <v>523</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>那年红颜</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>503</v>
+      </c>
+      <c r="B52" t="s">
         <v>524</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>追风少年鹰老七</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>601</v>
-      </c>
-      <c r="B43" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>350</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>217</v>
-      </c>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>602</v>
-      </c>
-      <c r="B47" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>588</v>
-      </c>
-      <c r="B48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>603</v>
-      </c>
-      <c r="B49" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>604</v>
-      </c>
-      <c r="B50" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>589</v>
-      </c>
-      <c r="B51" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>605</v>
-      </c>
-      <c r="B53" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>606</v>
-      </c>
-      <c r="B54" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>607</v>
-      </c>
-      <c r="B60" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>590</v>
-      </c>
-      <c r="B61" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>586</v>
-      </c>
-      <c r="B64" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>591</v>
-      </c>
-      <c r="B67" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>584</v>
-      </c>
-      <c r="B69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>43</v>
-      </c>
-      <c r="B70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>418</v>
-      </c>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>608</v>
-      </c>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>31</v>
-      </c>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>82</v>
-      </c>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>577</v>
-      </c>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>578</v>
-      </c>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>25</v>
-      </c>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>24</v>
-      </c>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>433</v>
-      </c>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>298</v>
-      </c>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>609</v>
-      </c>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>610</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>421</v>
-      </c>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>389</v>
+        <v>536</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>131</v>
+        <v>348</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>133</v>
+        <v>537</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>391</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>392</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>72</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>393</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>342</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>395</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>396</v>
+        <v>539</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>397</v>
+        <v>540</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>141</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>398</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>399</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>400</v>
+        <v>541</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>142</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>343</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>403</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>405</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>406</v>
+        <v>543</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>407</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>410</v>
+        <v>544</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>84</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>415</v>
+        <v>545</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>58</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>320</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>418</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>261</v>
+        <v>367</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>31</v>
+        <v>546</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>43</v>
+        <v>454</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>419</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>420</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>421</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>262</v>
+        <v>453</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>304</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>265</v>
+        <v>455</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>422</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>267</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>266</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>268</v>
+        <v>547</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>423</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>270</v>
+        <v>456</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>271</v>
+        <v>548</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>273</v>
+        <v>133</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>274</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>275</v>
+        <v>462</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>276</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>277</v>
+        <v>480</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>424</v>
+        <v>549</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>278</v>
+        <v>463</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>279</v>
+        <v>550</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>337</v>
+        <v>464</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>425</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>281</v>
+        <v>551</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>260</v>
+        <v>137</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>427</v>
+        <v>138</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>282</v>
+        <v>552</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>284</v>
+        <v>553</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>61</v>
+        <v>554</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>283</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>285</v>
+        <v>140</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>429</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>286</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>287</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>60</v>
+        <v>555</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>430</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>431</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>288</v>
+        <v>468</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>289</v>
+        <v>452</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>432</v>
+        <v>143</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>344</v>
+        <v>469</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>290</v>
+        <v>556</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>79</v>
+        <v>557</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>291</v>
+        <v>144</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>433</v>
+        <v>558</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>102</v>
+        <v>471</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>294</v>
+        <v>146</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>263</v>
+        <v>472</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>295</v>
+        <v>473</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>296</v>
+        <v>35</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>297</v>
+        <v>147</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>437</v>
+        <v>149</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>299</v>
+        <v>559</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>438</v>
+        <v>560</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>300</v>
+        <v>58</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>345</v>
+        <v>476</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>439</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>302</v>
+        <v>50</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>303</v>
+        <v>561</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>440</v>
+        <v>150</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>347</v>
+        <v>477</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>441</v>
+        <v>168</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>305</v>
+        <v>152</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>307</v>
+        <v>479</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>306</v>
+        <v>153</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>346</v>
+        <v>484</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>309</v>
+        <v>457</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>311</v>
+        <v>481</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>312</v>
+        <v>158</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>25</v>
+        <v>562</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>444</v>
+        <v>159</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>313</v>
+        <v>483</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>314</v>
+        <v>71</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>315</v>
+        <v>485</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>310</v>
+        <v>161</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>325</v>
+        <v>486</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>348</v>
+        <v>487</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>317</v>
+        <v>129</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>447</v>
+        <v>163</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>318</v>
+        <v>489</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>319</v>
+        <v>563</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>316</v>
+        <v>66</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>448</v>
+        <v>219</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>449</v>
+        <v>165</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>321</v>
+        <v>166</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>450</v>
+        <v>19</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>322</v>
+        <v>42</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>36</v>
+        <v>490</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>323</v>
+        <v>130</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>324</v>
+        <v>169</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>327</v>
+        <v>170</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>452</v>
+        <v>171</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>328</v>
+        <v>131</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>453</v>
+        <v>172</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>454</v>
+        <v>173</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>329</v>
+        <v>491</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>330</v>
+        <v>492</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>331</v>
+        <v>564</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>455</v>
+        <v>493</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>332</v>
+        <v>33</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>264</v>
+        <v>174</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>456</v>
+        <v>565</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>334</v>
+        <v>175</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>335</v>
+        <v>495</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>336</v>
+        <v>176</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>458</v>
+        <v>496</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>460</v>
+        <v>177</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>5</v>
+        <v>178</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>461</v>
+        <v>179</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>14</v>
+        <v>566</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>9</v>
+        <v>567</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>349</v>
+        <v>460</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>462</v>
+        <v>52</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>463</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>245</v>
+        <v>405</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>55</v>
+        <v>320</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>6</v>
+        <v>233</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>467</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>468</v>
+        <v>197</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>206</v>
+        <v>568</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>470</v>
+        <v>185</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>207</v>
+        <v>569</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>471</v>
+        <v>186</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>208</v>
+        <v>570</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>472</v>
+        <v>411</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>209</v>
+        <v>29</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>210</v>
+        <v>412</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>29</v>
+        <v>413</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>473</v>
+        <v>188</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>212</v>
+        <v>415</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>475</v>
+        <v>409</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>476</v>
+        <v>191</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>477</v>
+        <v>192</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>478</v>
+        <v>28</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>215</v>
+        <v>38</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>78</v>
+        <v>417</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>479</v>
+        <v>418</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>480</v>
+        <v>193</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>216</v>
+        <v>571</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>481</v>
+        <v>408</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>217</v>
+        <v>419</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>219</v>
+        <v>420</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>482</v>
+        <v>195</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>1</v>
+        <v>572</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>221</v>
+        <v>421</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>483</v>
+        <v>422</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>222</v>
+        <v>423</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>484</v>
+        <v>49</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>485</v>
+        <v>198</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>487</v>
+        <v>573</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>488</v>
+        <v>574</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>489</v>
+        <v>575</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>490</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>229</v>
+        <v>426</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>491</v>
+        <v>203</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>226</v>
+        <v>576</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>227</v>
+        <v>406</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>492</v>
+        <v>205</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
-        <v>202</v>
+        <v>427</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>493</v>
+        <v>208</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>494</v>
+        <v>429</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>230</v>
+        <v>428</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>495</v>
+        <v>206</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>496</v>
+        <v>72</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>497</v>
+        <v>207</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>498</v>
+        <v>430</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>499</v>
+        <v>70</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>500</v>
+        <v>577</v>
       </c>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>3</v>
+        <v>432</v>
       </c>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>501</v>
+        <v>211</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>234</v>
+        <v>433</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>502</v>
+        <v>434</v>
       </c>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>236</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>503</v>
+        <v>435</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>504</v>
+        <v>213</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>506</v>
+        <v>215</v>
       </c>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
-        <v>8</v>
+        <v>437</v>
       </c>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>239</v>
+        <v>407</v>
       </c>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
-        <v>507</v>
+        <v>438</v>
       </c>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
-        <v>0</v>
+        <v>431</v>
       </c>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>508</v>
+        <v>216</v>
       </c>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>509</v>
+        <v>217</v>
       </c>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
-        <v>510</v>
+        <v>440</v>
       </c>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>511</v>
+        <v>218</v>
       </c>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>242</v>
+        <v>441</v>
       </c>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>243</v>
+        <v>442</v>
       </c>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>244</v>
+        <v>443</v>
       </c>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>248</v>
+        <v>444</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>512</v>
+        <v>220</v>
       </c>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>513</v>
+        <v>221</v>
       </c>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
-        <v>514</v>
+        <v>222</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>246</v>
+        <v>439</v>
       </c>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
-        <v>515</v>
+        <v>227</v>
       </c>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>204</v>
+        <v>446</v>
       </c>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
-        <v>247</v>
+        <v>8</v>
       </c>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>250</v>
+        <v>410</v>
       </c>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
-        <v>251</v>
+        <v>448</v>
       </c>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>252</v>
+        <v>578</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>254</v>
+        <v>445</v>
       </c>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>516</v>
+        <v>228</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>205</v>
+        <v>579</v>
       </c>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>517</v>
+        <v>449</v>
       </c>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>518</v>
+        <v>5</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>257</v>
+        <v>580</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
-        <v>519</v>
+        <v>62</v>
       </c>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
-        <v>259</v>
+        <v>184</v>
       </c>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>258</v>
+        <v>450</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
-        <v>42</v>
+        <v>234</v>
       </c>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
-        <v>48</v>
+        <v>581</v>
       </c>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
-        <v>521</v>
+        <v>320</v>
       </c>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
-        <v>522</v>
+        <v>13</v>
       </c>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
-        <v>4</v>
+        <v>405</v>
       </c>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
-        <v>523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
-        <v>524</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
-        <v>525</v>
+        <v>425</v>
       </c>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
-        <v>526</v>
+        <v>410</v>
       </c>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
-        <v>527</v>
+        <v>16</v>
       </c>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
-        <v>528</v>
+        <v>197</v>
       </c>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
-        <v>529</v>
+        <v>436</v>
       </c>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
-        <v>172</v>
+        <v>441</v>
       </c>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
-        <v>70</v>
+        <v>568</v>
       </c>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B451" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
-        <v>531</v>
+        <v>186</v>
       </c>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
-        <v>146</v>
+        <v>570</v>
       </c>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
-        <v>147</v>
+        <v>411</v>
       </c>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
-        <v>148</v>
+        <v>412</v>
       </c>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
-        <v>532</v>
+        <v>413</v>
       </c>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
-        <v>533</v>
+        <v>188</v>
       </c>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
-        <v>63</v>
+        <v>414</v>
       </c>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
-        <v>534</v>
+        <v>415</v>
       </c>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
-        <v>33</v>
+        <v>409</v>
       </c>
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
-        <v>535</v>
+        <v>190</v>
       </c>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
-        <v>338</v>
+        <v>191</v>
       </c>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B467" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
-        <v>536</v>
+        <v>416</v>
       </c>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
-        <v>537</v>
+        <v>417</v>
       </c>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
-        <v>157</v>
+        <v>418</v>
       </c>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B475" t="s">
-        <v>21</v>
+        <v>408</v>
       </c>
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
-        <v>158</v>
+        <v>419</v>
       </c>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
-        <v>539</v>
+        <v>420</v>
       </c>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B480" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B482" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
-        <v>162</v>
+        <v>422</v>
       </c>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B485" t="s">
-        <v>541</v>
+        <v>423</v>
       </c>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
-        <v>542</v>
+        <v>49</v>
       </c>
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B488" t="s">
-        <v>543</v>
+        <v>199</v>
       </c>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B489" t="s">
-        <v>544</v>
+        <v>424</v>
       </c>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B491" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B493" t="s">
-        <v>164</v>
+        <v>574</v>
       </c>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
-        <v>546</v>
+        <v>202</v>
       </c>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
-        <v>166</v>
+        <v>575</v>
       </c>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B496" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B497" t="s">
-        <v>547</v>
+        <v>426</v>
       </c>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
-        <v>548</v>
+        <v>203</v>
       </c>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B499" t="s">
-        <v>15</v>
+        <v>576</v>
       </c>
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B500" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
     </row>
     <row r="501" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B501" t="s">
-        <v>549</v>
+        <v>406</v>
       </c>
     </row>
     <row r="502" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B502" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="503" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B503" t="s">
-        <v>169</v>
+        <v>427</v>
       </c>
     </row>
     <row r="504" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B504" t="s">
-        <v>550</v>
+        <v>208</v>
       </c>
     </row>
     <row r="505" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B505" t="s">
-        <v>551</v>
+        <v>429</v>
       </c>
     </row>
     <row r="506" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B506" t="s">
-        <v>552</v>
+        <v>428</v>
       </c>
     </row>
     <row r="507" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B507" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="508" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B508" t="s">
-        <v>340</v>
+        <v>72</v>
       </c>
     </row>
     <row r="509" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B509" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
     </row>
     <row r="510" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B510" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="511" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B511" t="s">
-        <v>553</v>
+        <v>430</v>
       </c>
     </row>
     <row r="512" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B512" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
     </row>
     <row r="513" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B513" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
     </row>
     <row r="514" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B514" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
     </row>
     <row r="515" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B515" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
     </row>
     <row r="516" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B516" t="s">
-        <v>555</v>
+        <v>432</v>
       </c>
     </row>
     <row r="517" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B517" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
     </row>
     <row r="518" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B518" t="s">
-        <v>556</v>
+        <v>433</v>
       </c>
     </row>
     <row r="519" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B519" t="s">
-        <v>177</v>
+        <v>434</v>
       </c>
     </row>
     <row r="520" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B520" t="s">
-        <v>557</v>
+        <v>212</v>
       </c>
     </row>
     <row r="521" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B521" t="s">
-        <v>178</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B522" t="s">
-        <v>558</v>
+        <v>435</v>
       </c>
     </row>
     <row r="523" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B523" t="s">
-        <v>559</v>
+        <v>213</v>
       </c>
     </row>
     <row r="524" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B524" t="s">
-        <v>560</v>
+        <v>431</v>
       </c>
     </row>
     <row r="525" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B525" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="526" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B526" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
     </row>
     <row r="527" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B527" t="s">
-        <v>561</v>
+        <v>437</v>
       </c>
     </row>
     <row r="528" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B528" t="s">
-        <v>562</v>
+        <v>407</v>
       </c>
     </row>
     <row r="529" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B529" t="s">
-        <v>76</v>
+        <v>438</v>
       </c>
     </row>
     <row r="530" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B530" t="s">
-        <v>563</v>
+        <v>17</v>
       </c>
     </row>
     <row r="531" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B531" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B532" t="s">
-        <v>564</v>
+        <v>217</v>
       </c>
     </row>
     <row r="533" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B533" t="s">
-        <v>565</v>
+        <v>440</v>
       </c>
     </row>
     <row r="534" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B534" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="535" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B535" t="s">
-        <v>183</v>
+        <v>439</v>
       </c>
     </row>
     <row r="536" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B536" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
     </row>
     <row r="537" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B537" t="s">
-        <v>184</v>
+        <v>442</v>
       </c>
     </row>
     <row r="538" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B538" t="s">
-        <v>20</v>
+        <v>443</v>
       </c>
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B539" t="s">
-        <v>186</v>
+        <v>444</v>
       </c>
     </row>
     <row r="540" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B540" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
     </row>
     <row r="541" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B541" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B542" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
     </row>
     <row r="543" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B543" t="s">
-        <v>566</v>
+        <v>445</v>
       </c>
     </row>
     <row r="544" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B544" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
     </row>
     <row r="545" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B545" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="546" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B546" t="s">
-        <v>190</v>
+        <v>446</v>
       </c>
     </row>
     <row r="547" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B547" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
     </row>
     <row r="548" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B548" t="s">
-        <v>567</v>
+        <v>225</v>
       </c>
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B549" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="550" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B550" t="s">
-        <v>191</v>
+        <v>448</v>
       </c>
     </row>
     <row r="551" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B551" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="552" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B552" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B553" t="s">
-        <v>569</v>
+        <v>447</v>
       </c>
     </row>
     <row r="554" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B554" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B555" t="s">
-        <v>570</v>
+        <v>229</v>
       </c>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B556" t="s">
-        <v>326</v>
+        <v>230</v>
       </c>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B557" t="s">
-        <v>571</v>
+        <v>231</v>
       </c>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B558" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="559" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B559" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B560" t="s">
-        <v>573</v>
+        <v>449</v>
       </c>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B561" t="s">
-        <v>195</v>
+        <v>15</v>
       </c>
     </row>
     <row r="562" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B562" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="563" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B563" t="s">
-        <v>145</v>
+        <v>580</v>
       </c>
     </row>
     <row r="564" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B564" t="s">
-        <v>574</v>
+        <v>62</v>
       </c>
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B565" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B566" t="s">
-        <v>575</v>
+        <v>450</v>
       </c>
     </row>
     <row r="567" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B567" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B568" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
     </row>
     <row r="569" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B569" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
     </row>
     <row r="570" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B570" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B571" t="s">
-        <v>200</v>
+        <v>581</v>
       </c>
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B572" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B573" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B574" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B575" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B576" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B577" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B578" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B579" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B580" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B581" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B582" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B583" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B584" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B585" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B586" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B587" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B588" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B589" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B590" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B591" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B592" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B593" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B594" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B595" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B596" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B597" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B598" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B599" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B600" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B601" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B602" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B603" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B604" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B605" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B606" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B607" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B608" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B609" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B610" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B611" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B612" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B613" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B614" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B615" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B616" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B617" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B618" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B619" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B620" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B621" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B622" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B623" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B624" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B625" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B626" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B627" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B628" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B629" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B630" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B631" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B632" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B633" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B634" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B635" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B636" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B637" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B638" t="s">
         <v>576</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B639" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B640" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B641" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B642" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B643" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B644" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B645" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B646" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B647" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B648" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B649" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B650" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B651" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B652" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B653" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B654" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B655" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B656" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B657" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B658" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B659" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B660" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B661" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B662" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B663" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B664" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B665" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B666" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B667" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B668" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B669" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B670" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B671" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B672" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B673" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B674" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B675" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B676" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B677" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B678" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B679" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B680" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B681" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B682" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B683" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B684" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B685" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B686" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B687" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B688" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B689" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B690" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B691" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B692" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B693" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B694" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B695" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B696" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B697" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B698" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B699" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B700" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B701" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B702" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B703" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B704" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B705" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B706" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B707" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B708" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B709" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B710" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B711" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B712" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B713" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B714" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B715" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B716" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B717" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B718" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B719" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B720" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B721" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B722" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B723" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B724" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B725" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B726" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B727" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B728" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B729" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B730" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B731" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B732" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B733" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B734" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B735" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B736" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B737" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B738" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B739" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B740" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B741" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B742" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B743" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B744" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B745" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B746" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B747" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B748" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B749" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B750" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B751" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B752" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B753" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B754" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B755" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B756" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B757" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B758" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B759" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B760" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B761" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B762" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B763" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B764" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B765" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B766" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B767" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B768" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B769" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B770" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B771" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B772" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B773" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B774" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B775" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B776" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B777" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B778" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B779" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B780" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B781" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B782" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B783" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B784" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B785" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="786" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B786" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="787" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B787" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="788" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B788" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="789" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B789" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B790" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="791" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B791" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B792" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B793" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="794" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B794" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="795" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B795" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="796" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B796" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B797" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="798" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B798" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B799" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B800" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B801" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B802" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B803" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B804" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B805" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B806" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B807" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B808" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B809" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B810" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B811" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B812" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B813" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B814" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B815" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B816" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B817" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B818" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B819" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B820" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B821" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B822" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B823" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B824" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B825" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B826" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B827" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B828" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B829" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B830" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B831" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B832" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="833" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B833" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="834" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B834" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="835" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B835" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="836" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B836" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="837" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B837" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="838" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B838" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="839" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B839" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="840" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B840" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="841" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B841" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="842" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B842" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="843" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B843" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="844" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B844" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="845" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B845" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="846" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B846" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="847" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B847" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="848" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B848" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="849" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B849" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="850" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B850" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="851" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B851" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B852" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B853" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="854" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B854" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="855" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B855" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="856" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B856" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B857" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="858" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B858" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B859" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B860" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="861" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B861" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="862" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B862" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="863" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B863" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="864" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B864" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B865" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="866" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B866" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="867" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B867" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="868" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B868" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="869" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B869" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="870" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B870" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="871" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B871" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="872" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B872" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="873" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B873" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="874" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B874" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="875" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B875" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="876" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B876" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B877" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B878" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="879" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B879" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="880" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B880" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="881" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B881" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="882" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B882" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="883" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B883" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="884" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B884" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="885" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B885" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="886" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B886" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="887" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B887" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="888" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B888" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="889" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B889" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="890" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B890" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="891" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B891" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="892" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B892" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="893" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B893" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="894" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B894" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="895" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B895" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="896" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B896" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="897" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B897" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="898" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B898" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="899" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B899" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="900" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B900" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="901" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B901" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="902" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B902" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="903" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B903" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="904" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B904" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="905" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B905" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="906" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B906" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="907" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B907" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="908" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B908" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="909" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B909" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="910" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B910" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="911" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B911" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="912" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B912" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="913" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B913" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="914" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B914" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="915" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B915" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="916" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B916" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="917" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B917" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="918" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B918" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="919" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B919" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="920" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B920" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="921" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B921" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="922" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B922" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="923" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B923" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="924" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B924" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="925" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B925" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="926" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B926" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="927" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B927" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="928" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B928" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="929" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B929" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="930" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B930" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="931" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B931" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="932" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B932" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="933" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B933" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="934" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B934" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="935" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B935" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="936" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B936" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="937" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B937" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="938" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B938" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="939" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B939" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="940" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B940" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="941" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B941" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="942" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B942" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="943" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B943" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="944" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B944" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="945" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B945" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="946" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B946" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="947" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B947" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="948" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B948" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="949" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B949" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="950" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B950" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="951" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B951" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="952" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B952" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="953" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B953" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="954" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B954" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="955" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B955" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="956" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B956" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="957" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B957" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="958" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B958" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="959" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B959" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="960" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B960" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="961" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B961" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="962" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B962" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="963" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B963" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="964" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B964" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="965" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B965" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="966" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B966" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="967" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B967" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="968" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B968" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="969" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B969" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="970" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B970" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="971" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B971" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="972" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B972" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="973" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B973" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="974" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B974" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="975" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B975" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="976" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B976" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="977" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B977" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="978" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B978" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="979" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B979" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="980" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B980" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="981" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B981" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="982" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B982" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="983" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B983" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="984" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B984" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="985" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B985" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="986" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B986" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="987" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B987" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="988" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B988" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="989" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B989" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="990" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B990" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="991" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B991" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="634">
   <si>
     <t>青羽墨染云</t>
   </si>
@@ -198,9 +198,6 @@
     <t>QQ绿钻</t>
   </si>
   <si>
-    <t>′浪浪</t>
-  </si>
-  <si>
     <t>裴述</t>
   </si>
   <si>
@@ -291,24 +288,15 @@
     <t>慕落弦</t>
   </si>
   <si>
-    <t>Qiu徒</t>
-  </si>
-  <si>
     <t>劳资好萌好可爱</t>
   </si>
   <si>
-    <t>自在帝天</t>
-  </si>
-  <si>
     <t>无所不能小奇葩</t>
   </si>
   <si>
     <t>拌饭萌面酥</t>
   </si>
   <si>
-    <t>比逗是念着反</t>
-  </si>
-  <si>
     <t>暮川</t>
   </si>
   <si>
@@ -327,12 +315,6 @@
     <t>亲爱的未闻花名</t>
   </si>
   <si>
-    <t>今非惜</t>
-  </si>
-  <si>
-    <t>诚如神之所说</t>
-  </si>
-  <si>
     <t>墨如渊</t>
   </si>
   <si>
@@ -378,18 +360,12 @@
     <t>欢脱的柚子</t>
   </si>
   <si>
-    <t>嘟小楼</t>
-  </si>
-  <si>
     <t>白轻寒</t>
   </si>
   <si>
     <t>青丝枫凌</t>
   </si>
   <si>
-    <t>離尺</t>
-  </si>
-  <si>
     <t>蝶舞云</t>
   </si>
   <si>
@@ -438,9 +414,6 @@
     <t>小卤蛋丶</t>
   </si>
   <si>
-    <t>神丶陌上微光</t>
-  </si>
-  <si>
     <t>影流皇族</t>
   </si>
   <si>
@@ -480,9 +453,6 @@
     <t>蚩尤魔人</t>
   </si>
   <si>
-    <t>酣梦恰此时光丶</t>
-  </si>
-  <si>
     <t>长河的水儿不浑</t>
   </si>
   <si>
@@ -537,9 +507,6 @@
     <t>唐一出</t>
   </si>
   <si>
-    <t>南宫璃夢</t>
-  </si>
-  <si>
     <t>绑定小蜜的</t>
   </si>
   <si>
@@ -753,12 +720,6 @@
     <t>聂人王</t>
   </si>
   <si>
-    <t>FateLibra</t>
-  </si>
-  <si>
-    <t>FateScorpio</t>
-  </si>
-  <si>
     <t>舞恋月</t>
   </si>
   <si>
@@ -813,9 +774,6 @@
     <t>秋水云嫣</t>
   </si>
   <si>
-    <t>奥迪网</t>
-  </si>
-  <si>
     <t>钟离三昧</t>
   </si>
   <si>
@@ -903,9 +861,6 @@
     <t>子车振</t>
   </si>
   <si>
-    <t>＊下水道的白</t>
-  </si>
-  <si>
     <t>盖世呆头洋</t>
   </si>
   <si>
@@ -939,9 +894,6 @@
     <t>风舞雩</t>
   </si>
   <si>
-    <t>长安不复</t>
-  </si>
-  <si>
     <t>情场浪子轩GG丶</t>
   </si>
   <si>
@@ -954,9 +906,6 @@
     <t>邱少</t>
   </si>
   <si>
-    <t>叶行云</t>
-  </si>
-  <si>
     <t>潇懿风</t>
   </si>
   <si>
@@ -1020,12 +969,6 @@
     <t>花兮兮兮兮</t>
   </si>
   <si>
-    <t>麒哲琬</t>
-  </si>
-  <si>
-    <t>子皿</t>
-  </si>
-  <si>
     <t>吕小栋</t>
   </si>
   <si>
@@ -1035,9 +978,6 @@
     <t>几度度丶</t>
   </si>
   <si>
-    <t>临风望月爱啪啪</t>
-  </si>
-  <si>
     <t>微爱月</t>
   </si>
   <si>
@@ -1047,15 +987,9 @@
     <t>夢觴丶</t>
   </si>
   <si>
-    <t>半夏唯美</t>
-  </si>
-  <si>
     <t>绫月薇</t>
   </si>
   <si>
-    <t>奶茶味果糖ˇ</t>
-  </si>
-  <si>
     <t>唐枫易</t>
   </si>
   <si>
@@ -1077,9 +1011,6 @@
     <t>牛奶奶奶奶</t>
   </si>
   <si>
-    <t>烟渳離</t>
-  </si>
-  <si>
     <t>我是天香的啊</t>
   </si>
   <si>
@@ -1125,9 +1056,6 @@
     <t>霎那丶芳华</t>
   </si>
   <si>
-    <t>凌雲汤圆</t>
-  </si>
-  <si>
     <t>凯贼阔里</t>
   </si>
   <si>
@@ -1164,9 +1092,6 @@
     <t>天涯路渺渺</t>
   </si>
   <si>
-    <t>邓紫棋的小鲜肉</t>
-  </si>
-  <si>
     <t>乔峰1987</t>
   </si>
   <si>
@@ -1305,9 +1230,6 @@
     <t>尉军进</t>
   </si>
   <si>
-    <t>君兮墨</t>
-  </si>
-  <si>
     <t>筮渊</t>
   </si>
   <si>
@@ -1449,9 +1371,6 @@
     <t>嗯哼丶一刀</t>
   </si>
   <si>
-    <t>白梓伶</t>
-  </si>
-  <si>
     <t>最喜欢你了</t>
   </si>
   <si>
@@ -1473,9 +1392,6 @@
     <t>遗憾出诗意</t>
   </si>
   <si>
-    <t>黑大侠Ⅰ</t>
-  </si>
-  <si>
     <t>翁瑞婷</t>
   </si>
   <si>
@@ -1485,9 +1401,6 @@
     <t>唐糖～</t>
   </si>
   <si>
-    <t>一诗月一</t>
-  </si>
-  <si>
     <t>風云</t>
   </si>
   <si>
@@ -1521,48 +1434,24 @@
     <t>小炮</t>
   </si>
   <si>
-    <t>折扇浪漫</t>
-  </si>
-  <si>
-    <t>月薇</t>
-  </si>
-  <si>
-    <t>方得</t>
-  </si>
-  <si>
-    <t>花兮兮</t>
-  </si>
-  <si>
     <t>鹰老七</t>
   </si>
   <si>
     <t>奶小牛</t>
   </si>
   <si>
-    <t>柯南</t>
-  </si>
-  <si>
-    <t>荡荡</t>
-  </si>
-  <si>
     <t>无言上青楼</t>
   </si>
   <si>
     <t>刀客</t>
   </si>
   <si>
-    <t>淡若清风</t>
-  </si>
-  <si>
     <t>那年</t>
   </si>
   <si>
     <t>红着脸</t>
   </si>
   <si>
-    <t>花谢人凋零</t>
-  </si>
-  <si>
     <t>青衫逝</t>
   </si>
   <si>
@@ -1614,9 +1503,6 @@
     <t>翎絡</t>
   </si>
   <si>
-    <t>下一秒つ秒你</t>
-  </si>
-  <si>
     <t>人剑则无敌</t>
   </si>
   <si>
@@ -1626,9 +1512,6 @@
     <t>心天之痕</t>
   </si>
   <si>
-    <t>刃莫锐</t>
-  </si>
-  <si>
     <t>再幾次晚安</t>
   </si>
   <si>
@@ -1638,9 +1521,6 @@
     <t>丨拂晓丶</t>
   </si>
   <si>
-    <t>淡淡思念</t>
-  </si>
-  <si>
     <t>莘歆悦</t>
   </si>
   <si>
@@ -1668,9 +1548,6 @@
     <t>唯我一剑</t>
   </si>
   <si>
-    <t>丶奇怪的瞄</t>
-  </si>
-  <si>
     <t>唐雪棠</t>
   </si>
   <si>
@@ -1806,34 +1683,247 @@
     <t>小屁股</t>
   </si>
   <si>
-    <t>我是天香的</t>
-  </si>
-  <si>
     <t>浪迹小</t>
   </si>
   <si>
-    <t>阿淮</t>
-  </si>
-  <si>
-    <t>梦太晚</t>
-  </si>
-  <si>
-    <t>剪云端</t>
-  </si>
-  <si>
-    <t>小萌耍太白</t>
-  </si>
-  <si>
-    <t>山高</t>
-  </si>
-  <si>
-    <t>那年红</t>
-  </si>
-  <si>
     <t>潇湘</t>
   </si>
   <si>
-    <t>陌路</t>
+    <t>一级神兵谱</t>
+  </si>
+  <si>
+    <t>只会躺不输出丶</t>
+  </si>
+  <si>
+    <t>挽瓷</t>
+  </si>
+  <si>
+    <t>萌萌哒灬毒香</t>
+  </si>
+  <si>
+    <t>丶柳天</t>
+  </si>
+  <si>
+    <t>柳柳々</t>
+  </si>
+  <si>
+    <t>时佩音</t>
+  </si>
+  <si>
+    <t>青丶玄</t>
+  </si>
+  <si>
+    <t>千丶色</t>
+  </si>
+  <si>
+    <t>小小小埋丶</t>
+  </si>
+  <si>
+    <t>醉饮砒霜</t>
+  </si>
+  <si>
+    <t>单机仙人</t>
+  </si>
+  <si>
+    <t>九月木妖</t>
+  </si>
+  <si>
+    <t>这下可好啦</t>
+  </si>
+  <si>
+    <t>⑦玥</t>
+  </si>
+  <si>
+    <t>爱哭鼻の阿木木</t>
+  </si>
+  <si>
+    <t>网瘾男神张全蛋</t>
+  </si>
+  <si>
+    <t>雪域星空</t>
+  </si>
+  <si>
+    <t>沐名</t>
+  </si>
+  <si>
+    <t>笛梦一秋</t>
+  </si>
+  <si>
+    <t>洛枳丶</t>
+  </si>
+  <si>
+    <t>蓝天湘子</t>
+  </si>
+  <si>
+    <t>碧空沧海藏云山</t>
+  </si>
+  <si>
+    <t>剣殊雨寒丶</t>
+  </si>
+  <si>
+    <t>顾寻清</t>
+  </si>
+  <si>
+    <t>说谎的男孩</t>
+  </si>
+  <si>
+    <t>轩辕疯疯</t>
+  </si>
+  <si>
+    <t>薄霭</t>
+  </si>
+  <si>
+    <t>慕容靉</t>
+  </si>
+  <si>
+    <t>妄于</t>
+  </si>
+  <si>
+    <t>气质绝非偶然</t>
+  </si>
+  <si>
+    <t>♬沧月</t>
+  </si>
+  <si>
+    <t>云醉月微寒</t>
+  </si>
+  <si>
+    <t>余夜阑珊</t>
+  </si>
+  <si>
+    <t>烧酒仙</t>
+  </si>
+  <si>
+    <t>臻忆丶</t>
+  </si>
+  <si>
+    <t>羽洛剑</t>
+  </si>
+  <si>
+    <t>旧忆</t>
+  </si>
+  <si>
+    <t>与尔同</t>
+  </si>
+  <si>
+    <t>凌</t>
+  </si>
+  <si>
+    <t>南宮絮语</t>
+  </si>
+  <si>
+    <t>古巷烟雨</t>
+  </si>
+  <si>
+    <t>小狼</t>
+  </si>
+  <si>
+    <t>折扇</t>
+  </si>
+  <si>
+    <t>时钟轻摇</t>
+  </si>
+  <si>
+    <t>梦觞</t>
+  </si>
+  <si>
+    <t>海棠</t>
+  </si>
+  <si>
+    <t>百里轩翊</t>
+  </si>
+  <si>
+    <t>素蝶</t>
+  </si>
+  <si>
+    <t>雲嫣</t>
+  </si>
+  <si>
+    <t>零抬</t>
+  </si>
+  <si>
+    <t>青丝</t>
+  </si>
+  <si>
+    <t>内涵</t>
+  </si>
+  <si>
+    <t>几度</t>
+  </si>
+  <si>
+    <t>初馨</t>
+  </si>
+  <si>
+    <t>倾城</t>
+  </si>
+  <si>
+    <t>太极至</t>
+  </si>
+  <si>
+    <t>晓枳</t>
+  </si>
+  <si>
+    <t>月怜</t>
+  </si>
+  <si>
+    <t>花名</t>
+  </si>
+  <si>
+    <t>蚩尤</t>
+  </si>
+  <si>
+    <t>花雨</t>
+  </si>
+  <si>
+    <t>阿木木</t>
+  </si>
+  <si>
+    <t>失望</t>
+  </si>
+  <si>
+    <t>凝烟</t>
+  </si>
+  <si>
+    <t>浩浩</t>
+  </si>
+  <si>
+    <t>铁梦秋</t>
+  </si>
+  <si>
+    <t>城爱未恋</t>
+  </si>
+  <si>
+    <t>羽墨染云</t>
+  </si>
+  <si>
+    <t>马芳玲</t>
+  </si>
+  <si>
+    <t>小猫</t>
+  </si>
+  <si>
+    <t>一抹煙雨</t>
+  </si>
+  <si>
+    <t>九州</t>
+  </si>
+  <si>
+    <t>天蓝色</t>
+  </si>
+  <si>
+    <t>拌饭</t>
+  </si>
+  <si>
+    <t>晓月梦</t>
+  </si>
+  <si>
+    <t>等风</t>
+  </si>
+  <si>
+    <t>花谢人</t>
+  </si>
+  <si>
+    <t>女神奥</t>
   </si>
 </sst>
 </file>
@@ -2151,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C991"/>
+  <dimension ref="A1:C578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,10 +2256,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>592</v>
+        <v>633</v>
       </c>
       <c r="B1" t="s">
-        <v>513</v>
+        <v>314</v>
       </c>
       <c r="C1" t="e">
         <f>VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
@@ -2178,1304 +2268,1190 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>592</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C52" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,1,0)</f>
-        <v>吕小栋</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>593</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>城南穷鬼赵四</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>娇软の小屁股</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>我是天香的啊</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>596</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>我是小官人</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>507</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>无言上青楼</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>绫月薇</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>517</v>
+        <v>597</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>江人何年初见月</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>595</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>浪迹小秦</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>598</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>独孤沐白</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>花兮兮兮兮</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>小阿淮呀</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>600</v>
       </c>
       <c r="B15" t="s">
-        <v>365</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>零拾</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>553</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>青丝枫凌</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>601</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>青衫逝</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>497</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>515</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>树儿高高长</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>602</v>
       </c>
       <c r="B19" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>603</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>604</v>
+      </c>
+      <c r="B22" t="s">
         <v>81</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>格七</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>605</v>
+      </c>
+      <c r="B23" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>606</v>
+      </c>
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>格殺</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>597</v>
-      </c>
-      <c r="B21" t="s">
-        <v>516</v>
-      </c>
-      <c r="C21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>382</v>
-      </c>
-      <c r="B22" t="s">
-        <v>329</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>榕月</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>607</v>
+      </c>
+      <c r="B26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>608</v>
+      </c>
+      <c r="B27" t="s">
         <v>83</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>沐浠尘</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>511</v>
-      </c>
-      <c r="B24" t="s">
-        <v>330</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>再见是否红着脸</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>512</v>
-      </c>
-      <c r="B25" t="s">
-        <v>517</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>花谢人凋零。</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>598</v>
-      </c>
-      <c r="B26" t="s">
-        <v>326</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>轻素剪云端</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>603</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="C27" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>373</v>
-      </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>610</v>
+      </c>
+      <c r="B29" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>611</v>
+      </c>
+      <c r="B30" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>469</v>
+      </c>
+      <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>鱼小小</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>237</v>
-      </c>
-      <c r="B29" t="s">
-        <v>507</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>鱼香</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>612</v>
+      </c>
+      <c r="B34" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>万心忧</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>518</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>墨韵轩华</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>501</v>
-      </c>
-      <c r="B32" t="s">
-        <v>519</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>方得始終</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>498</v>
-      </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>613</v>
+      </c>
+      <c r="B35" t="s">
         <v>87</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>机智勇敢的小炮</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>599</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>614</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>615</v>
+      </c>
+      <c r="B38" t="s">
         <v>88</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>小萌耍太白丶</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>616</v>
+      </c>
+      <c r="B39" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>617</v>
+      </c>
+      <c r="B40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>618</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>473</v>
+      </c>
+      <c r="B43" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>61</v>
       </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>怒怒怒怒火</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>椛灯</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>455</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>艾尔艾路弗</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B44" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>471</v>
+      </c>
+      <c r="B45" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>535</v>
+      </c>
+      <c r="B46" t="s">
         <v>91</v>
       </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>诸天花雨</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>508</v>
-      </c>
-      <c r="B39" t="s">
-        <v>520</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>其实想玩刀客</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>504</v>
-      </c>
-      <c r="B40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>奶小牛丶</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>600</v>
-      </c>
-      <c r="B41" t="s">
-        <v>521</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>山高丶木易</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>505</v>
-      </c>
-      <c r="B42" t="s">
-        <v>522</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>彡电竞丿柯南乄</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>509</v>
-      </c>
-      <c r="B43" t="s">
-        <v>332</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>淡若清风過丶</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>潇洒仗剑天下</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>602</v>
-      </c>
-      <c r="B45" t="s">
-        <v>333</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>潇湘灬墨染</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>煌煌</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>619</v>
       </c>
       <c r="B47" t="s">
         <v>44</v>
       </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>紫舞流年</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>620</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
       </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>紫雨幽雲</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>506</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>荡荡</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="B50" t="s">
-        <v>334</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>那年今若、</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>601</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>523</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>那年红颜</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>503</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>524</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>追风少年鹰老七</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
       <c r="B53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>474</v>
+      </c>
+      <c r="B54" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>621</v>
+      </c>
+      <c r="B56" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>622</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>623</v>
+      </c>
+      <c r="B58" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>624</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>470</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>625</v>
+      </c>
+      <c r="B61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>626</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>627</v>
+      </c>
+      <c r="B65" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>347</v>
+      </c>
+      <c r="B66" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>628</v>
+      </c>
+      <c r="B68" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>629</v>
+      </c>
+      <c r="B69" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>630</v>
+      </c>
+      <c r="B70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>468</v>
+      </c>
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>357</v>
+      </c>
+      <c r="B75" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>259</v>
+      </c>
+      <c r="B76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>370</v>
+      </c>
+      <c r="B77" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>631</v>
+      </c>
+      <c r="B78" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>475</v>
+      </c>
+      <c r="B79" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>632</v>
+      </c>
+      <c r="B80" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>293</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>349</v>
+      </c>
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>536</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>347</v>
+        <v>564</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>116</v>
+        <v>565</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>348</v>
+        <v>498</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>537</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>538</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>67</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>123</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>349</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>314</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>539</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>350</v>
+        <v>501</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>540</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>125</v>
+        <v>566</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>126</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>353</v>
+        <v>503</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>542</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>128</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>544</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>358</v>
+        <v>568</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>360</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>545</v>
+        <v>342</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>363</v>
+        <v>569</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>78</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>79</v>
+        <v>307</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>366</v>
+        <v>506</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>367</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>546</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>454</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>151</v>
+        <v>446</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>60</v>
+        <v>507</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>160</v>
+        <v>441</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>455</v>
+        <v>121</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>547</v>
+        <v>433</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>164</v>
+        <v>435</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>548</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>134</v>
+        <v>436</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>462</v>
+        <v>127</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>135</v>
+        <v>427</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>480</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>549</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>550</v>
+        <v>509</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>310</v>
+        <v>438</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>464</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>136</v>
+        <v>510</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>551</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>137</v>
+        <v>570</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>465</v>
+        <v>571</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>138</v>
+        <v>439</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>139</v>
+        <v>572</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>466</v>
+        <v>130</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>140</v>
+        <v>440</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>467</v>
+        <v>394</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
@@ -3485,12 +3461,12 @@
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>555</v>
+        <v>514</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
@@ -3500,72 +3476,72 @@
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>556</v>
+        <v>515</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>557</v>
+        <v>516</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>558</v>
+        <v>517</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>470</v>
+        <v>136</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>146</v>
+        <v>445</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>472</v>
+        <v>137</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
@@ -3575,862 +3551,862 @@
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>475</v>
+        <v>140</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>26</v>
+        <v>518</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>560</v>
+        <v>449</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>476</v>
+        <v>573</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>145</v>
+        <v>520</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>561</v>
+        <v>450</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>150</v>
+        <v>453</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>168</v>
+        <v>452</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>478</v>
+        <v>295</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>479</v>
+        <v>144</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>153</v>
+        <v>431</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>312</v>
+        <v>66</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>484</v>
+        <v>145</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>457</v>
+        <v>146</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>156</v>
+        <v>454</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>157</v>
+        <v>432</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>481</v>
+        <v>148</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>562</v>
+        <v>455</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>159</v>
+        <v>574</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>482</v>
+        <v>150</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>485</v>
+        <v>152</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>161</v>
+        <v>458</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>487</v>
+        <v>153</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>129</v>
+        <v>575</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>163</v>
+        <v>522</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>489</v>
+        <v>576</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>563</v>
+        <v>154</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>42</v>
+        <v>461</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>459</v>
+        <v>160</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>172</v>
+        <v>462</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>173</v>
+        <v>463</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>564</v>
+        <v>33</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>493</v>
+        <v>163</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>33</v>
+        <v>524</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>174</v>
+        <v>284</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>565</v>
+        <v>465</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>299</v>
+        <v>164</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>176</v>
+        <v>577</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>496</v>
+        <v>430</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>461</v>
+        <v>166</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>179</v>
+        <v>525</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>567</v>
+        <v>169</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>460</v>
+        <v>170</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>181</v>
+        <v>303</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>7</v>
+        <v>531</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>405</v>
+        <v>171</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>320</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>51</v>
+        <v>384</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>13</v>
+        <v>406</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>182</v>
+        <v>410</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>224</v>
+        <v>400</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>425</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>16</v>
+        <v>407</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>17</v>
+        <v>539</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>1</v>
+        <v>390</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>197</v>
+        <v>535</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>447</v>
+        <v>386</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>569</v>
+        <v>383</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>570</v>
+        <v>204</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>29</v>
+        <v>527</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>412</v>
+        <v>174</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>413</v>
+        <v>528</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>414</v>
+        <v>529</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>191</v>
+        <v>578</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>28</v>
+        <v>389</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>416</v>
+        <v>178</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>417</v>
+        <v>180</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>418</v>
+        <v>181</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>571</v>
+        <v>391</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>408</v>
+        <v>38</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>194</v>
+        <v>393</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>420</v>
+        <v>530</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>572</v>
+        <v>395</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>421</v>
+        <v>185</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>49</v>
+        <v>398</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>424</v>
+        <v>187</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>573</v>
+        <v>188</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>201</v>
+        <v>532</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>574</v>
+        <v>189</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>9</v>
+        <v>533</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>426</v>
+        <v>191</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>203</v>
+        <v>534</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>576</v>
+        <v>9</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>204</v>
+        <v>401</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>406</v>
+        <v>193</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>205</v>
+        <v>381</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
-        <v>427</v>
+        <v>194</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>208</v>
+        <v>399</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>429</v>
+        <v>580</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>577</v>
+        <v>197</v>
       </c>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>433</v>
+        <v>536</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.25">
@@ -4440,3047 +4416,982 @@
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>436</v>
+        <v>581</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>215</v>
+        <v>405</v>
       </c>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
-        <v>438</v>
+        <v>582</v>
       </c>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
-        <v>431</v>
+        <v>583</v>
       </c>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>216</v>
+        <v>412</v>
       </c>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
-        <v>440</v>
+        <v>205</v>
       </c>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
-        <v>39</v>
+        <v>414</v>
       </c>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>441</v>
+        <v>207</v>
       </c>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>442</v>
+        <v>39</v>
       </c>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>444</v>
+        <v>584</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>220</v>
+        <v>416</v>
       </c>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>221</v>
+        <v>417</v>
       </c>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
-        <v>222</v>
+        <v>418</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>439</v>
+        <v>209</v>
       </c>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
-        <v>448</v>
+        <v>216</v>
       </c>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>578</v>
+        <v>214</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>226</v>
+        <v>585</v>
       </c>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>445</v>
+        <v>385</v>
       </c>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>228</v>
+        <v>422</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
-        <v>229</v>
+        <v>537</v>
       </c>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
-        <v>231</v>
+        <v>419</v>
       </c>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>579</v>
+        <v>217</v>
       </c>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>449</v>
+        <v>219</v>
       </c>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
-        <v>55</v>
+        <v>538</v>
       </c>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>580</v>
+        <v>221</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
-        <v>62</v>
+        <v>423</v>
       </c>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>450</v>
+        <v>55</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
-        <v>451</v>
+        <v>173</v>
       </c>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
-        <v>236</v>
+        <v>424</v>
       </c>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
-        <v>581</v>
+        <v>425</v>
       </c>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
-        <v>405</v>
+        <v>586</v>
       </c>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
-        <v>182</v>
+        <v>540</v>
       </c>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
-        <v>0</v>
+        <v>370</v>
       </c>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
-        <v>425</v>
+        <v>23</v>
       </c>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
-        <v>224</v>
+        <v>345</v>
       </c>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
-        <v>410</v>
+        <v>255</v>
       </c>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
-        <v>16</v>
+        <v>375</v>
       </c>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
-        <v>197</v>
+        <v>41</v>
       </c>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
-        <v>1</v>
+        <v>264</v>
       </c>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
-        <v>436</v>
+        <v>25</v>
       </c>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
-        <v>441</v>
+        <v>230</v>
       </c>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
-        <v>568</v>
+        <v>231</v>
       </c>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B451" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
-        <v>569</v>
+        <v>233</v>
       </c>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
-        <v>186</v>
+        <v>350</v>
       </c>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
-        <v>570</v>
+        <v>228</v>
       </c>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
-        <v>411</v>
+        <v>234</v>
       </c>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
-        <v>412</v>
+        <v>236</v>
       </c>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
-        <v>413</v>
+        <v>237</v>
       </c>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
-        <v>414</v>
+        <v>240</v>
       </c>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
-        <v>189</v>
+        <v>351</v>
       </c>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
-        <v>415</v>
+        <v>241</v>
       </c>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
-        <v>409</v>
+        <v>242</v>
       </c>
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B467" t="s">
-        <v>192</v>
+        <v>352</v>
       </c>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
-        <v>416</v>
+        <v>348</v>
       </c>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
-        <v>38</v>
+        <v>226</v>
       </c>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
-        <v>417</v>
+        <v>353</v>
       </c>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
-        <v>418</v>
+        <v>245</v>
       </c>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
-        <v>571</v>
+        <v>246</v>
       </c>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B475" t="s">
-        <v>408</v>
+        <v>57</v>
       </c>
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
-        <v>419</v>
+        <v>247</v>
       </c>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
-        <v>194</v>
+        <v>354</v>
       </c>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
-        <v>22</v>
+        <v>541</v>
       </c>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B479" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B480" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
-        <v>572</v>
+        <v>249</v>
       </c>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B482" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B483" t="s">
-        <v>421</v>
+        <v>349</v>
       </c>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B484" t="s">
-        <v>422</v>
+        <v>250</v>
       </c>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B485" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B486" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B487" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B488" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B489" t="s">
-        <v>424</v>
+        <v>299</v>
       </c>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B490" t="s">
-        <v>573</v>
+        <v>253</v>
       </c>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B491" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B492" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B493" t="s">
-        <v>574</v>
+        <v>357</v>
       </c>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B494" t="s">
-        <v>202</v>
+        <v>344</v>
       </c>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B495" t="s">
-        <v>575</v>
+        <v>90</v>
       </c>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B496" t="s">
-        <v>9</v>
+        <v>358</v>
       </c>
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B497" t="s">
-        <v>426</v>
+        <v>256</v>
       </c>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B498" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B499" t="s">
-        <v>576</v>
+        <v>542</v>
       </c>
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B500" t="s">
-        <v>204</v>
+        <v>543</v>
       </c>
     </row>
     <row r="501" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B501" t="s">
-        <v>406</v>
+        <v>544</v>
       </c>
     </row>
     <row r="502" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B502" t="s">
-        <v>205</v>
+        <v>587</v>
       </c>
     </row>
     <row r="503" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B503" t="s">
-        <v>427</v>
+        <v>227</v>
       </c>
     </row>
     <row r="504" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B504" t="s">
-        <v>208</v>
+        <v>359</v>
       </c>
     </row>
     <row r="505" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B505" t="s">
-        <v>429</v>
+        <v>258</v>
       </c>
     </row>
     <row r="506" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B506" t="s">
-        <v>428</v>
+        <v>259</v>
       </c>
     </row>
     <row r="507" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B507" t="s">
-        <v>206</v>
+        <v>360</v>
       </c>
     </row>
     <row r="508" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B508" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
     </row>
     <row r="509" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B509" t="s">
-        <v>207</v>
+        <v>588</v>
       </c>
     </row>
     <row r="510" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B510" t="s">
-        <v>183</v>
+        <v>301</v>
       </c>
     </row>
     <row r="511" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B511" t="s">
-        <v>430</v>
+        <v>260</v>
       </c>
     </row>
     <row r="512" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B512" t="s">
-        <v>209</v>
+        <v>362</v>
       </c>
     </row>
     <row r="513" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B513" t="s">
-        <v>70</v>
+        <v>300</v>
       </c>
     </row>
     <row r="514" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B514" t="s">
-        <v>577</v>
+        <v>363</v>
       </c>
     </row>
     <row r="515" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B515" t="s">
-        <v>210</v>
+        <v>589</v>
       </c>
     </row>
     <row r="516" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B516" t="s">
-        <v>432</v>
+        <v>261</v>
       </c>
     </row>
     <row r="517" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B517" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
     </row>
     <row r="518" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B518" t="s">
-        <v>433</v>
+        <v>545</v>
       </c>
     </row>
     <row r="519" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B519" t="s">
-        <v>434</v>
+        <v>364</v>
       </c>
     </row>
     <row r="520" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B520" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
     </row>
     <row r="521" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B521" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="522" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B522" t="s">
-        <v>435</v>
+        <v>590</v>
       </c>
     </row>
     <row r="523" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B523" t="s">
-        <v>213</v>
+        <v>546</v>
       </c>
     </row>
     <row r="524" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B524" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
     </row>
     <row r="525" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B525" t="s">
-        <v>214</v>
+        <v>366</v>
       </c>
     </row>
     <row r="526" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B526" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
     </row>
     <row r="527" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B527" t="s">
-        <v>437</v>
+        <v>266</v>
       </c>
     </row>
     <row r="528" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B528" t="s">
-        <v>407</v>
+        <v>11</v>
       </c>
     </row>
     <row r="529" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B529" t="s">
-        <v>438</v>
+        <v>267</v>
       </c>
     </row>
     <row r="530" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B530" t="s">
-        <v>17</v>
+        <v>268</v>
       </c>
     </row>
     <row r="531" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B531" t="s">
-        <v>216</v>
+        <v>547</v>
       </c>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B532" t="s">
-        <v>217</v>
+        <v>367</v>
       </c>
     </row>
     <row r="533" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B533" t="s">
-        <v>440</v>
+        <v>269</v>
       </c>
     </row>
     <row r="534" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B534" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
     </row>
     <row r="535" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B535" t="s">
-        <v>439</v>
+        <v>368</v>
       </c>
     </row>
     <row r="536" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B536" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
     </row>
     <row r="537" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B537" t="s">
-        <v>442</v>
+        <v>271</v>
       </c>
     </row>
     <row r="538" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B538" t="s">
-        <v>443</v>
+        <v>275</v>
       </c>
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B539" t="s">
-        <v>444</v>
+        <v>272</v>
       </c>
     </row>
     <row r="540" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B540" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
     </row>
     <row r="541" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B541" t="s">
-        <v>221</v>
+        <v>591</v>
       </c>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B542" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
     </row>
     <row r="543" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B543" t="s">
-        <v>445</v>
+        <v>347</v>
       </c>
     </row>
     <row r="544" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B544" t="s">
-        <v>223</v>
+        <v>45</v>
       </c>
     </row>
     <row r="545" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B545" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="546" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B546" t="s">
-        <v>446</v>
+        <v>302</v>
       </c>
     </row>
     <row r="547" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B547" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
     </row>
     <row r="548" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B548" t="s">
-        <v>225</v>
+        <v>369</v>
       </c>
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B549" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
     </row>
     <row r="550" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B550" t="s">
-        <v>448</v>
+        <v>283</v>
       </c>
     </row>
     <row r="551" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B551" t="s">
-        <v>578</v>
+        <v>278</v>
       </c>
     </row>
     <row r="552" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B552" t="s">
-        <v>226</v>
+        <v>371</v>
       </c>
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B553" t="s">
-        <v>447</v>
+        <v>279</v>
       </c>
     </row>
     <row r="554" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B554" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B555" t="s">
-        <v>229</v>
+        <v>372</v>
       </c>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B556" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B557" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B558" t="s">
-        <v>579</v>
+        <v>281</v>
       </c>
     </row>
     <row r="559" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B559" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B560" t="s">
-        <v>449</v>
+        <v>285</v>
       </c>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B561" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
     </row>
     <row r="562" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B562" t="s">
-        <v>55</v>
+        <v>548</v>
       </c>
     </row>
     <row r="563" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B563" t="s">
-        <v>580</v>
+        <v>373</v>
       </c>
     </row>
     <row r="564" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B564" t="s">
-        <v>62</v>
+        <v>374</v>
       </c>
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B565" t="s">
-        <v>233</v>
+        <v>549</v>
       </c>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B566" t="s">
-        <v>450</v>
+        <v>287</v>
       </c>
     </row>
     <row r="567" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B567" t="s">
-        <v>451</v>
+        <v>288</v>
       </c>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B568" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
     </row>
     <row r="569" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B569" t="s">
-        <v>235</v>
+        <v>10</v>
       </c>
     </row>
     <row r="570" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B570" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B571" t="s">
-        <v>581</v>
+        <v>376</v>
       </c>
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B572" t="s">
-        <v>405</v>
+        <v>290</v>
       </c>
     </row>
     <row r="573" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B573" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
     </row>
     <row r="574" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B574" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
     </row>
     <row r="575" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B575" t="s">
-        <v>51</v>
+        <v>292</v>
       </c>
     </row>
     <row r="576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B576" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
     </row>
     <row r="577" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B577" t="s">
-        <v>182</v>
+        <v>378</v>
       </c>
     </row>
     <row r="578" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B578" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B579" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B580" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B581" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B582" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B583" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B584" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B585" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B586" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B587" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B588" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B589" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B590" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B591" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B592" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B593" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B594" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B595" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B596" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B597" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B598" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B599" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B600" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B601" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B602" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B603" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B604" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B605" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B606" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B607" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B608" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B609" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B610" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B611" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B612" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B613" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B614" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B615" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B616" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B617" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B618" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B619" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B620" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B621" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B622" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B623" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B624" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B625" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B626" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B627" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B628" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B629" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B630" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B631" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B632" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B633" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B634" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B635" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B636" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B637" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B638" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B639" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B640" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B641" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B642" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B643" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B644" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B645" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B646" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B647" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B648" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B649" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B650" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B651" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B652" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B653" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B654" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B655" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B656" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B657" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B658" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B659" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B660" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B661" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B662" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B663" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B664" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B665" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B666" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B667" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B668" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B669" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B670" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B671" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B672" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B673" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B674" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B675" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B676" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B677" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B678" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B679" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B680" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B681" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B682" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B683" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B684" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B685" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B686" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B687" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B688" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B689" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B690" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B691" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B692" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B693" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B694" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B695" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B696" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B697" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B698" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B699" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B700" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B701" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B702" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B703" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B704" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B705" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B706" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B707" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B708" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B709" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B710" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B711" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B712" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B713" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B714" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B715" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B716" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B717" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B718" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B719" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B720" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B721" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B722" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B723" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B724" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B725" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B726" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B727" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B728" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B729" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B730" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B731" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B732" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B733" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B734" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B735" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B736" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B737" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B738" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B739" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B740" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B741" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B742" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B743" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B744" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B745" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B746" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B747" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B748" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B749" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B750" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B751" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B752" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B753" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B754" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B755" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B756" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B757" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B758" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B759" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B760" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B761" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B762" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B763" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B764" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B765" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B766" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B767" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B768" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B769" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B770" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B771" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B772" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B773" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B774" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B775" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B776" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B777" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B778" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B779" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B780" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B781" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B782" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B783" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B784" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B785" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="786" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B786" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="787" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B787" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="788" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B788" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="789" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B789" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B790" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="791" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B791" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B792" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B793" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="794" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B794" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="795" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B795" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="796" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B796" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B797" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="798" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B798" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B799" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B800" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B801" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B802" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B803" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B804" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B805" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B806" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B807" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B808" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B809" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B810" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B811" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B812" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B813" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B814" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B815" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B816" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B817" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B818" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B819" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B820" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B821" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B822" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B823" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B824" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B825" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B826" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B827" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B828" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B829" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B830" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B831" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B832" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="833" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B833" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="834" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B834" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="835" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B835" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="836" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B836" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="837" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B837" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="838" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B838" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="839" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B839" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="840" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B840" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="841" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B841" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="842" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B842" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="843" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B843" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="844" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B844" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="845" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B845" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="846" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B846" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="847" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B847" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="848" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B848" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="849" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B849" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="850" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B850" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="851" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B851" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B852" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B853" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="854" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B854" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="855" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B855" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="856" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B856" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B857" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="858" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B858" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B859" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B860" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="861" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B861" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="862" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B862" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="863" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B863" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="864" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B864" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B865" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="866" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B866" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="867" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B867" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="868" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B868" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="869" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B869" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="870" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B870" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="871" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B871" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="872" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B872" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="873" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B873" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="874" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B874" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="875" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B875" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="876" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B876" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B877" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B878" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="879" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B879" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="880" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B880" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="881" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B881" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="882" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B882" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="883" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B883" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="884" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B884" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="885" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B885" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="886" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B886" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="887" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B887" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="888" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B888" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="889" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B889" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="890" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B890" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="891" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B891" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="892" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B892" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="893" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B893" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="894" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B894" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="895" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B895" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="896" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B896" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="897" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B897" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="898" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B898" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="899" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B899" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="900" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B900" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="901" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B901" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="902" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B902" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="903" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B903" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="904" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B904" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="905" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B905" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="906" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B906" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="907" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B907" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="908" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B908" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="909" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B909" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="910" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B910" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="911" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B911" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="912" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B912" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="913" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B913" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="914" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B914" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="915" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B915" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="916" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B916" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="917" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B917" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="918" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B918" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="919" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B919" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="920" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B920" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="921" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B921" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="922" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B922" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="923" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B923" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="924" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B924" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="925" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B925" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="926" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B926" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="927" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B927" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="928" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B928" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="929" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B929" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="930" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B930" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="931" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B931" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B932" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="933" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B933" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="934" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B934" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="935" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B935" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="936" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B936" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="937" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B937" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="938" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B938" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="939" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B939" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="940" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B940" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="941" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B941" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="942" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B942" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="943" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B943" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="944" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B944" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="945" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B945" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="946" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B946" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="947" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B947" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="948" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B948" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="949" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B949" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="950" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B950" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="951" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B951" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="952" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B952" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="953" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B953" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="954" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B954" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="955" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B955" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="956" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B956" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="957" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B957" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="958" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B958" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="959" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B959" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="960" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B960" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="961" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B961" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="962" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B962" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="963" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B963" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="964" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B964" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="965" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B965" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="966" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B966" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="967" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B967" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="968" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B968" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="969" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B969" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="970" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B970" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="971" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B971" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="972" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B972" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="973" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B973" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="974" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B974" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="975" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B975" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="976" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B976" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="977" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B977" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="978" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B978" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="979" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B979" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="980" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B980" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="981" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B981" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="982" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B982" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="983" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B983" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="984" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B984" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="985" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B985" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="986" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B986" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="987" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B987" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="988" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B988" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="989" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B989" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="990" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B990" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="991" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B991" t="s">
-        <v>591</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="153">
-  <si>
-    <t>诸天花雨</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="134">
   <si>
     <t>池小晚</t>
   </si>
@@ -33,54 +30,18 @@
     <t>怒怒怒怒火</t>
   </si>
   <si>
-    <t>丿几度度丶</t>
-  </si>
-  <si>
     <t>太极至尊</t>
   </si>
   <si>
     <t>叶菡</t>
   </si>
   <si>
-    <t>亲爱的未闻花名</t>
-  </si>
-  <si>
-    <t>只会躺不输出丶</t>
-  </si>
-  <si>
     <t>爱哭鼻の阿木木</t>
   </si>
   <si>
     <t>阿木木</t>
   </si>
   <si>
-    <t>徐耶比</t>
-  </si>
-  <si>
-    <t>笛梦一秋</t>
-  </si>
-  <si>
-    <t>天韵ゝ</t>
-  </si>
-  <si>
-    <t>丶初馨</t>
-  </si>
-  <si>
-    <t>慕容飞羽</t>
-  </si>
-  <si>
-    <t>放肆流逝的年华</t>
-  </si>
-  <si>
-    <t>い楓ゞ妖い</t>
-  </si>
-  <si>
-    <t>万心忧</t>
-  </si>
-  <si>
-    <t>蘃</t>
-  </si>
-  <si>
     <t>与尔同销萬古愁</t>
   </si>
   <si>
@@ -96,33 +57,18 @@
     <t>凌渃尘</t>
   </si>
   <si>
-    <t>时钟轻摇孤独</t>
-  </si>
-  <si>
-    <t>百里轩翊</t>
-  </si>
-  <si>
     <t>素蝶</t>
   </si>
   <si>
     <t>只想做个好人</t>
   </si>
   <si>
-    <t>异逍遥</t>
-  </si>
-  <si>
     <t>折扇浪漫</t>
   </si>
   <si>
     <t>南宫絮语</t>
   </si>
   <si>
-    <t>花兮兮兮兮</t>
-  </si>
-  <si>
-    <t>吕小栋</t>
-  </si>
-  <si>
     <t>女神菲奥娜</t>
   </si>
   <si>
@@ -132,39 +78,18 @@
     <t>明年今日奕十年</t>
   </si>
   <si>
-    <t>独孤沐白</t>
-  </si>
-  <si>
     <t>梦觞丶</t>
   </si>
   <si>
-    <t>SouLmAte、小狼</t>
-  </si>
-  <si>
-    <t>绫月薇</t>
-  </si>
-  <si>
-    <t>古巷烟雨断桥殇</t>
-  </si>
-  <si>
     <t>青丝枫凌</t>
   </si>
   <si>
-    <t>我是天香的啊</t>
-  </si>
-  <si>
-    <t>这下可好啦</t>
-  </si>
-  <si>
     <t>墨河</t>
   </si>
   <si>
     <t>荡荡</t>
   </si>
   <si>
-    <t>纯洁友善的暮夏</t>
-  </si>
-  <si>
     <t>其实想玩刀客</t>
   </si>
   <si>
@@ -174,78 +99,36 @@
     <t>山高丶木易</t>
   </si>
   <si>
-    <t>浅浅笑的梅子酱</t>
-  </si>
-  <si>
     <t>潇洒仗剑天下</t>
   </si>
   <si>
-    <t>框框</t>
-  </si>
-  <si>
-    <t>帅气无敌康爸爸</t>
-  </si>
-  <si>
-    <t>东风路三狗蛋</t>
-  </si>
-  <si>
     <t>空虚公子萧四无</t>
   </si>
   <si>
-    <t>剑丶未凉</t>
-  </si>
-  <si>
     <t>追风少年鹰老七</t>
   </si>
   <si>
-    <t>何月凡</t>
-  </si>
-  <si>
-    <t>煌煌</t>
-  </si>
-  <si>
     <t>木易丶凝烟</t>
   </si>
   <si>
-    <t>浩浩丶浩</t>
-  </si>
-  <si>
     <t>在下唐银</t>
   </si>
   <si>
     <t>那年今若、</t>
   </si>
   <si>
-    <t>萌萌哒的草莓酱</t>
-  </si>
-  <si>
-    <t>雪丶未凝</t>
-  </si>
-  <si>
-    <t>顾寻清</t>
-  </si>
-  <si>
-    <t>等我出轻语</t>
-  </si>
-  <si>
     <t>小阿鏡</t>
   </si>
   <si>
     <t>伊贰叁</t>
   </si>
   <si>
-    <t>蝶舞旧梦</t>
-  </si>
-  <si>
     <t>水影悠兰</t>
   </si>
   <si>
     <t>开封拍卖行</t>
   </si>
   <si>
-    <t>月牙冲天</t>
-  </si>
-  <si>
     <t>那年红颜</t>
   </si>
   <si>
@@ -255,30 +138,15 @@
     <t>奶小牛丶</t>
   </si>
   <si>
-    <t>此情珂待</t>
-  </si>
-  <si>
-    <t>踏马清月夜</t>
-  </si>
-  <si>
-    <t>一息衍一</t>
-  </si>
-  <si>
     <t>神威再见</t>
   </si>
   <si>
     <t>Ander</t>
   </si>
   <si>
-    <t>守护锋</t>
-  </si>
-  <si>
     <t>超人不会飞〃</t>
   </si>
   <si>
-    <t>乌莲娜</t>
-  </si>
-  <si>
     <t>墨萧炎</t>
   </si>
   <si>
@@ -288,12 +156,6 @@
     <t>轻素剪云端</t>
   </si>
   <si>
-    <t>成溪</t>
-  </si>
-  <si>
-    <t>冷晓汐丶</t>
-  </si>
-  <si>
     <t>鱼香</t>
   </si>
   <si>
@@ -306,15 +168,9 @@
     <t>凯贼阔里</t>
   </si>
   <si>
-    <t>拌饭萌面酥</t>
-  </si>
-  <si>
     <t>丶天蓝色</t>
   </si>
   <si>
-    <t>云醉月微寒</t>
-  </si>
-  <si>
     <t>沐浠尘</t>
   </si>
   <si>
@@ -324,27 +180,15 @@
     <t>风语风＊</t>
   </si>
   <si>
-    <t>树儿高高长</t>
-  </si>
-  <si>
     <t>在下唐言</t>
   </si>
   <si>
-    <t>丶薛日天</t>
-  </si>
-  <si>
     <t>与尔同</t>
   </si>
   <si>
-    <t>只会躺不输出</t>
-  </si>
-  <si>
     <t>小狼</t>
   </si>
   <si>
-    <t>时钟轻</t>
-  </si>
-  <si>
     <t>浪迹</t>
   </si>
   <si>
@@ -354,48 +198,24 @@
     <t>怒火</t>
   </si>
   <si>
-    <t>花名</t>
-  </si>
-  <si>
     <t>刀客</t>
   </si>
   <si>
-    <t>奶小牛</t>
-  </si>
-  <si>
     <t>山高</t>
   </si>
   <si>
-    <t>梅子酱</t>
-  </si>
-  <si>
     <t>洪时</t>
   </si>
   <si>
-    <t>浩浩</t>
-  </si>
-  <si>
     <t>潇洒</t>
   </si>
   <si>
-    <t>马来西</t>
-  </si>
-  <si>
-    <t>鹰老七</t>
-  </si>
-  <si>
     <t>天蓝色</t>
   </si>
   <si>
-    <t>拌饭</t>
-  </si>
-  <si>
     <t>晓月梦</t>
   </si>
   <si>
-    <t>树儿</t>
-  </si>
-  <si>
     <t>陌路莫回</t>
   </si>
   <si>
@@ -405,82 +225,205 @@
     <t>凯贼</t>
   </si>
   <si>
-    <t>芒果</t>
-  </si>
-  <si>
     <t>冷清语</t>
   </si>
   <si>
     <t>丶忍野咩咩</t>
   </si>
   <si>
-    <t>淺笙</t>
-  </si>
-  <si>
-    <t>古巷烟雨</t>
-  </si>
-  <si>
-    <t>女神菲</t>
-  </si>
-  <si>
-    <t>我是天香</t>
-  </si>
-  <si>
-    <t>明年今日</t>
-  </si>
-  <si>
-    <t>百里轩</t>
-  </si>
-  <si>
     <t>阿淮</t>
   </si>
   <si>
-    <t>妖</t>
-  </si>
-  <si>
-    <t>几度</t>
-  </si>
-  <si>
-    <t>初馨</t>
-  </si>
-  <si>
-    <t>天韵</t>
-  </si>
-  <si>
-    <t>放肆流逝</t>
-  </si>
-  <si>
     <t>开封拍卖行</t>
   </si>
   <si>
-    <t>昔昔</t>
-  </si>
-  <si>
     <t>木易</t>
   </si>
   <si>
-    <t>煌煌</t>
-  </si>
-  <si>
-    <t>暮夏</t>
-  </si>
-  <si>
-    <t>草莓酱</t>
-  </si>
-  <si>
-    <t>那年</t>
-  </si>
-  <si>
-    <t>姬</t>
-  </si>
-  <si>
-    <t>靉</t>
-  </si>
-  <si>
-    <t>癫</t>
-  </si>
-  <si>
-    <t>翔</t>
+    <t>花谢人凋零。</t>
+  </si>
+  <si>
+    <t>白芹</t>
+  </si>
+  <si>
+    <t>胡大力</t>
+  </si>
+  <si>
+    <t>紫舞流年</t>
+  </si>
+  <si>
+    <t>墨韵轩华</t>
+  </si>
+  <si>
+    <t>苏千澪</t>
+  </si>
+  <si>
+    <t>娇软の小屁股</t>
+  </si>
+  <si>
+    <t>青羽墨染云</t>
+  </si>
+  <si>
+    <t>天真无邪大胡子</t>
+  </si>
+  <si>
+    <t>一抹煙雨落繁華</t>
+  </si>
+  <si>
+    <t>淡若清风過丶</t>
+  </si>
+  <si>
+    <t>似有若无</t>
+  </si>
+  <si>
+    <t>破穿</t>
+  </si>
+  <si>
+    <t>＊团灭专用奶</t>
+  </si>
+  <si>
+    <t>眉间一点白</t>
+  </si>
+  <si>
+    <t>机智勇敢的小炮</t>
+  </si>
+  <si>
+    <t>东瀛浪人展梦魂</t>
+  </si>
+  <si>
+    <t>一个有内涵的人</t>
+  </si>
+  <si>
+    <t>梦离间丶</t>
+  </si>
+  <si>
+    <t>岚风夜雨</t>
+  </si>
+  <si>
+    <t>倾舞情儿</t>
+  </si>
+  <si>
+    <t>丐帮萌主</t>
+  </si>
+  <si>
+    <t>FateLibra</t>
+  </si>
+  <si>
+    <t>Northenhumilia</t>
+  </si>
+  <si>
+    <t>彼眸</t>
+  </si>
+  <si>
+    <t>慕容靉</t>
+  </si>
+  <si>
+    <t>艾莉亞史塔克</t>
+  </si>
+  <si>
+    <t>方得始終</t>
+  </si>
+  <si>
+    <t>凶光外露的熊</t>
+  </si>
+  <si>
+    <t>丨龙哥丿</t>
+  </si>
+  <si>
+    <t>剑泣天涯</t>
+  </si>
+  <si>
+    <t>歌风路丶三狗蛋</t>
+  </si>
+  <si>
+    <t>凌</t>
+  </si>
+  <si>
+    <t>小屁</t>
+  </si>
+  <si>
+    <t>折扇</t>
+  </si>
+  <si>
+    <t>明年今</t>
+  </si>
+  <si>
+    <t>梦觞</t>
+  </si>
+  <si>
+    <t>内涵</t>
+  </si>
+  <si>
+    <t>太极至</t>
+  </si>
+  <si>
+    <t>小炮</t>
+  </si>
+  <si>
+    <t>淺</t>
+  </si>
+  <si>
+    <t>湳枝</t>
+  </si>
+  <si>
+    <t>三狗蛋</t>
+  </si>
+  <si>
+    <t>萧四</t>
+  </si>
+  <si>
+    <t>淡若</t>
+  </si>
+  <si>
+    <t>艾莉亞史</t>
+  </si>
+  <si>
+    <t>一抹煙雨</t>
+  </si>
+  <si>
+    <t>忍野咩咩</t>
+  </si>
+  <si>
+    <t>榕月</t>
+  </si>
+  <si>
+    <t>等风</t>
+  </si>
+  <si>
+    <t>红着脸</t>
+  </si>
+  <si>
+    <t>胡子</t>
+  </si>
+  <si>
+    <t>花谢人</t>
+  </si>
+  <si>
+    <t>超人不会飞</t>
+  </si>
+  <si>
+    <t>轻素剪云</t>
+  </si>
+  <si>
+    <t>风语风</t>
+  </si>
+  <si>
+    <t>吕小</t>
+  </si>
+  <si>
+    <t>百里</t>
+  </si>
+  <si>
+    <t>青丝</t>
+  </si>
+  <si>
+    <t>何月</t>
+  </si>
+  <si>
+    <t>伊</t>
+  </si>
+  <si>
+    <t>甄</t>
   </si>
 </sst>
 </file>
@@ -802,8 +745,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C584"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,10 +758,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C1" t="str">
         <f>VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
@@ -827,98 +770,98 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C65" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,1,0)</f>
-        <v>南宫絮语</v>
+        <v>青丝枫凌</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>古巷烟雨断桥殇</v>
+        <v>南宫絮语</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>只会躺不输出丶</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>只想做个好人</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>墨河</v>
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>女神菲奥娜</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>SouLmAte、小狼</v>
+        <v>女神菲奥娜</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>异逍遥</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>娇软の小屁股</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>我是天香的啊</v>
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,19 +869,19 @@
         <v>106</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>时钟轻摇孤独</v>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -947,190 +890,190 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>浪迹小秦</v>
+        <v>梦觞丶</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>一直梨花压海棠</v>
+        <v>浪迹小秦</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>独孤沐白</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>一直梨花压海棠</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>百里轩翊</v>
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>素蝶</v>
+        <v>破穿</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>小阿淮呀</v>
+        <v>素蝶</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>零拾</v>
+        <v>小阿淮呀</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>青丝枫凌</v>
+        <v>零拾</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>い楓ゞ妖い</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>青丝枫凌</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>万心忧</v>
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>何月凡</v>
+        <v>倾舞情儿</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>丿几度度丶</v>
+        <v>一个有内涵的人</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>丶初馨</v>
+        <v>墨韵轩华</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>天韵ゝ</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>太极至尊</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>机智勇敢的小炮</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1139,2156 +1082,2081 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>慕容飞羽</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>池小晚</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>放肆流逝的年华</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>池小晚</v>
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>淺笙</v>
+        <v>爱哭鼻の阿木木</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>亲爱的未闻花名</v>
+        <v>歌风路丶三狗蛋</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>诸天花雨</v>
+        <v>伊贰叁</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>爱哭鼻の阿木木</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>其实想玩刀客</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>其实想玩刀客</v>
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>叶菡</v>
+        <v>在下唐银</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>在下唐银</v>
+        <v>空虚公子萧四无</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>奶小牛丶</v>
+        <v>山高丶木易</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>小阿鏡</v>
+        <v>开封拍卖行</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>山高丶木易</v>
+        <v>彼眸</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>开封拍卖行</v>
+        <v>慕容靉</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>徐耶比</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>山高丶木易</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>水影悠兰</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>85</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>洪时雪</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>月牙冲天</v>
+        <v>淡若清风過丶</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>木易丶凝烟</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>潇洒仗剑天下</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>36</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>紫舞流年</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>框框</v>
+        <v>艾莉亞史塔克</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>浅浅笑的梅子酱</v>
+        <v>池小猫</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>水影悠兰</v>
+        <v>Ander</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>洪时雪</v>
+        <v>一抹煙雨落繁華</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>浩浩丶浩</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>冷清语</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>潇洒仗剑天下</v>
+      <c r="C53" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>煌煌</v>
+        <v>丶天蓝色</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>等我出轻语</v>
+        <v>丶忍野咩咩</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>纯洁友善的暮夏</v>
+        <v>晓月梦澈</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>萌萌哒的草莓酱</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>凯贼阔里</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>那年今若、</v>
+        <v>31</v>
+      </c>
+      <c r="C58" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>那年红颜</v>
+        <v>沐浠尘</v>
       </c>
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C60" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>白芹</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>92</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>神威再见</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>追风少年鹰老七</v>
+        <v>等风与你</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>池小猫</v>
+        <v>再见是否红着脸</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Ander</v>
+        <v>胡大力</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66:C95" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
-        <v>乌莲娜</v>
+        <f t="shared" ref="C66:C75" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
+        <v>天真无邪大胡子</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>冷清语</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>花谢人凋零。</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="1" t="e">
+        <v>33</v>
+      </c>
+      <c r="C68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>超人不会飞〃</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>墨萧炎</v>
+        <v>轻素剪云端</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>丶天蓝色</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>陌路莫回</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="1" t="e">
+        <v>51</v>
+      </c>
+      <c r="C71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>风语风＊</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>拌饭萌面酥</v>
+        <v>鱼香</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>122</v>
-      </c>
       <c r="B73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>晓月梦澈</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>123</v>
-      </c>
       <c r="B74" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>树儿高高长</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>126</v>
-      </c>
       <c r="B75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>凯贼阔里</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>72</v>
-      </c>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>70</v>
-      </c>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>38</v>
-      </c>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>99</v>
-      </c>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>102</v>
-      </c>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>130</v>
-      </c>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>75</v>
-      </c>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>27</v>
-      </c>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>62</v>
-      </c>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
-        <v>65</v>
-      </c>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>47</v>
-      </c>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>96</v>
-      </c>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
-        <v>100</v>
-      </c>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
-        <v>82</v>
-      </c>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C375" s="1"/>
     </row>
-    <row r="376" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C376" s="1"/>
     </row>
-    <row r="377" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C417" s="1"/>
     </row>
-    <row r="418" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C422" s="1"/>
     </row>
-    <row r="423" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C423" s="1"/>
     </row>
-    <row r="424" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C424" s="1"/>
     </row>
-    <row r="425" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C425" s="1"/>
     </row>
-    <row r="426" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C426" s="1"/>
     </row>
-    <row r="427" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C427" s="1"/>
     </row>
-    <row r="428" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C428" s="1"/>
     </row>
-    <row r="429" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C429" s="1"/>
     </row>
-    <row r="430" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C430" s="1"/>
     </row>
-    <row r="431" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C431" s="1"/>
     </row>
-    <row r="432" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C432" s="1"/>
     </row>
-    <row r="433" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C433" s="1"/>
     </row>
-    <row r="434" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C434" s="1"/>
     </row>
-    <row r="435" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C436" s="1"/>
     </row>
-    <row r="437" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C437" s="1"/>
     </row>
-    <row r="438" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C438" s="1"/>
     </row>
-    <row r="439" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C439" s="1"/>
     </row>
-    <row r="440" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C440" s="1"/>
     </row>
-    <row r="441" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C441" s="1"/>
     </row>
-    <row r="442" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C442" s="1"/>
     </row>
-    <row r="443" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C443" s="1"/>
     </row>
-    <row r="444" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C444" s="1"/>
     </row>
-    <row r="445" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C446" s="1"/>
     </row>
-    <row r="447" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C447" s="1"/>
     </row>
-    <row r="448" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C448" s="1"/>
     </row>
-    <row r="449" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C449" s="1"/>
     </row>
-    <row r="450" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C450" s="1"/>
     </row>
-    <row r="451" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C451" s="1"/>
     </row>
-    <row r="452" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C452" s="1"/>
     </row>
-    <row r="453" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C453" s="1"/>
     </row>
-    <row r="454" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C454" s="1"/>
     </row>
-    <row r="455" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C455" s="1"/>
     </row>
-    <row r="456" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C456" s="1"/>
     </row>
-    <row r="457" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C457" s="1"/>
     </row>
-    <row r="458" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C458" s="1"/>
     </row>
-    <row r="459" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C459" s="1"/>
     </row>
-    <row r="460" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C460" s="1"/>
     </row>
-    <row r="461" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C461" s="1"/>
     </row>
-    <row r="462" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C462" s="1"/>
     </row>
-    <row r="463" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C463" s="1"/>
     </row>
-    <row r="464" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C464" s="1"/>
     </row>
-    <row r="465" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C465" s="1"/>
     </row>
-    <row r="466" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C466" s="1"/>
     </row>
-    <row r="467" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C467" s="1"/>
     </row>
-    <row r="468" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C468" s="1"/>
     </row>
-    <row r="469" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C469" s="1"/>
     </row>
-    <row r="470" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C470" s="1"/>
     </row>
-    <row r="471" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C471" s="1"/>
     </row>
-    <row r="472" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C472" s="1"/>
     </row>
-    <row r="473" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C473" s="1"/>
     </row>
-    <row r="474" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C474" s="1"/>
     </row>
-    <row r="475" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C475" s="1"/>
     </row>
-    <row r="476" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C476" s="1"/>
     </row>
-    <row r="477" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C477" s="1"/>
     </row>
-    <row r="478" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C478" s="1"/>
     </row>
-    <row r="479" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C479" s="1"/>
     </row>
-    <row r="480" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C480" s="1"/>
     </row>
-    <row r="481" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C481" s="1"/>
     </row>
-    <row r="482" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C482" s="1"/>
     </row>
-    <row r="483" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C483" s="1"/>
     </row>
-    <row r="484" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C484" s="1"/>
     </row>
-    <row r="485" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C485" s="1"/>
     </row>
-    <row r="486" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C486" s="1"/>
     </row>
-    <row r="487" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C487" s="1"/>
     </row>
-    <row r="488" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C488" s="1"/>
     </row>
-    <row r="489" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C489" s="1"/>
     </row>
-    <row r="490" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C490" s="1"/>
     </row>
-    <row r="491" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C491" s="1"/>
     </row>
-    <row r="492" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C492" s="1"/>
     </row>
-    <row r="493" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C493" s="1"/>
     </row>
-    <row r="494" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C494" s="1"/>
     </row>
-    <row r="495" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C495" s="1"/>
     </row>
-    <row r="496" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C496" s="1"/>
     </row>
-    <row r="497" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C497" s="1"/>
     </row>
-    <row r="498" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C498" s="1"/>
     </row>
-    <row r="499" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C499" s="1"/>
     </row>
-    <row r="500" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C500" s="1"/>
     </row>
-    <row r="501" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C501" s="1"/>
     </row>
-    <row r="502" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C502" s="1"/>
     </row>
-    <row r="503" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C503" s="1"/>
     </row>
-    <row r="504" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C505" s="1"/>
     </row>
-    <row r="506" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C506" s="1"/>
     </row>
-    <row r="507" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C507" s="1"/>
     </row>
-    <row r="508" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C508" s="1"/>
     </row>
-    <row r="509" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C509" s="1"/>
     </row>
-    <row r="510" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C510" s="1"/>
     </row>
-    <row r="511" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C511" s="1"/>
     </row>
-    <row r="512" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C512" s="1"/>
     </row>
-    <row r="513" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C513" s="1"/>
     </row>
-    <row r="514" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C514" s="1"/>
     </row>
-    <row r="515" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C515" s="1"/>
     </row>
-    <row r="516" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C517" s="1"/>
     </row>
-    <row r="518" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C518" s="1"/>
     </row>
-    <row r="519" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C519" s="1"/>
     </row>
-    <row r="520" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C520" s="1"/>
     </row>
-    <row r="521" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C521" s="1"/>
     </row>
-    <row r="522" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C522" s="1"/>
     </row>
-    <row r="523" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C523" s="1"/>
     </row>
-    <row r="524" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C524" s="1"/>
     </row>
-    <row r="525" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C525" s="1"/>
     </row>
-    <row r="526" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C526" s="1"/>
     </row>
-    <row r="527" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C527" s="1"/>
     </row>
-    <row r="528" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C528" s="1"/>
     </row>
-    <row r="529" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C529" s="1"/>
     </row>
-    <row r="530" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C530" s="1"/>
     </row>
-    <row r="531" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C531" s="1"/>
     </row>
-    <row r="532" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C532" s="1"/>
     </row>
-    <row r="533" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C533" s="1"/>
     </row>
-    <row r="534" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C534" s="1"/>
     </row>
-    <row r="535" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C535" s="1"/>
     </row>
-    <row r="536" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C536" s="1"/>
     </row>
-    <row r="537" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C537" s="1"/>
     </row>
-    <row r="538" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C538" s="1"/>
     </row>
-    <row r="539" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C539" s="1"/>
     </row>
-    <row r="540" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C540" s="1"/>
     </row>
-    <row r="541" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C541" s="1"/>
     </row>
-    <row r="542" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C542" s="1"/>
     </row>
-    <row r="543" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C543" s="1"/>
     </row>
-    <row r="544" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C544" s="1"/>
     </row>
-    <row r="545" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C545" s="1"/>
     </row>
-    <row r="546" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C546" s="1"/>
     </row>
-    <row r="547" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C547" s="1"/>
     </row>
-    <row r="548" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C548" s="1"/>
     </row>
-    <row r="549" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C549" s="1"/>
     </row>
-    <row r="550" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C550" s="1"/>
     </row>
-    <row r="551" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C551" s="1"/>
     </row>
-    <row r="552" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C552" s="1"/>
     </row>
-    <row r="553" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C553" s="1"/>
     </row>
-    <row r="554" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C554" s="1"/>
     </row>
-    <row r="555" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C555" s="1"/>
     </row>
-    <row r="556" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C556" s="1"/>
     </row>
-    <row r="557" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C557" s="1"/>
     </row>
-    <row r="558" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C558" s="1"/>
     </row>
-    <row r="559" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C559" s="1"/>
     </row>
-    <row r="560" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C560" s="1"/>
     </row>
-    <row r="561" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C561" s="1"/>
     </row>
-    <row r="562" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C562" s="1"/>
     </row>
-    <row r="563" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C563" s="1"/>
     </row>
-    <row r="564" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C564" s="1"/>
     </row>
-    <row r="565" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C565" s="1"/>
     </row>
-    <row r="566" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C566" s="1"/>
     </row>
-    <row r="567" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C567" s="1"/>
     </row>
-    <row r="568" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C568" s="1"/>
     </row>
-    <row r="569" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C569" s="1"/>
     </row>
-    <row r="570" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C570" s="1"/>
     </row>
-    <row r="571" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C571" s="1"/>
     </row>
-    <row r="572" spans="3:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C572" s="1"/>
     </row>
     <row r="573" spans="3:3" x14ac:dyDescent="0.25">
@@ -3330,72 +3198,66 @@
   </sheetData>
   <autoFilter ref="C1:C572">
     <filterColumn colId="0">
-      <filters>
+      <filters blank="1">
         <filter val="Ander"/>
-        <filter val="SouLmAte、小狼"/>
-        <filter val="い楓ゞ妖い"/>
+        <filter val="一个有内涵的人"/>
+        <filter val="一抹煙雨落繁華"/>
         <filter val="一直梨花压海棠"/>
-        <filter val="万心忧"/>
-        <filter val="丶初馨"/>
         <filter val="丶天蓝色"/>
-        <filter val="丿几度度丶"/>
-        <filter val="乌莲娜"/>
-        <filter val="亲爱的未闻花名"/>
-        <filter val="何月凡"/>
+        <filter val="丶忍野咩咩"/>
+        <filter val="伊贰叁"/>
+        <filter val="倾舞情儿"/>
         <filter val="其实想玩刀客"/>
+        <filter val="再见是否红着脸"/>
         <filter val="冷清语"/>
         <filter val="凯贼阔里"/>
         <filter val="南宫絮语"/>
-        <filter val="古巷烟雨断桥殇"/>
-        <filter val="只会躺不输出丶"/>
-        <filter val="叶菡"/>
+        <filter val="只想做个好人"/>
         <filter val="在下唐银"/>
         <filter val="墨河"/>
-        <filter val="墨萧炎"/>
-        <filter val="天韵ゝ"/>
+        <filter val="墨韵轩华"/>
+        <filter val="天真无邪大胡子"/>
+        <filter val="太极至尊"/>
         <filter val="女神菲奥娜"/>
-        <filter val="奶小牛丶"/>
+        <filter val="娇软の小屁股"/>
         <filter val="小阿淮呀"/>
-        <filter val="小阿鏡"/>
         <filter val="山高丶木易"/>
         <filter val="开封拍卖行"/>
-        <filter val="异逍遥"/>
-        <filter val="徐耶比"/>
+        <filter val="彼眸"/>
         <filter val="怒怒怒怒火"/>
-        <filter val="慕容飞羽"/>
-        <filter val="我是天香的啊"/>
-        <filter val="拌饭萌面酥"/>
-        <filter val="放肆流逝的年华"/>
-        <filter val="时钟轻摇孤独"/>
+        <filter val="慕容靉"/>
+        <filter val="折扇浪漫"/>
         <filter val="明年今日奕十年"/>
         <filter val="晓月梦澈"/>
-        <filter val="月牙冲天"/>
-        <filter val="木易丶凝烟"/>
-        <filter val="树儿高高长"/>
-        <filter val="框框"/>
+        <filter val="机智勇敢的小炮"/>
+        <filter val="梦觞丶"/>
+        <filter val="歌风路丶三狗蛋"/>
         <filter val="水影悠兰"/>
         <filter val="池小晚"/>
         <filter val="池小猫"/>
+        <filter val="沐浠尘"/>
         <filter val="洪时雪"/>
-        <filter val="浅浅笑的梅子酱"/>
-        <filter val="浩浩丶浩"/>
         <filter val="浪迹小秦"/>
-        <filter val="淺笙"/>
+        <filter val="淡若清风過丶"/>
         <filter val="潇洒仗剑天下"/>
-        <filter val="煌煌"/>
         <filter val="爱哭鼻の阿木木"/>
-        <filter val="独孤沐白"/>
-        <filter val="百里轩翊"/>
-        <filter val="等我出轻语"/>
+        <filter val="白芹"/>
+        <filter val="破穿"/>
+        <filter val="神威再见"/>
+        <filter val="空虚公子萧四无"/>
+        <filter val="等风与你"/>
         <filter val="素蝶"/>
-        <filter val="纯洁友善的暮夏"/>
-        <filter val="萌萌哒的草莓酱"/>
-        <filter val="诸天花雨"/>
-        <filter val="追风少年鹰老七"/>
-        <filter val="那年今若、"/>
-        <filter val="那年红颜"/>
+        <filter val="紫舞流年"/>
+        <filter val="胡大力"/>
+        <filter val="艾莉亞史塔克"/>
+        <filter val="花谢人凋零。"/>
+        <filter val="超人不会飞〃"/>
+        <filter val="轻素剪云端"/>
+        <filter val="陌路莫回"/>
         <filter val="零拾"/>
         <filter val="青丝枫凌"/>
+        <filter val="风语风＊"/>
+        <filter val="鱼香"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="154">
   <si>
     <t>池小晚</t>
   </si>
@@ -42,27 +42,18 @@
     <t>阿木木</t>
   </si>
   <si>
-    <t>与尔同销萬古愁</t>
-  </si>
-  <si>
     <t>浪迹小秦</t>
   </si>
   <si>
     <t>一直梨花压海棠</t>
   </si>
   <si>
-    <t>零拾</t>
-  </si>
-  <si>
     <t>凌渃尘</t>
   </si>
   <si>
     <t>素蝶</t>
   </si>
   <si>
-    <t>只想做个好人</t>
-  </si>
-  <si>
     <t>折扇浪漫</t>
   </si>
   <si>
@@ -75,21 +66,12 @@
     <t>小阿淮呀</t>
   </si>
   <si>
-    <t>明年今日奕十年</t>
-  </si>
-  <si>
     <t>梦觞丶</t>
   </si>
   <si>
-    <t>青丝枫凌</t>
-  </si>
-  <si>
     <t>墨河</t>
   </si>
   <si>
-    <t>荡荡</t>
-  </si>
-  <si>
     <t>其实想玩刀客</t>
   </si>
   <si>
@@ -117,9 +99,6 @@
     <t>那年今若、</t>
   </si>
   <si>
-    <t>小阿鏡</t>
-  </si>
-  <si>
     <t>伊贰叁</t>
   </si>
   <si>
@@ -141,9 +120,6 @@
     <t>神威再见</t>
   </si>
   <si>
-    <t>Ander</t>
-  </si>
-  <si>
     <t>超人不会飞〃</t>
   </si>
   <si>
@@ -177,18 +153,9 @@
     <t>等风与你</t>
   </si>
   <si>
-    <t>风语风＊</t>
-  </si>
-  <si>
     <t>在下唐言</t>
   </si>
   <si>
-    <t>与尔同</t>
-  </si>
-  <si>
-    <t>小狼</t>
-  </si>
-  <si>
     <t>浪迹</t>
   </si>
   <si>
@@ -204,24 +171,15 @@
     <t>山高</t>
   </si>
   <si>
-    <t>洪时</t>
-  </si>
-  <si>
     <t>潇洒</t>
   </si>
   <si>
-    <t>天蓝色</t>
-  </si>
-  <si>
     <t>晓月梦</t>
   </si>
   <si>
     <t>陌路莫回</t>
   </si>
   <si>
-    <t>南宫</t>
-  </si>
-  <si>
     <t>凯贼</t>
   </si>
   <si>
@@ -246,24 +204,12 @@
     <t>白芹</t>
   </si>
   <si>
-    <t>胡大力</t>
-  </si>
-  <si>
     <t>紫舞流年</t>
   </si>
   <si>
     <t>墨韵轩华</t>
   </si>
   <si>
-    <t>苏千澪</t>
-  </si>
-  <si>
-    <t>娇软の小屁股</t>
-  </si>
-  <si>
-    <t>青羽墨染云</t>
-  </si>
-  <si>
     <t>天真无邪大胡子</t>
   </si>
   <si>
@@ -273,114 +219,42 @@
     <t>淡若清风過丶</t>
   </si>
   <si>
-    <t>似有若无</t>
-  </si>
-  <si>
-    <t>破穿</t>
-  </si>
-  <si>
-    <t>＊团灭专用奶</t>
-  </si>
-  <si>
-    <t>眉间一点白</t>
-  </si>
-  <si>
-    <t>机智勇敢的小炮</t>
-  </si>
-  <si>
-    <t>东瀛浪人展梦魂</t>
-  </si>
-  <si>
     <t>一个有内涵的人</t>
   </si>
   <si>
-    <t>梦离间丶</t>
-  </si>
-  <si>
-    <t>岚风夜雨</t>
-  </si>
-  <si>
     <t>倾舞情儿</t>
   </si>
   <si>
     <t>丐帮萌主</t>
   </si>
   <si>
-    <t>FateLibra</t>
-  </si>
-  <si>
-    <t>Northenhumilia</t>
-  </si>
-  <si>
     <t>彼眸</t>
   </si>
   <si>
-    <t>慕容靉</t>
-  </si>
-  <si>
     <t>艾莉亞史塔克</t>
   </si>
   <si>
-    <t>方得始終</t>
-  </si>
-  <si>
-    <t>凶光外露的熊</t>
-  </si>
-  <si>
-    <t>丨龙哥丿</t>
-  </si>
-  <si>
-    <t>剑泣天涯</t>
-  </si>
-  <si>
-    <t>歌风路丶三狗蛋</t>
-  </si>
-  <si>
     <t>凌</t>
   </si>
   <si>
-    <t>小屁</t>
-  </si>
-  <si>
     <t>折扇</t>
   </si>
   <si>
-    <t>明年今</t>
-  </si>
-  <si>
     <t>梦觞</t>
   </si>
   <si>
     <t>内涵</t>
   </si>
   <si>
-    <t>太极至</t>
-  </si>
-  <si>
-    <t>小炮</t>
-  </si>
-  <si>
     <t>淺</t>
   </si>
   <si>
-    <t>湳枝</t>
-  </si>
-  <si>
     <t>三狗蛋</t>
   </si>
   <si>
-    <t>萧四</t>
-  </si>
-  <si>
     <t>淡若</t>
   </si>
   <si>
-    <t>艾莉亞史</t>
-  </si>
-  <si>
-    <t>一抹煙雨</t>
-  </si>
-  <si>
     <t>忍野咩咩</t>
   </si>
   <si>
@@ -405,25 +279,211 @@
     <t>轻素剪云</t>
   </si>
   <si>
-    <t>风语风</t>
-  </si>
-  <si>
-    <t>吕小</t>
-  </si>
-  <si>
-    <t>百里</t>
-  </si>
-  <si>
-    <t>青丝</t>
-  </si>
-  <si>
-    <t>何月</t>
-  </si>
-  <si>
     <t>伊</t>
   </si>
   <si>
-    <t>甄</t>
+    <t>紫雨幽雲</t>
+  </si>
+  <si>
+    <t>古巷烟雨断桥殇</t>
+  </si>
+  <si>
+    <t>独孤沐白</t>
+  </si>
+  <si>
+    <t>百里轩翊</t>
+  </si>
+  <si>
+    <t>唐糖～</t>
+  </si>
+  <si>
+    <t>框框</t>
+  </si>
+  <si>
+    <t>天韵ゝ</t>
+  </si>
+  <si>
+    <t>丶初馨</t>
+  </si>
+  <si>
+    <t>只会躺不输出丶</t>
+  </si>
+  <si>
+    <t>异逍遥</t>
+  </si>
+  <si>
+    <t>椛灯</t>
+  </si>
+  <si>
+    <t>丿几度度丶</t>
+  </si>
+  <si>
+    <t>守护锋</t>
+  </si>
+  <si>
+    <t>鱼小小</t>
+  </si>
+  <si>
+    <t>薄霭</t>
+  </si>
+  <si>
+    <t>东风路三狗蛋</t>
+  </si>
+  <si>
+    <t>永恒只为等待</t>
+  </si>
+  <si>
+    <t>巡山的人</t>
+  </si>
+  <si>
+    <t>萌萌哒的草莓酱</t>
+  </si>
+  <si>
+    <t>盖世呆头洋</t>
+  </si>
+  <si>
+    <t>凰荼歌</t>
+  </si>
+  <si>
+    <t>い楓ゞ妖い</t>
+  </si>
+  <si>
+    <t>微微醉的葫芦酱</t>
+  </si>
+  <si>
+    <t>骑驴不喝酒</t>
+  </si>
+  <si>
+    <t>浅浅笑的梅子酱</t>
+  </si>
+  <si>
+    <t>唐舞桐灬</t>
+  </si>
+  <si>
+    <t>友善的小内衣</t>
+  </si>
+  <si>
+    <t>一将羽霄一</t>
+  </si>
+  <si>
+    <t>乌莲娜</t>
+  </si>
+  <si>
+    <t>诸天花雨</t>
+  </si>
+  <si>
+    <t>一息衍一</t>
+  </si>
+  <si>
+    <t>儒丶张良</t>
+  </si>
+  <si>
+    <t>男人应有的自豪</t>
+  </si>
+  <si>
+    <t>等我出轻语</t>
+  </si>
+  <si>
+    <t>芝麻花生馅儿饺</t>
+  </si>
+  <si>
+    <t>浩浩丶浩</t>
+  </si>
+  <si>
+    <t>慕容飞羽</t>
+  </si>
+  <si>
+    <t>淺笙</t>
+  </si>
+  <si>
+    <t>蝶舞旧梦</t>
+  </si>
+  <si>
+    <t>纯洁友善的暮夏</t>
+  </si>
+  <si>
+    <t>Yennefer</t>
+  </si>
+  <si>
+    <t>绫月薇</t>
+  </si>
+  <si>
+    <t>劍問兲涯覓紅颜</t>
+  </si>
+  <si>
+    <t>古巷烟雨</t>
+  </si>
+  <si>
+    <t>只会躺不输出</t>
+  </si>
+  <si>
+    <t>妖</t>
+  </si>
+  <si>
+    <t>几度</t>
+  </si>
+  <si>
+    <t>初馨</t>
+  </si>
+  <si>
+    <t>唐糖</t>
+  </si>
+  <si>
+    <t>天韵</t>
+  </si>
+  <si>
+    <t>永恒</t>
+  </si>
+  <si>
+    <t>一抹煙雨落</t>
+  </si>
+  <si>
+    <t>男人应有</t>
+  </si>
+  <si>
+    <t>盖世呆头</t>
+  </si>
+  <si>
+    <t>张良</t>
+  </si>
+  <si>
+    <t>奶小牛</t>
+  </si>
+  <si>
+    <t>梅子</t>
+  </si>
+  <si>
+    <t>水影</t>
+  </si>
+  <si>
+    <t>浩浩</t>
+  </si>
+  <si>
+    <t>友善的暮夏</t>
+  </si>
+  <si>
+    <t>荡荡</t>
+  </si>
+  <si>
+    <t>葫芦</t>
+  </si>
+  <si>
+    <t>那年今</t>
+  </si>
+  <si>
+    <t>鹰老七</t>
+  </si>
+  <si>
+    <t>炮</t>
+  </si>
+  <si>
+    <t>在下唐</t>
+  </si>
+  <si>
+    <t>萧四无</t>
+  </si>
+  <si>
+    <t>寻</t>
   </si>
 </sst>
 </file>
@@ -742,11 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,1025 +817,1157 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C1" t="str">
         <f>VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
-        <v>与尔同销萬古愁</v>
+        <v>凌渃尘</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C65" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,1,0)</f>
-        <v>青丝枫凌</v>
+        <v>南宫絮语</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>南宫絮语</v>
+        <v>古巷烟雨断桥殇</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>只想做个好人</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>只会躺不输出丶</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>墨河</v>
+        <v>女神菲奥娜</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>女神菲奥娜</v>
+        <v>异逍遥</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>娇软の小屁股</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>折扇浪漫</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>89</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>梦觞丶</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
+        <v>浪迹小秦</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>明年今日奕十年</v>
+        <v>一直梨花压海棠</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>梦觞丶</v>
+        <v>独孤沐白</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>浪迹小秦</v>
+        <v>百里轩翊</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>一直梨花压海棠</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>素蝶</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>小阿淮呀</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>破穿</v>
+        <v>い楓ゞ妖い</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>素蝶</v>
+        <v>倾舞情儿</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>小阿淮呀</v>
+        <v>一个有内涵的人</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>零拾</v>
+        <v>丿几度度丶</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>青丝枫凌</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>丶初馨</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>唐糖～</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>倾舞情儿</v>
+        <v>墨韵轩华</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>一个有内涵的人</v>
+        <v>天韵ゝ</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>墨韵轩华</v>
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>太极至尊</v>
+        <v>怒怒怒怒火</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>机智勇敢的小炮</v>
+        <v>慕容飞羽</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>怒怒怒怒火</v>
+        <v>椛灯</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>永恒只为等待</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="1" t="str">
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>池小晚</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>94</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>池小猫</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>爱哭鼻の阿木木</v>
+        <v>淺笙</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>歌风路丶三狗蛋</v>
+        <v>诸天花雨</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>伊贰叁</v>
+        <v>爱哭鼻の阿木木</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>其实想玩刀客</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>一抹煙雨落繁華</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>96</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>乌莲娜</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>在下唐银</v>
+        <v>冷清语</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>空虚公子萧四无</v>
+        <v>在下唐言</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>山高丶木易</v>
+        <v>墨萧炎</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>开封拍卖行</v>
+        <v>丶忍野咩咩</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>彼眸</v>
+        <v>晓月梦澈</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>慕容靉</v>
+        <v>凯贼阔里</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>山高丶木易</v>
+        <v>榕月</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>水影悠兰</v>
+        <v>沐浠尘</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>洪时雪</v>
+        <v>男人应有的自豪</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>淡若清风過丶</v>
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>潇洒仗剑天下</v>
+        <v>盖世呆头洋</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>紫舞流年</v>
+        <v>神威再见</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>艾莉亞史塔克</v>
+        <v>等风与你</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>池小猫</v>
+        <v>再见是否红着脸</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Ander</v>
+        <v>天真无邪大胡子</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>一抹煙雨落繁華</v>
+        <v>花谢人凋零。</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>冷清语</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>超人不会飞〃</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>68</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>轻素剪云端</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>丶天蓝色</v>
+        <v>陌路莫回</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>丶忍野咩咩</v>
+        <v>鱼小小</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>晓月梦澈</v>
+        <v>鱼香</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>凯贼阔里</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>东风路三狗蛋</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>108</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>伊贰叁</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>沐浠尘</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>儒丶张良</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>其实想玩刀客</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>白芹</v>
+        <v>在下唐银</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>神威再见</v>
+        <v>空虚公子萧四无</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>等风与你</v>
+        <v>奶小牛丶</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>再见是否红着脸</v>
+        <v>山高丶木易</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>胡大力</v>
+        <v>开封拍卖行</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66:C75" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
-        <v>天真无邪大胡子</v>
+        <f t="shared" ref="C66:C86" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
+        <v>彼眸</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>花谢人凋零。</v>
+        <v>山高丶木易</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="1" t="str">
+        <v>113</v>
+      </c>
+      <c r="C68" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>超人不会飞〃</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>轻素剪云端</v>
+        <v>框框</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>陌路莫回</v>
+        <v>浅浅笑的梅子酱</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>风语风＊</v>
+        <v>水影悠兰</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>鱼香</v>
+        <v>洪时雪</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
       <c r="B73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>浩浩丶浩</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>淡若清风過丶</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>潇洒仗剑天下</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>等我出轻语</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>紫舞流年</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>紫雨幽雲</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>纯洁友善的暮夏</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>艾莉亞史塔克</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>微微醉的葫芦酱</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>薄霭</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>那年今若、</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>那年红颜</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>追风少年鹰老七</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
@@ -3196,71 +3387,7 @@
       <c r="C584" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C572">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="Ander"/>
-        <filter val="一个有内涵的人"/>
-        <filter val="一抹煙雨落繁華"/>
-        <filter val="一直梨花压海棠"/>
-        <filter val="丶天蓝色"/>
-        <filter val="丶忍野咩咩"/>
-        <filter val="伊贰叁"/>
-        <filter val="倾舞情儿"/>
-        <filter val="其实想玩刀客"/>
-        <filter val="再见是否红着脸"/>
-        <filter val="冷清语"/>
-        <filter val="凯贼阔里"/>
-        <filter val="南宫絮语"/>
-        <filter val="只想做个好人"/>
-        <filter val="在下唐银"/>
-        <filter val="墨河"/>
-        <filter val="墨韵轩华"/>
-        <filter val="天真无邪大胡子"/>
-        <filter val="太极至尊"/>
-        <filter val="女神菲奥娜"/>
-        <filter val="娇软の小屁股"/>
-        <filter val="小阿淮呀"/>
-        <filter val="山高丶木易"/>
-        <filter val="开封拍卖行"/>
-        <filter val="彼眸"/>
-        <filter val="怒怒怒怒火"/>
-        <filter val="慕容靉"/>
-        <filter val="折扇浪漫"/>
-        <filter val="明年今日奕十年"/>
-        <filter val="晓月梦澈"/>
-        <filter val="机智勇敢的小炮"/>
-        <filter val="梦觞丶"/>
-        <filter val="歌风路丶三狗蛋"/>
-        <filter val="水影悠兰"/>
-        <filter val="池小晚"/>
-        <filter val="池小猫"/>
-        <filter val="沐浠尘"/>
-        <filter val="洪时雪"/>
-        <filter val="浪迹小秦"/>
-        <filter val="淡若清风過丶"/>
-        <filter val="潇洒仗剑天下"/>
-        <filter val="爱哭鼻の阿木木"/>
-        <filter val="白芹"/>
-        <filter val="破穿"/>
-        <filter val="神威再见"/>
-        <filter val="空虚公子萧四无"/>
-        <filter val="等风与你"/>
-        <filter val="素蝶"/>
-        <filter val="紫舞流年"/>
-        <filter val="胡大力"/>
-        <filter val="艾莉亞史塔克"/>
-        <filter val="花谢人凋零。"/>
-        <filter val="超人不会飞〃"/>
-        <filter val="轻素剪云端"/>
-        <filter val="陌路莫回"/>
-        <filter val="零拾"/>
-        <filter val="青丝枫凌"/>
-        <filter val="风语风＊"/>
-        <filter val="鱼香"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C572"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compare.xlsx
+++ b/compare.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$572</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$579</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="588">
   <si>
     <t>池小晚</t>
   </si>
@@ -156,48 +156,15 @@
     <t>在下唐言</t>
   </si>
   <si>
-    <t>浪迹</t>
-  </si>
-  <si>
-    <t>海棠</t>
-  </si>
-  <si>
-    <t>怒火</t>
-  </si>
-  <si>
-    <t>刀客</t>
-  </si>
-  <si>
-    <t>山高</t>
-  </si>
-  <si>
-    <t>潇洒</t>
-  </si>
-  <si>
-    <t>晓月梦</t>
-  </si>
-  <si>
     <t>陌路莫回</t>
   </si>
   <si>
-    <t>凯贼</t>
-  </si>
-  <si>
     <t>冷清语</t>
   </si>
   <si>
     <t>丶忍野咩咩</t>
   </si>
   <si>
-    <t>阿淮</t>
-  </si>
-  <si>
-    <t>开封拍卖行</t>
-  </si>
-  <si>
-    <t>木易</t>
-  </si>
-  <si>
     <t>花谢人凋零。</t>
   </si>
   <si>
@@ -234,54 +201,9 @@
     <t>艾莉亞史塔克</t>
   </si>
   <si>
-    <t>凌</t>
-  </si>
-  <si>
-    <t>折扇</t>
-  </si>
-  <si>
-    <t>梦觞</t>
-  </si>
-  <si>
-    <t>内涵</t>
-  </si>
-  <si>
-    <t>淺</t>
-  </si>
-  <si>
-    <t>三狗蛋</t>
-  </si>
-  <si>
-    <t>淡若</t>
-  </si>
-  <si>
-    <t>忍野咩咩</t>
-  </si>
-  <si>
     <t>榕月</t>
   </si>
   <si>
-    <t>等风</t>
-  </si>
-  <si>
-    <t>红着脸</t>
-  </si>
-  <si>
-    <t>胡子</t>
-  </si>
-  <si>
-    <t>花谢人</t>
-  </si>
-  <si>
-    <t>超人不会飞</t>
-  </si>
-  <si>
-    <t>轻素剪云</t>
-  </si>
-  <si>
-    <t>伊</t>
-  </si>
-  <si>
     <t>紫雨幽雲</t>
   </si>
   <si>
@@ -411,79 +333,1459 @@
     <t>劍問兲涯覓紅颜</t>
   </si>
   <si>
-    <t>古巷烟雨</t>
-  </si>
-  <si>
-    <t>只会躺不输出</t>
-  </si>
-  <si>
-    <t>妖</t>
-  </si>
-  <si>
-    <t>几度</t>
+    <t>天韵</t>
+  </si>
+  <si>
+    <t>断涯</t>
+  </si>
+  <si>
+    <t>菜菜聪</t>
+  </si>
+  <si>
+    <t>谁家娇妻守空房</t>
+  </si>
+  <si>
+    <t>冰心儿</t>
+  </si>
+  <si>
+    <t>瑾年锦字谁人书</t>
+  </si>
+  <si>
+    <t>一飚一</t>
+  </si>
+  <si>
+    <t>梨花愁</t>
+  </si>
+  <si>
+    <t>白衣涡阳</t>
+  </si>
+  <si>
+    <t>子月生木</t>
+  </si>
+  <si>
+    <t>颓废老男人</t>
+  </si>
+  <si>
+    <t>乐无欢</t>
+  </si>
+  <si>
+    <t>、东方求败</t>
+  </si>
+  <si>
+    <t>晚街听风</t>
+  </si>
+  <si>
+    <t>眉间一点白</t>
+  </si>
+  <si>
+    <t>澪澪</t>
+  </si>
+  <si>
+    <t>苏州一姐</t>
+  </si>
+  <si>
+    <t>冷殘心</t>
+  </si>
+  <si>
+    <t>萌萌哒灬毒香</t>
+  </si>
+  <si>
+    <t>一夜风雪</t>
+  </si>
+  <si>
+    <t>玉面天魁</t>
+  </si>
+  <si>
+    <t>捣蛋神将</t>
+  </si>
+  <si>
+    <t>金少远</t>
+  </si>
+  <si>
+    <t>慕云川</t>
+  </si>
+  <si>
+    <t>想吃糖醋排骨</t>
+  </si>
+  <si>
+    <t>慕落弦</t>
+  </si>
+  <si>
+    <t>柒叶浅</t>
+  </si>
+  <si>
+    <t>丶柳天</t>
+  </si>
+  <si>
+    <t>劳资好萌好可爱</t>
+  </si>
+  <si>
+    <t>无所不能小奇葩</t>
+  </si>
+  <si>
+    <t>叶清欢</t>
+  </si>
+  <si>
+    <t>六丶花</t>
+  </si>
+  <si>
+    <t>花兮兮兮兮</t>
+  </si>
+  <si>
+    <t>柳柳々</t>
+  </si>
+  <si>
+    <t>时钟轻摇孤独</t>
+  </si>
+  <si>
+    <t>志在玩物</t>
+  </si>
+  <si>
+    <t>暮川</t>
+  </si>
+  <si>
+    <t>座下吹箫小童子</t>
+  </si>
+  <si>
+    <t>吕小栋</t>
+  </si>
+  <si>
+    <t>真武小诗妹</t>
+  </si>
+  <si>
+    <t>静听唯美慯</t>
+  </si>
+  <si>
+    <t>墨麟杉</t>
+  </si>
+  <si>
+    <t>明年今日奕十年</t>
+  </si>
+  <si>
+    <t>带你流浪</t>
+  </si>
+  <si>
+    <t>薛涛笺</t>
+  </si>
+  <si>
+    <t>秋语沫</t>
+  </si>
+  <si>
+    <t>与尔同销萬古愁</t>
+  </si>
+  <si>
+    <t>邸琳琳</t>
+  </si>
+  <si>
+    <t>丨龙哥丿</t>
+  </si>
+  <si>
+    <t>陈晶</t>
+  </si>
+  <si>
+    <t>SouLmAte、小狼</t>
+  </si>
+  <si>
+    <t>零拾</t>
+  </si>
+  <si>
+    <t>元丶瑶</t>
+  </si>
+  <si>
+    <t>顾云深</t>
+  </si>
+  <si>
+    <t>傲江湖</t>
+  </si>
+  <si>
+    <t>墨如渊</t>
+  </si>
+  <si>
+    <t>太极神尊</t>
+  </si>
+  <si>
+    <t>汐云丶丶</t>
+  </si>
+  <si>
+    <t>Northenhumilia</t>
+  </si>
+  <si>
+    <t>项云丶</t>
+  </si>
+  <si>
+    <t>夢觴丶</t>
+  </si>
+  <si>
+    <t>沐玉洁</t>
+  </si>
+  <si>
+    <t>帝喾</t>
+  </si>
+  <si>
+    <t>晚下</t>
+  </si>
+  <si>
+    <t>苏云昭</t>
+  </si>
+  <si>
+    <t>冬日雪</t>
+  </si>
+  <si>
+    <t>破穿</t>
+  </si>
+  <si>
+    <t>祗园之舞</t>
+  </si>
+  <si>
+    <t>轩辕素问</t>
+  </si>
+  <si>
+    <t>请叫我孟纶镁</t>
+  </si>
+  <si>
+    <t>无她，唯手熟尔</t>
+  </si>
+  <si>
+    <t>只想做个好人</t>
+  </si>
+  <si>
+    <t>青丶玄</t>
+  </si>
+  <si>
+    <t>林傲霜</t>
+  </si>
+  <si>
+    <t>蘃</t>
+  </si>
+  <si>
+    <t>邓紫棋的小鲜肉</t>
+  </si>
+  <si>
+    <t>千丶色</t>
+  </si>
+  <si>
+    <t>唏嘘流年</t>
+  </si>
+  <si>
+    <t>穆川</t>
+  </si>
+  <si>
+    <t>少籹落</t>
+  </si>
+  <si>
+    <t>清新荷语</t>
+  </si>
+  <si>
+    <t>琴爱迪</t>
+  </si>
+  <si>
+    <t>冷血〃</t>
+  </si>
+  <si>
+    <t>秦友善。</t>
+  </si>
+  <si>
+    <t>Curtain丶義</t>
+  </si>
+  <si>
+    <t>醉饮砒霜</t>
+  </si>
+  <si>
+    <t>丨拂晓丶</t>
+  </si>
+  <si>
+    <t>剑老白</t>
+  </si>
+  <si>
+    <t>欢脱的柚子</t>
+  </si>
+  <si>
+    <t>不厌浮生唯是梦</t>
+  </si>
+  <si>
+    <t>白轻寒</t>
+  </si>
+  <si>
+    <t>青丝枫凌</t>
+  </si>
+  <si>
+    <t>最美的事</t>
+  </si>
+  <si>
+    <t>蝶舞云</t>
+  </si>
+  <si>
+    <t>百媚众生生</t>
+  </si>
+  <si>
+    <t>岚风夜雨</t>
+  </si>
+  <si>
+    <t>唐杜里</t>
+  </si>
+  <si>
+    <t>逸尘灬浮</t>
+  </si>
+  <si>
+    <t>老滚</t>
+  </si>
+  <si>
+    <t>牛奶奶奶奶</t>
+  </si>
+  <si>
+    <t>帝古</t>
+  </si>
+  <si>
+    <t>烂心</t>
+  </si>
+  <si>
+    <t>殺丶无忌</t>
+  </si>
+  <si>
+    <t>慕容铃音</t>
+  </si>
+  <si>
+    <t>我是天香的啊</t>
+  </si>
+  <si>
+    <t>孤独无香</t>
+  </si>
+  <si>
+    <t>凶光外露的熊</t>
+  </si>
+  <si>
+    <t>执笔丶殇</t>
+  </si>
+  <si>
+    <t>依然的闲云</t>
+  </si>
+  <si>
+    <t>凯旋之伤</t>
+  </si>
+  <si>
+    <t>萌动胖迪</t>
+  </si>
+  <si>
+    <t>他们不让玩神威</t>
+  </si>
+  <si>
+    <t>剑舞天涯</t>
+  </si>
+  <si>
+    <t>九月木妖</t>
+  </si>
+  <si>
+    <t>苏五娘</t>
+  </si>
+  <si>
+    <t>沐伯乾</t>
+  </si>
+  <si>
+    <t>我就一煞笔</t>
+  </si>
+  <si>
+    <t>右逝</t>
+  </si>
+  <si>
+    <t>这下可好啦</t>
+  </si>
+  <si>
+    <t>我是赵医生</t>
+  </si>
+  <si>
+    <t>娇软の小屁股</t>
+  </si>
+  <si>
+    <t>⑦玥</t>
+  </si>
+  <si>
+    <t>遗忘的祈祷者</t>
+  </si>
+  <si>
+    <t>城南穷鬼赵四</t>
+  </si>
+  <si>
+    <t>谶木</t>
+  </si>
+  <si>
+    <t>归海异道</t>
+  </si>
+  <si>
+    <t>会跳舞的熊宝宝</t>
+  </si>
+  <si>
+    <t>夜半月微凉</t>
+  </si>
+  <si>
+    <t>翁瑞婷</t>
+  </si>
+  <si>
+    <t>唯声丶丶</t>
+  </si>
+  <si>
+    <t>董汉卿</t>
+  </si>
+  <si>
+    <t>她心屿</t>
+  </si>
+  <si>
+    <t>北凉老妖</t>
+  </si>
+  <si>
+    <t>意邪</t>
+  </si>
+  <si>
+    <t>久成病</t>
+  </si>
+  <si>
+    <t>君挽言</t>
+  </si>
+  <si>
+    <t>花间绕柔指丶</t>
+  </si>
+  <si>
+    <t>东北枭雄赵本山</t>
+  </si>
+  <si>
+    <t>武藏野剑太</t>
+  </si>
+  <si>
+    <t>不灭死神</t>
+  </si>
+  <si>
+    <t>帝君虹</t>
+  </si>
+  <si>
+    <t>纳兰柔弱</t>
+  </si>
+  <si>
+    <t>孤影惊残梦</t>
+  </si>
+  <si>
+    <t>这货不是刘鑫雨</t>
+  </si>
+  <si>
+    <t>倚楼听風</t>
+  </si>
+  <si>
+    <t>唐雪棠</t>
+  </si>
+  <si>
+    <t>裴述</t>
+  </si>
+  <si>
+    <t>南眸</t>
+  </si>
+  <si>
+    <t>桜染</t>
+  </si>
+  <si>
+    <t>一曲月霜寒</t>
+  </si>
+  <si>
+    <t>泪成殇</t>
+  </si>
+  <si>
+    <t>艾尔艾路弗</t>
+  </si>
+  <si>
+    <t>咸鱼天香</t>
+  </si>
+  <si>
+    <t>小卤蛋丶</t>
+  </si>
+  <si>
+    <t>醉梦、钊远</t>
+  </si>
+  <si>
+    <t>我一直没有曾经</t>
+  </si>
+  <si>
+    <t>丨寻她丶丨</t>
+  </si>
+  <si>
+    <t>雪域星空</t>
+  </si>
+  <si>
+    <t>影流皇族</t>
+  </si>
+  <si>
+    <t>寒抹</t>
+  </si>
+  <si>
+    <t>凱蒂喵</t>
+  </si>
+  <si>
+    <t>大岛遥香</t>
+  </si>
+  <si>
+    <t>姬如影</t>
+  </si>
+  <si>
+    <t>回忆不曾悲伤</t>
+  </si>
+  <si>
+    <t>棒棒噠</t>
+  </si>
+  <si>
+    <t>一谒青山知云簇</t>
+  </si>
+  <si>
+    <t>任离流</t>
+  </si>
+  <si>
+    <t>°°</t>
+  </si>
+  <si>
+    <t>小叮咚姣姣</t>
+  </si>
+  <si>
+    <t>凡人的梦</t>
+  </si>
+  <si>
+    <t>旧人谙</t>
+  </si>
+  <si>
+    <t>ParTing丶X</t>
+  </si>
+  <si>
+    <t>方得始終</t>
+  </si>
+  <si>
+    <t>千雪冰鳳</t>
+  </si>
+  <si>
+    <t>潇懿风</t>
+  </si>
+  <si>
+    <t>红毛</t>
+  </si>
+  <si>
+    <t>唐葫芦呀</t>
+  </si>
+  <si>
+    <t>仁剑震音扬</t>
+  </si>
+  <si>
+    <t>茗爷</t>
+  </si>
+  <si>
+    <t>云紫婳</t>
+  </si>
+  <si>
+    <t>嗯哼丶一刀</t>
+  </si>
+  <si>
+    <t>墨雨丶晓枫</t>
+  </si>
+  <si>
+    <t>放肆流逝的年华</t>
+  </si>
+  <si>
+    <t>氹萌萌</t>
+  </si>
+  <si>
+    <t>杂粮煎饼</t>
+  </si>
+  <si>
+    <t>文大飞</t>
+  </si>
+  <si>
+    <t>最喜欢你了</t>
+  </si>
+  <si>
+    <t>晚风与你灬</t>
+  </si>
+  <si>
+    <t>清弦</t>
+  </si>
+  <si>
+    <t>似有若无</t>
+  </si>
+  <si>
+    <t>魅影灬冥月</t>
+  </si>
+  <si>
+    <t>简单愛</t>
+  </si>
+  <si>
+    <t>闻素问</t>
+  </si>
+  <si>
+    <t>Puppet丶半心人</t>
+  </si>
+  <si>
+    <t>蚩尤魔人</t>
+  </si>
+  <si>
+    <t>笑世间过冷</t>
+  </si>
+  <si>
+    <t>两把剑的影</t>
+  </si>
+  <si>
+    <t>轻烟绕指丶柔</t>
+  </si>
+  <si>
+    <t>kingdan</t>
+  </si>
+  <si>
+    <t>利念晴</t>
+  </si>
+  <si>
+    <t>南宫元</t>
+  </si>
+  <si>
+    <t>长河的水儿不浑</t>
+  </si>
+  <si>
+    <t>雪糕失望</t>
+  </si>
+  <si>
+    <t>云紫涵</t>
+  </si>
+  <si>
+    <t>离殇天丶</t>
+  </si>
+  <si>
+    <t>丶雨潇潇丶</t>
+  </si>
+  <si>
+    <t>阿锟猫</t>
+  </si>
+  <si>
+    <t>画芊骨</t>
+  </si>
+  <si>
+    <t>火之鸟</t>
+  </si>
+  <si>
+    <t>反正我是最小的</t>
+  </si>
+  <si>
+    <t>女神绘梨衣</t>
+  </si>
+  <si>
+    <t>我曰你外爷吃翔</t>
+  </si>
+  <si>
+    <t>笛梦一秋</t>
+  </si>
+  <si>
+    <t>移星</t>
+  </si>
+  <si>
+    <t>阡小陌</t>
+  </si>
+  <si>
+    <t>机智勇敢的小炮</t>
+  </si>
+  <si>
+    <t>風云</t>
+  </si>
+  <si>
+    <t>有马薰</t>
+  </si>
+  <si>
+    <t>洛枳丶</t>
+  </si>
+  <si>
+    <t>浅笑一下</t>
+  </si>
+  <si>
+    <t>魅丿无情</t>
+  </si>
+  <si>
+    <t>辉哥哥</t>
+  </si>
+  <si>
+    <t>涛声依旧彡</t>
+  </si>
+  <si>
+    <t>轻笑忘</t>
+  </si>
+  <si>
+    <t>随你几时丶</t>
+  </si>
+  <si>
+    <t>楪夢</t>
+  </si>
+  <si>
+    <t>红颜痴情笑</t>
+  </si>
+  <si>
+    <t>月华司</t>
+  </si>
+  <si>
+    <t>就叫玫瑰吧</t>
+  </si>
+  <si>
+    <t>ParTing丶R</t>
+  </si>
+  <si>
+    <t>绑定小蜜的</t>
+  </si>
+  <si>
+    <t>慕容媚</t>
+  </si>
+  <si>
+    <t>思念永远美好</t>
+  </si>
+  <si>
+    <t>刃歌</t>
+  </si>
+  <si>
+    <t>君i陌离</t>
+  </si>
+  <si>
+    <t>棠无双</t>
+  </si>
+  <si>
+    <t>冬凝寒</t>
+  </si>
+  <si>
+    <t>初墨凝</t>
+  </si>
+  <si>
+    <t>你爸你边哭一边</t>
+  </si>
+  <si>
+    <t>凡哥的父亲</t>
+  </si>
+  <si>
+    <t>碧空沧海藏云山</t>
+  </si>
+  <si>
+    <t>沫若。</t>
+  </si>
+  <si>
+    <t>夜袭寡妇寨</t>
+  </si>
+  <si>
+    <t>明天不见</t>
+  </si>
+  <si>
+    <t>琴若璃</t>
+  </si>
+  <si>
+    <t>安城以濡丶</t>
+  </si>
+  <si>
+    <t>倾国不倾城</t>
+  </si>
+  <si>
+    <t>手中玫瑰赠予谁</t>
+  </si>
+  <si>
+    <t>黒无常</t>
+  </si>
+  <si>
+    <t>万心忧</t>
+  </si>
+  <si>
+    <t>偏不</t>
+  </si>
+  <si>
+    <t>蠢蠢的我</t>
+  </si>
+  <si>
+    <t>司寇听雨</t>
+  </si>
+  <si>
+    <t>纯情少妇马芳玲</t>
+  </si>
+  <si>
+    <t>友善的咸鱼白</t>
+  </si>
+  <si>
+    <t>徐耶比</t>
+  </si>
+  <si>
+    <t>青羽墨染云</t>
+  </si>
+  <si>
+    <t>青春亮丽欣妈妈</t>
+  </si>
+  <si>
+    <t>东瀛浪人展梦魂</t>
+  </si>
+  <si>
+    <t>东风路大狗蛋</t>
+  </si>
+  <si>
+    <t>宴渊</t>
+  </si>
+  <si>
+    <t>女神、</t>
+  </si>
+  <si>
+    <t>伐青</t>
+  </si>
+  <si>
+    <t>擎天、、</t>
+  </si>
+  <si>
+    <t>最可爱的师姐</t>
+  </si>
+  <si>
+    <t>东风路四蛋</t>
+  </si>
+  <si>
+    <t>乏乏</t>
+  </si>
+  <si>
+    <t>蠢小椰丶</t>
+  </si>
+  <si>
+    <t>剣殊雨寒丶</t>
+  </si>
+  <si>
+    <t>曾经的麻辣</t>
+  </si>
+  <si>
+    <t>周晓默</t>
+  </si>
+  <si>
+    <t>粉嫩嫩的香蕉酱</t>
+  </si>
+  <si>
+    <t>何月凡</t>
+  </si>
+  <si>
+    <t>九袋丐</t>
+  </si>
+  <si>
+    <t>锁麟囊</t>
+  </si>
+  <si>
+    <t>骄傲的龙王丶</t>
+  </si>
+  <si>
+    <t>剑丶未凉</t>
+  </si>
+  <si>
+    <t>夜小喵丨博</t>
+  </si>
+  <si>
+    <t>飞羽绝尘</t>
+  </si>
+  <si>
+    <t>落花丶醉</t>
+  </si>
+  <si>
+    <t>花落时节与君别</t>
+  </si>
+  <si>
+    <t>畔水</t>
+  </si>
+  <si>
+    <t>帅气无敌康爸爸</t>
+  </si>
+  <si>
+    <t>疾风嗍</t>
+  </si>
+  <si>
+    <t>秦空痕</t>
+  </si>
+  <si>
+    <t>小兔兔几</t>
+  </si>
+  <si>
+    <t>大牛又鸟又鸟</t>
+  </si>
+  <si>
+    <t>风暖伤</t>
+  </si>
+  <si>
+    <t>二瞳</t>
+  </si>
+  <si>
+    <t>商岚研</t>
+  </si>
+  <si>
+    <t>转身落尽空城泪</t>
+  </si>
+  <si>
+    <t>青城爱未恋</t>
+  </si>
+  <si>
+    <t>雪丶未凝</t>
+  </si>
+  <si>
+    <t>马来西亚的咪咪</t>
+  </si>
+  <si>
+    <t>分分钟的等待</t>
+  </si>
+  <si>
+    <t>逸雅星</t>
+  </si>
+  <si>
+    <t>顾寻清</t>
+  </si>
+  <si>
+    <t>徽州酒癫</t>
+  </si>
+  <si>
+    <t>濯清莲而不妖</t>
+  </si>
+  <si>
+    <t>萝卜土豆丝</t>
+  </si>
+  <si>
+    <t>小阿鏡</t>
+  </si>
+  <si>
+    <t>Tusy</t>
+  </si>
+  <si>
+    <t>生气的小黄瓜</t>
+  </si>
+  <si>
+    <t>荡荡</t>
+  </si>
+  <si>
+    <t>不夜羽</t>
+  </si>
+  <si>
+    <t>摩诃大梵天</t>
+  </si>
+  <si>
+    <t>说谎的男孩</t>
+  </si>
+  <si>
+    <t>夜刃劫</t>
+  </si>
+  <si>
+    <t>一丿登</t>
+  </si>
+  <si>
+    <t>志方</t>
+  </si>
+  <si>
+    <t>木兰笺字雕白首</t>
+  </si>
+  <si>
+    <t>张家的</t>
+  </si>
+  <si>
+    <t>苍镜</t>
+  </si>
+  <si>
+    <t>七情剑伶慕容英</t>
+  </si>
+  <si>
+    <t>入梦落樱满熏香</t>
+  </si>
+  <si>
+    <t>白析</t>
+  </si>
+  <si>
+    <t>炖猪肘丶</t>
+  </si>
+  <si>
+    <t>咖喱丶</t>
+  </si>
+  <si>
+    <t>冷晓汐灬</t>
+  </si>
+  <si>
+    <t>歌风路丶三狗蛋</t>
+  </si>
+  <si>
+    <t>潇湘灬墨染</t>
+  </si>
+  <si>
+    <t>柒果果</t>
+  </si>
+  <si>
+    <t>纯洁友善的殇</t>
+  </si>
+  <si>
+    <t>昔昔</t>
+  </si>
+  <si>
+    <t>慕容靉</t>
+  </si>
+  <si>
+    <t>、征戮天下</t>
+  </si>
+  <si>
+    <t>茶凉言尽丶</t>
+  </si>
+  <si>
+    <t>天下芒果</t>
+  </si>
+  <si>
+    <t>可爱琳</t>
+  </si>
+  <si>
+    <t>妄于</t>
+  </si>
+  <si>
+    <t>满分</t>
+  </si>
+  <si>
+    <t>阿翔翔</t>
+  </si>
+  <si>
+    <t>萧尧</t>
+  </si>
+  <si>
+    <t>煌煌</t>
+  </si>
+  <si>
+    <t>思贤</t>
+  </si>
+  <si>
+    <t>风吹裤衩鸡鸡甩</t>
+  </si>
+  <si>
+    <t>气质绝非偶然</t>
+  </si>
+  <si>
+    <t>五六柒</t>
+  </si>
+  <si>
+    <t>可可咔</t>
+  </si>
+  <si>
+    <t>我要小萝莉</t>
+  </si>
+  <si>
+    <t>黑寡妇的小胸罩</t>
+  </si>
+  <si>
+    <t>嚜韵轩華</t>
+  </si>
+  <si>
+    <t>此情珂待</t>
+  </si>
+  <si>
+    <t>燕雨莲</t>
+  </si>
+  <si>
+    <t>踏马清月夜</t>
+  </si>
+  <si>
+    <t>锦衣卫知秋</t>
+  </si>
+  <si>
+    <t>Actors丶纤旧</t>
+  </si>
+  <si>
+    <t>情多多哆情</t>
+  </si>
+  <si>
+    <t>无情小萌羊</t>
+  </si>
+  <si>
+    <t>夜冥雪</t>
+  </si>
+  <si>
+    <t>关翔予</t>
+  </si>
+  <si>
+    <t>储舜</t>
+  </si>
+  <si>
+    <t>Sunnyboy丶桔子</t>
+  </si>
+  <si>
+    <t>灼眼的厦娜</t>
+  </si>
+  <si>
+    <t>苏樰</t>
+  </si>
+  <si>
+    <t>等风与你</t>
+  </si>
+  <si>
+    <t>剑护灬霓裳</t>
+  </si>
+  <si>
+    <t>洛城紫陌浸云影</t>
+  </si>
+  <si>
+    <t>刀光华血</t>
+  </si>
+  <si>
+    <t>半雨慕苒晴暖夏</t>
+  </si>
+  <si>
+    <t>千樽雪</t>
+  </si>
+  <si>
+    <t>丶薛日天</t>
+  </si>
+  <si>
+    <t>章鱼宝宝</t>
+  </si>
+  <si>
+    <t>＂子墨</t>
+  </si>
+  <si>
+    <t>劫丶亚索</t>
+  </si>
+  <si>
+    <t>聂人王</t>
+  </si>
+  <si>
+    <t>FateLibra</t>
+  </si>
+  <si>
+    <t>FateScorpio</t>
+  </si>
+  <si>
+    <t>舞恋月</t>
+  </si>
+  <si>
+    <t>冷晓汐丶</t>
+  </si>
+  <si>
+    <t>机器人神钩</t>
+  </si>
+  <si>
+    <t>偷得浮珄半日闲</t>
+  </si>
+  <si>
+    <t>態小白</t>
+  </si>
+  <si>
+    <t>回头我就在身后</t>
+  </si>
+  <si>
+    <t>雪遥</t>
+  </si>
+  <si>
+    <t>壕坑</t>
+  </si>
+  <si>
+    <t>傾城灬妖娆</t>
+  </si>
+  <si>
+    <t>、陌上看花</t>
+  </si>
+  <si>
+    <t>冷非颜</t>
+  </si>
+  <si>
+    <t>柠小檬丶</t>
+  </si>
+  <si>
+    <t>邱少</t>
+  </si>
+  <si>
+    <t>撑起雨伞</t>
+  </si>
+  <si>
+    <t>浮生半日</t>
+  </si>
+  <si>
+    <t>灬慕丶飞雪丿</t>
+  </si>
+  <si>
+    <t>丿Muc丨君丶陌</t>
+  </si>
+  <si>
+    <t>别说吻我</t>
+  </si>
+  <si>
+    <t>暖心城</t>
+  </si>
+  <si>
+    <t>QQ绿钻</t>
+  </si>
+  <si>
+    <t>繁星若珠璀璨</t>
+  </si>
+  <si>
+    <t>夕眸</t>
+  </si>
+  <si>
+    <t>秋水云嫣</t>
+  </si>
+  <si>
+    <t>独孤杀生</t>
+  </si>
+  <si>
+    <t>乔峰1987</t>
+  </si>
+  <si>
+    <t>钟离三昧</t>
+  </si>
+  <si>
+    <t>鸟食</t>
+  </si>
+  <si>
+    <t>梦中、有你</t>
+  </si>
+  <si>
+    <t>丶毒霸</t>
+  </si>
+  <si>
+    <t>闲卿丶</t>
+  </si>
+  <si>
+    <t>风影</t>
+  </si>
+  <si>
+    <t>贫道只是个道姑</t>
+  </si>
+  <si>
+    <t>拌饭萌面酥</t>
+  </si>
+  <si>
+    <t>古手梨花sama</t>
+  </si>
+  <si>
+    <t>狂灬黑</t>
+  </si>
+  <si>
+    <t>梨花黛雨</t>
+  </si>
+  <si>
+    <t>一豚豚一</t>
+  </si>
+  <si>
+    <t>韩灵菲</t>
+  </si>
+  <si>
+    <t>F丨小乖</t>
+  </si>
+  <si>
+    <t>浪哩个浪</t>
+  </si>
+  <si>
+    <t>云醉月微寒</t>
+  </si>
+  <si>
+    <t>丶神楽</t>
+  </si>
+  <si>
+    <t>银月如殇</t>
+  </si>
+  <si>
+    <t>余夜阑珊</t>
+  </si>
+  <si>
+    <t>凉山伯</t>
+  </si>
+  <si>
+    <t>落雨晴天</t>
+  </si>
+  <si>
+    <t>Ander</t>
+  </si>
+  <si>
+    <t>西城诀丶丶</t>
+  </si>
+  <si>
+    <t>伊莉雅苏菲尔</t>
+  </si>
+  <si>
+    <t>孟青</t>
+  </si>
+  <si>
+    <t>顾白意</t>
+  </si>
+  <si>
+    <t>荆轲已逝高渐离</t>
+  </si>
+  <si>
+    <t>黑夜中的耗子</t>
+  </si>
+  <si>
+    <t>利刃華爾茲</t>
+  </si>
+  <si>
+    <t>葉窕</t>
+  </si>
+  <si>
+    <t>冬初暮雪</t>
+  </si>
+  <si>
+    <t>甄心</t>
+  </si>
+  <si>
+    <t>臻忆丶</t>
+  </si>
+  <si>
+    <t>童心未湎</t>
+  </si>
+  <si>
+    <t>＊蘭先森</t>
+  </si>
+  <si>
+    <t>鱼爸爸</t>
+  </si>
+  <si>
+    <t>水晶般的人儿</t>
+  </si>
+  <si>
+    <t>琴韵红衣丶心</t>
+  </si>
+  <si>
+    <t>神威司空阿龙</t>
+  </si>
+  <si>
+    <t>乾元冰</t>
+  </si>
+  <si>
+    <t>众人何在速来救</t>
+  </si>
+  <si>
+    <t>机智勇敢的小月</t>
+  </si>
+  <si>
+    <t>秋断愁</t>
+  </si>
+  <si>
+    <t>秋风落叶梦还京</t>
+  </si>
+  <si>
+    <t>口味太怪</t>
+  </si>
+  <si>
+    <t>风语风＊</t>
+  </si>
+  <si>
+    <t>薛无衡</t>
+  </si>
+  <si>
+    <t>树儿高高长</t>
+  </si>
+  <si>
+    <t>花儿盛盛开</t>
+  </si>
+  <si>
+    <t>别碰我的葫芦</t>
+  </si>
+  <si>
+    <t>墨韵玄风</t>
+  </si>
+  <si>
+    <t>然後怎樣</t>
+  </si>
+  <si>
+    <t>羽洛剑</t>
+  </si>
+  <si>
+    <t>安好晴天</t>
+  </si>
+  <si>
+    <t>蝶舞见花红</t>
+  </si>
+  <si>
+    <t>狄万钧</t>
+  </si>
+  <si>
+    <t>王辰</t>
+  </si>
+  <si>
+    <t>舞落城</t>
+  </si>
+  <si>
+    <t>暮小曦丶</t>
+  </si>
+  <si>
+    <t>＊下水道的白</t>
+  </si>
+  <si>
+    <t>奔跑的小老虎</t>
+  </si>
+  <si>
+    <t>欧阳少琴</t>
+  </si>
+  <si>
+    <t>丐帮汪剑通</t>
+  </si>
+  <si>
+    <t>懒小孩</t>
+  </si>
+  <si>
+    <t>花花小小师妹</t>
+  </si>
+  <si>
+    <t>太白洗衣液</t>
+  </si>
+  <si>
+    <t>墨渱</t>
+  </si>
+  <si>
+    <t>丐帮金鹏长老</t>
+  </si>
+  <si>
+    <t>胡大力</t>
+  </si>
+  <si>
+    <t>漂洋過海來看伱</t>
+  </si>
+  <si>
+    <t>风舞雩</t>
+  </si>
+  <si>
+    <t>墨染樱飞</t>
+  </si>
+  <si>
+    <t>曲终无意</t>
+  </si>
+  <si>
+    <t>苗疆二少</t>
+  </si>
+  <si>
+    <t>制霸服务器丶</t>
+  </si>
+  <si>
+    <t>皱褶千秋梦</t>
+  </si>
+  <si>
+    <t>唐川穹</t>
+  </si>
+  <si>
+    <t>吕月凝</t>
+  </si>
+  <si>
+    <t>＊团灭专用奶</t>
+  </si>
+  <si>
+    <t>拳脚相向</t>
+  </si>
+  <si>
+    <t>唐倾梦吟</t>
+  </si>
+  <si>
+    <t>柳剑明</t>
+  </si>
+  <si>
+    <t>觅含丷</t>
+  </si>
+  <si>
+    <t>北辰心凝</t>
+  </si>
+  <si>
+    <t>＊下水道的威</t>
+  </si>
+  <si>
+    <t>几度度</t>
   </si>
   <si>
     <t>初馨</t>
   </si>
   <si>
+    <t>凡人的梦</t>
+  </si>
+  <si>
     <t>唐糖</t>
   </si>
   <si>
-    <t>天韵</t>
-  </si>
-  <si>
-    <t>永恒</t>
-  </si>
-  <si>
-    <t>一抹煙雨落</t>
-  </si>
-  <si>
-    <t>男人应有</t>
-  </si>
-  <si>
-    <t>盖世呆头</t>
-  </si>
-  <si>
-    <t>张良</t>
-  </si>
-  <si>
-    <t>奶小牛</t>
-  </si>
-  <si>
-    <t>梅子</t>
-  </si>
-  <si>
-    <t>水影</t>
-  </si>
-  <si>
-    <t>浩浩</t>
-  </si>
-  <si>
-    <t>友善的暮夏</t>
-  </si>
-  <si>
-    <t>荡荡</t>
-  </si>
-  <si>
-    <t>葫芦</t>
-  </si>
-  <si>
-    <t>那年今</t>
-  </si>
-  <si>
-    <t>鹰老七</t>
-  </si>
-  <si>
-    <t>炮</t>
-  </si>
-  <si>
-    <t>在下唐</t>
-  </si>
-  <si>
-    <t>萧四无</t>
-  </si>
-  <si>
-    <t>寻</t>
+    <t>楓</t>
+  </si>
+  <si>
+    <t>手中玫瑰</t>
+  </si>
+  <si>
+    <t>无情</t>
   </si>
 </sst>
 </file>
@@ -804,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C584"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,314 +2119,306 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C1" t="str">
         <f>VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
-        <v>凌渃尘</v>
+        <v>回忆不曾悲伤</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>581</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C65" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,1,0)</f>
-        <v>南宫絮语</v>
+        <f t="shared" ref="C2:C45" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,1,0)</f>
+        <v>丿几度度丶</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>古巷烟雨断桥殇</v>
+        <v>诸天花雨</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>只会躺不输出丶</v>
+        <v>倾舞情儿</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>墨河</v>
+        <v>雪糕失望</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>女神菲奥娜</v>
+        <v>百里轩翊</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>异逍遥</v>
+        <v>任离流</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
+        <v>一个有内涵的人</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>梦觞丶</v>
+        <v>似有若无</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>浪迹小秦</v>
+        <v>墨韵轩华</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>582</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>一直梨花压海棠</v>
+        <v>丶初馨</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>独孤沐白</v>
+        <v>百里轩翊</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>百里轩翊</v>
+        <v>太极至尊</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>素蝶</v>
+        <v>爱哭鼻の阿木木</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>小阿淮呀</v>
+        <v>机智勇敢的小炮</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>い楓ゞ妖い</v>
+        <v>天韵ゝ</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>587</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>倾舞情儿</v>
+        <v>魅丿无情</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>一个有内涵的人</v>
+        <v>百里轩翊</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>132</v>
+        <v>585</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>丿几度度丶</v>
+        <v>い楓ゞ妖い</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>583</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>丶初馨</v>
+        <v>凡人的梦</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>唐糖～</v>
+        <v>怒怒怒怒火</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>墨韵轩华</v>
+        <v>裴述</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>316</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>天韵ゝ</v>
+        <v>移星</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1" t="e">
+        <v>125</v>
+      </c>
+      <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>百里轩翊</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>怒怒怒怒火</v>
+        <v>池小晚</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>慕容飞羽</v>
+        <v>椛灯</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1132,2262 +2426,3386 @@
         <v>96</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>椛灯</v>
+        <v>慕容飞羽</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>586</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>永恒只为等待</v>
+        <v>手中玫瑰赠予谁</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>池小晚</v>
+        <v>永恒只为等待</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>池小猫</v>
+        <v>百里轩翊</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>淺笙</v>
+        <v>百里轩翊</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>115</v>
+        <v>335</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>诸天花雨</v>
+        <v>思念永远美好</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>584</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>爱哭鼻の阿木木</v>
+        <v>唐糖～</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>137</v>
+        <v>349</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>一抹煙雨落繁華</v>
+        <v>倾国不倾城</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>乌莲娜</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>冷清语</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>在下唐言</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>墨萧炎</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>丶忍野咩咩</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>晓月梦澈</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>凯贼阔里</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>榕月</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>沐浠尘</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>男人应有的自豪</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>盖世呆头洋</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>神威再见</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>等风与你</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>再见是否红着脸</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>天真无邪大胡子</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>花谢人凋零。</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>超人不会飞〃</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>轻素剪云端</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>陌路莫回</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>鱼小小</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>鱼香</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>东风路三狗蛋</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>伊贰叁</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>儒丶张良</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>其实想玩刀客</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>在下唐银</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>空虚公子萧四无</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>奶小牛丶</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>山高丶木易</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>开封拍卖行</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66:C86" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
-        <v>彼眸</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>山高丶木易</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>框框</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>浅浅笑的梅子酱</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>水影悠兰</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>洪时雪</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>浩浩丶浩</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>淡若清风過丶</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>49</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>潇洒仗剑天下</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>119</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>等我出轻语</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>紫舞流年</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>紫雨幽雲</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>145</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>纯洁友善的暮夏</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>艾莉亞史塔克</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>147</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>微微醉的葫芦酱</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>薄霭</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>那年今若、</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C85" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>那年红颜</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>追风少年鹰老七</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="C101" s="1"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C102" s="1"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="C103" s="1"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="C104" s="1"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="C105" s="1"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="C106" s="1"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C107" s="1"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="C108" s="1"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C109" s="1"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C110" s="1"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="C111" s="1"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B252" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B258" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B260" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B266" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B267" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B268" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B270" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B271" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B273" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B274" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B277" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B279" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B281" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B282" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B284" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="C284" s="1"/>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B285" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="C285" s="1"/>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B286" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B287" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="C287" s="1"/>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B289" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C289" s="1"/>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B290" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B291" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B292" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C292" s="1"/>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B293" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B294" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B295" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C295" s="1"/>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B296" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B297" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B298" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="C298" s="1"/>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B299" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B300" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B301" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B302" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="C302" s="1"/>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B303" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B304" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B305" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B306" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B307" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B308" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B309" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B310" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B311" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B312" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B313" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B314" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B315" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B316" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B317" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B318" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B319" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B320" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B321" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B322" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B323" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B324" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B325" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B326" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B327" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B328" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B329" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B330" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B331" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B332" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B333" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B334" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B335" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B336" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B337" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B338" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B339" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B340" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B341" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B342" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B343" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B344" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B345" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B346" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B347" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B348" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B349" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B350" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B351" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B352" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B353" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B354" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B355" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B356" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B357" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B358" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B359" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B360" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B361" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B362" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B363" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B364" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B365" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B366" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B367" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B368" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B369" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B370" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B371" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B372" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="C372" s="1"/>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B373" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B374" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B375" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="C375" s="1"/>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B376" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="C376" s="1"/>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B377" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B378" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B379" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="C379" s="1"/>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B380" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B381" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B382" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C382" s="1"/>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B383" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B384" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B385" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="C385" s="1"/>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B386" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B387" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C387" s="1"/>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B388" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B389" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B390" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B391" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C391" s="1"/>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B392" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B393" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B394" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B395" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="C395" s="1"/>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B396" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B397" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B398" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="C398" s="1"/>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B399" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="C399" s="1"/>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B400" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="C400" s="1"/>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B401" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B402" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B403" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="C403" s="1"/>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B404" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B405" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B406" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C406" s="1"/>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B407" s="1" t="s">
+        <v>439</v>
+      </c>
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B408" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B409" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B410" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B411" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B412" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B413" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B414" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B415" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B416" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="C416" s="1"/>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B417" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="C417" s="1"/>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B418" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B419" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="C419" s="1"/>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B420" s="1" t="s">
+        <v>451</v>
+      </c>
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B421" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="C421" s="1"/>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B422" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C422" s="1"/>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B423" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C423" s="1"/>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B424" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C424" s="1"/>
     </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B425" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="C425" s="1"/>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B426" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="C426" s="1"/>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B427" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="C427" s="1"/>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B428" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="C428" s="1"/>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B429" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="C429" s="1"/>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B430" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="C430" s="1"/>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B431" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="C431" s="1"/>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B432" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="C432" s="1"/>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B433" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C433" s="1"/>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B434" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C434" s="1"/>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B435" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B436" s="1" t="s">
+        <v>461</v>
+      </c>
       <c r="C436" s="1"/>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B437" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="C437" s="1"/>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B438" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="C438" s="1"/>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B439" s="1" t="s">
+        <v>464</v>
+      </c>
       <c r="C439" s="1"/>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B440" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="C440" s="1"/>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B441" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="C441" s="1"/>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B442" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="C442" s="1"/>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B443" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="C443" s="1"/>
     </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B444" s="1" t="s">
+        <v>469</v>
+      </c>
       <c r="C444" s="1"/>
     </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B445" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B446" s="1" t="s">
+        <v>470</v>
+      </c>
       <c r="C446" s="1"/>
     </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B447" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="C447" s="1"/>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B448" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="C448" s="1"/>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B449" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="C449" s="1"/>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B450" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C450" s="1"/>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B451" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="C451" s="1"/>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B452" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="C452" s="1"/>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B453" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="C453" s="1"/>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B454" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="C454" s="1"/>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B455" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="C455" s="1"/>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B456" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C456" s="1"/>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B457" s="1" t="s">
+        <v>479</v>
+      </c>
       <c r="C457" s="1"/>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B458" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="C458" s="1"/>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B459" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="C459" s="1"/>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B460" s="1" t="s">
+        <v>482</v>
+      </c>
       <c r="C460" s="1"/>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B461" s="1" t="s">
+        <v>483</v>
+      </c>
       <c r="C461" s="1"/>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B462" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="C462" s="1"/>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B463" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C463" s="1"/>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B464" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="C464" s="1"/>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B465" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C465" s="1"/>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B466" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="C466" s="1"/>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B467" s="1" t="s">
+        <v>487</v>
+      </c>
       <c r="C467" s="1"/>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B468" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C468" s="1"/>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B469" s="1" t="s">
+        <v>488</v>
+      </c>
       <c r="C469" s="1"/>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B470" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="C470" s="1"/>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B471" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="C471" s="1"/>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B472" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="C472" s="1"/>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B473" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="C473" s="1"/>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B474" s="1" t="s">
+        <v>493</v>
+      </c>
       <c r="C474" s="1"/>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B475" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C475" s="1"/>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B476" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C476" s="1"/>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B477" s="1" t="s">
+        <v>494</v>
+      </c>
       <c r="C477" s="1"/>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B478" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C478" s="1"/>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B479" s="1" t="s">
+        <v>495</v>
+      </c>
       <c r="C479" s="1"/>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B480" s="1" t="s">
+        <v>496</v>
+      </c>
       <c r="C480" s="1"/>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B481" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="C481" s="1"/>
     </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B482" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C482" s="1"/>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B483" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="C483" s="1"/>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B484" s="1" t="s">
+        <v>499</v>
+      </c>
       <c r="C484" s="1"/>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B485" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C485" s="1"/>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B486" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="C486" s="1"/>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B487" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C487" s="1"/>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B488" s="1" t="s">
+        <v>501</v>
+      </c>
       <c r="C488" s="1"/>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B489" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C489" s="1"/>
     </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B490" s="1" t="s">
+        <v>502</v>
+      </c>
       <c r="C490" s="1"/>
     </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B491" s="1" t="s">
+        <v>503</v>
+      </c>
       <c r="C491" s="1"/>
     </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B492" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C492" s="1"/>
     </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B493" s="1" t="s">
+        <v>504</v>
+      </c>
       <c r="C493" s="1"/>
     </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B494" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C494" s="1"/>
     </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B495" s="1" t="s">
+        <v>505</v>
+      </c>
       <c r="C495" s="1"/>
     </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B496" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="C496" s="1"/>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B497" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="C497" s="1"/>
     </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B498" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="C498" s="1"/>
     </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B499" s="1" t="s">
+        <v>509</v>
+      </c>
       <c r="C499" s="1"/>
     </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B500" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="C500" s="1"/>
     </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B501" s="1" t="s">
+        <v>511</v>
+      </c>
       <c r="C501" s="1"/>
     </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B502" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="C502" s="1"/>
     </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B503" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C503" s="1"/>
     </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B504" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B505" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="C505" s="1"/>
     </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B506" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C506" s="1"/>
     </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B507" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="C507" s="1"/>
     </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B508" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="C508" s="1"/>
     </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B509" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="C509" s="1"/>
     </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B510" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="C510" s="1"/>
     </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B511" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="C511" s="1"/>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B512" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="C512" s="1"/>
     </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B513" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="C513" s="1"/>
     </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B514" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="C514" s="1"/>
     </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B515" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="C515" s="1"/>
     </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B516" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B517" s="1" t="s">
+        <v>525</v>
+      </c>
       <c r="C517" s="1"/>
     </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B518" s="1" t="s">
+        <v>526</v>
+      </c>
       <c r="C518" s="1"/>
     </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B519" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="C519" s="1"/>
     </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B520" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="C520" s="1"/>
     </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B521" s="1" t="s">
+        <v>529</v>
+      </c>
       <c r="C521" s="1"/>
     </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B522" s="1" t="s">
+        <v>530</v>
+      </c>
       <c r="C522" s="1"/>
     </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B523" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="C523" s="1"/>
     </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B524" s="1" t="s">
+        <v>532</v>
+      </c>
       <c r="C524" s="1"/>
     </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B525" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="C525" s="1"/>
     </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B526" s="1" t="s">
+        <v>534</v>
+      </c>
       <c r="C526" s="1"/>
     </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B527" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="C527" s="1"/>
     </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B528" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="C528" s="1"/>
     </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B529" s="1" t="s">
+        <v>537</v>
+      </c>
       <c r="C529" s="1"/>
     </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B530" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="C530" s="1"/>
     </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B531" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="C531" s="1"/>
     </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B532" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="C532" s="1"/>
     </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B533" s="1" t="s">
+        <v>541</v>
+      </c>
       <c r="C533" s="1"/>
     </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B534" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="C534" s="1"/>
     </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B535" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="C535" s="1"/>
     </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B536" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="C536" s="1"/>
     </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B537" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="C537" s="1"/>
     </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B538" s="1" t="s">
+        <v>546</v>
+      </c>
       <c r="C538" s="1"/>
     </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B539" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="C539" s="1"/>
     </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B540" s="1" t="s">
+        <v>548</v>
+      </c>
       <c r="C540" s="1"/>
     </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B541" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C541" s="1"/>
     </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B542" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="C542" s="1"/>
     </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B543" s="1" t="s">
+        <v>550</v>
+      </c>
       <c r="C543" s="1"/>
     </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B544" s="1" t="s">
+        <v>551</v>
+      </c>
       <c r="C544" s="1"/>
     </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B545" s="1" t="s">
+        <v>552</v>
+      </c>
       <c r="C545" s="1"/>
     </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B546" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="C546" s="1"/>
     </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B547" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C547" s="1"/>
     </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B548" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="C548" s="1"/>
     </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B549" s="1" t="s">
+        <v>555</v>
+      </c>
       <c r="C549" s="1"/>
     </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B550" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C550" s="1"/>
     </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B551" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C551" s="1"/>
     </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B552" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="C552" s="1"/>
     </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B553" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="C553" s="1"/>
     </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B554" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="C554" s="1"/>
     </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B555" s="1" t="s">
+        <v>559</v>
+      </c>
       <c r="C555" s="1"/>
     </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B556" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C556" s="1"/>
     </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B557" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="C557" s="1"/>
     </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B558" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="C558" s="1"/>
     </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B559" s="1" t="s">
+        <v>562</v>
+      </c>
       <c r="C559" s="1"/>
     </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B560" s="1" t="s">
+        <v>563</v>
+      </c>
       <c r="C560" s="1"/>
     </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B561" s="1" t="s">
+        <v>564</v>
+      </c>
       <c r="C561" s="1"/>
     </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B562" s="1" t="s">
+        <v>565</v>
+      </c>
       <c r="C562" s="1"/>
     </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B563" s="1" t="s">
+        <v>566</v>
+      </c>
       <c r="C563" s="1"/>
     </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B564" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C564" s="1"/>
     </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B565" s="1" t="s">
+        <v>567</v>
+      </c>
       <c r="C565" s="1"/>
     </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B566" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="C566" s="1"/>
     </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B567" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="C567" s="1"/>
     </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B568" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="C568" s="1"/>
     </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B569" s="1" t="s">
+        <v>571</v>
+      </c>
       <c r="C569" s="1"/>
     </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B570" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="C570" s="1"/>
     </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B571" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="C571" s="1"/>
     </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B572" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="C572" s="1"/>
     </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B573" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="C573" s="1"/>
     </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B574" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="C574" s="1"/>
     </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B575" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C575" s="1"/>
     </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B576" s="1" t="s">
+        <v>577</v>
+      </c>
       <c r="C576" s="1"/>
     </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B577" s="1" t="s">
+        <v>578</v>
+      </c>
       <c r="C577" s="1"/>
     </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B578" s="1" t="s">
+        <v>579</v>
+      </c>
       <c r="C578" s="1"/>
     </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B579" s="1" t="s">
+        <v>580</v>
+      </c>
       <c r="C579" s="1"/>
     </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C580" s="1"/>
     </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C581" s="1"/>
     </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C582" s="1"/>
     </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C583" s="1"/>
     </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C584" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C572"/>
+  <autoFilter ref="C1:C579"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compare.xlsx
+++ b/compare.xlsx
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="588">
-  <si>
-    <t>池小晚</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="579">
   <si>
     <t>怒怒怒怒火</t>
   </si>
@@ -60,12 +57,6 @@
     <t>南宫絮语</t>
   </si>
   <si>
-    <t>女神菲奥娜</t>
-  </si>
-  <si>
-    <t>小阿淮呀</t>
-  </si>
-  <si>
     <t>梦觞丶</t>
   </si>
   <si>
@@ -120,27 +111,18 @@
     <t>神威再见</t>
   </si>
   <si>
-    <t>超人不会飞〃</t>
-  </si>
-  <si>
     <t>墨萧炎</t>
   </si>
   <si>
     <t>再见是否红着脸</t>
   </si>
   <si>
-    <t>轻素剪云端</t>
-  </si>
-  <si>
     <t>鱼香</t>
   </si>
   <si>
     <t>晓月梦澈</t>
   </si>
   <si>
-    <t>池小猫</t>
-  </si>
-  <si>
     <t>凯贼阔里</t>
   </si>
   <si>
@@ -159,9 +141,6 @@
     <t>陌路莫回</t>
   </si>
   <si>
-    <t>冷清语</t>
-  </si>
-  <si>
     <t>丶忍野咩咩</t>
   </si>
   <si>
@@ -180,9 +159,6 @@
     <t>天真无邪大胡子</t>
   </si>
   <si>
-    <t>一抹煙雨落繁華</t>
-  </si>
-  <si>
     <t>淡若清风過丶</t>
   </si>
   <si>
@@ -228,9 +204,6 @@
     <t>丶初馨</t>
   </si>
   <si>
-    <t>只会躺不输出丶</t>
-  </si>
-  <si>
     <t>异逍遥</t>
   </si>
   <si>
@@ -252,15 +225,9 @@
     <t>东风路三狗蛋</t>
   </si>
   <si>
-    <t>永恒只为等待</t>
-  </si>
-  <si>
     <t>巡山的人</t>
   </si>
   <si>
-    <t>萌萌哒的草莓酱</t>
-  </si>
-  <si>
     <t>盖世呆头洋</t>
   </si>
   <si>
@@ -270,15 +237,6 @@
     <t>い楓ゞ妖い</t>
   </si>
   <si>
-    <t>微微醉的葫芦酱</t>
-  </si>
-  <si>
-    <t>骑驴不喝酒</t>
-  </si>
-  <si>
-    <t>浅浅笑的梅子酱</t>
-  </si>
-  <si>
     <t>唐舞桐灬</t>
   </si>
   <si>
@@ -312,9 +270,6 @@
     <t>浩浩丶浩</t>
   </si>
   <si>
-    <t>慕容飞羽</t>
-  </si>
-  <si>
     <t>淺笙</t>
   </si>
   <si>
@@ -327,9 +282,6 @@
     <t>Yennefer</t>
   </si>
   <si>
-    <t>绫月薇</t>
-  </si>
-  <si>
     <t>劍問兲涯覓紅颜</t>
   </si>
   <si>
@@ -339,9 +291,6 @@
     <t>断涯</t>
   </si>
   <si>
-    <t>菜菜聪</t>
-  </si>
-  <si>
     <t>谁家娇妻守空房</t>
   </si>
   <si>
@@ -357,9 +306,6 @@
     <t>梨花愁</t>
   </si>
   <si>
-    <t>白衣涡阳</t>
-  </si>
-  <si>
     <t>子月生木</t>
   </si>
   <si>
@@ -396,15 +342,6 @@
     <t>玉面天魁</t>
   </si>
   <si>
-    <t>捣蛋神将</t>
-  </si>
-  <si>
-    <t>金少远</t>
-  </si>
-  <si>
-    <t>慕云川</t>
-  </si>
-  <si>
     <t>想吃糖醋排骨</t>
   </si>
   <si>
@@ -426,9 +363,6 @@
     <t>叶清欢</t>
   </si>
   <si>
-    <t>六丶花</t>
-  </si>
-  <si>
     <t>花兮兮兮兮</t>
   </si>
   <si>
@@ -438,9 +372,6 @@
     <t>时钟轻摇孤独</t>
   </si>
   <si>
-    <t>志在玩物</t>
-  </si>
-  <si>
     <t>暮川</t>
   </si>
   <si>
@@ -450,15 +381,9 @@
     <t>吕小栋</t>
   </si>
   <si>
-    <t>真武小诗妹</t>
-  </si>
-  <si>
     <t>静听唯美慯</t>
   </si>
   <si>
-    <t>墨麟杉</t>
-  </si>
-  <si>
     <t>明年今日奕十年</t>
   </si>
   <si>
@@ -474,9 +399,6 @@
     <t>与尔同销萬古愁</t>
   </si>
   <si>
-    <t>邸琳琳</t>
-  </si>
-  <si>
     <t>丨龙哥丿</t>
   </si>
   <si>
@@ -489,9 +411,6 @@
     <t>零拾</t>
   </si>
   <si>
-    <t>元丶瑶</t>
-  </si>
-  <si>
     <t>顾云深</t>
   </si>
   <si>
@@ -507,12 +426,6 @@
     <t>汐云丶丶</t>
   </si>
   <si>
-    <t>Northenhumilia</t>
-  </si>
-  <si>
-    <t>项云丶</t>
-  </si>
-  <si>
     <t>夢觴丶</t>
   </si>
   <si>
@@ -525,9 +438,6 @@
     <t>晚下</t>
   </si>
   <si>
-    <t>苏云昭</t>
-  </si>
-  <si>
     <t>冬日雪</t>
   </si>
   <si>
@@ -579,9 +489,6 @@
     <t>琴爱迪</t>
   </si>
   <si>
-    <t>冷血〃</t>
-  </si>
-  <si>
     <t>秦友善。</t>
   </si>
   <si>
@@ -609,15 +516,9 @@
     <t>青丝枫凌</t>
   </si>
   <si>
-    <t>最美的事</t>
-  </si>
-  <si>
     <t>蝶舞云</t>
   </si>
   <si>
-    <t>百媚众生生</t>
-  </si>
-  <si>
     <t>岚风夜雨</t>
   </si>
   <si>
@@ -654,21 +555,12 @@
     <t>凶光外露的熊</t>
   </si>
   <si>
-    <t>执笔丶殇</t>
-  </si>
-  <si>
-    <t>依然的闲云</t>
-  </si>
-  <si>
     <t>凯旋之伤</t>
   </si>
   <si>
     <t>萌动胖迪</t>
   </si>
   <si>
-    <t>他们不让玩神威</t>
-  </si>
-  <si>
     <t>剑舞天涯</t>
   </si>
   <si>
@@ -705,18 +597,12 @@
     <t>城南穷鬼赵四</t>
   </si>
   <si>
-    <t>谶木</t>
-  </si>
-  <si>
     <t>归海异道</t>
   </si>
   <si>
     <t>会跳舞的熊宝宝</t>
   </si>
   <si>
-    <t>夜半月微凉</t>
-  </si>
-  <si>
     <t>翁瑞婷</t>
   </si>
   <si>
@@ -741,9 +627,6 @@
     <t>君挽言</t>
   </si>
   <si>
-    <t>花间绕柔指丶</t>
-  </si>
-  <si>
     <t>东北枭雄赵本山</t>
   </si>
   <si>
@@ -762,9 +645,6 @@
     <t>孤影惊残梦</t>
   </si>
   <si>
-    <t>这货不是刘鑫雨</t>
-  </si>
-  <si>
     <t>倚楼听風</t>
   </si>
   <si>
@@ -795,21 +675,12 @@
     <t>小卤蛋丶</t>
   </si>
   <si>
-    <t>醉梦、钊远</t>
-  </si>
-  <si>
     <t>我一直没有曾经</t>
   </si>
   <si>
-    <t>丨寻她丶丨</t>
-  </si>
-  <si>
     <t>雪域星空</t>
   </si>
   <si>
-    <t>影流皇族</t>
-  </si>
-  <si>
     <t>寒抹</t>
   </si>
   <si>
@@ -834,21 +705,12 @@
     <t>任离流</t>
   </si>
   <si>
-    <t>°°</t>
-  </si>
-  <si>
     <t>小叮咚姣姣</t>
   </si>
   <si>
     <t>凡人的梦</t>
   </si>
   <si>
-    <t>旧人谙</t>
-  </si>
-  <si>
-    <t>ParTing丶X</t>
-  </si>
-  <si>
     <t>方得始終</t>
   </si>
   <si>
@@ -861,24 +723,15 @@
     <t>红毛</t>
   </si>
   <si>
-    <t>唐葫芦呀</t>
-  </si>
-  <si>
     <t>仁剑震音扬</t>
   </si>
   <si>
     <t>茗爷</t>
   </si>
   <si>
-    <t>云紫婳</t>
-  </si>
-  <si>
     <t>嗯哼丶一刀</t>
   </si>
   <si>
-    <t>墨雨丶晓枫</t>
-  </si>
-  <si>
     <t>放肆流逝的年华</t>
   </si>
   <si>
@@ -903,12 +756,6 @@
     <t>似有若无</t>
   </si>
   <si>
-    <t>魅影灬冥月</t>
-  </si>
-  <si>
-    <t>简单愛</t>
-  </si>
-  <si>
     <t>闻素问</t>
   </si>
   <si>
@@ -924,9 +771,6 @@
     <t>两把剑的影</t>
   </si>
   <si>
-    <t>轻烟绕指丶柔</t>
-  </si>
-  <si>
     <t>kingdan</t>
   </si>
   <si>
@@ -936,9 +780,6 @@
     <t>南宫元</t>
   </si>
   <si>
-    <t>长河的水儿不浑</t>
-  </si>
-  <si>
     <t>雪糕失望</t>
   </si>
   <si>
@@ -972,9 +813,6 @@
     <t>笛梦一秋</t>
   </si>
   <si>
-    <t>移星</t>
-  </si>
-  <si>
     <t>阡小陌</t>
   </si>
   <si>
@@ -984,9 +822,6 @@
     <t>風云</t>
   </si>
   <si>
-    <t>有马薰</t>
-  </si>
-  <si>
     <t>洛枳丶</t>
   </si>
   <si>
@@ -996,9 +831,6 @@
     <t>魅丿无情</t>
   </si>
   <si>
-    <t>辉哥哥</t>
-  </si>
-  <si>
     <t>涛声依旧彡</t>
   </si>
   <si>
@@ -1038,9 +870,6 @@
     <t>君i陌离</t>
   </si>
   <si>
-    <t>棠无双</t>
-  </si>
-  <si>
     <t>冬凝寒</t>
   </si>
   <si>
@@ -1056,9 +885,6 @@
     <t>碧空沧海藏云山</t>
   </si>
   <si>
-    <t>沫若。</t>
-  </si>
-  <si>
     <t>夜袭寡妇寨</t>
   </si>
   <si>
@@ -1146,9 +972,6 @@
     <t>周晓默</t>
   </si>
   <si>
-    <t>粉嫩嫩的香蕉酱</t>
-  </si>
-  <si>
     <t>何月凡</t>
   </si>
   <si>
@@ -1161,15 +984,6 @@
     <t>骄傲的龙王丶</t>
   </si>
   <si>
-    <t>剑丶未凉</t>
-  </si>
-  <si>
-    <t>夜小喵丨博</t>
-  </si>
-  <si>
-    <t>飞羽绝尘</t>
-  </si>
-  <si>
     <t>落花丶醉</t>
   </si>
   <si>
@@ -1185,9 +999,6 @@
     <t>疾风嗍</t>
   </si>
   <si>
-    <t>秦空痕</t>
-  </si>
-  <si>
     <t>小兔兔几</t>
   </si>
   <si>
@@ -1209,9 +1020,6 @@
     <t>青城爱未恋</t>
   </si>
   <si>
-    <t>雪丶未凝</t>
-  </si>
-  <si>
     <t>马来西亚的咪咪</t>
   </si>
   <si>
@@ -1224,9 +1032,6 @@
     <t>顾寻清</t>
   </si>
   <si>
-    <t>徽州酒癫</t>
-  </si>
-  <si>
     <t>濯清莲而不妖</t>
   </si>
   <si>
@@ -1245,12 +1050,6 @@
     <t>荡荡</t>
   </si>
   <si>
-    <t>不夜羽</t>
-  </si>
-  <si>
-    <t>摩诃大梵天</t>
-  </si>
-  <si>
     <t>说谎的男孩</t>
   </si>
   <si>
@@ -1266,9 +1065,6 @@
     <t>木兰笺字雕白首</t>
   </si>
   <si>
-    <t>张家的</t>
-  </si>
-  <si>
     <t>苍镜</t>
   </si>
   <si>
@@ -1371,15 +1167,9 @@
     <t>锦衣卫知秋</t>
   </si>
   <si>
-    <t>Actors丶纤旧</t>
-  </si>
-  <si>
     <t>情多多哆情</t>
   </si>
   <si>
-    <t>无情小萌羊</t>
-  </si>
-  <si>
     <t>夜冥雪</t>
   </si>
   <si>
@@ -1404,9 +1194,6 @@
     <t>剑护灬霓裳</t>
   </si>
   <si>
-    <t>洛城紫陌浸云影</t>
-  </si>
-  <si>
     <t>刀光华血</t>
   </si>
   <si>
@@ -1425,9 +1212,6 @@
     <t>＂子墨</t>
   </si>
   <si>
-    <t>劫丶亚索</t>
-  </si>
-  <si>
     <t>聂人王</t>
   </si>
   <si>
@@ -1443,9 +1227,6 @@
     <t>冷晓汐丶</t>
   </si>
   <si>
-    <t>机器人神钩</t>
-  </si>
-  <si>
     <t>偷得浮珄半日闲</t>
   </si>
   <si>
@@ -1494,18 +1275,12 @@
     <t>暖心城</t>
   </si>
   <si>
-    <t>QQ绿钻</t>
-  </si>
-  <si>
     <t>繁星若珠璀璨</t>
   </si>
   <si>
     <t>夕眸</t>
   </si>
   <si>
-    <t>秋水云嫣</t>
-  </si>
-  <si>
     <t>独孤杀生</t>
   </si>
   <si>
@@ -1521,9 +1296,6 @@
     <t>梦中、有你</t>
   </si>
   <si>
-    <t>丶毒霸</t>
-  </si>
-  <si>
     <t>闲卿丶</t>
   </si>
   <si>
@@ -1533,9 +1305,6 @@
     <t>贫道只是个道姑</t>
   </si>
   <si>
-    <t>拌饭萌面酥</t>
-  </si>
-  <si>
     <t>古手梨花sama</t>
   </si>
   <si>
@@ -1548,9 +1317,6 @@
     <t>一豚豚一</t>
   </si>
   <si>
-    <t>韩灵菲</t>
-  </si>
-  <si>
     <t>F丨小乖</t>
   </si>
   <si>
@@ -1575,9 +1341,6 @@
     <t>落雨晴天</t>
   </si>
   <si>
-    <t>Ander</t>
-  </si>
-  <si>
     <t>西城诀丶丶</t>
   </si>
   <si>
@@ -1596,9 +1359,6 @@
     <t>黑夜中的耗子</t>
   </si>
   <si>
-    <t>利刃華爾茲</t>
-  </si>
-  <si>
     <t>葉窕</t>
   </si>
   <si>
@@ -1680,9 +1440,6 @@
     <t>狄万钧</t>
   </si>
   <si>
-    <t>王辰</t>
-  </si>
-  <si>
     <t>舞落城</t>
   </si>
   <si>
@@ -1737,9 +1494,6 @@
     <t>制霸服务器丶</t>
   </si>
   <si>
-    <t>皱褶千秋梦</t>
-  </si>
-  <si>
     <t>唐川穹</t>
   </si>
   <si>
@@ -1749,9 +1503,6 @@
     <t>＊团灭专用奶</t>
   </si>
   <si>
-    <t>拳脚相向</t>
-  </si>
-  <si>
     <t>唐倾梦吟</t>
   </si>
   <si>
@@ -1764,28 +1515,250 @@
     <t>北辰心凝</t>
   </si>
   <si>
-    <t>＊下水道的威</t>
+    <t>初馨</t>
+  </si>
+  <si>
+    <t>大眼睛秋秋</t>
+  </si>
+  <si>
+    <t>白菜菜</t>
+  </si>
+  <si>
+    <t>唐钰名</t>
+  </si>
+  <si>
+    <t>遇见再见</t>
+  </si>
+  <si>
+    <t>格斗小佳</t>
+  </si>
+  <si>
+    <t>唐门仐少</t>
+  </si>
+  <si>
+    <t>天山搜魂手</t>
+  </si>
+  <si>
+    <t>天使二号</t>
+  </si>
+  <si>
+    <t>蓉素问</t>
+  </si>
+  <si>
+    <t>雙生逐梦</t>
+  </si>
+  <si>
+    <t>执灯望</t>
+  </si>
+  <si>
+    <t>苍昊天</t>
+  </si>
+  <si>
+    <t>几度度丶</t>
+  </si>
+  <si>
+    <t>那一剣的風情</t>
+  </si>
+  <si>
+    <t>ジSunshineづ</t>
+  </si>
+  <si>
+    <t>白素。</t>
+  </si>
+  <si>
+    <t>轩可儿</t>
+  </si>
+  <si>
+    <t>天舞灬灬小贱贱</t>
+  </si>
+  <si>
+    <t>剑啸西风</t>
+  </si>
+  <si>
+    <t>贺馨馨</t>
+  </si>
+  <si>
+    <t>波大洞深</t>
+  </si>
+  <si>
+    <t>匆匆过往</t>
+  </si>
+  <si>
+    <t>苦海起爱恨</t>
+  </si>
+  <si>
+    <t>贺兰丶宁儿</t>
+  </si>
+  <si>
+    <t>冷冰冰的喵喵酱</t>
+  </si>
+  <si>
+    <t>安静的吴彦祖</t>
+  </si>
+  <si>
+    <t>大哥叫我来巡山</t>
+  </si>
+  <si>
+    <t>范二一样的男子</t>
+  </si>
+  <si>
+    <t>武天泽</t>
+  </si>
+  <si>
+    <t>箫剑刃</t>
+  </si>
+  <si>
+    <t>KISS丶欧歌</t>
+  </si>
+  <si>
+    <t>宇佐见灬莲子</t>
+  </si>
+  <si>
+    <t>毒儿</t>
+  </si>
+  <si>
+    <t>丘蓄晓晓</t>
+  </si>
+  <si>
+    <t>丘丘职君</t>
+  </si>
+  <si>
+    <t>丘丘尉威</t>
+  </si>
+  <si>
+    <t>南邦佳人呀</t>
+  </si>
+  <si>
+    <t>北城初夏</t>
+  </si>
+  <si>
+    <t>永恒永远十八岁</t>
+  </si>
+  <si>
+    <t>夏小露露</t>
+  </si>
+  <si>
+    <t>结緣丶</t>
+  </si>
+  <si>
+    <t>洋洋洋小粗腿</t>
+  </si>
+  <si>
+    <t>守望先疯</t>
+  </si>
+  <si>
+    <t>独立独行</t>
+  </si>
+  <si>
+    <t>丨快到碗里来</t>
+  </si>
+  <si>
+    <t>唯剑道不灭</t>
+  </si>
+  <si>
+    <t>名字长你不好打</t>
+  </si>
+  <si>
+    <t>月下魂兮</t>
+  </si>
+  <si>
+    <t>莫倾城灬</t>
+  </si>
+  <si>
+    <t>二狗娃</t>
+  </si>
+  <si>
+    <t>杞暖wAnton丶</t>
+  </si>
+  <si>
+    <t>橙橙喵呜</t>
+  </si>
+  <si>
+    <t>套套嗷呜</t>
+  </si>
+  <si>
+    <t>天磬</t>
+  </si>
+  <si>
+    <t>平凡的少年郎</t>
+  </si>
+  <si>
+    <t>梵天Swagger</t>
+  </si>
+  <si>
+    <t>项辰帝</t>
+  </si>
+  <si>
+    <t>江山难改丶洛</t>
+  </si>
+  <si>
+    <t>凯</t>
+  </si>
+  <si>
+    <t>夜白衣</t>
+  </si>
+  <si>
+    <t>杨光</t>
+  </si>
+  <si>
+    <t>刺眼的骄阳</t>
+  </si>
+  <si>
+    <t>不败才是姿态</t>
+  </si>
+  <si>
+    <t>一人一枪闯九州</t>
+  </si>
+  <si>
+    <t>一块腹肌的阿明</t>
+  </si>
+  <si>
+    <t>拌蠢蠢</t>
+  </si>
+  <si>
+    <t>郭蝈蝈</t>
+  </si>
+  <si>
+    <t>曾岀山</t>
+  </si>
+  <si>
+    <t>我是曾哥罩的</t>
+  </si>
+  <si>
+    <t>枕头君</t>
+  </si>
+  <si>
+    <t>雨霖铃</t>
+  </si>
+  <si>
+    <t>后来的你还好吗</t>
+  </si>
+  <si>
+    <t>曾許諾</t>
+  </si>
+  <si>
+    <t>沐念蓉</t>
+  </si>
+  <si>
+    <t>酒倾轻竹影</t>
   </si>
   <si>
     <t>几度度</t>
   </si>
   <si>
-    <t>初馨</t>
+    <t>无情</t>
+  </si>
+  <si>
+    <t>宇佐见</t>
+  </si>
+  <si>
+    <t>萌萌</t>
   </si>
   <si>
     <t>凡人的梦</t>
   </si>
   <si>
-    <t>唐糖</t>
-  </si>
-  <si>
-    <t>楓</t>
-  </si>
-  <si>
-    <t>手中玫瑰</t>
-  </si>
-  <si>
-    <t>无情</t>
+    <t>笙</t>
   </si>
 </sst>
 </file>
@@ -2106,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2119,3613 +2092,3776 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C1" t="str">
-        <f>VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
-        <v>回忆不曾悲伤</v>
+        <f t="shared" ref="C1:C34" si="0">VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
+        <v>天韵ゝ</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>581</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C45" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,1,0)</f>
-        <v>丿几度度丶</v>
+        <f t="shared" si="0"/>
+        <v>墨韵轩华</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>578</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>诸天花雨</v>
+        <v>淺笙</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>倾舞情儿</v>
+        <v>椛灯</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>雪糕失望</v>
+        <v>姬如影</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>百里轩翊</v>
+        <v>万心忧</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>498</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>任离流</v>
+        <v>裴述</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>573</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>一个有内涵的人</v>
+        <v>几度度丶</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>292</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>似有若无</v>
+        <v>爱哭鼻の阿木木</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>574</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>墨韵轩华</v>
+        <v>魅丿无情</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>499</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>丶初馨</v>
+        <v>宇佐见灬莲子</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>百里轩翊</v>
+        <v>丶初馨</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>太极至尊</v>
+        <v>诸天花雨</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>爱哭鼻の阿木木</v>
+        <v>太极至尊</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>机智勇敢的小炮</v>
+        <v>怒怒怒怒火</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>天韵ゝ</v>
+        <v>一个有内涵的人</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>587</v>
+        <v>236</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>500</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>魅丿无情</v>
+        <v>放肆流逝的年华</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>119</v>
+        <v>501</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>百里轩翊</v>
+        <v>机智勇敢的小炮</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>585</v>
+        <v>279</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>い楓ゞ妖い</v>
+        <v>思念永远美好</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>583</v>
+        <v>226</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>凡人的梦</v>
+        <v>任离流</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>怒怒怒怒火</v>
+        <v>倾舞情儿</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>249</v>
+        <v>576</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>502</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>裴述</v>
+        <v>萌萌哒灬毒香</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>316</v>
+        <v>577</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>移星</v>
+        <v>凡人的梦</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>百里轩翊</v>
+        <v>轻笑忘</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>池小晚</v>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>椛灯</v>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>慕容飞羽</v>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>586</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>手中玫瑰赠予谁</v>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>永恒只为等待</v>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>百里轩翊</v>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>503</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>百里轩翊</v>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>思念永远美好</v>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>584</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>唐糖～</v>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>倾国不倾城</v>
+        <v>折扇浪漫</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" ref="C35:C91" si="1">VLOOKUP("*"&amp;A35&amp;"*",B:B,1,0)</f>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>504</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>505</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>506</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>507</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>508</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>509</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>510</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="1"/>
+        <v>511</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C71" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" s="1"/>
+        <v>512</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="1"/>
+        <v>513</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C74" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C75" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C78" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C79" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C81" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C82" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C84" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C85" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C88" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C89" s="1"/>
+        <v>514</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C90" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C91" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>折扇浪漫</v>
+      </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C92" s="1"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>68</v>
+        <v>515</v>
       </c>
       <c r="C93" s="1"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>182</v>
+        <v>516</v>
       </c>
       <c r="C94" s="1"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="C95" s="1"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>186</v>
+        <v>517</v>
       </c>
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>69</v>
+        <v>518</v>
       </c>
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>187</v>
+        <v>519</v>
       </c>
       <c r="C101" s="1"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="C102" s="1"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>189</v>
+        <v>520</v>
       </c>
       <c r="C103" s="1"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="C104" s="1"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="C105" s="1"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C106" s="1"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C107" s="1"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C108" s="1"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C109" s="1"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>196</v>
+        <v>521</v>
       </c>
       <c r="C110" s="1"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C111" s="1"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="C112" s="1"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="C113" s="1"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>200</v>
+        <v>522</v>
       </c>
       <c r="C115" s="1"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C116" s="1"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>202</v>
+        <v>523</v>
       </c>
       <c r="C117" s="1"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C118" s="1"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>204</v>
+        <v>524</v>
       </c>
       <c r="C119" s="1"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="C120" s="1"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C121" s="1"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="C122" s="1"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="C123" s="1"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="C124" s="1"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="C125" s="1"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="C126" s="1"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="C127" s="1"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C128" s="1"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="C129" s="1"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C132" s="1"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="C133" s="1"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="C134" s="1"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="C135" s="1"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="C136" s="1"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C137" s="1"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="C138" s="1"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>4</v>
+        <v>525</v>
       </c>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>66</v>
+        <v>526</v>
       </c>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>228</v>
+        <v>527</v>
       </c>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>231</v>
+        <v>528</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>232</v>
+        <v>529</v>
       </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>236</v>
+        <v>530</v>
       </c>
       <c r="C154" s="1"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C155" s="1"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="C156" s="1"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="C157" s="1"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="C158" s="1"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="C159" s="1"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="C160" s="1"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="C161" s="1"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="C162" s="1"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="C163" s="1"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="C164" s="1"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="C165" s="1"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="C166" s="1"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="C167" s="1"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="C168" s="1"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="C169" s="1"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="C170" s="1"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="C171" s="1"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="C172" s="1"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="C173" s="1"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="C174" s="1"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="C175" s="1"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="C176" s="1"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="C177" s="1"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="C178" s="1"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="C179" s="1"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="C180" s="1"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="C181" s="1"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="C182" s="1"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="C183" s="1"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
-        <v>264</v>
+        <v>531</v>
       </c>
       <c r="C184" s="1"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="C185" s="1"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>266</v>
+        <v>532</v>
       </c>
       <c r="C186" s="1"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="C187" s="1"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="C188" s="1"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C189" s="1"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>269</v>
+        <v>533</v>
       </c>
       <c r="C190" s="1"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="C191" s="1"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="C192" s="1"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="C193" s="1"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="C194" s="1"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="C195" s="1"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="C196" s="1"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
-        <v>275</v>
+        <v>534</v>
       </c>
       <c r="C197" s="1"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="C198" s="1"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="C199" s="1"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="C200" s="1"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="C201" s="1"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>280</v>
+        <v>535</v>
       </c>
       <c r="C202" s="1"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="C203" s="1"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
-        <v>76</v>
+        <v>536</v>
       </c>
       <c r="C204" s="1"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="C205" s="1"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>283</v>
+        <v>537</v>
       </c>
       <c r="C206" s="1"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="C207" s="1"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="C208" s="1"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="C209" s="1"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="C210" s="1"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="C211" s="1"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="C212" s="1"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="C213" s="1"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="C214" s="1"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
-        <v>291</v>
+        <v>1</v>
       </c>
       <c r="C215" s="1"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
-        <v>292</v>
+        <v>62</v>
       </c>
       <c r="C216" s="1"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>2</v>
+        <v>244</v>
       </c>
       <c r="C217" s="1"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="C218" s="1"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="C219" s="1"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="C220" s="1"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="C221" s="1"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="C222" s="1"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>297</v>
+        <v>538</v>
       </c>
       <c r="C223" s="1"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="C224" s="1"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="C225" s="1"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="C226" s="1"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="C227" s="1"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="C228" s="1"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="C229" s="1"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="C230" s="1"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="C231" s="1"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
-        <v>306</v>
+        <v>46</v>
       </c>
       <c r="C232" s="1"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="C233" s="1"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="C234" s="1"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C235" s="1"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="C236" s="1"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
-        <v>54</v>
+        <v>261</v>
       </c>
       <c r="C237" s="1"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>311</v>
+        <v>539</v>
       </c>
       <c r="C238" s="1"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="C239" s="1"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
-        <v>313</v>
+        <v>61</v>
       </c>
       <c r="C240" s="1"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
-        <v>314</v>
+        <v>540</v>
       </c>
       <c r="C241" s="1"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c r="C242" s="1"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>315</v>
+        <v>541</v>
       </c>
       <c r="C243" s="1"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
-        <v>316</v>
+        <v>56</v>
       </c>
       <c r="C244" s="1"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="C245" s="1"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
-        <v>64</v>
+        <v>542</v>
       </c>
       <c r="C246" s="1"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
       <c r="C247" s="1"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="C248" s="1"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="C249" s="1"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="C250" s="1"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="C251" s="1"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="C252" s="1"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="C253" s="1"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="C254" s="1"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="C255" s="1"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="C256" s="1"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
-        <v>328</v>
+        <v>73</v>
       </c>
       <c r="C257" s="1"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="C258" s="1"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>87</v>
+        <v>543</v>
       </c>
       <c r="C259" s="1"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="C260" s="1"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C261" s="1"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>97</v>
+        <v>275</v>
       </c>
       <c r="C262" s="1"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
       <c r="C263" s="1"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="C264" s="1"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>332</v>
+        <v>70</v>
       </c>
       <c r="C265" s="1"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="C266" s="1"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="C267" s="1"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="C268" s="1"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>335</v>
+        <v>544</v>
       </c>
       <c r="C269" s="1"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="C270" s="1"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="C271" s="1"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="C272" s="1"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="C273" s="1"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="C274" s="1"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="C275" s="1"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="C276" s="1"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
-        <v>343</v>
+        <v>58</v>
       </c>
       <c r="C277" s="1"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="C278" s="1"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="C279" s="1"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="C280" s="1"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="C281" s="1"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="C282" s="1"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="C283" s="1"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="C284" s="1"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>351</v>
+        <v>13</v>
       </c>
       <c r="C285" s="1"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="C286" s="1"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C287" s="1"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="C288" s="1"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="C289" s="1"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C290" s="1"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C291" s="1"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C292" s="1"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
-        <v>23</v>
+        <v>360</v>
       </c>
       <c r="C293" s="1"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="C294" s="1"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="C295" s="1"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
-        <v>25</v>
+        <v>362</v>
       </c>
       <c r="C296" s="1"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
-        <v>354</v>
+        <v>65</v>
       </c>
       <c r="C297" s="1"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
-        <v>355</v>
+        <v>2</v>
       </c>
       <c r="C298" s="1"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C299" s="1"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="C300" s="1"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>60</v>
+        <v>316</v>
       </c>
       <c r="C301" s="1"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C302" s="1"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
-        <v>359</v>
+        <v>57</v>
       </c>
       <c r="C303" s="1"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="C304" s="1"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
-        <v>58</v>
+        <v>303</v>
       </c>
       <c r="C305" s="1"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>361</v>
+        <v>50</v>
       </c>
       <c r="C306" s="1"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
-        <v>362</v>
+        <v>49</v>
       </c>
       <c r="C307" s="1"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
-        <v>57</v>
+        <v>305</v>
       </c>
       <c r="C308" s="1"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="C309" s="1"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>364</v>
+        <v>545</v>
       </c>
       <c r="C310" s="1"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C311" s="1"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="C312" s="1"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="C313" s="1"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
-        <v>367</v>
+        <v>48</v>
       </c>
       <c r="C314" s="1"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="C315" s="1"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="C316" s="1"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="C317" s="1"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="C318" s="1"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
-        <v>371</v>
+        <v>313</v>
       </c>
       <c r="C319" s="1"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" s="1" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="C320" s="1"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="C321" s="1"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="C322" s="1"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="C323" s="1"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C324" s="1"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="C325" s="1"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
-        <v>377</v>
+        <v>19</v>
       </c>
       <c r="C326" s="1"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
-        <v>22</v>
+        <v>319</v>
       </c>
       <c r="C327" s="1"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
-        <v>378</v>
+        <v>547</v>
       </c>
       <c r="C328" s="1"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C329" s="1"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" s="1" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="C330" s="1"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="C331" s="1"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="C332" s="1"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="C333" s="1"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="C334" s="1"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
-        <v>65</v>
+        <v>548</v>
       </c>
       <c r="C335" s="1"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="C336" s="1"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" s="1" t="s">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="C337" s="1"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="C338" s="1"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" s="1" t="s">
-        <v>387</v>
+        <v>328</v>
       </c>
       <c r="C339" s="1"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="C340" s="1"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
       <c r="C341" s="1"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" s="1" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="C342" s="1"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="C343" s="1"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="C344" s="1"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="C345" s="1"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="C346" s="1"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="C347" s="1"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="C348" s="1"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
-        <v>396</v>
+        <v>18</v>
       </c>
       <c r="C349" s="1"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350" s="1" t="s">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="C350" s="1"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351" s="1" t="s">
-        <v>398</v>
+        <v>71</v>
       </c>
       <c r="C351" s="1"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" s="1" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="C352" s="1"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
-        <v>400</v>
+        <v>549</v>
       </c>
       <c r="C353" s="1"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="C354" s="1"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="C355" s="1"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" s="1" t="s">
-        <v>21</v>
+        <v>341</v>
       </c>
       <c r="C356" s="1"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C357" s="1"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
-        <v>85</v>
+        <v>342</v>
       </c>
       <c r="C358" s="1"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" s="1" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="C359" s="1"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="C360" s="1"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361" s="1" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="C361" s="1"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362" s="1" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="C362" s="1"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B363" s="1" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="C363" s="1"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364" s="1" t="s">
-        <v>408</v>
+        <v>23</v>
       </c>
       <c r="C364" s="1"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B365" s="1" t="s">
-        <v>409</v>
+        <v>550</v>
       </c>
       <c r="C365" s="1"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
-        <v>410</v>
+        <v>24</v>
       </c>
       <c r="C366" s="1"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
-        <v>98</v>
+        <v>551</v>
       </c>
       <c r="C367" s="1"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B368" s="1" t="s">
-        <v>411</v>
+        <v>348</v>
       </c>
       <c r="C368" s="1"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B369" s="1" t="s">
-        <v>412</v>
+        <v>552</v>
       </c>
       <c r="C369" s="1"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B370" s="1" t="s">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="C370" s="1"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B371" s="1" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="C371" s="1"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372" s="1" t="s">
-        <v>414</v>
+        <v>25</v>
       </c>
       <c r="C372" s="1"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373" s="1" t="s">
-        <v>27</v>
+        <v>351</v>
       </c>
       <c r="C373" s="1"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B374" s="1" t="s">
-        <v>415</v>
+        <v>353</v>
       </c>
       <c r="C374" s="1"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375" s="1" t="s">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="C375" s="1"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376" s="1" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="C376" s="1"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B377" s="1" t="s">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="C377" s="1"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B378" s="1" t="s">
-        <v>28</v>
+        <v>355</v>
       </c>
       <c r="C378" s="1"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379" s="1" t="s">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="C379" s="1"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380" s="1" t="s">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="C380" s="1"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381" s="1" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="C381" s="1"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B382" s="1" t="s">
-        <v>86</v>
+        <v>358</v>
       </c>
       <c r="C382" s="1"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383" s="1" t="s">
-        <v>422</v>
+        <v>553</v>
       </c>
       <c r="C383" s="1"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B384" s="1" t="s">
-        <v>423</v>
+        <v>26</v>
       </c>
       <c r="C384" s="1"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B385" s="1" t="s">
-        <v>424</v>
+        <v>22</v>
       </c>
       <c r="C385" s="1"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B386" s="1" t="s">
-        <v>425</v>
+        <v>85</v>
       </c>
       <c r="C386" s="1"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C387" s="1"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388" s="1" t="s">
-        <v>426</v>
+        <v>361</v>
       </c>
       <c r="C388" s="1"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B389" s="1" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
       <c r="C389" s="1"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B390" s="1" t="s">
-        <v>428</v>
+        <v>296</v>
       </c>
       <c r="C390" s="1"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391" s="1" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C391" s="1"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B392" s="1" t="s">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="C392" s="1"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B393" s="1" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="C393" s="1"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B394" s="1" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="C394" s="1"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B395" s="1" t="s">
-        <v>430</v>
+        <v>366</v>
       </c>
       <c r="C395" s="1"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B396" s="1" t="s">
-        <v>30</v>
+        <v>367</v>
       </c>
       <c r="C396" s="1"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
-        <v>99</v>
+        <v>369</v>
       </c>
       <c r="C397" s="1"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B398" s="1" t="s">
-        <v>431</v>
+        <v>297</v>
       </c>
       <c r="C398" s="1"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B399" s="1" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="C399" s="1"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400" s="1" t="s">
-        <v>433</v>
+        <v>42</v>
       </c>
       <c r="C400" s="1"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B401" s="1" t="s">
-        <v>434</v>
+        <v>371</v>
       </c>
       <c r="C401" s="1"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B402" s="1" t="s">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="C402" s="1"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B403" s="1" t="s">
-        <v>436</v>
+        <v>298</v>
       </c>
       <c r="C403" s="1"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B404" s="1" t="s">
-        <v>437</v>
+        <v>375</v>
       </c>
       <c r="C404" s="1"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B405" s="1" t="s">
-        <v>438</v>
+        <v>52</v>
       </c>
       <c r="C405" s="1"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B406" s="1" t="s">
-        <v>49</v>
+        <v>376</v>
       </c>
       <c r="C406" s="1"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B407" s="1" t="s">
-        <v>439</v>
+        <v>378</v>
       </c>
       <c r="C407" s="1"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B408" s="1" t="s">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="C408" s="1"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="C409" s="1"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B410" s="1" t="s">
-        <v>442</v>
+        <v>554</v>
       </c>
       <c r="C410" s="1"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B411" s="1" t="s">
-        <v>443</v>
+        <v>380</v>
       </c>
       <c r="C411" s="1"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
-        <v>444</v>
+        <v>381</v>
       </c>
       <c r="C412" s="1"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B413" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C413" s="1"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B414" s="1" t="s">
-        <v>445</v>
+        <v>299</v>
       </c>
       <c r="C414" s="1"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B415" s="1" t="s">
-        <v>446</v>
+        <v>301</v>
       </c>
       <c r="C415" s="1"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B416" s="1" t="s">
-        <v>447</v>
+        <v>302</v>
       </c>
       <c r="C416" s="1"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B417" s="1" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="C417" s="1"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B418" s="1" t="s">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="C418" s="1"/>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B419" s="1" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="C419" s="1"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B420" s="1" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="C420" s="1"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B421" s="1" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="C421" s="1"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422" s="1" t="s">
-        <v>53</v>
+        <v>389</v>
       </c>
       <c r="C422" s="1"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B423" s="1" t="s">
-        <v>90</v>
+        <v>388</v>
       </c>
       <c r="C423" s="1"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B424" s="1" t="s">
-        <v>3</v>
+        <v>555</v>
       </c>
       <c r="C424" s="1"/>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B425" s="1" t="s">
-        <v>453</v>
+        <v>556</v>
       </c>
       <c r="C425" s="1"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B426" s="1" t="s">
-        <v>454</v>
+        <v>36</v>
       </c>
       <c r="C426" s="1"/>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B427" s="1" t="s">
-        <v>455</v>
+        <v>40</v>
       </c>
       <c r="C427" s="1"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B428" s="1" t="s">
-        <v>456</v>
+        <v>557</v>
       </c>
       <c r="C428" s="1"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B429" s="1" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="C429" s="1"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B430" s="1" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="C430" s="1"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B431" s="1" t="s">
-        <v>459</v>
+        <v>33</v>
       </c>
       <c r="C431" s="1"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B432" s="1" t="s">
-        <v>460</v>
+        <v>558</v>
       </c>
       <c r="C432" s="1"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B433" s="1" t="s">
-        <v>42</v>
+        <v>447</v>
       </c>
       <c r="C433" s="1"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B434" s="1" t="s">
-        <v>47</v>
+        <v>394</v>
       </c>
       <c r="C434" s="1"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B435" s="1" t="s">
-        <v>32</v>
+        <v>559</v>
       </c>
       <c r="C435" s="1"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B436" s="1" t="s">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="C436" s="1"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B437" s="1" t="s">
-        <v>462</v>
+        <v>560</v>
       </c>
       <c r="C437" s="1"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B438" s="1" t="s">
-        <v>463</v>
+        <v>397</v>
       </c>
       <c r="C438" s="1"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B439" s="1" t="s">
-        <v>464</v>
+        <v>396</v>
       </c>
       <c r="C439" s="1"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B440" s="1" t="s">
-        <v>465</v>
+        <v>38</v>
       </c>
       <c r="C440" s="1"/>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B441" s="1" t="s">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="C441" s="1"/>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="C442" s="1"/>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B443" s="1" t="s">
-        <v>468</v>
+        <v>63</v>
       </c>
       <c r="C443" s="1"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
-        <v>469</v>
+        <v>401</v>
       </c>
       <c r="C444" s="1"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B445" s="1" t="s">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="C445" s="1"/>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B446" s="1" t="s">
-        <v>470</v>
+        <v>403</v>
       </c>
       <c r="C446" s="1"/>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B447" s="1" t="s">
-        <v>471</v>
+        <v>404</v>
       </c>
       <c r="C447" s="1"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="C448" s="1"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B449" s="1" t="s">
-        <v>473</v>
+        <v>407</v>
       </c>
       <c r="C449" s="1"/>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B450" s="1" t="s">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="C450" s="1"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B451" s="1" t="s">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="C451" s="1"/>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B452" s="1" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="C452" s="1"/>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B453" s="1" t="s">
-        <v>476</v>
+        <v>410</v>
       </c>
       <c r="C453" s="1"/>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B454" s="1" t="s">
-        <v>477</v>
+        <v>409</v>
       </c>
       <c r="C454" s="1"/>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B455" s="1" t="s">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="C455" s="1"/>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B456" s="1" t="s">
-        <v>94</v>
+        <v>412</v>
       </c>
       <c r="C456" s="1"/>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B457" s="1" t="s">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="C457" s="1"/>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B458" s="1" t="s">
-        <v>480</v>
+        <v>31</v>
       </c>
       <c r="C458" s="1"/>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B459" s="1" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="C459" s="1"/>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B460" s="1" t="s">
-        <v>482</v>
+        <v>415</v>
       </c>
       <c r="C460" s="1"/>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B461" s="1" t="s">
-        <v>483</v>
+        <v>416</v>
       </c>
       <c r="C461" s="1"/>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B462" s="1" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="C462" s="1"/>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B463" s="1" t="s">
-        <v>35</v>
+        <v>418</v>
       </c>
       <c r="C463" s="1"/>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B464" s="1" t="s">
-        <v>485</v>
+        <v>29</v>
       </c>
       <c r="C464" s="1"/>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B465" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C465" s="1"/>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B466" s="1" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="C466" s="1"/>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B467" s="1" t="s">
-        <v>487</v>
+        <v>561</v>
       </c>
       <c r="C467" s="1"/>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B468" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C468" s="1"/>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B469" s="1" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="C469" s="1"/>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B470" s="1" t="s">
-        <v>489</v>
+        <v>420</v>
       </c>
       <c r="C470" s="1"/>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B471" s="1" t="s">
-        <v>490</v>
+        <v>422</v>
       </c>
       <c r="C471" s="1"/>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B472" s="1" t="s">
-        <v>491</v>
+        <v>32</v>
       </c>
       <c r="C472" s="1"/>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B473" s="1" t="s">
-        <v>492</v>
+        <v>423</v>
       </c>
       <c r="C473" s="1"/>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B474" s="1" t="s">
-        <v>493</v>
+        <v>424</v>
       </c>
       <c r="C474" s="1"/>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B475" s="1" t="s">
-        <v>33</v>
+        <v>425</v>
       </c>
       <c r="C475" s="1"/>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B476" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C476" s="1"/>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B477" s="1" t="s">
-        <v>494</v>
+        <v>562</v>
       </c>
       <c r="C477" s="1"/>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B478" s="1" t="s">
-        <v>73</v>
+        <v>563</v>
       </c>
       <c r="C478" s="1"/>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B479" s="1" t="s">
-        <v>495</v>
+        <v>426</v>
       </c>
       <c r="C479" s="1"/>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B480" s="1" t="s">
-        <v>496</v>
+        <v>78</v>
       </c>
       <c r="C480" s="1"/>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B481" s="1" t="s">
-        <v>497</v>
+        <v>34</v>
       </c>
       <c r="C481" s="1"/>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B482" s="1" t="s">
-        <v>37</v>
+        <v>427</v>
       </c>
       <c r="C482" s="1"/>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B483" s="1" t="s">
-        <v>498</v>
+        <v>428</v>
       </c>
       <c r="C483" s="1"/>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B484" s="1" t="s">
-        <v>499</v>
+        <v>390</v>
       </c>
       <c r="C484" s="1"/>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B485" s="1" t="s">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="C485" s="1"/>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B486" s="1" t="s">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="C486" s="1"/>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B487" s="1" t="s">
-        <v>59</v>
+        <v>433</v>
       </c>
       <c r="C487" s="1"/>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B488" s="1" t="s">
-        <v>501</v>
+        <v>432</v>
       </c>
       <c r="C488" s="1"/>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B489" s="1" t="s">
-        <v>39</v>
+        <v>431</v>
       </c>
       <c r="C489" s="1"/>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B490" s="1" t="s">
-        <v>502</v>
+        <v>434</v>
       </c>
       <c r="C490" s="1"/>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B491" s="1" t="s">
-        <v>503</v>
+        <v>35</v>
       </c>
       <c r="C491" s="1"/>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B492" s="1" t="s">
-        <v>92</v>
+        <v>435</v>
       </c>
       <c r="C492" s="1"/>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B493" s="1" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="C493" s="1"/>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B494" s="1" t="s">
-        <v>40</v>
+        <v>565</v>
       </c>
       <c r="C494" s="1"/>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B495" s="1" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="C495" s="1"/>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B496" s="1" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="C496" s="1"/>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B497" s="1" t="s">
-        <v>507</v>
+        <v>30</v>
       </c>
       <c r="C497" s="1"/>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B498" s="1" t="s">
-        <v>508</v>
+        <v>437</v>
       </c>
       <c r="C498" s="1"/>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B499" s="1" t="s">
-        <v>509</v>
+        <v>438</v>
       </c>
       <c r="C499" s="1"/>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B500" s="1" t="s">
-        <v>510</v>
+        <v>439</v>
       </c>
       <c r="C500" s="1"/>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B501" s="1" t="s">
-        <v>511</v>
+        <v>440</v>
       </c>
       <c r="C501" s="1"/>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B502" s="1" t="s">
-        <v>512</v>
+        <v>442</v>
       </c>
       <c r="C502" s="1"/>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B503" s="1" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="C503" s="1"/>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B504" s="1" t="s">
-        <v>513</v>
+        <v>443</v>
       </c>
       <c r="C504" s="1"/>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B505" s="1" t="s">
-        <v>514</v>
+        <v>444</v>
       </c>
       <c r="C505" s="1"/>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B506" s="1" t="s">
-        <v>34</v>
+        <v>446</v>
       </c>
       <c r="C506" s="1"/>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B507" s="1" t="s">
-        <v>515</v>
+        <v>445</v>
       </c>
       <c r="C507" s="1"/>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B508" s="1" t="s">
-        <v>516</v>
+        <v>455</v>
       </c>
       <c r="C508" s="1"/>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B509" s="1" t="s">
-        <v>517</v>
+        <v>448</v>
       </c>
       <c r="C509" s="1"/>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B510" s="1" t="s">
-        <v>518</v>
+        <v>449</v>
       </c>
       <c r="C510" s="1"/>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B511" s="1" t="s">
-        <v>519</v>
+        <v>450</v>
       </c>
       <c r="C511" s="1"/>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B512" s="1" t="s">
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="C512" s="1"/>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B513" s="1" t="s">
-        <v>521</v>
+        <v>451</v>
       </c>
       <c r="C513" s="1"/>
     </row>
     <row r="514" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B514" s="1" t="s">
-        <v>522</v>
+        <v>453</v>
       </c>
       <c r="C514" s="1"/>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B515" s="1" t="s">
-        <v>523</v>
+        <v>454</v>
       </c>
       <c r="C515" s="1"/>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B516" s="1" t="s">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="C516" s="1"/>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B517" s="1" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="C517" s="1"/>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B518" s="1" t="s">
-        <v>526</v>
+        <v>456</v>
       </c>
       <c r="C518" s="1"/>
     </row>
     <row r="519" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B519" s="1" t="s">
-        <v>527</v>
+        <v>391</v>
       </c>
       <c r="C519" s="1"/>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B520" s="1" t="s">
-        <v>528</v>
+        <v>458</v>
       </c>
       <c r="C520" s="1"/>
     </row>
     <row r="521" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B521" s="1" t="s">
-        <v>529</v>
+        <v>459</v>
       </c>
       <c r="C521" s="1"/>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B522" s="1" t="s">
-        <v>530</v>
+        <v>460</v>
       </c>
       <c r="C522" s="1"/>
     </row>
     <row r="523" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B523" s="1" t="s">
-        <v>531</v>
+        <v>461</v>
       </c>
       <c r="C523" s="1"/>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B524" s="1" t="s">
-        <v>532</v>
+        <v>462</v>
       </c>
       <c r="C524" s="1"/>
     </row>
     <row r="525" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B525" s="1" t="s">
-        <v>533</v>
+        <v>465</v>
       </c>
       <c r="C525" s="1"/>
     </row>
     <row r="526" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B526" s="1" t="s">
-        <v>534</v>
+        <v>464</v>
       </c>
       <c r="C526" s="1"/>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B527" s="1" t="s">
-        <v>535</v>
+        <v>463</v>
       </c>
       <c r="C527" s="1"/>
     </row>
     <row r="528" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B528" s="1" t="s">
-        <v>536</v>
+        <v>466</v>
       </c>
       <c r="C528" s="1"/>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B529" s="1" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="C529" s="1"/>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B530" s="1" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="C530" s="1"/>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B531" s="1" t="s">
-        <v>539</v>
+        <v>468</v>
       </c>
       <c r="C531" s="1"/>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B532" s="1" t="s">
-        <v>540</v>
+        <v>37</v>
       </c>
       <c r="C532" s="1"/>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B533" s="1" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="C533" s="1"/>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B534" s="1" t="s">
-        <v>542</v>
+        <v>392</v>
       </c>
       <c r="C534" s="1"/>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B535" s="1" t="s">
-        <v>543</v>
+        <v>469</v>
       </c>
       <c r="C535" s="1"/>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B536" s="1" t="s">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="C536" s="1"/>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B537" s="1" t="s">
-        <v>545</v>
+        <v>471</v>
       </c>
       <c r="C537" s="1"/>
     </row>
     <row r="538" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B538" s="1" t="s">
-        <v>546</v>
+        <v>472</v>
       </c>
       <c r="C538" s="1"/>
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B539" s="1" t="s">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="C539" s="1"/>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B540" s="1" t="s">
-        <v>548</v>
+        <v>28</v>
       </c>
       <c r="C540" s="1"/>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B541" s="1" t="s">
-        <v>43</v>
+        <v>474</v>
       </c>
       <c r="C541" s="1"/>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B542" s="1" t="s">
-        <v>549</v>
+        <v>68</v>
       </c>
       <c r="C542" s="1"/>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B543" s="1" t="s">
-        <v>550</v>
+        <v>475</v>
       </c>
       <c r="C543" s="1"/>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B544" s="1" t="s">
-        <v>551</v>
+        <v>39</v>
       </c>
       <c r="C544" s="1"/>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B545" s="1" t="s">
-        <v>552</v>
+        <v>476</v>
       </c>
       <c r="C545" s="1"/>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B546" s="1" t="s">
-        <v>553</v>
+        <v>477</v>
       </c>
       <c r="C546" s="1"/>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B547" s="1" t="s">
-        <v>31</v>
+        <v>478</v>
       </c>
       <c r="C547" s="1"/>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B548" s="1" t="s">
-        <v>554</v>
+        <v>479</v>
       </c>
       <c r="C548" s="1"/>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B549" s="1" t="s">
-        <v>555</v>
+        <v>480</v>
       </c>
       <c r="C549" s="1"/>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B550" s="1" t="s">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="C550" s="1"/>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B551" s="1" t="s">
-        <v>46</v>
+        <v>482</v>
       </c>
       <c r="C551" s="1"/>
     </row>
     <row r="552" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B552" s="1" t="s">
-        <v>556</v>
+        <v>483</v>
       </c>
       <c r="C552" s="1"/>
     </row>
     <row r="553" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B553" s="1" t="s">
-        <v>557</v>
+        <v>484</v>
       </c>
       <c r="C553" s="1"/>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B554" s="1" t="s">
-        <v>558</v>
+        <v>485</v>
       </c>
       <c r="C554" s="1"/>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B555" s="1" t="s">
-        <v>559</v>
+        <v>41</v>
       </c>
       <c r="C555" s="1"/>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B556" s="1" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="C556" s="1"/>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B557" s="1" t="s">
-        <v>560</v>
+        <v>393</v>
       </c>
       <c r="C557" s="1"/>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B558" s="1" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="C558" s="1"/>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B559" s="1" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="C559" s="1"/>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B560" s="1" t="s">
-        <v>563</v>
+        <v>490</v>
       </c>
       <c r="C560" s="1"/>
     </row>
     <row r="561" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B561" s="1" t="s">
-        <v>564</v>
+        <v>489</v>
       </c>
       <c r="C561" s="1"/>
     </row>
     <row r="562" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B562" s="1" t="s">
-        <v>565</v>
+        <v>488</v>
       </c>
       <c r="C562" s="1"/>
     </row>
     <row r="563" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B563" s="1" t="s">
-        <v>566</v>
+        <v>491</v>
       </c>
       <c r="C563" s="1"/>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B564" s="1" t="s">
-        <v>48</v>
+        <v>492</v>
       </c>
       <c r="C564" s="1"/>
     </row>
     <row r="565" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B565" s="1" t="s">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="C565" s="1"/>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B566" s="1" t="s">
-        <v>568</v>
+        <v>44</v>
       </c>
       <c r="C566" s="1"/>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B567" s="1" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="C567" s="1"/>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B568" s="1" t="s">
-        <v>570</v>
+        <v>494</v>
       </c>
       <c r="C568" s="1"/>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B569" s="1" t="s">
-        <v>571</v>
+        <v>496</v>
       </c>
       <c r="C569" s="1"/>
     </row>
@@ -5736,72 +5872,45 @@
       <c r="C570" s="1"/>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B571" s="1" t="s">
-        <v>573</v>
-      </c>
       <c r="C571" s="1"/>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B572" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="C572" s="1"/>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B573" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="C573" s="1"/>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B574" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="C574" s="1"/>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B575" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C575" s="1"/>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B576" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="C576" s="1"/>
     </row>
-    <row r="577" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B577" s="1" t="s">
-        <v>578</v>
-      </c>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C577" s="1"/>
     </row>
-    <row r="578" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B578" s="1" t="s">
-        <v>579</v>
-      </c>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C578" s="1"/>
     </row>
-    <row r="579" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B579" s="1" t="s">
-        <v>580</v>
-      </c>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C579" s="1"/>
     </row>
-    <row r="580" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C580" s="1"/>
     </row>
-    <row r="581" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C581" s="1"/>
     </row>
-    <row r="582" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C582" s="1"/>
     </row>
-    <row r="583" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C583" s="1"/>
     </row>
-    <row r="584" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C584" s="1"/>
     </row>
   </sheetData>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$579</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$585</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="631">
   <si>
     <t>怒怒怒怒火</t>
   </si>
@@ -33,12 +33,6 @@
     <t>叶菡</t>
   </si>
   <si>
-    <t>爱哭鼻の阿木木</t>
-  </si>
-  <si>
-    <t>阿木木</t>
-  </si>
-  <si>
     <t>浪迹小秦</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>框框</t>
   </si>
   <si>
-    <t>天韵ゝ</t>
-  </si>
-  <si>
     <t>丶初馨</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
     <t>一息衍一</t>
   </si>
   <si>
-    <t>儒丶张良</t>
-  </si>
-  <si>
     <t>男人应有的自豪</t>
   </si>
   <si>
@@ -285,27 +273,15 @@
     <t>劍問兲涯覓紅颜</t>
   </si>
   <si>
-    <t>天韵</t>
-  </si>
-  <si>
     <t>断涯</t>
   </si>
   <si>
     <t>谁家娇妻守空房</t>
   </si>
   <si>
-    <t>冰心儿</t>
-  </si>
-  <si>
-    <t>瑾年锦字谁人书</t>
-  </si>
-  <si>
     <t>一飚一</t>
   </si>
   <si>
-    <t>梨花愁</t>
-  </si>
-  <si>
     <t>子月生木</t>
   </si>
   <si>
@@ -315,9 +291,6 @@
     <t>乐无欢</t>
   </si>
   <si>
-    <t>、东方求败</t>
-  </si>
-  <si>
     <t>晚街听风</t>
   </si>
   <si>
@@ -327,33 +300,21 @@
     <t>澪澪</t>
   </si>
   <si>
-    <t>苏州一姐</t>
-  </si>
-  <si>
     <t>冷殘心</t>
   </si>
   <si>
-    <t>萌萌哒灬毒香</t>
-  </si>
-  <si>
     <t>一夜风雪</t>
   </si>
   <si>
     <t>玉面天魁</t>
   </si>
   <si>
-    <t>想吃糖醋排骨</t>
-  </si>
-  <si>
     <t>慕落弦</t>
   </si>
   <si>
     <t>柒叶浅</t>
   </si>
   <si>
-    <t>丶柳天</t>
-  </si>
-  <si>
     <t>劳资好萌好可爱</t>
   </si>
   <si>
@@ -393,18 +354,12 @@
     <t>薛涛笺</t>
   </si>
   <si>
-    <t>秋语沫</t>
-  </si>
-  <si>
     <t>与尔同销萬古愁</t>
   </si>
   <si>
     <t>丨龙哥丿</t>
   </si>
   <si>
-    <t>陈晶</t>
-  </si>
-  <si>
     <t>SouLmAte、小狼</t>
   </si>
   <si>
@@ -423,9 +378,6 @@
     <t>太极神尊</t>
   </si>
   <si>
-    <t>汐云丶丶</t>
-  </si>
-  <si>
     <t>夢觴丶</t>
   </si>
   <si>
@@ -438,9 +390,6 @@
     <t>晚下</t>
   </si>
   <si>
-    <t>冬日雪</t>
-  </si>
-  <si>
     <t>破穿</t>
   </si>
   <si>
@@ -477,12 +426,6 @@
     <t>唏嘘流年</t>
   </si>
   <si>
-    <t>穆川</t>
-  </si>
-  <si>
-    <t>少籹落</t>
-  </si>
-  <si>
     <t>清新荷语</t>
   </si>
   <si>
@@ -498,9 +441,6 @@
     <t>醉饮砒霜</t>
   </si>
   <si>
-    <t>丨拂晓丶</t>
-  </si>
-  <si>
     <t>剑老白</t>
   </si>
   <si>
@@ -519,9 +459,6 @@
     <t>蝶舞云</t>
   </si>
   <si>
-    <t>岚风夜雨</t>
-  </si>
-  <si>
     <t>唐杜里</t>
   </si>
   <si>
@@ -537,15 +474,9 @@
     <t>帝古</t>
   </si>
   <si>
-    <t>烂心</t>
-  </si>
-  <si>
     <t>殺丶无忌</t>
   </si>
   <si>
-    <t>慕容铃音</t>
-  </si>
-  <si>
     <t>我是天香的啊</t>
   </si>
   <si>
@@ -555,27 +486,18 @@
     <t>凶光外露的熊</t>
   </si>
   <si>
-    <t>凯旋之伤</t>
-  </si>
-  <si>
     <t>萌动胖迪</t>
   </si>
   <si>
     <t>剑舞天涯</t>
   </si>
   <si>
-    <t>九月木妖</t>
-  </si>
-  <si>
     <t>苏五娘</t>
   </si>
   <si>
     <t>沐伯乾</t>
   </si>
   <si>
-    <t>我就一煞笔</t>
-  </si>
-  <si>
     <t>右逝</t>
   </si>
   <si>
@@ -615,9 +537,6 @@
     <t>她心屿</t>
   </si>
   <si>
-    <t>北凉老妖</t>
-  </si>
-  <si>
     <t>意邪</t>
   </si>
   <si>
@@ -699,9 +618,6 @@
     <t>棒棒噠</t>
   </si>
   <si>
-    <t>一谒青山知云簇</t>
-  </si>
-  <si>
     <t>任离流</t>
   </si>
   <si>
@@ -744,9 +660,6 @@
     <t>文大飞</t>
   </si>
   <si>
-    <t>最喜欢你了</t>
-  </si>
-  <si>
     <t>晚风与你灬</t>
   </si>
   <si>
@@ -765,18 +678,9 @@
     <t>蚩尤魔人</t>
   </si>
   <si>
-    <t>笑世间过冷</t>
-  </si>
-  <si>
-    <t>两把剑的影</t>
-  </si>
-  <si>
     <t>kingdan</t>
   </si>
   <si>
-    <t>利念晴</t>
-  </si>
-  <si>
     <t>南宫元</t>
   </si>
   <si>
@@ -816,9 +720,6 @@
     <t>阡小陌</t>
   </si>
   <si>
-    <t>机智勇敢的小炮</t>
-  </si>
-  <si>
     <t>風云</t>
   </si>
   <si>
@@ -981,9 +882,6 @@
     <t>锁麟囊</t>
   </si>
   <si>
-    <t>骄傲的龙王丶</t>
-  </si>
-  <si>
     <t>落花丶醉</t>
   </si>
   <si>
@@ -1170,9 +1068,6 @@
     <t>情多多哆情</t>
   </si>
   <si>
-    <t>夜冥雪</t>
-  </si>
-  <si>
     <t>关翔予</t>
   </si>
   <si>
@@ -1194,9 +1089,6 @@
     <t>剑护灬霓裳</t>
   </si>
   <si>
-    <t>刀光华血</t>
-  </si>
-  <si>
     <t>半雨慕苒晴暖夏</t>
   </si>
   <si>
@@ -1278,9 +1170,6 @@
     <t>繁星若珠璀璨</t>
   </si>
   <si>
-    <t>夕眸</t>
-  </si>
-  <si>
     <t>独孤杀生</t>
   </si>
   <si>
@@ -1302,9 +1191,6 @@
     <t>风影</t>
   </si>
   <si>
-    <t>贫道只是个道姑</t>
-  </si>
-  <si>
     <t>古手梨花sama</t>
   </si>
   <si>
@@ -1329,9 +1215,6 @@
     <t>丶神楽</t>
   </si>
   <si>
-    <t>银月如殇</t>
-  </si>
-  <si>
     <t>余夜阑珊</t>
   </si>
   <si>
@@ -1341,24 +1224,15 @@
     <t>落雨晴天</t>
   </si>
   <si>
-    <t>西城诀丶丶</t>
-  </si>
-  <si>
     <t>伊莉雅苏菲尔</t>
   </si>
   <si>
-    <t>孟青</t>
-  </si>
-  <si>
     <t>顾白意</t>
   </si>
   <si>
     <t>荆轲已逝高渐离</t>
   </si>
   <si>
-    <t>黑夜中的耗子</t>
-  </si>
-  <si>
     <t>葉窕</t>
   </si>
   <si>
@@ -1368,9 +1242,6 @@
     <t>甄心</t>
   </si>
   <si>
-    <t>臻忆丶</t>
-  </si>
-  <si>
     <t>童心未湎</t>
   </si>
   <si>
@@ -1392,9 +1263,6 @@
     <t>乾元冰</t>
   </si>
   <si>
-    <t>众人何在速来救</t>
-  </si>
-  <si>
     <t>机智勇敢的小月</t>
   </si>
   <si>
@@ -1407,9 +1275,6 @@
     <t>口味太怪</t>
   </si>
   <si>
-    <t>风语风＊</t>
-  </si>
-  <si>
     <t>薛无衡</t>
   </si>
   <si>
@@ -1446,12 +1311,6 @@
     <t>暮小曦丶</t>
   </si>
   <si>
-    <t>＊下水道的白</t>
-  </si>
-  <si>
-    <t>奔跑的小老虎</t>
-  </si>
-  <si>
     <t>欧阳少琴</t>
   </si>
   <si>
@@ -1467,18 +1326,12 @@
     <t>太白洗衣液</t>
   </si>
   <si>
-    <t>墨渱</t>
-  </si>
-  <si>
     <t>丐帮金鹏长老</t>
   </si>
   <si>
     <t>胡大力</t>
   </si>
   <si>
-    <t>漂洋過海來看伱</t>
-  </si>
-  <si>
     <t>风舞雩</t>
   </si>
   <si>
@@ -1488,42 +1341,18 @@
     <t>曲终无意</t>
   </si>
   <si>
-    <t>苗疆二少</t>
-  </si>
-  <si>
     <t>制霸服务器丶</t>
   </si>
   <si>
-    <t>唐川穹</t>
-  </si>
-  <si>
-    <t>吕月凝</t>
-  </si>
-  <si>
     <t>＊团灭专用奶</t>
   </si>
   <si>
     <t>唐倾梦吟</t>
   </si>
   <si>
-    <t>柳剑明</t>
-  </si>
-  <si>
-    <t>觅含丷</t>
-  </si>
-  <si>
-    <t>北辰心凝</t>
-  </si>
-  <si>
-    <t>初馨</t>
-  </si>
-  <si>
     <t>大眼睛秋秋</t>
   </si>
   <si>
-    <t>白菜菜</t>
-  </si>
-  <si>
     <t>唐钰名</t>
   </si>
   <si>
@@ -1542,9 +1371,6 @@
     <t>天使二号</t>
   </si>
   <si>
-    <t>蓉素问</t>
-  </si>
-  <si>
     <t>雙生逐梦</t>
   </si>
   <si>
@@ -1572,9 +1398,6 @@
     <t>天舞灬灬小贱贱</t>
   </si>
   <si>
-    <t>剑啸西风</t>
-  </si>
-  <si>
     <t>贺馨馨</t>
   </si>
   <si>
@@ -1593,9 +1416,6 @@
     <t>冷冰冰的喵喵酱</t>
   </si>
   <si>
-    <t>安静的吴彦祖</t>
-  </si>
-  <si>
     <t>大哥叫我来巡山</t>
   </si>
   <si>
@@ -1608,9 +1428,6 @@
     <t>箫剑刃</t>
   </si>
   <si>
-    <t>KISS丶欧歌</t>
-  </si>
-  <si>
     <t>宇佐见灬莲子</t>
   </si>
   <si>
@@ -1626,9 +1443,6 @@
     <t>丘丘尉威</t>
   </si>
   <si>
-    <t>南邦佳人呀</t>
-  </si>
-  <si>
     <t>北城初夏</t>
   </si>
   <si>
@@ -1647,18 +1461,12 @@
     <t>守望先疯</t>
   </si>
   <si>
-    <t>独立独行</t>
-  </si>
-  <si>
     <t>丨快到碗里来</t>
   </si>
   <si>
     <t>唯剑道不灭</t>
   </si>
   <si>
-    <t>名字长你不好打</t>
-  </si>
-  <si>
     <t>月下魂兮</t>
   </si>
   <si>
@@ -1677,9 +1485,6 @@
     <t>套套嗷呜</t>
   </si>
   <si>
-    <t>天磬</t>
-  </si>
-  <si>
     <t>平凡的少年郎</t>
   </si>
   <si>
@@ -1728,9 +1533,6 @@
     <t>枕头君</t>
   </si>
   <si>
-    <t>雨霖铃</t>
-  </si>
-  <si>
     <t>后来的你还好吗</t>
   </si>
   <si>
@@ -1743,22 +1545,376 @@
     <t>酒倾轻竹影</t>
   </si>
   <si>
-    <t>几度度</t>
-  </si>
-  <si>
-    <t>无情</t>
-  </si>
-  <si>
-    <t>宇佐见</t>
-  </si>
-  <si>
-    <t>萌萌</t>
-  </si>
-  <si>
-    <t>凡人的梦</t>
-  </si>
-  <si>
-    <t>笙</t>
+    <t>慕容馨月</t>
+  </si>
+  <si>
+    <t>小萌萌宇</t>
+  </si>
+  <si>
+    <t>董阡墨</t>
+  </si>
+  <si>
+    <t>陌上花开丶彦</t>
+  </si>
+  <si>
+    <t>不再不在不在</t>
+  </si>
+  <si>
+    <t>梨七七</t>
+  </si>
+  <si>
+    <t>傲气孤狼</t>
+  </si>
+  <si>
+    <t>Mn丶猫猫君</t>
+  </si>
+  <si>
+    <t>狂风一剑斩</t>
+  </si>
+  <si>
+    <t>逍遥乀斌斌</t>
+  </si>
+  <si>
+    <t>一瞬寂灭流</t>
+  </si>
+  <si>
+    <t>你好丶呆萌</t>
+  </si>
+  <si>
+    <t>天香国际</t>
+  </si>
+  <si>
+    <t>消音丶</t>
+  </si>
+  <si>
+    <t>舞花丶弄剑</t>
+  </si>
+  <si>
+    <t>叶菲红</t>
+  </si>
+  <si>
+    <t>蛋蛋疍</t>
+  </si>
+  <si>
+    <t>咲冭陽</t>
+  </si>
+  <si>
+    <t>穆琪</t>
+  </si>
+  <si>
+    <t>楼踌曙楼</t>
+  </si>
+  <si>
+    <t>莺阙斯亭丶</t>
+  </si>
+  <si>
+    <t>洛小洛丶</t>
+  </si>
+  <si>
+    <t>我讨厌用名字</t>
+  </si>
+  <si>
+    <t>青梅淡煮酒</t>
+  </si>
+  <si>
+    <t>王小槑</t>
+  </si>
+  <si>
+    <t>丘丘欣荣</t>
+  </si>
+  <si>
+    <t>寒白沙</t>
+  </si>
+  <si>
+    <t>童话话</t>
+  </si>
+  <si>
+    <t>明木猿</t>
+  </si>
+  <si>
+    <t>八块腹肌小官人</t>
+  </si>
+  <si>
+    <t>薄情亦冷丶暖</t>
+  </si>
+  <si>
+    <t>飞雪飘零</t>
+  </si>
+  <si>
+    <t>神奇宝贝杨尼玛</t>
+  </si>
+  <si>
+    <t>哒哒滴滴</t>
+  </si>
+  <si>
+    <t>青骢绝骑塑天荒</t>
+  </si>
+  <si>
+    <t>茗一糖</t>
+  </si>
+  <si>
+    <t>茉莉奈酱</t>
+  </si>
+  <si>
+    <t>风悦丶千雪</t>
+  </si>
+  <si>
+    <t>关节炎</t>
+  </si>
+  <si>
+    <t>付灼夭</t>
+  </si>
+  <si>
+    <t>一叶知秋づ</t>
+  </si>
+  <si>
+    <t>逍遥芙蕖</t>
+  </si>
+  <si>
+    <t>李破风</t>
+  </si>
+  <si>
+    <t>古凌逝烟</t>
+  </si>
+  <si>
+    <t>易小川</t>
+  </si>
+  <si>
+    <t>子玅</t>
+  </si>
+  <si>
+    <t>西北峰</t>
+  </si>
+  <si>
+    <t>格殺</t>
+  </si>
+  <si>
+    <t>封思绝</t>
+  </si>
+  <si>
+    <t>长枪和菊花</t>
+  </si>
+  <si>
+    <t>百陵</t>
+  </si>
+  <si>
+    <t>执劍小书生</t>
+  </si>
+  <si>
+    <t>太阳骑士炮灰</t>
+  </si>
+  <si>
+    <t>雪痴</t>
+  </si>
+  <si>
+    <t>职业副本香</t>
+  </si>
+  <si>
+    <t>殇月未觞</t>
+  </si>
+  <si>
+    <t>GoldㅈExperie</t>
+  </si>
+  <si>
+    <t>公孙静浪</t>
+  </si>
+  <si>
+    <t>顾奈丶</t>
+  </si>
+  <si>
+    <t>丰暮歌</t>
+  </si>
+  <si>
+    <t>烈凝风</t>
+  </si>
+  <si>
+    <t>墨語丶</t>
+  </si>
+  <si>
+    <t>代奕凡</t>
+  </si>
+  <si>
+    <t>唐伶悠</t>
+  </si>
+  <si>
+    <t>灬羲雪灬</t>
+  </si>
+  <si>
+    <t>道运良</t>
+  </si>
+  <si>
+    <t>我将浪荡天下</t>
+  </si>
+  <si>
+    <t>若云谣</t>
+  </si>
+  <si>
+    <t>魔芸魅</t>
+  </si>
+  <si>
+    <t>可可毛儿</t>
+  </si>
+  <si>
+    <t>火炎焚</t>
+  </si>
+  <si>
+    <t>汜水深渊</t>
+  </si>
+  <si>
+    <t>洛天岚</t>
+  </si>
+  <si>
+    <t>丐帮</t>
+  </si>
+  <si>
+    <t>翔予</t>
+  </si>
+  <si>
+    <t>刀客</t>
+  </si>
+  <si>
+    <t>唐舞</t>
+  </si>
+  <si>
+    <t>萧四无</t>
+  </si>
+  <si>
+    <t>套套</t>
+  </si>
+  <si>
+    <t>奶小牛</t>
+  </si>
+  <si>
+    <t>山高</t>
+  </si>
+  <si>
+    <t>月下</t>
+  </si>
+  <si>
+    <t>潇洒</t>
+  </si>
+  <si>
+    <t>童话</t>
+  </si>
+  <si>
+    <t>鹰老七</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>情儿</t>
+  </si>
+  <si>
+    <t>小官人</t>
+  </si>
+  <si>
+    <t>怒火</t>
+  </si>
+  <si>
+    <t>放肆流逝</t>
+  </si>
+  <si>
+    <t>蛋蛋</t>
+  </si>
+  <si>
+    <t>九州</t>
+  </si>
+  <si>
+    <t>夜白衣</t>
+  </si>
+  <si>
+    <t>天蓝色</t>
+  </si>
+  <si>
+    <t>安好</t>
+  </si>
+  <si>
+    <t>忍野咩咩</t>
+  </si>
+  <si>
+    <t>小书生</t>
+  </si>
+  <si>
+    <t>拌蠢</t>
+  </si>
+  <si>
+    <t>树儿</t>
+  </si>
+  <si>
+    <t>凯贼</t>
+  </si>
+  <si>
+    <t>此情</t>
+  </si>
+  <si>
+    <t>男人应有的</t>
+  </si>
+  <si>
+    <t>竹影</t>
+  </si>
+  <si>
+    <t>等风</t>
+  </si>
+  <si>
+    <t>红着脸</t>
+  </si>
+  <si>
+    <t>花谢</t>
+  </si>
+  <si>
+    <t>荆轲已</t>
+  </si>
+  <si>
+    <t>猫猫</t>
+  </si>
+  <si>
+    <t>与尔同</t>
+  </si>
+  <si>
+    <t>古巷烟雨</t>
+  </si>
+  <si>
+    <t>大眼</t>
+  </si>
+  <si>
+    <t>小狼</t>
+  </si>
+  <si>
+    <t>我是天香</t>
+  </si>
+  <si>
+    <t>折扇</t>
+  </si>
+  <si>
+    <t>明年今日</t>
+  </si>
+  <si>
+    <t>梦觞</t>
+  </si>
+  <si>
+    <t>浪迹</t>
+  </si>
+  <si>
+    <t>沐白</t>
+  </si>
+  <si>
+    <t>花兮兮</t>
+  </si>
+  <si>
+    <t>逍遥</t>
+  </si>
+  <si>
+    <t>逸尘</t>
+  </si>
+  <si>
+    <t>青丝</t>
+  </si>
+  <si>
+    <t>沐</t>
+  </si>
+  <si>
+    <t>十里红</t>
   </si>
 </sst>
 </file>
@@ -2077,10 +2233,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C584"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C585"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,3833 +2245,3992 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>580</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C1" t="str">
-        <f t="shared" ref="C1:C34" si="0">VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
-        <v>天韵ゝ</v>
+        <f t="shared" ref="C1:C64" si="0">VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
+        <v>丐帮萌主</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" t="str">
+        <v>536</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>何月凡</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>关翔予</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>其实想玩刀客</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>叶菡</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>唐舞桐灬</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>空虚公子萧四无</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>天下芒果</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>套套嗷呜</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>奶小牛丶</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>山高丶木易</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>月下魂兮</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>框框</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>水影悠兰</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>潇洒仗剑天下</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>童话话</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>紫雨幽雲</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>薄霭</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>追风少年鹰老七</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GoldㅈExperie</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>万心忧</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>倾舞情儿</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>墨韵轩华</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="str">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>淺笙</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>椛灯</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>姬如影</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>万心忧</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>裴述</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>几度度丶</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>爱哭鼻の阿木木</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>魅丿无情</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>宇佐见灬莲子</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>丶初馨</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>诸天花雨</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>太极至尊</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="1" t="str">
+        <v>八块腹肌小官人</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>怒怒怒怒火</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>一个有内涵的人</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C17" s="1" t="str">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>放肆流逝的年华</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C18" s="1" t="str">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>机智勇敢的小炮</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="1" t="str">
+        <v>蛋蛋疍</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>思念永远美好</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="1" t="str">
+        <v>乌莲娜</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>任离流</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="1" t="str">
+        <v>一人一枪闯九州</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>倾舞情儿</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C22" s="1" t="str">
+        <v>夜白衣</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>萌萌哒灬毒香</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="1" t="str">
+        <v>丶天蓝色</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>凡人的梦</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="1" t="str">
+        <v>安好晴天</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>轻笑忘</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="1" t="str">
+        <v>丶忍野咩咩</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>执劍小书生</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>拌蠢蠢</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>树儿高高长</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>凯贼阔里</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>榕月</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>此情珂待</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>男人应有的自豪</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>酒倾轻竹影</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>等风与你</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>再见是否红着脸</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>612</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>花谢人凋零。</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>613</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>荆轲已逝高渐离</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>鱼小小</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>408</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>鱼爸爸</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>鱼香</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>614</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mn丶猫猫君</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>615</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>与尔同销萬古愁</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>630</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>616</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>古巷烟雨断桥殇</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>吕小栋</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>617</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>大眼睛秋秋</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>618</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>SouLmAte、小狼</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>异逍遥</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>619</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>我是天香的啊</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>620</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>折扇浪漫</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="1" t="str">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>621</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="1" t="str">
+        <v>明年今日奕十年</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>622</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="1" t="str">
+        <v>梦觞丶</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>629</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="1" t="str">
+        <v>沐浠尘</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>623</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="1" t="str">
+        <v>浪迹小秦</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C31" s="1" t="str">
+        <v>独孤沐白</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" ref="C35:C91" si="1">VLOOKUP("*"&amp;A35&amp;"*",B:B,1,0)</f>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+        <v>百里轩翊</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>625</v>
+      </c>
       <c r="B65" s="1" t="s">
-        <v>55</v>
+        <v>528</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C65:C69" si="1">VLOOKUP("*"&amp;A65&amp;"*",B:B,1,0)</f>
+        <v>花兮兮兮兮</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>626</v>
+      </c>
       <c r="B66" s="1" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="C66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+        <v>逍遥芙蕖</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>627</v>
+      </c>
       <c r="B67" s="1" t="s">
-        <v>130</v>
+        <v>529</v>
       </c>
       <c r="C67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+        <v>逸尘灬浮</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
       <c r="B68" s="1" t="s">
-        <v>131</v>
+        <v>560</v>
       </c>
       <c r="C68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+        <v>零拾</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>628</v>
+      </c>
       <c r="B69" s="1" t="s">
-        <v>511</v>
+        <v>211</v>
       </c>
       <c r="C69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+        <v>青丝枫凌</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C85" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C87" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C88" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C89" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C90" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C91" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="C92" s="1"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>515</v>
+        <v>226</v>
       </c>
       <c r="C93" s="1"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>516</v>
+        <v>145</v>
       </c>
       <c r="C94" s="1"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="C95" s="1"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>154</v>
+        <v>477</v>
       </c>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>517</v>
+        <v>58</v>
       </c>
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>518</v>
+        <v>230</v>
       </c>
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>519</v>
+        <v>478</v>
       </c>
       <c r="C101" s="1"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="C102" s="1"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>520</v>
+        <v>54</v>
       </c>
       <c r="C103" s="1"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>60</v>
+        <v>479</v>
       </c>
       <c r="C104" s="1"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>156</v>
+        <v>563</v>
       </c>
       <c r="C105" s="1"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="C106" s="1"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="C107" s="1"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="C108" s="1"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="C109" s="1"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>521</v>
+        <v>236</v>
       </c>
       <c r="C110" s="1"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="C111" s="1"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="C112" s="1"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="C113" s="1"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>522</v>
+        <v>70</v>
       </c>
       <c r="C115" s="1"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="C116" s="1"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>523</v>
+        <v>256</v>
       </c>
       <c r="C117" s="1"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>167</v>
+        <v>480</v>
       </c>
       <c r="C118" s="1"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>524</v>
+        <v>78</v>
       </c>
       <c r="C119" s="1"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="C120" s="1"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="C121" s="1"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="C122" s="1"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="C123" s="1"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
       <c r="C124" s="1"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="C125" s="1"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>88</v>
+        <v>564</v>
       </c>
       <c r="C126" s="1"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="C127" s="1"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="C128" s="1"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="C129" s="1"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>178</v>
+        <v>534</v>
       </c>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>180</v>
+        <v>565</v>
       </c>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="C132" s="1"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="C133" s="1"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C134" s="1"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="C135" s="1"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="C136" s="1"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>184</v>
+        <v>535</v>
       </c>
       <c r="C137" s="1"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="C138" s="1"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>190</v>
+        <v>537</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>525</v>
+        <v>259</v>
       </c>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>526</v>
+        <v>260</v>
       </c>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>43</v>
+        <v>262</v>
       </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>528</v>
+        <v>11</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>529</v>
+        <v>22</v>
       </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>530</v>
+        <v>68</v>
       </c>
       <c r="C154" s="1"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="C155" s="1"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="C156" s="1"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>193</v>
+        <v>541</v>
       </c>
       <c r="C157" s="1"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="C158" s="1"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="C159" s="1"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="C160" s="1"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>196</v>
+        <v>50</v>
       </c>
       <c r="C161" s="1"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="C162" s="1"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="C163" s="1"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="C164" s="1"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="C165" s="1"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="C166" s="1"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="C167" s="1"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="C168" s="1"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="C169" s="1"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>204</v>
+        <v>481</v>
       </c>
       <c r="C170" s="1"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="C171" s="1"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="C172" s="1"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="C173" s="1"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="C174" s="1"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="C175" s="1"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>211</v>
+        <v>482</v>
       </c>
       <c r="C176" s="1"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="C177" s="1"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="C178" s="1"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="C179" s="1"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="C180" s="1"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>216</v>
+        <v>281</v>
       </c>
       <c r="C181" s="1"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="C182" s="1"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="C183" s="1"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C184" s="1"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="C185" s="1"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>532</v>
+        <v>285</v>
       </c>
       <c r="C186" s="1"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="C187" s="1"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="C188" s="1"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>222</v>
+        <v>483</v>
       </c>
       <c r="C189" s="1"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>533</v>
+        <v>286</v>
       </c>
       <c r="C190" s="1"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
-        <v>223</v>
+        <v>287</v>
       </c>
       <c r="C191" s="1"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="C192" s="1"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="C193" s="1"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="C194" s="1"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="C195" s="1"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="C196" s="1"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
-        <v>534</v>
+        <v>290</v>
       </c>
       <c r="C197" s="1"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>229</v>
+        <v>484</v>
       </c>
       <c r="C198" s="1"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="C199" s="1"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
-        <v>231</v>
+        <v>540</v>
       </c>
       <c r="C200" s="1"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="C201" s="1"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>535</v>
+        <v>293</v>
       </c>
       <c r="C202" s="1"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="C203" s="1"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
-        <v>536</v>
+        <v>295</v>
       </c>
       <c r="C204" s="1"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="C205" s="1"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>537</v>
+        <v>297</v>
       </c>
       <c r="C206" s="1"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="C207" s="1"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="C208" s="1"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="C209" s="1"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="C210" s="1"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="C211" s="1"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="C212" s="1"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="C213" s="1"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="C214" s="1"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="C215" s="1"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
-        <v>62</v>
+        <v>485</v>
       </c>
       <c r="C216" s="1"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="C217" s="1"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="C218" s="1"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="C219" s="1"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>247</v>
+        <v>488</v>
       </c>
       <c r="C220" s="1"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="C221" s="1"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="C222" s="1"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="C223" s="1"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="C224" s="1"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="C225" s="1"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="C226" s="1"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="C227" s="1"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>253</v>
+        <v>340</v>
       </c>
       <c r="C228" s="1"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="C229" s="1"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="C230" s="1"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>257</v>
+        <v>487</v>
       </c>
       <c r="C231" s="1"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
-        <v>46</v>
+        <v>315</v>
       </c>
       <c r="C232" s="1"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>166</v>
+        <v>316</v>
       </c>
       <c r="C233" s="1"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="C234" s="1"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="C235" s="1"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="C236" s="1"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="C237" s="1"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>539</v>
+        <v>69</v>
       </c>
       <c r="C238" s="1"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="C239" s="1"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
-        <v>61</v>
+        <v>321</v>
       </c>
       <c r="C240" s="1"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
-        <v>540</v>
+        <v>322</v>
       </c>
       <c r="C241" s="1"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="C242" s="1"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>541</v>
+        <v>62</v>
       </c>
       <c r="C243" s="1"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
-        <v>56</v>
+        <v>324</v>
       </c>
       <c r="C244" s="1"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="C245" s="1"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
-        <v>542</v>
+        <v>326</v>
       </c>
       <c r="C246" s="1"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="C247" s="1"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="C248" s="1"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="C249" s="1"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="C250" s="1"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="C251" s="1"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>271</v>
+        <v>486</v>
       </c>
       <c r="C252" s="1"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="C253" s="1"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
-        <v>272</v>
+        <v>542</v>
       </c>
       <c r="C254" s="1"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>191</v>
+        <v>329</v>
       </c>
       <c r="C255" s="1"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="C256" s="1"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
-        <v>73</v>
+        <v>331</v>
       </c>
       <c r="C257" s="1"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>273</v>
+        <v>332</v>
       </c>
       <c r="C258" s="1"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>543</v>
+        <v>333</v>
       </c>
       <c r="C259" s="1"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C260" s="1"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>47</v>
+        <v>335</v>
       </c>
       <c r="C261" s="1"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>275</v>
+        <v>336</v>
       </c>
       <c r="C262" s="1"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="C263" s="1"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="C264" s="1"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c r="C265" s="1"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="C266" s="1"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="C267" s="1"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C268" s="1"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>544</v>
+        <v>341</v>
       </c>
       <c r="C269" s="1"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="C270" s="1"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="C271" s="1"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="C272" s="1"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>285</v>
+        <v>345</v>
       </c>
       <c r="C273" s="1"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
-        <v>284</v>
+        <v>346</v>
       </c>
       <c r="C274" s="1"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
-        <v>286</v>
+        <v>489</v>
       </c>
       <c r="C275" s="1"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="C276" s="1"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
-        <v>58</v>
+        <v>265</v>
       </c>
       <c r="C277" s="1"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="C278" s="1"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
-        <v>290</v>
+        <v>73</v>
       </c>
       <c r="C279" s="1"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
-        <v>291</v>
+        <v>2</v>
       </c>
       <c r="C280" s="1"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
-        <v>292</v>
+        <v>348</v>
       </c>
       <c r="C281" s="1"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="C282" s="1"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="C283" s="1"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="C284" s="1"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>13</v>
+        <v>352</v>
       </c>
       <c r="C285" s="1"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="C286" s="1"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C287" s="1"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>372</v>
+        <v>490</v>
       </c>
       <c r="C288" s="1"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="C289" s="1"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C290" s="1"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C291" s="1"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C292" s="1"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="C293" s="1"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>16</v>
+        <v>364</v>
       </c>
       <c r="C294" s="1"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C295" s="1"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="C296" s="1"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
-        <v>65</v>
+        <v>362</v>
       </c>
       <c r="C297" s="1"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C298" s="1"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>335</v>
+        <v>491</v>
       </c>
       <c r="C299" s="1"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>72</v>
+        <v>558</v>
       </c>
       <c r="C300" s="1"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="C301" s="1"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
-        <v>368</v>
+        <v>566</v>
       </c>
       <c r="C302" s="1"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
-        <v>57</v>
+        <v>358</v>
       </c>
       <c r="C303" s="1"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
-        <v>304</v>
+        <v>494</v>
       </c>
       <c r="C304" s="1"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="C305" s="1"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>50</v>
+        <v>495</v>
       </c>
       <c r="C306" s="1"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
-        <v>49</v>
+        <v>360</v>
       </c>
       <c r="C307" s="1"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
-        <v>305</v>
+        <v>361</v>
       </c>
       <c r="C308" s="1"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="C309" s="1"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>545</v>
+        <v>60</v>
       </c>
       <c r="C310" s="1"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="C311" s="1"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="C312" s="1"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
-        <v>308</v>
+        <v>367</v>
       </c>
       <c r="C313" s="1"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
-        <v>48</v>
+        <v>368</v>
       </c>
       <c r="C314" s="1"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>309</v>
+        <v>544</v>
       </c>
       <c r="C315" s="1"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
-        <v>546</v>
+        <v>369</v>
       </c>
       <c r="C316" s="1"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="C317" s="1"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="C318" s="1"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="C319" s="1"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" s="1" t="s">
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="C320" s="1"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="C321" s="1"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="C322" s="1"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
-        <v>317</v>
+        <v>545</v>
       </c>
       <c r="C323" s="1"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
-        <v>77</v>
+        <v>493</v>
       </c>
       <c r="C324" s="1"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="C325" s="1"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
-        <v>19</v>
+        <v>376</v>
       </c>
       <c r="C326" s="1"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
-        <v>319</v>
+        <v>412</v>
       </c>
       <c r="C327" s="1"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
-        <v>547</v>
+        <v>377</v>
       </c>
       <c r="C328" s="1"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="C329" s="1"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" s="1" t="s">
-        <v>321</v>
+        <v>492</v>
       </c>
       <c r="C330" s="1"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
-        <v>320</v>
+        <v>379</v>
       </c>
       <c r="C331" s="1"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="C332" s="1"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="C333" s="1"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="C334" s="1"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C335" s="1"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
-        <v>324</v>
+        <v>496</v>
       </c>
       <c r="C336" s="1"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" s="1" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="C337" s="1"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
-        <v>326</v>
+        <v>61</v>
       </c>
       <c r="C338" s="1"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" s="1" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="C339" s="1"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="C340" s="1"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="C341" s="1"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" s="1" t="s">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="C342" s="1"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
       <c r="C343" s="1"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
-        <v>332</v>
+        <v>547</v>
       </c>
       <c r="C344" s="1"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="C345" s="1"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
-        <v>334</v>
+        <v>548</v>
       </c>
       <c r="C346" s="1"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="C347" s="1"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="C348" s="1"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
-        <v>18</v>
+        <v>497</v>
       </c>
       <c r="C349" s="1"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350" s="1" t="s">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="C350" s="1"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C351" s="1"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" s="1" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="C352" s="1"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
-        <v>549</v>
+        <v>32</v>
       </c>
       <c r="C353" s="1"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="C354" s="1"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="C355" s="1"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" s="1" t="s">
-        <v>341</v>
+        <v>549</v>
       </c>
       <c r="C356" s="1"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
-        <v>66</v>
+        <v>392</v>
       </c>
       <c r="C357" s="1"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
-        <v>342</v>
+        <v>550</v>
       </c>
       <c r="C358" s="1"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" s="1" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="C359" s="1"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="C360" s="1"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361" s="1" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="C361" s="1"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362" s="1" t="s">
-        <v>345</v>
+        <v>567</v>
       </c>
       <c r="C362" s="1"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B363" s="1" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="C363" s="1"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C364" s="1"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B365" s="1" t="s">
-        <v>550</v>
+        <v>499</v>
       </c>
       <c r="C365" s="1"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
-        <v>24</v>
+        <v>397</v>
       </c>
       <c r="C366" s="1"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="C367" s="1"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B368" s="1" t="s">
-        <v>348</v>
+        <v>551</v>
       </c>
       <c r="C368" s="1"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B369" s="1" t="s">
-        <v>552</v>
+        <v>28</v>
       </c>
       <c r="C369" s="1"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B370" s="1" t="s">
-        <v>349</v>
+        <v>501</v>
       </c>
       <c r="C370" s="1"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B371" s="1" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="C371" s="1"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372" s="1" t="s">
-        <v>25</v>
+        <v>552</v>
       </c>
       <c r="C372" s="1"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373" s="1" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="C373" s="1"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B374" s="1" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="C374" s="1"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375" s="1" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="C375" s="1"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376" s="1" t="s">
-        <v>374</v>
+        <v>553</v>
       </c>
       <c r="C376" s="1"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B377" s="1" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="C377" s="1"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B378" s="1" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="C378" s="1"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379" s="1" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="C379" s="1"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380" s="1" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="C380" s="1"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381" s="1" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="C381" s="1"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B382" s="1" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="C382" s="1"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383" s="1" t="s">
-        <v>553</v>
+        <v>408</v>
       </c>
       <c r="C383" s="1"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B384" s="1" t="s">
-        <v>26</v>
+        <v>409</v>
       </c>
       <c r="C384" s="1"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B385" s="1" t="s">
-        <v>22</v>
+        <v>410</v>
       </c>
       <c r="C385" s="1"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B386" s="1" t="s">
-        <v>85</v>
+        <v>411</v>
       </c>
       <c r="C386" s="1"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387" s="1" t="s">
-        <v>86</v>
+        <v>502</v>
       </c>
       <c r="C387" s="1"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388" s="1" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="C388" s="1"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B389" s="1" t="s">
-        <v>382</v>
+        <v>554</v>
       </c>
       <c r="C389" s="1"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B390" s="1" t="s">
-        <v>296</v>
+        <v>355</v>
       </c>
       <c r="C390" s="1"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391" s="1" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
       <c r="C391" s="1"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B392" s="1" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="C392" s="1"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B393" s="1" t="s">
-        <v>363</v>
+        <v>568</v>
       </c>
       <c r="C393" s="1"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B394" s="1" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="C394" s="1"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B395" s="1" t="s">
-        <v>366</v>
+        <v>555</v>
       </c>
       <c r="C395" s="1"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B396" s="1" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="C396" s="1"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
-        <v>369</v>
+        <v>569</v>
       </c>
       <c r="C397" s="1"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B398" s="1" t="s">
-        <v>297</v>
+        <v>419</v>
       </c>
       <c r="C398" s="1"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B399" s="1" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="C399" s="1"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400" s="1" t="s">
-        <v>42</v>
+        <v>421</v>
       </c>
       <c r="C400" s="1"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B401" s="1" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="C401" s="1"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B402" s="1" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="C402" s="1"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B403" s="1" t="s">
-        <v>298</v>
+        <v>35</v>
       </c>
       <c r="C403" s="1"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B404" s="1" t="s">
-        <v>375</v>
+        <v>503</v>
       </c>
       <c r="C404" s="1"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B405" s="1" t="s">
-        <v>52</v>
+        <v>356</v>
       </c>
       <c r="C405" s="1"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B406" s="1" t="s">
-        <v>376</v>
+        <v>570</v>
       </c>
       <c r="C406" s="1"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B407" s="1" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="C407" s="1"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B408" s="1" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="C408" s="1"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="C409" s="1"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B410" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C410" s="1"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B411" s="1" t="s">
-        <v>380</v>
+        <v>26</v>
       </c>
       <c r="C411" s="1"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="C412" s="1"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B413" s="1" t="s">
-        <v>76</v>
+        <v>557</v>
       </c>
       <c r="C413" s="1"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B414" s="1" t="s">
-        <v>299</v>
+        <v>543</v>
       </c>
       <c r="C414" s="1"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B415" s="1" t="s">
-        <v>301</v>
+        <v>65</v>
       </c>
       <c r="C415" s="1"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B416" s="1" t="s">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="C416" s="1"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B417" s="1" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="C417" s="1"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B418" s="1" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="C418" s="1"/>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B419" s="1" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="C419" s="1"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B420" s="1" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="C420" s="1"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B421" s="1" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="C421" s="1"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422" s="1" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="C422" s="1"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B423" s="1" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="C423" s="1"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B424" s="1" t="s">
-        <v>555</v>
+        <v>436</v>
       </c>
       <c r="C424" s="1"/>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B425" s="1" t="s">
-        <v>556</v>
+        <v>39</v>
       </c>
       <c r="C425" s="1"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B426" s="1" t="s">
-        <v>36</v>
+        <v>437</v>
       </c>
       <c r="C426" s="1"/>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B427" s="1" t="s">
-        <v>40</v>
+        <v>438</v>
       </c>
       <c r="C427" s="1"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B428" s="1" t="s">
-        <v>557</v>
+        <v>504</v>
       </c>
       <c r="C428" s="1"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B429" s="1" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="C429" s="1"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B430" s="1" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="C430" s="1"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B431" s="1" t="s">
-        <v>33</v>
+        <v>440</v>
       </c>
       <c r="C431" s="1"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B432" s="1" t="s">
-        <v>558</v>
+        <v>441</v>
       </c>
       <c r="C432" s="1"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B433" s="1" t="s">
-        <v>447</v>
+        <v>42</v>
       </c>
       <c r="C433" s="1"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B434" s="1" t="s">
-        <v>394</v>
+        <v>506</v>
       </c>
       <c r="C434" s="1"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B435" s="1" t="s">
-        <v>559</v>
+        <v>7</v>
       </c>
       <c r="C435" s="1"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B436" s="1" t="s">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="C436" s="1"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B437" s="1" t="s">
-        <v>560</v>
+        <v>161</v>
       </c>
       <c r="C437" s="1"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B438" s="1" t="s">
-        <v>397</v>
+        <v>4</v>
       </c>
       <c r="C438" s="1"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B439" s="1" t="s">
-        <v>396</v>
+        <v>516</v>
       </c>
       <c r="C439" s="1"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B440" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C440" s="1"/>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B441" s="1" t="s">
-        <v>400</v>
+        <v>143</v>
       </c>
       <c r="C441" s="1"/>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
-        <v>399</v>
+        <v>112</v>
       </c>
       <c r="C442" s="1"/>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B443" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C443" s="1"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="C444" s="1"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B445" s="1" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="C445" s="1"/>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B446" s="1" t="s">
-        <v>403</v>
+        <v>87</v>
       </c>
       <c r="C446" s="1"/>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B447" s="1" t="s">
-        <v>404</v>
+        <v>88</v>
       </c>
       <c r="C447" s="1"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="C448" s="1"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B449" s="1" t="s">
-        <v>407</v>
+        <v>89</v>
       </c>
       <c r="C449" s="1"/>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B450" s="1" t="s">
-        <v>406</v>
+        <v>90</v>
       </c>
       <c r="C450" s="1"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B451" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C451" s="1"/>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B452" s="1" t="s">
-        <v>408</v>
+        <v>507</v>
       </c>
       <c r="C452" s="1"/>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B453" s="1" t="s">
-        <v>410</v>
+        <v>508</v>
       </c>
       <c r="C453" s="1"/>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B454" s="1" t="s">
-        <v>409</v>
+        <v>92</v>
       </c>
       <c r="C454" s="1"/>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B455" s="1" t="s">
-        <v>411</v>
+        <v>93</v>
       </c>
       <c r="C455" s="1"/>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B456" s="1" t="s">
-        <v>412</v>
+        <v>94</v>
       </c>
       <c r="C456" s="1"/>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B457" s="1" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="C457" s="1"/>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B458" s="1" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C458" s="1"/>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B459" s="1" t="s">
-        <v>414</v>
+        <v>509</v>
       </c>
       <c r="C459" s="1"/>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B460" s="1" t="s">
-        <v>415</v>
+        <v>571</v>
       </c>
       <c r="C460" s="1"/>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B461" s="1" t="s">
-        <v>416</v>
+        <v>96</v>
       </c>
       <c r="C461" s="1"/>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B462" s="1" t="s">
-        <v>417</v>
+        <v>510</v>
       </c>
       <c r="C462" s="1"/>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B463" s="1" t="s">
-        <v>418</v>
+        <v>97</v>
       </c>
       <c r="C463" s="1"/>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B464" s="1" t="s">
-        <v>29</v>
+        <v>511</v>
       </c>
       <c r="C464" s="1"/>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B465" s="1" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C465" s="1"/>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B466" s="1" t="s">
-        <v>419</v>
+        <v>98</v>
       </c>
       <c r="C466" s="1"/>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B467" s="1" t="s">
-        <v>561</v>
+        <v>447</v>
       </c>
       <c r="C467" s="1"/>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B468" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C468" s="1"/>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B469" s="1" t="s">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="C469" s="1"/>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B470" s="1" t="s">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="C470" s="1"/>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B471" s="1" t="s">
-        <v>422</v>
+        <v>6</v>
       </c>
       <c r="C471" s="1"/>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B472" s="1" t="s">
-        <v>32</v>
+        <v>448</v>
       </c>
       <c r="C472" s="1"/>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B473" s="1" t="s">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="C473" s="1"/>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B474" s="1" t="s">
-        <v>424</v>
+        <v>102</v>
       </c>
       <c r="C474" s="1"/>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B475" s="1" t="s">
-        <v>425</v>
+        <v>512</v>
       </c>
       <c r="C475" s="1"/>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B476" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C476" s="1"/>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B477" s="1" t="s">
-        <v>562</v>
+        <v>66</v>
       </c>
       <c r="C477" s="1"/>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B478" s="1" t="s">
-        <v>563</v>
+        <v>513</v>
       </c>
       <c r="C478" s="1"/>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B479" s="1" t="s">
-        <v>426</v>
+        <v>64</v>
       </c>
       <c r="C479" s="1"/>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B480" s="1" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C480" s="1"/>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B481" s="1" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C481" s="1"/>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B482" s="1" t="s">
-        <v>427</v>
+        <v>572</v>
       </c>
       <c r="C482" s="1"/>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B483" s="1" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="C483" s="1"/>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B484" s="1" t="s">
-        <v>390</v>
+        <v>106</v>
       </c>
       <c r="C484" s="1"/>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B485" s="1" t="s">
-        <v>429</v>
+        <v>514</v>
       </c>
       <c r="C485" s="1"/>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B486" s="1" t="s">
-        <v>430</v>
+        <v>573</v>
       </c>
       <c r="C486" s="1"/>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B487" s="1" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="C487" s="1"/>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B488" s="1" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="C488" s="1"/>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B489" s="1" t="s">
-        <v>431</v>
+        <v>107</v>
       </c>
       <c r="C489" s="1"/>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B490" s="1" t="s">
-        <v>434</v>
+        <v>108</v>
       </c>
       <c r="C490" s="1"/>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B491" s="1" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="C491" s="1"/>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B492" s="1" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="C492" s="1"/>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B493" s="1" t="s">
-        <v>564</v>
+        <v>452</v>
       </c>
       <c r="C493" s="1"/>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B494" s="1" t="s">
-        <v>565</v>
+        <v>52</v>
       </c>
       <c r="C494" s="1"/>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B495" s="1" t="s">
-        <v>436</v>
+        <v>111</v>
       </c>
       <c r="C495" s="1"/>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B496" s="1" t="s">
-        <v>566</v>
+        <v>9</v>
       </c>
       <c r="C496" s="1"/>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B497" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C497" s="1"/>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B498" s="1" t="s">
-        <v>437</v>
+        <v>53</v>
       </c>
       <c r="C498" s="1"/>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B499" s="1" t="s">
-        <v>438</v>
+        <v>114</v>
       </c>
       <c r="C499" s="1"/>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B500" s="1" t="s">
-        <v>439</v>
+        <v>115</v>
       </c>
       <c r="C500" s="1"/>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B501" s="1" t="s">
-        <v>440</v>
+        <v>515</v>
       </c>
       <c r="C501" s="1"/>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B502" s="1" t="s">
-        <v>442</v>
+        <v>116</v>
       </c>
       <c r="C502" s="1"/>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B503" s="1" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C503" s="1"/>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B504" s="1" t="s">
-        <v>443</v>
+        <v>117</v>
       </c>
       <c r="C504" s="1"/>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B505" s="1" t="s">
-        <v>444</v>
+        <v>574</v>
       </c>
       <c r="C505" s="1"/>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B506" s="1" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C506" s="1"/>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B507" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C507" s="1"/>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B508" s="1" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="C508" s="1"/>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B509" s="1" t="s">
-        <v>448</v>
+        <v>118</v>
       </c>
       <c r="C509" s="1"/>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B510" s="1" t="s">
-        <v>449</v>
+        <v>575</v>
       </c>
       <c r="C510" s="1"/>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B511" s="1" t="s">
-        <v>450</v>
+        <v>119</v>
       </c>
       <c r="C511" s="1"/>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B512" s="1" t="s">
-        <v>452</v>
+        <v>120</v>
       </c>
       <c r="C512" s="1"/>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B513" s="1" t="s">
-        <v>451</v>
+        <v>121</v>
       </c>
       <c r="C513" s="1"/>
     </row>
     <row r="514" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B514" s="1" t="s">
-        <v>453</v>
+        <v>576</v>
       </c>
       <c r="C514" s="1"/>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B515" s="1" t="s">
-        <v>454</v>
+        <v>122</v>
       </c>
       <c r="C515" s="1"/>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B516" s="1" t="s">
-        <v>567</v>
+        <v>123</v>
       </c>
       <c r="C516" s="1"/>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B517" s="1" t="s">
-        <v>457</v>
+        <v>124</v>
       </c>
       <c r="C517" s="1"/>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B518" s="1" t="s">
-        <v>456</v>
+        <v>125</v>
       </c>
       <c r="C518" s="1"/>
     </row>
     <row r="519" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B519" s="1" t="s">
-        <v>391</v>
+        <v>126</v>
       </c>
       <c r="C519" s="1"/>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B520" s="1" t="s">
-        <v>458</v>
+        <v>577</v>
       </c>
       <c r="C520" s="1"/>
     </row>
     <row r="521" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B521" s="1" t="s">
-        <v>459</v>
+        <v>127</v>
       </c>
       <c r="C521" s="1"/>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B522" s="1" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="C522" s="1"/>
     </row>
     <row r="523" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B523" s="1" t="s">
-        <v>461</v>
+        <v>128</v>
       </c>
       <c r="C523" s="1"/>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B524" s="1" t="s">
-        <v>462</v>
+        <v>129</v>
       </c>
       <c r="C524" s="1"/>
     </row>
     <row r="525" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B525" s="1" t="s">
-        <v>465</v>
+        <v>130</v>
       </c>
       <c r="C525" s="1"/>
     </row>
     <row r="526" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B526" s="1" t="s">
-        <v>464</v>
+        <v>131</v>
       </c>
       <c r="C526" s="1"/>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B527" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C527" s="1"/>
     </row>
     <row r="528" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B528" s="1" t="s">
-        <v>466</v>
+        <v>132</v>
       </c>
       <c r="C528" s="1"/>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B529" s="1" t="s">
-        <v>467</v>
+        <v>133</v>
       </c>
       <c r="C529" s="1"/>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B530" s="1" t="s">
-        <v>568</v>
+        <v>457</v>
       </c>
       <c r="C530" s="1"/>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B531" s="1" t="s">
-        <v>468</v>
+        <v>83</v>
       </c>
       <c r="C531" s="1"/>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B532" s="1" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="C532" s="1"/>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B533" s="1" t="s">
-        <v>569</v>
+        <v>135</v>
       </c>
       <c r="C533" s="1"/>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B534" s="1" t="s">
-        <v>392</v>
+        <v>458</v>
       </c>
       <c r="C534" s="1"/>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B535" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C535" s="1"/>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B536" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C536" s="1"/>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B537" s="1" t="s">
-        <v>471</v>
+        <v>136</v>
       </c>
       <c r="C537" s="1"/>
     </row>
     <row r="538" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B538" s="1" t="s">
-        <v>472</v>
+        <v>519</v>
       </c>
       <c r="C538" s="1"/>
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B539" s="1" t="s">
-        <v>473</v>
+        <v>57</v>
       </c>
       <c r="C539" s="1"/>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B540" s="1" t="s">
-        <v>28</v>
+        <v>461</v>
       </c>
       <c r="C540" s="1"/>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B541" s="1" t="s">
-        <v>474</v>
+        <v>137</v>
       </c>
       <c r="C541" s="1"/>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B542" s="1" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="C542" s="1"/>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B543" s="1" t="s">
-        <v>475</v>
+        <v>139</v>
       </c>
       <c r="C543" s="1"/>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B544" s="1" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="C544" s="1"/>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B545" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="C545" s="1"/>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B546" s="1" t="s">
-        <v>477</v>
+        <v>141</v>
       </c>
       <c r="C546" s="1"/>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B547" s="1" t="s">
-        <v>478</v>
+        <v>142</v>
       </c>
       <c r="C547" s="1"/>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B548" s="1" t="s">
-        <v>479</v>
+        <v>84</v>
       </c>
       <c r="C548" s="1"/>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B549" s="1" t="s">
-        <v>480</v>
+        <v>144</v>
       </c>
       <c r="C549" s="1"/>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B550" s="1" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="C550" s="1"/>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B551" s="1" t="s">
-        <v>482</v>
+        <v>578</v>
       </c>
       <c r="C551" s="1"/>
     </row>
     <row r="552" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B552" s="1" t="s">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="C552" s="1"/>
     </row>
     <row r="553" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B553" s="1" t="s">
-        <v>484</v>
+        <v>146</v>
       </c>
       <c r="C553" s="1"/>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B554" s="1" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="C554" s="1"/>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B555" s="1" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C555" s="1"/>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B556" s="1" t="s">
-        <v>486</v>
+        <v>148</v>
       </c>
       <c r="C556" s="1"/>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B557" s="1" t="s">
-        <v>393</v>
+        <v>149</v>
       </c>
       <c r="C557" s="1"/>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B558" s="1" t="s">
-        <v>570</v>
+        <v>150</v>
       </c>
       <c r="C558" s="1"/>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B559" s="1" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="C559" s="1"/>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B560" s="1" t="s">
-        <v>490</v>
+        <v>151</v>
       </c>
       <c r="C560" s="1"/>
     </row>
     <row r="561" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B561" s="1" t="s">
-        <v>489</v>
+        <v>152</v>
       </c>
       <c r="C561" s="1"/>
     </row>
     <row r="562" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B562" s="1" t="s">
-        <v>488</v>
+        <v>153</v>
       </c>
       <c r="C562" s="1"/>
     </row>
     <row r="563" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B563" s="1" t="s">
-        <v>491</v>
+        <v>579</v>
       </c>
       <c r="C563" s="1"/>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B564" s="1" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="C564" s="1"/>
     </row>
     <row r="565" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B565" s="1" t="s">
-        <v>493</v>
+        <v>154</v>
       </c>
       <c r="C565" s="1"/>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B566" s="1" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="C566" s="1"/>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B567" s="1" t="s">
-        <v>495</v>
+        <v>156</v>
       </c>
       <c r="C567" s="1"/>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B568" s="1" t="s">
-        <v>494</v>
+        <v>157</v>
       </c>
       <c r="C568" s="1"/>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B569" s="1" t="s">
-        <v>496</v>
+        <v>158</v>
       </c>
       <c r="C569" s="1"/>
     </row>
     <row r="570" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B570" s="1" t="s">
-        <v>572</v>
+        <v>159</v>
       </c>
       <c r="C570" s="1"/>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B571" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C571" s="1"/>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B572" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C572" s="1"/>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B573" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="C573" s="1"/>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B574" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="C574" s="1"/>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B575" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C575" s="1"/>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B576" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="C576" s="1"/>
     </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B577" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="C577" s="1"/>
     </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B578" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C578" s="1"/>
     </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B579" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="C579" s="1"/>
     </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B580" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="C580" s="1"/>
     </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C581" s="1"/>
     </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C582" s="1"/>
     </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C583" s="1"/>
     </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C584" s="1"/>
     </row>
+    <row r="585" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C585" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C579"/>
+  <autoFilter ref="C1:C585">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="GoldㅈExperie"/>
+        <filter val="Mn丶猫猫君"/>
+        <filter val="SouLmAte、小狼"/>
+        <filter val="等风与你"/>
+        <filter val="一人一枪闯九州"/>
+        <filter val="万心忧"/>
+        <filter val="与尔同销萬古愁"/>
+        <filter val="丶天蓝色"/>
+        <filter val="丶忍野咩咩"/>
+        <filter val="乌莲娜"/>
+        <filter val="何月凡"/>
+        <filter val="倾舞情儿"/>
+        <filter val="八块腹肌小官人"/>
+        <filter val="关翔予"/>
+        <filter val="其实想玩刀客"/>
+        <filter val="再见是否红着脸"/>
+        <filter val="凯贼阔里"/>
+        <filter val="古巷烟雨断桥殇"/>
+        <filter val="叶菡"/>
+        <filter val="吕小栋"/>
+        <filter val="唐舞桐灬"/>
+        <filter val="墨韵轩华"/>
+        <filter val="夜白衣"/>
+        <filter val="大眼睛秋秋"/>
+        <filter val="天下芒果"/>
+        <filter val="套套嗷呜"/>
+        <filter val="奶小牛丶"/>
+        <filter val="安好晴天"/>
+        <filter val="山高丶木易"/>
+        <filter val="异逍遥"/>
+        <filter val="怒怒怒怒火"/>
+        <filter val="我是天香的啊"/>
+        <filter val="执劍小书生"/>
+        <filter val="折扇浪漫"/>
+        <filter val="拌蠢蠢"/>
+        <filter val="放肆流逝的年华"/>
+        <filter val="明年今日奕十年"/>
+        <filter val="月下魂兮"/>
+        <filter val="树儿高高长"/>
+        <filter val="框框"/>
+        <filter val="梦觞丶"/>
+        <filter val="榕月"/>
+        <filter val="此情珂待"/>
+        <filter val="水影悠兰"/>
+        <filter val="沐浠尘"/>
+        <filter val="浪迹小秦"/>
+        <filter val="潇洒仗剑天下"/>
+        <filter val="独孤沐白"/>
+        <filter val="男人应有的自豪"/>
+        <filter val="百里轩翊"/>
+        <filter val="空虚公子萧四无"/>
+        <filter val="童话话"/>
+        <filter val="紫雨幽雲"/>
+        <filter val="花兮兮兮兮"/>
+        <filter val="花谢人凋零。"/>
+        <filter val="荆轲已逝高渐离"/>
+        <filter val="薄霭"/>
+        <filter val="蛋蛋疍"/>
+        <filter val="追风少年鹰老七"/>
+        <filter val="逍遥芙蕖"/>
+        <filter val="逸尘灬浮"/>
+        <filter val="酒倾轻竹影"/>
+        <filter val="零拾"/>
+        <filter val="青丝枫凌"/>
+        <filter val="鱼小小"/>
+        <filter val="鱼爸爸"/>
+        <filter val="鱼香"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compare.xlsx
+++ b/compare.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="639">
   <si>
     <t>怒怒怒怒火</t>
   </si>
@@ -192,9 +192,6 @@
     <t>框框</t>
   </si>
   <si>
-    <t>丶初馨</t>
-  </si>
-  <si>
     <t>异逍遥</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>友善的小内衣</t>
   </si>
   <si>
-    <t>一将羽霄一</t>
-  </si>
-  <si>
     <t>乌莲娜</t>
   </si>
   <si>
@@ -303,9 +297,6 @@
     <t>冷殘心</t>
   </si>
   <si>
-    <t>一夜风雪</t>
-  </si>
-  <si>
     <t>玉面天魁</t>
   </si>
   <si>
@@ -321,9 +312,6 @@
     <t>无所不能小奇葩</t>
   </si>
   <si>
-    <t>叶清欢</t>
-  </si>
-  <si>
     <t>花兮兮兮兮</t>
   </si>
   <si>
@@ -342,15 +330,9 @@
     <t>吕小栋</t>
   </si>
   <si>
-    <t>静听唯美慯</t>
-  </si>
-  <si>
     <t>明年今日奕十年</t>
   </si>
   <si>
-    <t>带你流浪</t>
-  </si>
-  <si>
     <t>薛涛笺</t>
   </si>
   <si>
@@ -378,9 +360,6 @@
     <t>太极神尊</t>
   </si>
   <si>
-    <t>夢觴丶</t>
-  </si>
-  <si>
     <t>沐玉洁</t>
   </si>
   <si>
@@ -396,15 +375,9 @@
     <t>祗园之舞</t>
   </si>
   <si>
-    <t>轩辕素问</t>
-  </si>
-  <si>
     <t>请叫我孟纶镁</t>
   </si>
   <si>
-    <t>无她，唯手熟尔</t>
-  </si>
-  <si>
     <t>只想做个好人</t>
   </si>
   <si>
@@ -429,15 +402,9 @@
     <t>清新荷语</t>
   </si>
   <si>
-    <t>琴爱迪</t>
-  </si>
-  <si>
     <t>秦友善。</t>
   </si>
   <si>
-    <t>Curtain丶義</t>
-  </si>
-  <si>
     <t>醉饮砒霜</t>
   </si>
   <si>
@@ -447,9 +414,6 @@
     <t>欢脱的柚子</t>
   </si>
   <si>
-    <t>不厌浮生唯是梦</t>
-  </si>
-  <si>
     <t>白轻寒</t>
   </si>
   <si>
@@ -459,12 +423,6 @@
     <t>蝶舞云</t>
   </si>
   <si>
-    <t>唐杜里</t>
-  </si>
-  <si>
-    <t>逸尘灬浮</t>
-  </si>
-  <si>
     <t>老滚</t>
   </si>
   <si>
@@ -483,12 +441,6 @@
     <t>孤独无香</t>
   </si>
   <si>
-    <t>凶光外露的熊</t>
-  </si>
-  <si>
-    <t>萌动胖迪</t>
-  </si>
-  <si>
     <t>剑舞天涯</t>
   </si>
   <si>
@@ -513,24 +465,12 @@
     <t>⑦玥</t>
   </si>
   <si>
-    <t>遗忘的祈祷者</t>
-  </si>
-  <si>
     <t>城南穷鬼赵四</t>
   </si>
   <si>
-    <t>归海异道</t>
-  </si>
-  <si>
-    <t>会跳舞的熊宝宝</t>
-  </si>
-  <si>
     <t>翁瑞婷</t>
   </si>
   <si>
-    <t>唯声丶丶</t>
-  </si>
-  <si>
     <t>董汉卿</t>
   </si>
   <si>
@@ -543,33 +483,18 @@
     <t>久成病</t>
   </si>
   <si>
-    <t>君挽言</t>
-  </si>
-  <si>
     <t>东北枭雄赵本山</t>
   </si>
   <si>
     <t>武藏野剑太</t>
   </si>
   <si>
-    <t>不灭死神</t>
-  </si>
-  <si>
     <t>帝君虹</t>
   </si>
   <si>
-    <t>纳兰柔弱</t>
-  </si>
-  <si>
     <t>孤影惊残梦</t>
   </si>
   <si>
-    <t>倚楼听風</t>
-  </si>
-  <si>
-    <t>唐雪棠</t>
-  </si>
-  <si>
     <t>裴述</t>
   </si>
   <si>
@@ -591,48 +516,30 @@
     <t>咸鱼天香</t>
   </si>
   <si>
-    <t>小卤蛋丶</t>
-  </si>
-  <si>
     <t>我一直没有曾经</t>
   </si>
   <si>
     <t>雪域星空</t>
   </si>
   <si>
-    <t>寒抹</t>
-  </si>
-  <si>
     <t>凱蒂喵</t>
   </si>
   <si>
-    <t>大岛遥香</t>
-  </si>
-  <si>
     <t>姬如影</t>
   </si>
   <si>
-    <t>回忆不曾悲伤</t>
-  </si>
-  <si>
     <t>棒棒噠</t>
   </si>
   <si>
     <t>任离流</t>
   </si>
   <si>
-    <t>小叮咚姣姣</t>
-  </si>
-  <si>
     <t>凡人的梦</t>
   </si>
   <si>
     <t>方得始終</t>
   </si>
   <si>
-    <t>千雪冰鳳</t>
-  </si>
-  <si>
     <t>潇懿风</t>
   </si>
   <si>
@@ -642,54 +549,30 @@
     <t>仁剑震音扬</t>
   </si>
   <si>
-    <t>茗爷</t>
-  </si>
-  <si>
-    <t>嗯哼丶一刀</t>
-  </si>
-  <si>
     <t>放肆流逝的年华</t>
   </si>
   <si>
     <t>氹萌萌</t>
   </si>
   <si>
-    <t>杂粮煎饼</t>
-  </si>
-  <si>
-    <t>文大飞</t>
-  </si>
-  <si>
     <t>晚风与你灬</t>
   </si>
   <si>
-    <t>清弦</t>
-  </si>
-  <si>
     <t>似有若无</t>
   </si>
   <si>
     <t>闻素问</t>
   </si>
   <si>
-    <t>Puppet丶半心人</t>
-  </si>
-  <si>
     <t>蚩尤魔人</t>
   </si>
   <si>
-    <t>kingdan</t>
-  </si>
-  <si>
     <t>南宫元</t>
   </si>
   <si>
     <t>雪糕失望</t>
   </si>
   <si>
-    <t>云紫涵</t>
-  </si>
-  <si>
     <t>离殇天丶</t>
   </si>
   <si>
@@ -705,30 +588,12 @@
     <t>火之鸟</t>
   </si>
   <si>
-    <t>反正我是最小的</t>
-  </si>
-  <si>
-    <t>女神绘梨衣</t>
-  </si>
-  <si>
-    <t>我曰你外爷吃翔</t>
-  </si>
-  <si>
     <t>笛梦一秋</t>
   </si>
   <si>
-    <t>阡小陌</t>
-  </si>
-  <si>
     <t>風云</t>
   </si>
   <si>
-    <t>洛枳丶</t>
-  </si>
-  <si>
-    <t>浅笑一下</t>
-  </si>
-  <si>
     <t>魅丿无情</t>
   </si>
   <si>
@@ -738,18 +603,12 @@
     <t>轻笑忘</t>
   </si>
   <si>
-    <t>随你几时丶</t>
-  </si>
-  <si>
     <t>楪夢</t>
   </si>
   <si>
     <t>红颜痴情笑</t>
   </si>
   <si>
-    <t>月华司</t>
-  </si>
-  <si>
     <t>就叫玫瑰吧</t>
   </si>
   <si>
@@ -762,9 +621,6 @@
     <t>慕容媚</t>
   </si>
   <si>
-    <t>思念永远美好</t>
-  </si>
-  <si>
     <t>刃歌</t>
   </si>
   <si>
@@ -840,18 +696,12 @@
     <t>东风路大狗蛋</t>
   </si>
   <si>
-    <t>宴渊</t>
-  </si>
-  <si>
     <t>女神、</t>
   </si>
   <si>
     <t>伐青</t>
   </si>
   <si>
-    <t>擎天、、</t>
-  </si>
-  <si>
     <t>最可爱的师姐</t>
   </si>
   <si>
@@ -867,12 +717,6 @@
     <t>剣殊雨寒丶</t>
   </si>
   <si>
-    <t>曾经的麻辣</t>
-  </si>
-  <si>
-    <t>周晓默</t>
-  </si>
-  <si>
     <t>何月凡</t>
   </si>
   <si>
@@ -894,9 +738,6 @@
     <t>帅气无敌康爸爸</t>
   </si>
   <si>
-    <t>疾风嗍</t>
-  </si>
-  <si>
     <t>小兔兔几</t>
   </si>
   <si>
@@ -909,9 +750,6 @@
     <t>二瞳</t>
   </si>
   <si>
-    <t>商岚研</t>
-  </si>
-  <si>
     <t>转身落尽空城泪</t>
   </si>
   <si>
@@ -921,12 +759,6 @@
     <t>马来西亚的咪咪</t>
   </si>
   <si>
-    <t>分分钟的等待</t>
-  </si>
-  <si>
-    <t>逸雅星</t>
-  </si>
-  <si>
     <t>顾寻清</t>
   </si>
   <si>
@@ -951,9 +783,6 @@
     <t>说谎的男孩</t>
   </si>
   <si>
-    <t>夜刃劫</t>
-  </si>
-  <si>
     <t>一丿登</t>
   </si>
   <si>
@@ -969,27 +798,18 @@
     <t>七情剑伶慕容英</t>
   </si>
   <si>
-    <t>入梦落樱满熏香</t>
-  </si>
-  <si>
     <t>白析</t>
   </si>
   <si>
     <t>炖猪肘丶</t>
   </si>
   <si>
-    <t>咖喱丶</t>
-  </si>
-  <si>
     <t>冷晓汐灬</t>
   </si>
   <si>
     <t>歌风路丶三狗蛋</t>
   </si>
   <si>
-    <t>潇湘灬墨染</t>
-  </si>
-  <si>
     <t>柒果果</t>
   </si>
   <si>
@@ -1017,36 +837,15 @@
     <t>妄于</t>
   </si>
   <si>
-    <t>满分</t>
-  </si>
-  <si>
     <t>阿翔翔</t>
   </si>
   <si>
-    <t>萧尧</t>
-  </si>
-  <si>
     <t>煌煌</t>
   </si>
   <si>
-    <t>思贤</t>
-  </si>
-  <si>
-    <t>风吹裤衩鸡鸡甩</t>
-  </si>
-  <si>
-    <t>气质绝非偶然</t>
-  </si>
-  <si>
     <t>五六柒</t>
   </si>
   <si>
-    <t>可可咔</t>
-  </si>
-  <si>
-    <t>我要小萝莉</t>
-  </si>
-  <si>
     <t>黑寡妇的小胸罩</t>
   </si>
   <si>
@@ -1077,21 +876,12 @@
     <t>Sunnyboy丶桔子</t>
   </si>
   <si>
-    <t>灼眼的厦娜</t>
-  </si>
-  <si>
     <t>苏樰</t>
   </si>
   <si>
-    <t>等风与你</t>
-  </si>
-  <si>
     <t>剑护灬霓裳</t>
   </si>
   <si>
-    <t>半雨慕苒晴暖夏</t>
-  </si>
-  <si>
     <t>千樽雪</t>
   </si>
   <si>
@@ -1101,9 +891,6 @@
     <t>章鱼宝宝</t>
   </si>
   <si>
-    <t>＂子墨</t>
-  </si>
-  <si>
     <t>聂人王</t>
   </si>
   <si>
@@ -1122,9 +909,6 @@
     <t>偷得浮珄半日闲</t>
   </si>
   <si>
-    <t>態小白</t>
-  </si>
-  <si>
     <t>回头我就在身后</t>
   </si>
   <si>
@@ -1134,12 +918,6 @@
     <t>壕坑</t>
   </si>
   <si>
-    <t>傾城灬妖娆</t>
-  </si>
-  <si>
-    <t>、陌上看花</t>
-  </si>
-  <si>
     <t>冷非颜</t>
   </si>
   <si>
@@ -1161,9 +939,6 @@
     <t>丿Muc丨君丶陌</t>
   </si>
   <si>
-    <t>别说吻我</t>
-  </si>
-  <si>
     <t>暖心城</t>
   </si>
   <si>
@@ -1173,24 +948,12 @@
     <t>独孤杀生</t>
   </si>
   <si>
-    <t>乔峰1987</t>
-  </si>
-  <si>
     <t>钟离三昧</t>
   </si>
   <si>
-    <t>鸟食</t>
-  </si>
-  <si>
     <t>梦中、有你</t>
   </si>
   <si>
-    <t>闲卿丶</t>
-  </si>
-  <si>
-    <t>风影</t>
-  </si>
-  <si>
     <t>古手梨花sama</t>
   </si>
   <si>
@@ -1221,15 +984,6 @@
     <t>凉山伯</t>
   </si>
   <si>
-    <t>落雨晴天</t>
-  </si>
-  <si>
-    <t>伊莉雅苏菲尔</t>
-  </si>
-  <si>
-    <t>顾白意</t>
-  </si>
-  <si>
     <t>荆轲已逝高渐离</t>
   </si>
   <si>
@@ -1266,9 +1020,6 @@
     <t>机智勇敢的小月</t>
   </si>
   <si>
-    <t>秋断愁</t>
-  </si>
-  <si>
     <t>秋风落叶梦还京</t>
   </si>
   <si>
@@ -1290,18 +1041,12 @@
     <t>墨韵玄风</t>
   </si>
   <si>
-    <t>然後怎樣</t>
-  </si>
-  <si>
     <t>羽洛剑</t>
   </si>
   <si>
     <t>安好晴天</t>
   </si>
   <si>
-    <t>蝶舞见花红</t>
-  </si>
-  <si>
     <t>狄万钧</t>
   </si>
   <si>
@@ -1311,18 +1056,9 @@
     <t>暮小曦丶</t>
   </si>
   <si>
-    <t>欧阳少琴</t>
-  </si>
-  <si>
     <t>丐帮汪剑通</t>
   </si>
   <si>
-    <t>懒小孩</t>
-  </si>
-  <si>
-    <t>花花小小师妹</t>
-  </si>
-  <si>
     <t>太白洗衣液</t>
   </si>
   <si>
@@ -1332,12 +1068,6 @@
     <t>胡大力</t>
   </si>
   <si>
-    <t>风舞雩</t>
-  </si>
-  <si>
-    <t>墨染樱飞</t>
-  </si>
-  <si>
     <t>曲终无意</t>
   </si>
   <si>
@@ -1365,9 +1095,6 @@
     <t>唐门仐少</t>
   </si>
   <si>
-    <t>天山搜魂手</t>
-  </si>
-  <si>
     <t>天使二号</t>
   </si>
   <si>
@@ -1380,51 +1107,24 @@
     <t>苍昊天</t>
   </si>
   <si>
-    <t>几度度丶</t>
-  </si>
-  <si>
-    <t>那一剣的風情</t>
-  </si>
-  <si>
     <t>ジSunshineづ</t>
   </si>
   <si>
     <t>白素。</t>
   </si>
   <si>
-    <t>轩可儿</t>
-  </si>
-  <si>
-    <t>天舞灬灬小贱贱</t>
-  </si>
-  <si>
     <t>贺馨馨</t>
   </si>
   <si>
-    <t>波大洞深</t>
-  </si>
-  <si>
-    <t>匆匆过往</t>
-  </si>
-  <si>
-    <t>苦海起爱恨</t>
-  </si>
-  <si>
     <t>贺兰丶宁儿</t>
   </si>
   <si>
     <t>冷冰冰的喵喵酱</t>
   </si>
   <si>
-    <t>大哥叫我来巡山</t>
-  </si>
-  <si>
     <t>范二一样的男子</t>
   </si>
   <si>
-    <t>武天泽</t>
-  </si>
-  <si>
     <t>箫剑刃</t>
   </si>
   <si>
@@ -1449,18 +1149,9 @@
     <t>永恒永远十八岁</t>
   </si>
   <si>
-    <t>夏小露露</t>
-  </si>
-  <si>
     <t>结緣丶</t>
   </si>
   <si>
-    <t>洋洋洋小粗腿</t>
-  </si>
-  <si>
-    <t>守望先疯</t>
-  </si>
-  <si>
     <t>丨快到碗里来</t>
   </si>
   <si>
@@ -1497,87 +1188,45 @@
     <t>江山难改丶洛</t>
   </si>
   <si>
-    <t>凯</t>
-  </si>
-  <si>
     <t>夜白衣</t>
   </si>
   <si>
     <t>杨光</t>
   </si>
   <si>
-    <t>刺眼的骄阳</t>
-  </si>
-  <si>
     <t>不败才是姿态</t>
   </si>
   <si>
     <t>一人一枪闯九州</t>
   </si>
   <si>
-    <t>一块腹肌的阿明</t>
-  </si>
-  <si>
     <t>拌蠢蠢</t>
   </si>
   <si>
-    <t>郭蝈蝈</t>
-  </si>
-  <si>
     <t>曾岀山</t>
   </si>
   <si>
     <t>我是曾哥罩的</t>
   </si>
   <si>
-    <t>枕头君</t>
-  </si>
-  <si>
-    <t>后来的你还好吗</t>
-  </si>
-  <si>
-    <t>曾許諾</t>
-  </si>
-  <si>
     <t>沐念蓉</t>
   </si>
   <si>
     <t>酒倾轻竹影</t>
   </si>
   <si>
-    <t>慕容馨月</t>
-  </si>
-  <si>
-    <t>小萌萌宇</t>
-  </si>
-  <si>
-    <t>董阡墨</t>
-  </si>
-  <si>
     <t>陌上花开丶彦</t>
   </si>
   <si>
     <t>不再不在不在</t>
   </si>
   <si>
-    <t>梨七七</t>
-  </si>
-  <si>
     <t>傲气孤狼</t>
   </si>
   <si>
     <t>Mn丶猫猫君</t>
   </si>
   <si>
-    <t>狂风一剑斩</t>
-  </si>
-  <si>
-    <t>逍遥乀斌斌</t>
-  </si>
-  <si>
-    <t>一瞬寂灭流</t>
-  </si>
-  <si>
     <t>你好丶呆萌</t>
   </si>
   <si>
@@ -1590,24 +1239,15 @@
     <t>舞花丶弄剑</t>
   </si>
   <si>
-    <t>叶菲红</t>
-  </si>
-  <si>
     <t>蛋蛋疍</t>
   </si>
   <si>
     <t>咲冭陽</t>
   </si>
   <si>
-    <t>穆琪</t>
-  </si>
-  <si>
     <t>楼踌曙楼</t>
   </si>
   <si>
-    <t>莺阙斯亭丶</t>
-  </si>
-  <si>
     <t>洛小洛丶</t>
   </si>
   <si>
@@ -1617,9 +1257,6 @@
     <t>青梅淡煮酒</t>
   </si>
   <si>
-    <t>王小槑</t>
-  </si>
-  <si>
     <t>丘丘欣荣</t>
   </si>
   <si>
@@ -1650,21 +1287,9 @@
     <t>青骢绝骑塑天荒</t>
   </si>
   <si>
-    <t>茗一糖</t>
-  </si>
-  <si>
-    <t>茉莉奈酱</t>
-  </si>
-  <si>
     <t>风悦丶千雪</t>
   </si>
   <si>
-    <t>关节炎</t>
-  </si>
-  <si>
-    <t>付灼夭</t>
-  </si>
-  <si>
     <t>一叶知秋づ</t>
   </si>
   <si>
@@ -1674,9 +1299,6 @@
     <t>李破风</t>
   </si>
   <si>
-    <t>古凌逝烟</t>
-  </si>
-  <si>
     <t>易小川</t>
   </si>
   <si>
@@ -1686,15 +1308,9 @@
     <t>西北峰</t>
   </si>
   <si>
-    <t>格殺</t>
-  </si>
-  <si>
     <t>封思绝</t>
   </si>
   <si>
-    <t>长枪和菊花</t>
-  </si>
-  <si>
     <t>百陵</t>
   </si>
   <si>
@@ -1704,9 +1320,6 @@
     <t>太阳骑士炮灰</t>
   </si>
   <si>
-    <t>雪痴</t>
-  </si>
-  <si>
     <t>职业副本香</t>
   </si>
   <si>
@@ -1722,9 +1335,6 @@
     <t>顾奈丶</t>
   </si>
   <si>
-    <t>丰暮歌</t>
-  </si>
-  <si>
     <t>烈凝风</t>
   </si>
   <si>
@@ -1734,9 +1344,6 @@
     <t>代奕凡</t>
   </si>
   <si>
-    <t>唐伶悠</t>
-  </si>
-  <si>
     <t>灬羲雪灬</t>
   </si>
   <si>
@@ -1746,46 +1353,481 @@
     <t>我将浪荡天下</t>
   </si>
   <si>
-    <t>若云谣</t>
-  </si>
-  <si>
-    <t>魔芸魅</t>
-  </si>
-  <si>
-    <t>可可毛儿</t>
-  </si>
-  <si>
-    <t>火炎焚</t>
-  </si>
-  <si>
     <t>汜水深渊</t>
   </si>
   <si>
     <t>洛天岚</t>
   </si>
   <si>
-    <t>丐帮</t>
-  </si>
-  <si>
-    <t>翔予</t>
-  </si>
-  <si>
-    <t>刀客</t>
-  </si>
-  <si>
-    <t>唐舞</t>
-  </si>
-  <si>
-    <t>萧四无</t>
-  </si>
-  <si>
-    <t>套套</t>
-  </si>
-  <si>
-    <t>奶小牛</t>
-  </si>
-  <si>
-    <t>山高</t>
+    <t>初馨</t>
+  </si>
+  <si>
+    <t>虎皮喵大人丶</t>
+  </si>
+  <si>
+    <t>务必叫我欧皇</t>
+  </si>
+  <si>
+    <t>梅雨天丶</t>
+  </si>
+  <si>
+    <t>祝踏峦</t>
+  </si>
+  <si>
+    <t>阿茶君</t>
+  </si>
+  <si>
+    <t>笑看浮华红尘事</t>
+  </si>
+  <si>
+    <t>颂碑寒</t>
+  </si>
+  <si>
+    <t>雍和、</t>
+  </si>
+  <si>
+    <t>妖鹰刀</t>
+  </si>
+  <si>
+    <t>丷夜礼服假面灬</t>
+  </si>
+  <si>
+    <t>至少我还有梦丷</t>
+  </si>
+  <si>
+    <t>贫道只是个道姑</t>
+  </si>
+  <si>
+    <t>范范吃西瓜</t>
+  </si>
+  <si>
+    <t>洛千觞</t>
+  </si>
+  <si>
+    <t>超人不会飞〃</t>
+  </si>
+  <si>
+    <t>碧月飞星箭</t>
+  </si>
+  <si>
+    <t>叶攸寜</t>
+  </si>
+  <si>
+    <t>首领之傲毛润之</t>
+  </si>
+  <si>
+    <t>语丶殇</t>
+  </si>
+  <si>
+    <t>∮天下第一刀</t>
+  </si>
+  <si>
+    <t>丧尸杀手金克斯</t>
+  </si>
+  <si>
+    <t>仰柏书</t>
+  </si>
+  <si>
+    <t>苍之霜雪</t>
+  </si>
+  <si>
+    <t>小针尖</t>
+  </si>
+  <si>
+    <t>西门下血</t>
+  </si>
+  <si>
+    <t>上官凌仙</t>
+  </si>
+  <si>
+    <t>万年孤独</t>
+  </si>
+  <si>
+    <t>墨羽丶离殇</t>
+  </si>
+  <si>
+    <t>拾勾枯爬尖</t>
+  </si>
+  <si>
+    <t>窦乔博</t>
+  </si>
+  <si>
+    <t>木希紫酱</t>
+  </si>
+  <si>
+    <t>元气小石十</t>
+  </si>
+  <si>
+    <t>Actors丶纤旧</t>
+  </si>
+  <si>
+    <t>楚歌谣</t>
+  </si>
+  <si>
+    <t>Aricher丶貂蝉</t>
+  </si>
+  <si>
+    <t>凝眸丶忆曲彡</t>
+  </si>
+  <si>
+    <t>十四灬氵</t>
+  </si>
+  <si>
+    <t>苏洛伊</t>
+  </si>
+  <si>
+    <t>夜冥雪</t>
+  </si>
+  <si>
+    <t>天刀小师妹—</t>
+  </si>
+  <si>
+    <t>刀之芳华</t>
+  </si>
+  <si>
+    <t>好想告诉伱</t>
+  </si>
+  <si>
+    <t>枯葉丷为谁落</t>
+  </si>
+  <si>
+    <t>诗億</t>
+  </si>
+  <si>
+    <t>撕扯出的結鋦</t>
+  </si>
+  <si>
+    <t>丘森森</t>
+  </si>
+  <si>
+    <t>赤月染红尘</t>
+  </si>
+  <si>
+    <t>且闻故琴</t>
+  </si>
+  <si>
+    <t>风袅纂烟</t>
+  </si>
+  <si>
+    <t>叶枫刃</t>
+  </si>
+  <si>
+    <t>霜雪寒梅</t>
+  </si>
+  <si>
+    <t>当年的我</t>
+  </si>
+  <si>
+    <t>寇仲灬</t>
+  </si>
+  <si>
+    <t>凋零之光</t>
+  </si>
+  <si>
+    <t>冉灬子墨</t>
+  </si>
+  <si>
+    <t>佛楼蜜</t>
+  </si>
+  <si>
+    <t>这刀用砍</t>
+  </si>
+  <si>
+    <t>懒扶赋役</t>
+  </si>
+  <si>
+    <t>繁华若梦似流年</t>
+  </si>
+  <si>
+    <t>横扫八荒我为王</t>
+  </si>
+  <si>
+    <t>卢大勇</t>
+  </si>
+  <si>
+    <t>玄灬醉红尘</t>
+  </si>
+  <si>
+    <t>水红芍</t>
+  </si>
+  <si>
+    <t>冬瓜小荞</t>
+  </si>
+  <si>
+    <t>姜紫风</t>
+  </si>
+  <si>
+    <t>猫球不是毛球</t>
+  </si>
+  <si>
+    <t>冉灬子灬墨</t>
+  </si>
+  <si>
+    <t>一子漾一</t>
+  </si>
+  <si>
+    <t>傻比羊驼</t>
+  </si>
+  <si>
+    <t>蒙扎觅柔</t>
+  </si>
+  <si>
+    <t>太白三圣</t>
+  </si>
+  <si>
+    <t>伊念之间</t>
+  </si>
+  <si>
+    <t>黑崎—护</t>
+  </si>
+  <si>
+    <t>小马的天</t>
+  </si>
+  <si>
+    <t>有情天亦老</t>
+  </si>
+  <si>
+    <t>撸小姐</t>
+  </si>
+  <si>
+    <t>是轻狂</t>
+  </si>
+  <si>
+    <t>南邦佳人呀</t>
+  </si>
+  <si>
+    <t>Smile海绵宝宝</t>
+  </si>
+  <si>
+    <t>o。o</t>
+  </si>
+  <si>
+    <t>猴上去了</t>
+  </si>
+  <si>
+    <t>柠檬雪碧、</t>
+  </si>
+  <si>
+    <t>Lonely丶骚男</t>
+  </si>
+  <si>
+    <t>水湄黛千山</t>
+  </si>
+  <si>
+    <t>毅生有妮丶</t>
+  </si>
+  <si>
+    <t>盲侠李青</t>
+  </si>
+  <si>
+    <t>胡泉款</t>
+  </si>
+  <si>
+    <t>总有刁民要揍朕</t>
+  </si>
+  <si>
+    <t>叶天簌</t>
+  </si>
+  <si>
+    <t>烂心</t>
+  </si>
+  <si>
+    <t>吾寄愁心与明月</t>
+  </si>
+  <si>
+    <t>神她吗</t>
+  </si>
+  <si>
+    <t>距离</t>
+  </si>
+  <si>
+    <t>√蓝莓巧克力丶</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>舞水</t>
+  </si>
+  <si>
+    <t>刀无回</t>
+  </si>
+  <si>
+    <t>画摟他暖</t>
+  </si>
+  <si>
+    <t>单纯的益达</t>
+  </si>
+  <si>
+    <t>丶公子影</t>
+  </si>
+  <si>
+    <t>千觞丶醉酒</t>
+  </si>
+  <si>
+    <t>灭世狂雷</t>
+  </si>
+  <si>
+    <t>浅歌丶濢曦轻衣</t>
+  </si>
+  <si>
+    <t>东门朗魂</t>
+  </si>
+  <si>
+    <t>万俟独秋乄</t>
+  </si>
+  <si>
+    <t>龙一萧</t>
+  </si>
+  <si>
+    <t>黑长直非所爱</t>
+  </si>
+  <si>
+    <t>可可菌</t>
+  </si>
+  <si>
+    <t>染琴</t>
+  </si>
+  <si>
+    <t>奥利奥。巧轻脆</t>
+  </si>
+  <si>
+    <t>乀故纸生花</t>
+  </si>
+  <si>
+    <t>龍父</t>
+  </si>
+  <si>
+    <t>冷无情丶天</t>
+  </si>
+  <si>
+    <t>牛奶小生丶</t>
+  </si>
+  <si>
+    <t>Needle</t>
+  </si>
+  <si>
+    <t>一见潮哥堕红尘</t>
+  </si>
+  <si>
+    <t>齿虎</t>
+  </si>
+  <si>
+    <t>笑魔剑</t>
+  </si>
+  <si>
+    <t>可乐丶小琴琴</t>
+  </si>
+  <si>
+    <t>我纯文字</t>
+  </si>
+  <si>
+    <t>神少昊</t>
+  </si>
+  <si>
+    <t>秋叶微寒</t>
+  </si>
+  <si>
+    <t>暮雪醉逍遥</t>
+  </si>
+  <si>
+    <t>梦菲琉璃</t>
+  </si>
+  <si>
+    <t>箫中剑丶</t>
+  </si>
+  <si>
+    <t>神么刀</t>
+  </si>
+  <si>
+    <t>少华丶</t>
+  </si>
+  <si>
+    <t>丶若芷</t>
+  </si>
+  <si>
+    <t>我静静的躺赢</t>
+  </si>
+  <si>
+    <t>北巷不故</t>
+  </si>
+  <si>
+    <t>喝脉动割动脉</t>
+  </si>
+  <si>
+    <t>神荼夜</t>
+  </si>
+  <si>
+    <t>冷霜刃</t>
+  </si>
+  <si>
+    <t>浪迹小寿</t>
+  </si>
+  <si>
+    <t>经济探讨工</t>
+  </si>
+  <si>
+    <t>练武风化</t>
+  </si>
+  <si>
+    <t>徐海丶骚猪</t>
+  </si>
+  <si>
+    <t>浮雲悠遊</t>
+  </si>
+  <si>
+    <t>河北化药陈冠希</t>
+  </si>
+  <si>
+    <t>天机明月</t>
+  </si>
+  <si>
+    <t>懿锦丶</t>
+  </si>
+  <si>
+    <t>叶榖城</t>
+  </si>
+  <si>
+    <t>龍霸世</t>
+  </si>
+  <si>
+    <t>茕疚</t>
+  </si>
+  <si>
+    <t>醉念。</t>
+  </si>
+  <si>
+    <t>傲娇的臭雪碧</t>
+  </si>
+  <si>
+    <t>迟歌</t>
+  </si>
+  <si>
+    <t>一路天水</t>
+  </si>
+  <si>
+    <t>莫名就是喜欢你</t>
+  </si>
+  <si>
+    <t>懒丶羊羊</t>
+  </si>
+  <si>
+    <t>醉眼流觞</t>
+  </si>
+  <si>
+    <t>凹凸三三</t>
+  </si>
+  <si>
+    <t>几度</t>
+  </si>
+  <si>
+    <t>内涵</t>
+  </si>
+  <si>
+    <t>唐银</t>
+  </si>
+  <si>
+    <t>拍卖</t>
   </si>
   <si>
     <t>月下</t>
@@ -1794,10 +1836,19 @@
     <t>潇洒</t>
   </si>
   <si>
-    <t>童话</t>
-  </si>
-  <si>
-    <t>鹰老七</t>
+    <t>霭</t>
+  </si>
+  <si>
+    <t>那年</t>
+  </si>
+  <si>
+    <t>老七</t>
+  </si>
+  <si>
+    <t>天荒</t>
+  </si>
+  <si>
+    <t>寻清</t>
   </si>
   <si>
     <t>gold</t>
@@ -1806,88 +1857,64 @@
     <t>情儿</t>
   </si>
   <si>
+    <t>太极</t>
+  </si>
+  <si>
     <t>小官人</t>
   </si>
   <si>
-    <t>怒火</t>
-  </si>
-  <si>
-    <t>放肆流逝</t>
-  </si>
-  <si>
     <t>蛋蛋</t>
   </si>
   <si>
-    <t>九州</t>
-  </si>
-  <si>
-    <t>夜白衣</t>
-  </si>
-  <si>
-    <t>天蓝色</t>
-  </si>
-  <si>
-    <t>安好</t>
-  </si>
-  <si>
-    <t>忍野咩咩</t>
-  </si>
-  <si>
-    <t>小书生</t>
-  </si>
-  <si>
-    <t>拌蠢</t>
-  </si>
-  <si>
-    <t>树儿</t>
-  </si>
-  <si>
-    <t>凯贼</t>
-  </si>
-  <si>
-    <t>此情</t>
-  </si>
-  <si>
-    <t>男人应有的</t>
-  </si>
-  <si>
-    <t>竹影</t>
-  </si>
-  <si>
-    <t>等风</t>
-  </si>
-  <si>
-    <t>红着脸</t>
+    <t>花雨</t>
+  </si>
+  <si>
+    <t>屁股</t>
+  </si>
+  <si>
+    <t>口味</t>
+  </si>
+  <si>
+    <t>莲娜</t>
+  </si>
+  <si>
+    <t>兰兰</t>
+  </si>
+  <si>
+    <t>唐言</t>
+  </si>
+  <si>
+    <t>白衣</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>蠢蠢</t>
+  </si>
+  <si>
+    <t>无意</t>
+  </si>
+  <si>
+    <t>独孤</t>
+  </si>
+  <si>
+    <t>盖世</t>
   </si>
   <si>
     <t>花谢</t>
   </si>
   <si>
-    <t>荆轲已</t>
-  </si>
-  <si>
-    <t>猫猫</t>
-  </si>
-  <si>
-    <t>与尔同</t>
-  </si>
-  <si>
-    <t>古巷烟雨</t>
-  </si>
-  <si>
-    <t>大眼</t>
-  </si>
-  <si>
-    <t>小狼</t>
-  </si>
-  <si>
-    <t>我是天香</t>
-  </si>
-  <si>
-    <t>折扇</t>
-  </si>
-  <si>
-    <t>明年今日</t>
+    <t>凌渃</t>
+  </si>
+  <si>
+    <t>好人</t>
+  </si>
+  <si>
+    <t>大眼睛</t>
+  </si>
+  <si>
+    <t>明年</t>
   </si>
   <si>
     <t>梦觞</t>
@@ -1896,25 +1923,22 @@
     <t>浪迹</t>
   </si>
   <si>
-    <t>沐白</t>
-  </si>
-  <si>
-    <t>花兮兮</t>
-  </si>
-  <si>
-    <t>逍遥</t>
-  </si>
-  <si>
-    <t>逸尘</t>
+    <t>海棠</t>
+  </si>
+  <si>
+    <t>逐梦</t>
   </si>
   <si>
     <t>青丝</t>
   </si>
   <si>
-    <t>沐</t>
-  </si>
-  <si>
-    <t>十里红</t>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>AAA</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1974,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -2233,11 +2258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C585"/>
+  <dimension ref="A1:I598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,1565 +2270,1661 @@
     <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.140625" customWidth="1"/>
     <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>446</v>
       </c>
       <c r="C1" t="str">
-        <f t="shared" ref="C1:C64" si="0">VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
-        <v>丐帮萌主</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C1:C47" si="0">VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
+        <v>在下唐银</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>601</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>536</v>
+        <v>330</v>
       </c>
       <c r="C2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>何月凡</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>开封拍卖行</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>447</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>关翔予</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>月下魂兮</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>582</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>331</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>其实想玩刀客</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>框框</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>603</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>523</v>
+        <v>286</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>叶菡</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>潇洒仗剑天下</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>唐舞桐灬</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>薄霭</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>空虚公子萧四无</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>那年今若、</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>328</v>
+        <v>606</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>390</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>天下芒果</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>追风少年鹰老七</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>468</v>
+        <v>289</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>套套嗷呜</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>青骢绝骑塑天荒</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>奶小牛丶</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>顾寻清</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>587</v>
+        <v>609</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>山高丶木易</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>GoldㅈExperie</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>448</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>月下魂兮</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>倾舞情儿</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>599</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>172</v>
+        <v>291</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>框框</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>一个有内涵的人</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>598</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>173</v>
+        <v>292</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>水影悠兰</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>丿几度度丶</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>589</v>
+        <v>445</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>潇洒仗剑天下</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>590</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>童话话</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>墨韵轩华</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>611</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>449</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>紫雨幽雲</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>太极至尊</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>612</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>295</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>薄霭</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>八块腹肌小官人</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>追风少年鹰老七</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>蛋蛋疍</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>450</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>GoldㅈExperie</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>诸天花雨</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>421</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>万心忧</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>甄心</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>180</v>
+        <v>451</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>倾舞情儿</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>娇软の小屁股</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>616</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>墨韵轩华</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>口味太怪</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>181</v>
+        <v>297</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>八块腹肌小官人</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>乌莲娜</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="1" t="str">
+        <v>453</v>
+      </c>
+      <c r="C25" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>怒怒怒怒火</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>183</v>
+        <v>454</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>放肆流逝的年华</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>在下唐言</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>蛋蛋疍</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>夜白衣</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>621</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>乌莲娜</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>丶天蓝色</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>一人一枪闯九州</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>拌蠢蠢</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>夜白衣</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>曲终无意</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>188</v>
+        <v>389</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>丶天蓝色</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>独孤杀生</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>189</v>
+        <v>301</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>安好晴天</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>盖世呆头洋</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>190</v>
+        <v>455</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>丶忍野咩咩</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>花谢人凋零。</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>603</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>191</v>
+        <v>302</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>执劍小书生</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>鱼香</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>524</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>拌蠢蠢</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>凌渃尘</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>树儿高高长</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>只想做个好人</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>606</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>470</v>
+        <v>304</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>凯贼阔里</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>墨河</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>629</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>193</v>
+        <v>388</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>榕月</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>607</v>
+        <v>大眼睛秋秋</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>630</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>此情珂待</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>608</v>
+        <v>明年今日奕十年</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>631</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>471</v>
+        <v>306</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>男人应有的自豪</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>609</v>
+        <v>梦觞丶</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>632</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>525</v>
+        <v>456</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>酒倾轻竹影</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>610</v>
+        <v>浪迹小寿</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>633</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>等风与你</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>611</v>
+        <v>一直梨花压海棠</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>559</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>再见是否红着脸</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>破穿</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>612</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>花谢人凋零。</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>素蝶</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>196</v>
+        <v>307</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>荆轲已逝高渐离</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>雙生逐梦</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>鱼小小</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>零拾</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>408</v>
+        <v>635</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>526</v>
+        <v>308</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>鱼爸爸</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
+        <v>青丝枫凌</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>鱼香</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>614</v>
-      </c>
       <c r="B49" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mn丶猫猫君</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>615</v>
-      </c>
       <c r="B50" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>与尔同销萬古愁</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>630</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>616</v>
-      </c>
       <c r="B52" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>古巷烟雨断桥殇</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>105</v>
-      </c>
       <c r="B53" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>吕小栋</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>617</v>
-      </c>
       <c r="B54" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>大眼睛秋秋</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>618</v>
-      </c>
       <c r="B55" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>SouLmAte、小狼</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
       <c r="B56" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>异逍遥</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>619</v>
-      </c>
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>我是天香的啊</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>620</v>
-      </c>
       <c r="B58" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>621</v>
-      </c>
       <c r="B59" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>明年今日奕十年</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>622</v>
-      </c>
       <c r="B60" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>梦觞丶</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>629</v>
-      </c>
       <c r="B61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>沐浠尘</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>623</v>
-      </c>
       <c r="B62" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>浪迹小秦</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>624</v>
-      </c>
       <c r="B63" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>独孤沐白</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>53</v>
-      </c>
       <c r="B64" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>百里轩翊</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>625</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C65" s="1" t="str">
-        <f t="shared" ref="C65:C69" si="1">VLOOKUP("*"&amp;A65&amp;"*",B:B,1,0)</f>
-        <v>花兮兮兮兮</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>626</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>逍遥芙蕖</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>627</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C67" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>逸尘灬浮</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>113</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>零拾</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>628</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>青丝枫凌</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>214</v>
+        <v>461</v>
       </c>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>1</v>
+        <v>462</v>
       </c>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>216</v>
+        <v>393</v>
       </c>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>217</v>
+        <v>425</v>
       </c>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>530</v>
+        <v>28</v>
       </c>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>531</v>
+        <v>394</v>
       </c>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>561</v>
+        <v>319</v>
       </c>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>562</v>
+        <v>463</v>
       </c>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>532</v>
+        <v>426</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>218</v>
+        <v>427</v>
       </c>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>533</v>
+        <v>465</v>
       </c>
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>221</v>
+        <v>322</v>
       </c>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="C88" s="1"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>223</v>
+        <v>466</v>
       </c>
       <c r="C89" s="1"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="C91" s="1"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="C92" s="1"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>226</v>
+        <v>326</v>
       </c>
       <c r="C93" s="1"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>145</v>
+        <v>327</v>
       </c>
       <c r="C94" s="1"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="C95" s="1"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>58</v>
+        <v>468</v>
       </c>
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>478</v>
+        <v>332</v>
       </c>
       <c r="C101" s="1"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>231</v>
+        <v>438</v>
       </c>
       <c r="C102" s="1"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>54</v>
+        <v>333</v>
       </c>
       <c r="C103" s="1"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="C104" s="1"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>563</v>
+        <v>469</v>
       </c>
       <c r="C105" s="1"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>232</v>
+        <v>334</v>
       </c>
       <c r="C106" s="1"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>233</v>
+        <v>470</v>
       </c>
       <c r="C107" s="1"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>234</v>
+        <v>335</v>
       </c>
       <c r="C108" s="1"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>235</v>
+        <v>336</v>
       </c>
       <c r="C109" s="1"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>236</v>
+        <v>337</v>
       </c>
       <c r="C110" s="1"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>237</v>
+        <v>338</v>
       </c>
       <c r="C111" s="1"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="C112" s="1"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>239</v>
+        <v>35</v>
       </c>
       <c r="C113" s="1"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>70</v>
+        <v>341</v>
       </c>
       <c r="C115" s="1"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>241</v>
+        <v>471</v>
       </c>
       <c r="C116" s="1"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="C117" s="1"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>480</v>
+        <v>26</v>
       </c>
       <c r="C118" s="1"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="C119" s="1"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="C120" s="1"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>242</v>
+        <v>430</v>
       </c>
       <c r="C121" s="1"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>243</v>
+        <v>472</v>
       </c>
       <c r="C122" s="1"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="C123" s="1"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="C124" s="1"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>67</v>
+        <v>404</v>
       </c>
       <c r="C125" s="1"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>564</v>
+        <v>344</v>
       </c>
       <c r="C126" s="1"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>246</v>
+        <v>473</v>
       </c>
       <c r="C127" s="1"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>247</v>
+        <v>474</v>
       </c>
       <c r="C128" s="1"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>248</v>
+        <v>475</v>
       </c>
       <c r="C129" s="1"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>534</v>
+        <v>345</v>
       </c>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>565</v>
+        <v>476</v>
       </c>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>249</v>
+        <v>346</v>
       </c>
       <c r="C132" s="1"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>250</v>
+        <v>477</v>
       </c>
       <c r="C133" s="1"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="C134" s="1"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="C135" s="1"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>253</v>
+        <v>478</v>
       </c>
       <c r="C136" s="1"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>535</v>
+        <v>348</v>
       </c>
       <c r="C137" s="1"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>254</v>
+        <v>479</v>
       </c>
       <c r="C138" s="1"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>255</v>
+        <v>395</v>
       </c>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>165</v>
+        <v>349</v>
       </c>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>257</v>
+        <v>480</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>537</v>
+        <v>481</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>259</v>
+        <v>482</v>
       </c>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>260</v>
+        <v>351</v>
       </c>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>538</v>
+        <v>42</v>
       </c>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>261</v>
+        <v>483</v>
       </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>262</v>
+        <v>396</v>
       </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>11</v>
+        <v>385</v>
       </c>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>22</v>
+        <v>383</v>
       </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>15</v>
+        <v>484</v>
       </c>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="C154" s="1"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="C155" s="1"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="C156" s="1"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>541</v>
+        <v>50</v>
       </c>
       <c r="C157" s="1"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="C158" s="1"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="C159" s="1"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="C160" s="1"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C161" s="1"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C162" s="1"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="C163" s="1"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C164" s="1"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="C165" s="1"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>271</v>
+        <v>378</v>
       </c>
       <c r="C166" s="1"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C167" s="1"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="C168" s="1"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C169" s="1"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>481</v>
+        <v>226</v>
       </c>
       <c r="C170" s="1"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C171" s="1"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>274</v>
+        <v>379</v>
       </c>
       <c r="C172" s="1"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="C173" s="1"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="C174" s="1"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="C175" s="1"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>482</v>
+        <v>230</v>
       </c>
       <c r="C176" s="1"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>277</v>
+        <v>485</v>
       </c>
       <c r="C177" s="1"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="C178" s="1"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>279</v>
+        <v>418</v>
       </c>
       <c r="C179" s="1"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="C180" s="1"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="C181" s="1"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="C182" s="1"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="C183" s="1"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
-        <v>539</v>
+        <v>13</v>
       </c>
       <c r="C184" s="1"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
-        <v>284</v>
+        <v>380</v>
       </c>
       <c r="C185" s="1"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>285</v>
+        <v>486</v>
       </c>
       <c r="C186" s="1"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="C187" s="1"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="C188" s="1"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>483</v>
+        <v>235</v>
       </c>
       <c r="C189" s="1"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>286</v>
+        <v>488</v>
       </c>
       <c r="C190" s="1"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
-        <v>287</v>
+        <v>489</v>
       </c>
       <c r="C191" s="1"/>
     </row>
@@ -3816,2421 +3936,2432 @@
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>55</v>
+        <v>490</v>
       </c>
       <c r="C193" s="1"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
-        <v>288</v>
+        <v>55</v>
       </c>
       <c r="C194" s="1"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="C195" s="1"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
-        <v>19</v>
+        <v>491</v>
       </c>
       <c r="C196" s="1"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="C197" s="1"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C198" s="1"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="C199" s="1"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
-        <v>540</v>
+        <v>381</v>
       </c>
       <c r="C200" s="1"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="C201" s="1"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>293</v>
+        <v>493</v>
       </c>
       <c r="C202" s="1"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
-        <v>294</v>
+        <v>419</v>
       </c>
       <c r="C203" s="1"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
-        <v>295</v>
+        <v>494</v>
       </c>
       <c r="C204" s="1"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="C205" s="1"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="C206" s="1"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="C207" s="1"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="C208" s="1"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="C209" s="1"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>301</v>
+        <v>495</v>
       </c>
       <c r="C210" s="1"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="C211" s="1"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>303</v>
+        <v>496</v>
       </c>
       <c r="C212" s="1"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="C213" s="1"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>75</v>
+        <v>497</v>
       </c>
       <c r="C214" s="1"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="C215" s="1"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
-        <v>485</v>
+        <v>247</v>
       </c>
       <c r="C216" s="1"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>305</v>
+        <v>498</v>
       </c>
       <c r="C217" s="1"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="C218" s="1"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>307</v>
+        <v>73</v>
       </c>
       <c r="C219" s="1"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>488</v>
+        <v>67</v>
       </c>
       <c r="C220" s="1"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="C221" s="1"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="C222" s="1"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="C223" s="1"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="C224" s="1"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="C225" s="1"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="C226" s="1"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="C227" s="1"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>340</v>
+        <v>62</v>
       </c>
       <c r="C228" s="1"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="C229" s="1"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="C230" s="1"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>487</v>
+        <v>253</v>
       </c>
       <c r="C231" s="1"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="C232" s="1"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="C233" s="1"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C234" s="1"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="C235" s="1"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="C236" s="1"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
-        <v>319</v>
+        <v>499</v>
       </c>
       <c r="C237" s="1"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="C238" s="1"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="C239" s="1"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="C240" s="1"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
-        <v>322</v>
+        <v>23</v>
       </c>
       <c r="C241" s="1"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="C242" s="1"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="C243" s="1"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="C244" s="1"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="C245" s="1"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
-        <v>326</v>
+        <v>500</v>
       </c>
       <c r="C246" s="1"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="C247" s="1"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C248" s="1"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>327</v>
+        <v>501</v>
       </c>
       <c r="C249" s="1"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C250" s="1"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="C251" s="1"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>486</v>
+        <v>265</v>
       </c>
       <c r="C252" s="1"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="C253" s="1"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
-        <v>542</v>
+        <v>24</v>
       </c>
       <c r="C254" s="1"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="C255" s="1"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="C256" s="1"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="C257" s="1"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="C258" s="1"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>333</v>
+        <v>502</v>
       </c>
       <c r="C259" s="1"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C260" s="1"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>335</v>
+        <v>503</v>
       </c>
       <c r="C261" s="1"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="C262" s="1"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="C263" s="1"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="C264" s="1"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>263</v>
+        <v>504</v>
       </c>
       <c r="C265" s="1"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="C266" s="1"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>339</v>
+        <v>505</v>
       </c>
       <c r="C267" s="1"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>264</v>
+        <v>506</v>
       </c>
       <c r="C268" s="1"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="C269" s="1"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
-        <v>342</v>
+        <v>507</v>
       </c>
       <c r="C270" s="1"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
-        <v>343</v>
+        <v>508</v>
       </c>
       <c r="C271" s="1"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="C272" s="1"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>345</v>
+        <v>509</v>
       </c>
       <c r="C273" s="1"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="C274" s="1"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
-        <v>489</v>
+        <v>273</v>
       </c>
       <c r="C275" s="1"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
-        <v>347</v>
+        <v>14</v>
       </c>
       <c r="C276" s="1"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C277" s="1"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="C278" s="1"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="C279" s="1"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="C280" s="1"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="C281" s="1"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
-        <v>349</v>
+        <v>510</v>
       </c>
       <c r="C282" s="1"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C283" s="1"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="C284" s="1"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>352</v>
+        <v>280</v>
       </c>
       <c r="C285" s="1"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
-        <v>353</v>
+        <v>12</v>
       </c>
       <c r="C286" s="1"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>354</v>
+        <v>43</v>
       </c>
       <c r="C287" s="1"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>490</v>
+        <v>71</v>
       </c>
       <c r="C288" s="1"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C289" s="1"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>31</v>
+        <v>511</v>
       </c>
       <c r="C290" s="1"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="C291" s="1"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c r="C292" s="1"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
-        <v>418</v>
+        <v>283</v>
       </c>
       <c r="C293" s="1"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>364</v>
+        <v>284</v>
       </c>
       <c r="C294" s="1"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C295" s="1"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
-        <v>424</v>
+        <v>285</v>
       </c>
       <c r="C296" s="1"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
-        <v>362</v>
+        <v>512</v>
       </c>
       <c r="C297" s="1"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="C298" s="1"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>491</v>
+        <v>208</v>
       </c>
       <c r="C299" s="1"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>558</v>
+        <v>148</v>
       </c>
       <c r="C300" s="1"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C301" s="1"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
-        <v>566</v>
+        <v>149</v>
       </c>
       <c r="C302" s="1"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
-        <v>358</v>
+        <v>513</v>
       </c>
       <c r="C303" s="1"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
-        <v>494</v>
+        <v>150</v>
       </c>
       <c r="C304" s="1"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="C305" s="1"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="C306" s="1"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
-        <v>360</v>
+        <v>151</v>
       </c>
       <c r="C307" s="1"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
-        <v>361</v>
+        <v>515</v>
       </c>
       <c r="C308" s="1"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
-        <v>363</v>
+        <v>516</v>
       </c>
       <c r="C309" s="1"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="C310" s="1"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
-        <v>365</v>
+        <v>153</v>
       </c>
       <c r="C311" s="1"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>366</v>
+        <v>154</v>
       </c>
       <c r="C312" s="1"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="C313" s="1"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
-        <v>368</v>
+        <v>156</v>
       </c>
       <c r="C314" s="1"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="C315" s="1"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
-        <v>369</v>
+        <v>518</v>
       </c>
       <c r="C316" s="1"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="C317" s="1"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
-        <v>370</v>
+        <v>157</v>
       </c>
       <c r="C318" s="1"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
-        <v>371</v>
+        <v>519</v>
       </c>
       <c r="C319" s="1"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" s="1" t="s">
-        <v>372</v>
+        <v>158</v>
       </c>
       <c r="C320" s="1"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
-        <v>373</v>
+        <v>159</v>
       </c>
       <c r="C321" s="1"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
-        <v>374</v>
+        <v>160</v>
       </c>
       <c r="C322" s="1"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
-        <v>545</v>
+        <v>161</v>
       </c>
       <c r="C323" s="1"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="C324" s="1"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
-        <v>375</v>
+        <v>162</v>
       </c>
       <c r="C325" s="1"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
-        <v>376</v>
+        <v>163</v>
       </c>
       <c r="C326" s="1"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C327" s="1"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="C328" s="1"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
-        <v>378</v>
+        <v>165</v>
       </c>
       <c r="C329" s="1"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" s="1" t="s">
-        <v>492</v>
+        <v>406</v>
       </c>
       <c r="C330" s="1"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
-        <v>379</v>
+        <v>521</v>
       </c>
       <c r="C331" s="1"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C332" s="1"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
-        <v>381</v>
+        <v>522</v>
       </c>
       <c r="C333" s="1"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="C334" s="1"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
-        <v>546</v>
+        <v>371</v>
       </c>
       <c r="C335" s="1"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
-        <v>496</v>
+        <v>167</v>
       </c>
       <c r="C336" s="1"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" s="1" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="C337" s="1"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
-        <v>61</v>
+        <v>372</v>
       </c>
       <c r="C338" s="1"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" s="1" t="s">
-        <v>383</v>
+        <v>70</v>
       </c>
       <c r="C339" s="1"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
-        <v>384</v>
+        <v>168</v>
       </c>
       <c r="C340" s="1"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C341" s="1"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" s="1" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="C342" s="1"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
-        <v>386</v>
+        <v>170</v>
       </c>
       <c r="C343" s="1"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C344" s="1"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
-        <v>387</v>
+        <v>171</v>
       </c>
       <c r="C345" s="1"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="C346" s="1"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="C347" s="1"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
-        <v>388</v>
+        <v>173</v>
       </c>
       <c r="C348" s="1"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
-        <v>497</v>
+        <v>373</v>
       </c>
       <c r="C349" s="1"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350" s="1" t="s">
-        <v>498</v>
+        <v>174</v>
       </c>
       <c r="C350" s="1"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351" s="1" t="s">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="C351" s="1"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" s="1" t="s">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="C352" s="1"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="C353" s="1"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
-        <v>390</v>
+        <v>176</v>
       </c>
       <c r="C354" s="1"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C355" s="1"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" s="1" t="s">
-        <v>549</v>
+        <v>409</v>
       </c>
       <c r="C356" s="1"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
-        <v>392</v>
+        <v>525</v>
       </c>
       <c r="C357" s="1"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
-        <v>550</v>
+        <v>177</v>
       </c>
       <c r="C358" s="1"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" s="1" t="s">
-        <v>393</v>
+        <v>178</v>
       </c>
       <c r="C359" s="1"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
-        <v>394</v>
+        <v>526</v>
       </c>
       <c r="C360" s="1"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361" s="1" t="s">
-        <v>395</v>
+        <v>1</v>
       </c>
       <c r="C361" s="1"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362" s="1" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
       <c r="C362" s="1"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B363" s="1" t="s">
-        <v>396</v>
+        <v>179</v>
       </c>
       <c r="C363" s="1"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364" s="1" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="C364" s="1"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B365" s="1" t="s">
-        <v>499</v>
+        <v>410</v>
       </c>
       <c r="C365" s="1"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
-        <v>397</v>
+        <v>528</v>
       </c>
       <c r="C366" s="1"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="C367" s="1"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B368" s="1" t="s">
-        <v>551</v>
+        <v>432</v>
       </c>
       <c r="C368" s="1"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B369" s="1" t="s">
-        <v>28</v>
+        <v>433</v>
       </c>
       <c r="C369" s="1"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B370" s="1" t="s">
-        <v>501</v>
+        <v>411</v>
       </c>
       <c r="C370" s="1"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B371" s="1" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="C371" s="1"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372" s="1" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="C372" s="1"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373" s="1" t="s">
-        <v>399</v>
+        <v>531</v>
       </c>
       <c r="C373" s="1"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B374" s="1" t="s">
-        <v>400</v>
+        <v>181</v>
       </c>
       <c r="C374" s="1"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375" s="1" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C375" s="1"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376" s="1" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C376" s="1"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B377" s="1" t="s">
-        <v>402</v>
+        <v>183</v>
       </c>
       <c r="C377" s="1"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B378" s="1" t="s">
-        <v>403</v>
+        <v>184</v>
       </c>
       <c r="C378" s="1"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379" s="1" t="s">
-        <v>404</v>
+        <v>185</v>
       </c>
       <c r="C379" s="1"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380" s="1" t="s">
-        <v>405</v>
+        <v>533</v>
       </c>
       <c r="C380" s="1"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381" s="1" t="s">
-        <v>406</v>
+        <v>186</v>
       </c>
       <c r="C381" s="1"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B382" s="1" t="s">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="C382" s="1"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383" s="1" t="s">
-        <v>408</v>
+        <v>534</v>
       </c>
       <c r="C383" s="1"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B384" s="1" t="s">
-        <v>409</v>
+        <v>187</v>
       </c>
       <c r="C384" s="1"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B385" s="1" t="s">
-        <v>410</v>
+        <v>57</v>
       </c>
       <c r="C385" s="1"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B386" s="1" t="s">
-        <v>411</v>
+        <v>188</v>
       </c>
       <c r="C386" s="1"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387" s="1" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="C387" s="1"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388" s="1" t="s">
-        <v>413</v>
+        <v>536</v>
       </c>
       <c r="C388" s="1"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B389" s="1" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="C389" s="1"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B390" s="1" t="s">
-        <v>355</v>
+        <v>54</v>
       </c>
       <c r="C390" s="1"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391" s="1" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="C391" s="1"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B392" s="1" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="C392" s="1"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B393" s="1" t="s">
-        <v>568</v>
+        <v>189</v>
       </c>
       <c r="C393" s="1"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B394" s="1" t="s">
-        <v>416</v>
+        <v>190</v>
       </c>
       <c r="C394" s="1"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B395" s="1" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="C395" s="1"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B396" s="1" t="s">
-        <v>417</v>
+        <v>191</v>
       </c>
       <c r="C396" s="1"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="C397" s="1"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B398" s="1" t="s">
-        <v>419</v>
+        <v>192</v>
       </c>
       <c r="C398" s="1"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B399" s="1" t="s">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="C399" s="1"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400" s="1" t="s">
-        <v>421</v>
+        <v>541</v>
       </c>
       <c r="C400" s="1"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B401" s="1" t="s">
-        <v>422</v>
+        <v>542</v>
       </c>
       <c r="C401" s="1"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B402" s="1" t="s">
-        <v>423</v>
+        <v>193</v>
       </c>
       <c r="C402" s="1"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B403" s="1" t="s">
-        <v>35</v>
+        <v>543</v>
       </c>
       <c r="C403" s="1"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B404" s="1" t="s">
-        <v>503</v>
+        <v>194</v>
       </c>
       <c r="C404" s="1"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B405" s="1" t="s">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="C405" s="1"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B406" s="1" t="s">
-        <v>570</v>
+        <v>377</v>
       </c>
       <c r="C406" s="1"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B407" s="1" t="s">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="C407" s="1"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B408" s="1" t="s">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="C408" s="1"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
-        <v>427</v>
+        <v>195</v>
       </c>
       <c r="C409" s="1"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B410" s="1" t="s">
-        <v>556</v>
+        <v>196</v>
       </c>
       <c r="C410" s="1"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B411" s="1" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="C411" s="1"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
-        <v>428</v>
+        <v>544</v>
       </c>
       <c r="C412" s="1"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B413" s="1" t="s">
-        <v>557</v>
+        <v>198</v>
       </c>
       <c r="C413" s="1"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B414" s="1" t="s">
-        <v>543</v>
+        <v>66</v>
       </c>
       <c r="C414" s="1"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B415" s="1" t="s">
-        <v>65</v>
+        <v>545</v>
       </c>
       <c r="C415" s="1"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B416" s="1" t="s">
-        <v>37</v>
+        <v>435</v>
       </c>
       <c r="C416" s="1"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B417" s="1" t="s">
-        <v>429</v>
+        <v>546</v>
       </c>
       <c r="C417" s="1"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B418" s="1" t="s">
-        <v>430</v>
+        <v>199</v>
       </c>
       <c r="C418" s="1"/>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B419" s="1" t="s">
-        <v>431</v>
+        <v>547</v>
       </c>
       <c r="C419" s="1"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B420" s="1" t="s">
-        <v>432</v>
+        <v>200</v>
       </c>
       <c r="C420" s="1"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B421" s="1" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="C421" s="1"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422" s="1" t="s">
-        <v>434</v>
+        <v>548</v>
       </c>
       <c r="C422" s="1"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B423" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C423" s="1"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B424" s="1" t="s">
-        <v>436</v>
+        <v>201</v>
       </c>
       <c r="C424" s="1"/>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B425" s="1" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="C425" s="1"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B426" s="1" t="s">
-        <v>437</v>
+        <v>203</v>
       </c>
       <c r="C426" s="1"/>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B427" s="1" t="s">
-        <v>438</v>
+        <v>204</v>
       </c>
       <c r="C427" s="1"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B428" s="1" t="s">
-        <v>504</v>
+        <v>205</v>
       </c>
       <c r="C428" s="1"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B429" s="1" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="C429" s="1"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B430" s="1" t="s">
-        <v>439</v>
+        <v>550</v>
       </c>
       <c r="C430" s="1"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B431" s="1" t="s">
-        <v>440</v>
+        <v>551</v>
       </c>
       <c r="C431" s="1"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B432" s="1" t="s">
-        <v>441</v>
+        <v>552</v>
       </c>
       <c r="C432" s="1"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B433" s="1" t="s">
-        <v>42</v>
+        <v>414</v>
       </c>
       <c r="C433" s="1"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B434" s="1" t="s">
-        <v>506</v>
+        <v>206</v>
       </c>
       <c r="C434" s="1"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B435" s="1" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="C435" s="1"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B436" s="1" t="s">
-        <v>110</v>
+        <v>415</v>
       </c>
       <c r="C436" s="1"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B437" s="1" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="C437" s="1"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B438" s="1" t="s">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="C438" s="1"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B439" s="1" t="s">
-        <v>516</v>
+        <v>553</v>
       </c>
       <c r="C439" s="1"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B440" s="1" t="s">
-        <v>51</v>
+        <v>554</v>
       </c>
       <c r="C440" s="1"/>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B441" s="1" t="s">
-        <v>143</v>
+        <v>416</v>
       </c>
       <c r="C441" s="1"/>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="C442" s="1"/>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B443" s="1" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="C443" s="1"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
-        <v>443</v>
+        <v>555</v>
       </c>
       <c r="C444" s="1"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B445" s="1" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="C445" s="1"/>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B446" s="1" t="s">
-        <v>87</v>
+        <v>556</v>
       </c>
       <c r="C446" s="1"/>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B447" s="1" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="C447" s="1"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
-        <v>445</v>
+        <v>214</v>
       </c>
       <c r="C448" s="1"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B449" s="1" t="s">
-        <v>89</v>
+        <v>557</v>
       </c>
       <c r="C449" s="1"/>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B450" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C450" s="1"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B451" s="1" t="s">
-        <v>91</v>
+        <v>558</v>
       </c>
       <c r="C451" s="1"/>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B452" s="1" t="s">
-        <v>507</v>
+        <v>82</v>
       </c>
       <c r="C452" s="1"/>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B453" s="1" t="s">
-        <v>508</v>
+        <v>83</v>
       </c>
       <c r="C453" s="1"/>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B454" s="1" t="s">
-        <v>92</v>
+        <v>559</v>
       </c>
       <c r="C454" s="1"/>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B455" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C455" s="1"/>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B456" s="1" t="s">
-        <v>94</v>
+        <v>353</v>
       </c>
       <c r="C456" s="1"/>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B457" s="1" t="s">
-        <v>446</v>
+        <v>354</v>
       </c>
       <c r="C457" s="1"/>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B458" s="1" t="s">
-        <v>95</v>
+        <v>560</v>
       </c>
       <c r="C458" s="1"/>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B459" s="1" t="s">
-        <v>509</v>
+        <v>85</v>
       </c>
       <c r="C459" s="1"/>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B460" s="1" t="s">
-        <v>571</v>
+        <v>86</v>
       </c>
       <c r="C460" s="1"/>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B461" s="1" t="s">
-        <v>96</v>
+        <v>355</v>
       </c>
       <c r="C461" s="1"/>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B462" s="1" t="s">
-        <v>510</v>
+        <v>87</v>
       </c>
       <c r="C462" s="1"/>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B463" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C463" s="1"/>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B464" s="1" t="s">
-        <v>511</v>
+        <v>561</v>
       </c>
       <c r="C464" s="1"/>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B465" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C465" s="1"/>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B466" s="1" t="s">
-        <v>98</v>
+        <v>562</v>
       </c>
       <c r="C466" s="1"/>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B467" s="1" t="s">
-        <v>447</v>
+        <v>563</v>
       </c>
       <c r="C467" s="1"/>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B468" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C468" s="1"/>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B469" s="1" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C469" s="1"/>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B470" s="1" t="s">
-        <v>100</v>
+        <v>564</v>
       </c>
       <c r="C470" s="1"/>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B471" s="1" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="C471" s="1"/>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B472" s="1" t="s">
-        <v>448</v>
+        <v>356</v>
       </c>
       <c r="C472" s="1"/>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B473" s="1" t="s">
-        <v>101</v>
+        <v>565</v>
       </c>
       <c r="C473" s="1"/>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B474" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C474" s="1"/>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B475" s="1" t="s">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="C475" s="1"/>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B476" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C476" s="1"/>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B477" s="1" t="s">
-        <v>66</v>
+        <v>397</v>
       </c>
       <c r="C477" s="1"/>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B478" s="1" t="s">
-        <v>513</v>
+        <v>566</v>
       </c>
       <c r="C478" s="1"/>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B479" s="1" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C479" s="1"/>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B480" s="1" t="s">
-        <v>104</v>
+        <v>398</v>
       </c>
       <c r="C480" s="1"/>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B481" s="1" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="C481" s="1"/>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B482" s="1" t="s">
-        <v>572</v>
+        <v>95</v>
       </c>
       <c r="C482" s="1"/>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B483" s="1" t="s">
-        <v>449</v>
+        <v>567</v>
       </c>
       <c r="C483" s="1"/>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B484" s="1" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C484" s="1"/>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B485" s="1" t="s">
-        <v>514</v>
+        <v>96</v>
       </c>
       <c r="C485" s="1"/>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B486" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C486" s="1"/>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B487" s="1" t="s">
-        <v>442</v>
+        <v>6</v>
       </c>
       <c r="C487" s="1"/>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B488" s="1" t="s">
-        <v>450</v>
+        <v>357</v>
       </c>
       <c r="C488" s="1"/>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B489" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C489" s="1"/>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B490" s="1" t="s">
-        <v>108</v>
+        <v>569</v>
       </c>
       <c r="C490" s="1"/>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B491" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C491" s="1"/>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B492" s="1" t="s">
-        <v>451</v>
+        <v>99</v>
       </c>
       <c r="C492" s="1"/>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B493" s="1" t="s">
-        <v>452</v>
+        <v>570</v>
       </c>
       <c r="C493" s="1"/>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B494" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C494" s="1"/>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B495" s="1" t="s">
-        <v>111</v>
+        <v>399</v>
       </c>
       <c r="C495" s="1"/>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B496" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C496" s="1"/>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B497" s="1" t="s">
-        <v>113</v>
+        <v>571</v>
       </c>
       <c r="C497" s="1"/>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B498" s="1" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C498" s="1"/>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B499" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C499" s="1"/>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B500" s="1" t="s">
-        <v>115</v>
+        <v>441</v>
       </c>
       <c r="C500" s="1"/>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B501" s="1" t="s">
-        <v>515</v>
+        <v>358</v>
       </c>
       <c r="C501" s="1"/>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B502" s="1" t="s">
-        <v>116</v>
+        <v>400</v>
       </c>
       <c r="C502" s="1"/>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B503" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C503" s="1"/>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B504" s="1" t="s">
-        <v>117</v>
+        <v>572</v>
       </c>
       <c r="C504" s="1"/>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B505" s="1" t="s">
-        <v>574</v>
+        <v>352</v>
       </c>
       <c r="C505" s="1"/>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B506" s="1" t="s">
-        <v>454</v>
+        <v>359</v>
       </c>
       <c r="C506" s="1"/>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B507" s="1" t="s">
-        <v>455</v>
+        <v>573</v>
       </c>
       <c r="C507" s="1"/>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B508" s="1" t="s">
-        <v>517</v>
+        <v>102</v>
       </c>
       <c r="C508" s="1"/>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B509" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C509" s="1"/>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B510" s="1" t="s">
-        <v>575</v>
+        <v>360</v>
       </c>
       <c r="C510" s="1"/>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B511" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C511" s="1"/>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B512" s="1" t="s">
-        <v>120</v>
+        <v>574</v>
       </c>
       <c r="C512" s="1"/>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B513" s="1" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C513" s="1"/>
     </row>
     <row r="514" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B514" s="1" t="s">
-        <v>576</v>
+        <v>105</v>
       </c>
       <c r="C514" s="1"/>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B515" s="1" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="C515" s="1"/>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B516" s="1" t="s">
-        <v>123</v>
+        <v>575</v>
       </c>
       <c r="C516" s="1"/>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B517" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C517" s="1"/>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B518" s="1" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="C518" s="1"/>
     </row>
     <row r="519" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B519" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C519" s="1"/>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B520" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C520" s="1"/>
     </row>
     <row r="521" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B521" s="1" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C521" s="1"/>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B522" s="1" t="s">
-        <v>518</v>
+        <v>108</v>
       </c>
       <c r="C522" s="1"/>
     </row>
     <row r="523" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B523" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C523" s="1"/>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B524" s="1" t="s">
-        <v>129</v>
+        <v>577</v>
       </c>
       <c r="C524" s="1"/>
     </row>
     <row r="525" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B525" s="1" t="s">
-        <v>130</v>
+        <v>578</v>
       </c>
       <c r="C525" s="1"/>
     </row>
     <row r="526" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B526" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C526" s="1"/>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B527" s="1" t="s">
-        <v>456</v>
+        <v>111</v>
       </c>
       <c r="C527" s="1"/>
     </row>
     <row r="528" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B528" s="1" t="s">
-        <v>132</v>
+        <v>579</v>
       </c>
       <c r="C528" s="1"/>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B529" s="1" t="s">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="C529" s="1"/>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B530" s="1" t="s">
-        <v>457</v>
+        <v>580</v>
       </c>
       <c r="C530" s="1"/>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B531" s="1" t="s">
-        <v>83</v>
+        <v>362</v>
       </c>
       <c r="C531" s="1"/>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B532" s="1" t="s">
-        <v>134</v>
+        <v>581</v>
       </c>
       <c r="C532" s="1"/>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B533" s="1" t="s">
-        <v>135</v>
+        <v>582</v>
       </c>
       <c r="C533" s="1"/>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B534" s="1" t="s">
-        <v>458</v>
+        <v>112</v>
       </c>
       <c r="C534" s="1"/>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B535" s="1" t="s">
-        <v>459</v>
+        <v>113</v>
       </c>
       <c r="C535" s="1"/>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B536" s="1" t="s">
-        <v>460</v>
+        <v>114</v>
       </c>
       <c r="C536" s="1"/>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B537" s="1" t="s">
-        <v>136</v>
+        <v>583</v>
       </c>
       <c r="C537" s="1"/>
     </row>
     <row r="538" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B538" s="1" t="s">
-        <v>519</v>
+        <v>115</v>
       </c>
       <c r="C538" s="1"/>
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B539" s="1" t="s">
-        <v>57</v>
+        <v>584</v>
       </c>
       <c r="C539" s="1"/>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B540" s="1" t="s">
-        <v>461</v>
+        <v>585</v>
       </c>
       <c r="C540" s="1"/>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B541" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C541" s="1"/>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B542" s="1" t="s">
-        <v>138</v>
+        <v>586</v>
       </c>
       <c r="C542" s="1"/>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B543" s="1" t="s">
-        <v>139</v>
+        <v>587</v>
       </c>
       <c r="C543" s="1"/>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B544" s="1" t="s">
-        <v>140</v>
+        <v>588</v>
       </c>
       <c r="C544" s="1"/>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B545" s="1" t="s">
-        <v>462</v>
+        <v>117</v>
       </c>
       <c r="C545" s="1"/>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B546" s="1" t="s">
-        <v>141</v>
+        <v>589</v>
       </c>
       <c r="C546" s="1"/>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B547" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C547" s="1"/>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B548" s="1" t="s">
-        <v>84</v>
+        <v>401</v>
       </c>
       <c r="C548" s="1"/>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B549" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C549" s="1"/>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B550" s="1" t="s">
-        <v>463</v>
+        <v>120</v>
       </c>
       <c r="C550" s="1"/>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B551" s="1" t="s">
-        <v>578</v>
+        <v>121</v>
       </c>
       <c r="C551" s="1"/>
     </row>
     <row r="552" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B552" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C552" s="1"/>
     </row>
     <row r="553" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B553" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C553" s="1"/>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B554" s="1" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="C554" s="1"/>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B555" s="1" t="s">
-        <v>147</v>
+        <v>590</v>
       </c>
       <c r="C555" s="1"/>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B556" s="1" t="s">
-        <v>148</v>
+        <v>591</v>
       </c>
       <c r="C556" s="1"/>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B557" s="1" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="C557" s="1"/>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B558" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C558" s="1"/>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B559" s="1" t="s">
-        <v>520</v>
+        <v>363</v>
       </c>
       <c r="C559" s="1"/>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B560" s="1" t="s">
-        <v>151</v>
+        <v>592</v>
       </c>
       <c r="C560" s="1"/>
     </row>
     <row r="561" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B561" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C561" s="1"/>
     </row>
     <row r="562" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B562" s="1" t="s">
-        <v>153</v>
+        <v>402</v>
       </c>
       <c r="C562" s="1"/>
     </row>
     <row r="563" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B563" s="1" t="s">
-        <v>579</v>
+        <v>56</v>
       </c>
       <c r="C563" s="1"/>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B564" s="1" t="s">
-        <v>521</v>
+        <v>127</v>
       </c>
       <c r="C564" s="1"/>
     </row>
     <row r="565" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B565" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C565" s="1"/>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B566" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C566" s="1"/>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B567" s="1" t="s">
-        <v>156</v>
+        <v>364</v>
       </c>
       <c r="C567" s="1"/>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B568" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C568" s="1"/>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B569" s="1" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C569" s="1"/>
     </row>
     <row r="570" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B570" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C570" s="1"/>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B571" s="1" t="s">
-        <v>160</v>
+        <v>365</v>
       </c>
       <c r="C571" s="1"/>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B572" s="1" t="s">
-        <v>85</v>
+        <v>443</v>
       </c>
       <c r="C572" s="1"/>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B573" s="1" t="s">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="C573" s="1"/>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B574" s="1" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C574" s="1"/>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B575" s="1" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="C575" s="1"/>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B576" s="1" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C576" s="1"/>
     </row>
     <row r="577" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B577" s="1" t="s">
-        <v>465</v>
+        <v>136</v>
       </c>
       <c r="C577" s="1"/>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B578" s="1" t="s">
-        <v>164</v>
+        <v>403</v>
       </c>
       <c r="C578" s="1"/>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B579" s="1" t="s">
-        <v>466</v>
+        <v>137</v>
       </c>
       <c r="C579" s="1"/>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B580" s="1" t="s">
-        <v>467</v>
+        <v>138</v>
       </c>
       <c r="C580" s="1"/>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B581" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="C581" s="1"/>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B582" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="C582" s="1"/>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B583" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="C583" s="1"/>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B584" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="C584" s="1"/>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B585" s="1" t="s">
+        <v>593</v>
+      </c>
       <c r="C585" s="1"/>
     </row>
+    <row r="586" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B586" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="587" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B587" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="588" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B588" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="589" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B589" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="590" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B590" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="591" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B591" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="592" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B592" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B593" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B594" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B595" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B596" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B597" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B598" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C585">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="GoldㅈExperie"/>
-        <filter val="Mn丶猫猫君"/>
-        <filter val="SouLmAte、小狼"/>
-        <filter val="等风与你"/>
-        <filter val="一人一枪闯九州"/>
-        <filter val="万心忧"/>
-        <filter val="与尔同销萬古愁"/>
-        <filter val="丶天蓝色"/>
-        <filter val="丶忍野咩咩"/>
-        <filter val="乌莲娜"/>
-        <filter val="何月凡"/>
-        <filter val="倾舞情儿"/>
-        <filter val="八块腹肌小官人"/>
-        <filter val="关翔予"/>
-        <filter val="其实想玩刀客"/>
-        <filter val="再见是否红着脸"/>
-        <filter val="凯贼阔里"/>
-        <filter val="古巷烟雨断桥殇"/>
-        <filter val="叶菡"/>
-        <filter val="吕小栋"/>
-        <filter val="唐舞桐灬"/>
-        <filter val="墨韵轩华"/>
-        <filter val="夜白衣"/>
-        <filter val="大眼睛秋秋"/>
-        <filter val="天下芒果"/>
-        <filter val="套套嗷呜"/>
-        <filter val="奶小牛丶"/>
-        <filter val="安好晴天"/>
-        <filter val="山高丶木易"/>
-        <filter val="异逍遥"/>
-        <filter val="怒怒怒怒火"/>
-        <filter val="我是天香的啊"/>
-        <filter val="执劍小书生"/>
-        <filter val="折扇浪漫"/>
-        <filter val="拌蠢蠢"/>
-        <filter val="放肆流逝的年华"/>
-        <filter val="明年今日奕十年"/>
-        <filter val="月下魂兮"/>
-        <filter val="树儿高高长"/>
-        <filter val="框框"/>
-        <filter val="梦觞丶"/>
-        <filter val="榕月"/>
-        <filter val="此情珂待"/>
-        <filter val="水影悠兰"/>
-        <filter val="沐浠尘"/>
-        <filter val="浪迹小秦"/>
-        <filter val="潇洒仗剑天下"/>
-        <filter val="独孤沐白"/>
-        <filter val="男人应有的自豪"/>
-        <filter val="百里轩翊"/>
-        <filter val="空虚公子萧四无"/>
-        <filter val="童话话"/>
-        <filter val="紫雨幽雲"/>
-        <filter val="花兮兮兮兮"/>
-        <filter val="花谢人凋零。"/>
-        <filter val="荆轲已逝高渐离"/>
-        <filter val="薄霭"/>
-        <filter val="蛋蛋疍"/>
-        <filter val="追风少年鹰老七"/>
-        <filter val="逍遥芙蕖"/>
-        <filter val="逸尘灬浮"/>
-        <filter val="酒倾轻竹影"/>
-        <filter val="零拾"/>
-        <filter val="青丝枫凌"/>
-        <filter val="鱼小小"/>
-        <filter val="鱼爸爸"/>
-        <filter val="鱼香"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C585"/>
+  <sortState ref="H2:I46">
+    <sortCondition descending="1" ref="I1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/compare.xlsx
+++ b/compare.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="609">
   <si>
     <t>怒怒怒怒火</t>
   </si>
@@ -1359,9 +1359,6 @@
     <t>洛天岚</t>
   </si>
   <si>
-    <t>初馨</t>
-  </si>
-  <si>
     <t>虎皮喵大人丶</t>
   </si>
   <si>
@@ -1824,33 +1821,6 @@
     <t>内涵</t>
   </si>
   <si>
-    <t>唐银</t>
-  </si>
-  <si>
-    <t>拍卖</t>
-  </si>
-  <si>
-    <t>月下</t>
-  </si>
-  <si>
-    <t>潇洒</t>
-  </si>
-  <si>
-    <t>霭</t>
-  </si>
-  <si>
-    <t>那年</t>
-  </si>
-  <si>
-    <t>老七</t>
-  </si>
-  <si>
-    <t>天荒</t>
-  </si>
-  <si>
-    <t>寻清</t>
-  </si>
-  <si>
     <t>gold</t>
   </si>
   <si>
@@ -1869,69 +1839,6 @@
     <t>花雨</t>
   </si>
   <si>
-    <t>屁股</t>
-  </si>
-  <si>
-    <t>口味</t>
-  </si>
-  <si>
-    <t>莲娜</t>
-  </si>
-  <si>
-    <t>兰兰</t>
-  </si>
-  <si>
-    <t>唐言</t>
-  </si>
-  <si>
-    <t>白衣</t>
-  </si>
-  <si>
-    <t>蓝色</t>
-  </si>
-  <si>
-    <t>蠢蠢</t>
-  </si>
-  <si>
-    <t>无意</t>
-  </si>
-  <si>
-    <t>独孤</t>
-  </si>
-  <si>
-    <t>盖世</t>
-  </si>
-  <si>
-    <t>花谢</t>
-  </si>
-  <si>
-    <t>凌渃</t>
-  </si>
-  <si>
-    <t>好人</t>
-  </si>
-  <si>
-    <t>大眼睛</t>
-  </si>
-  <si>
-    <t>明年</t>
-  </si>
-  <si>
-    <t>梦觞</t>
-  </si>
-  <si>
-    <t>浪迹</t>
-  </si>
-  <si>
-    <t>海棠</t>
-  </si>
-  <si>
-    <t>逐梦</t>
-  </si>
-  <si>
-    <t>青丝</t>
-  </si>
-  <si>
     <t>CCC</t>
   </si>
   <si>
@@ -1939,6 +1846,9 @@
   </si>
   <si>
     <t>AAA</t>
+  </si>
+  <si>
+    <t>轩华</t>
   </si>
 </sst>
 </file>
@@ -2260,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,14 +2186,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C1" t="str">
         <f t="shared" ref="C1:C47" si="0">VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
-        <v>在下唐银</v>
+        <v>墨韵轩华</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -2291,74 +2201,74 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>330</v>
       </c>
       <c r="C2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>开封拍卖行</v>
+        <v>一个有内涵的人</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>323</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>月下魂兮</v>
+        <v>GoldㅈExperie</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>333</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>597</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>331</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>框框</v>
+        <v>丿几度度丶</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>潇洒仗剑天下</v>
+        <v>太极至尊</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2370,697 +2280,611 @@
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>薄霭</v>
+        <v>诸天花雨</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>388</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>那年今若、</v>
+        <v>蛋蛋疍</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>390</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>追风少年鹰老七</v>
+        <v>倾舞情儿</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>392</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>青骢绝骑塑天荒</v>
+        <v>八块腹肌小官人</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>348</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>608</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>顾寻清</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>307</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>609</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>GoldㅈExperie</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>610</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>倾舞情儿</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>599</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>一个有内涵的人</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>598</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>丿几度度丶</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>445</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="1" t="e">
+      <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>墨韵轩华</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>378</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>611</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>太极至尊</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>612</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>八块腹肌小官人</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>613</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>蛋蛋疍</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>61</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>614</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>诸天花雨</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>323</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>421</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>甄心</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>615</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>娇软の小屁股</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>420</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>616</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>口味太怪</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>245</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>617</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>乌莲娜</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>618</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C25" s="1" t="e">
+        <v>452</v>
+      </c>
+      <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>619</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>在下唐言</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>620</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>夜白衣</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>118</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>621</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>298</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>丶天蓝色</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>622</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>299</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>拌蠢蠢</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>352</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>623</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>曲终无意</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>102</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>624</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>389</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>独孤杀生</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>625</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>盖世呆头洋</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>626</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>花谢人凋零。</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>鱼香</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>115</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>627</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>凌渃尘</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>628</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>303</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>只想做个好人</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>358</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>墨河</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>107</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>629</v>
-      </c>
       <c r="B38" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>大眼睛秋秋</v>
+        <v>虎皮喵大人丶</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>630</v>
-      </c>
       <c r="B39" s="1" t="s">
         <v>305</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>明年今日奕十年</v>
+        <v>虎皮喵大人丶</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>631</v>
-      </c>
       <c r="B40" s="1" t="s">
         <v>306</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>梦觞丶</v>
+        <v>虎皮喵大人丶</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>632</v>
-      </c>
       <c r="B41" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>浪迹小寿</v>
+        <v>虎皮喵大人丶</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>633</v>
-      </c>
       <c r="B42" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>一直梨花压海棠</v>
+        <v>虎皮喵大人丶</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>115</v>
-      </c>
       <c r="B43" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>破穿</v>
+        <v>虎皮喵大人丶</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
       <c r="B44" s="1" t="s">
         <v>391</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>素蝶</v>
+        <v>虎皮喵大人丶</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>634</v>
-      </c>
       <c r="B45" s="1" t="s">
         <v>307</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>雙生逐梦</v>
+        <v>虎皮喵大人丶</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>107</v>
-      </c>
       <c r="B46" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>零拾</v>
+        <v>虎皮喵大人丶</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>635</v>
-      </c>
       <c r="B47" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>青丝枫凌</v>
+        <v>虎皮喵大人丶</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3101,7 +2925,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C54" s="1"/>
     </row>
@@ -3132,7 +2956,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C59" s="1"/>
     </row>
@@ -3162,7 +2986,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C64" s="1"/>
     </row>
@@ -3186,7 +3010,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C68" s="1"/>
     </row>
@@ -3210,13 +3034,13 @@
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C73" s="1"/>
     </row>
@@ -3258,7 +3082,7 @@
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C80" s="1"/>
     </row>
@@ -3270,7 +3094,7 @@
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C82" s="1"/>
     </row>
@@ -3288,7 +3112,7 @@
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C85" s="1"/>
     </row>
@@ -3312,7 +3136,7 @@
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C89" s="1"/>
     </row>
@@ -3366,13 +3190,13 @@
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C99" s="1"/>
     </row>
@@ -3408,7 +3232,7 @@
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C105" s="1"/>
     </row>
@@ -3420,7 +3244,7 @@
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C107" s="1"/>
     </row>
@@ -3474,7 +3298,7 @@
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C116" s="1"/>
     </row>
@@ -3510,7 +3334,7 @@
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C122" s="1"/>
     </row>
@@ -3540,19 +3364,19 @@
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C127" s="1"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C128" s="1"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C129" s="1"/>
     </row>
@@ -3564,7 +3388,7 @@
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C131" s="1"/>
     </row>
@@ -3576,7 +3400,7 @@
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C133" s="1"/>
     </row>
@@ -3594,7 +3418,7 @@
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C136" s="1"/>
     </row>
@@ -3606,7 +3430,7 @@
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C138" s="1"/>
     </row>
@@ -3624,7 +3448,7 @@
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C141" s="1"/>
     </row>
@@ -3636,13 +3460,13 @@
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C144" s="1"/>
     </row>
@@ -3660,7 +3484,7 @@
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C147" s="1"/>
     </row>
@@ -3684,7 +3508,7 @@
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C151" s="1"/>
     </row>
@@ -3840,7 +3664,7 @@
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C177" s="1"/>
     </row>
@@ -3894,13 +3718,13 @@
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C186" s="1"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C187" s="1"/>
     </row>
@@ -3918,13 +3742,13 @@
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C190" s="1"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C191" s="1"/>
     </row>
@@ -3936,7 +3760,7 @@
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C193" s="1"/>
     </row>
@@ -3954,7 +3778,7 @@
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C196" s="1"/>
     </row>
@@ -3966,7 +3790,7 @@
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C198" s="1"/>
     </row>
@@ -3990,7 +3814,7 @@
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C202" s="1"/>
     </row>
@@ -4002,7 +3826,7 @@
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C204" s="1"/>
     </row>
@@ -4038,7 +3862,7 @@
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C210" s="1"/>
     </row>
@@ -4050,7 +3874,7 @@
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C212" s="1"/>
     </row>
@@ -4062,7 +3886,7 @@
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C214" s="1"/>
     </row>
@@ -4080,7 +3904,7 @@
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C217" s="1"/>
     </row>
@@ -4200,7 +4024,7 @@
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C237" s="1"/>
     </row>
@@ -4254,7 +4078,7 @@
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C246" s="1"/>
     </row>
@@ -4272,7 +4096,7 @@
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C249" s="1"/>
     </row>
@@ -4332,7 +4156,7 @@
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C259" s="1"/>
     </row>
@@ -4344,7 +4168,7 @@
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C261" s="1"/>
     </row>
@@ -4368,7 +4192,7 @@
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C265" s="1"/>
     </row>
@@ -4380,13 +4204,13 @@
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C267" s="1"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C268" s="1"/>
     </row>
@@ -4398,13 +4222,13 @@
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C270" s="1"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C271" s="1"/>
     </row>
@@ -4416,7 +4240,7 @@
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C273" s="1"/>
     </row>
@@ -4470,7 +4294,7 @@
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C282" s="1"/>
     </row>
@@ -4518,7 +4342,7 @@
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C290" s="1"/>
     </row>
@@ -4560,7 +4384,7 @@
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C297" s="1"/>
     </row>
@@ -4596,7 +4420,7 @@
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C303" s="1"/>
     </row>
@@ -4614,7 +4438,7 @@
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C306" s="1"/>
     </row>
@@ -4626,13 +4450,13 @@
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C308" s="1"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C309" s="1"/>
     </row>
@@ -4668,13 +4492,13 @@
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C315" s="1"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C316" s="1"/>
     </row>
@@ -4692,7 +4516,7 @@
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C319" s="1"/>
     </row>
@@ -4722,7 +4546,7 @@
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C324" s="1"/>
     </row>
@@ -4764,7 +4588,7 @@
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C331" s="1"/>
     </row>
@@ -4776,7 +4600,7 @@
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C333" s="1"/>
     </row>
@@ -4842,7 +4666,7 @@
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C344" s="1"/>
     </row>
@@ -4854,7 +4678,7 @@
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C346" s="1"/>
     </row>
@@ -4920,7 +4744,7 @@
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C357" s="1"/>
     </row>
@@ -4938,7 +4762,7 @@
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C360" s="1"/>
     </row>
@@ -4950,7 +4774,7 @@
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C362" s="1"/>
     </row>
@@ -4974,13 +4798,13 @@
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C366" s="1"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C367" s="1"/>
     </row>
@@ -5010,13 +4834,13 @@
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C372" s="1"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C373" s="1"/>
     </row>
@@ -5034,7 +4858,7 @@
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C376" s="1"/>
     </row>
@@ -5058,7 +4882,7 @@
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C380" s="1"/>
     </row>
@@ -5076,7 +4900,7 @@
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C383" s="1"/>
     </row>
@@ -5100,19 +4924,19 @@
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C387" s="1"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C388" s="1"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B389" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C389" s="1"/>
     </row>
@@ -5148,7 +4972,7 @@
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B395" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C395" s="1"/>
     </row>
@@ -5160,7 +4984,7 @@
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C397" s="1"/>
     </row>
@@ -5172,19 +4996,19 @@
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B399" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C399" s="1"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C400" s="1"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B401" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C401" s="1"/>
     </row>
@@ -5196,7 +5020,7 @@
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B403" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C403" s="1"/>
     </row>
@@ -5250,7 +5074,7 @@
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C412" s="1"/>
     </row>
@@ -5268,7 +5092,7 @@
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B415" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C415" s="1"/>
     </row>
@@ -5280,7 +5104,7 @@
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B417" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C417" s="1"/>
     </row>
@@ -5292,7 +5116,7 @@
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B419" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C419" s="1"/>
     </row>
@@ -5310,7 +5134,7 @@
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C422" s="1"/>
     </row>
@@ -5352,25 +5176,25 @@
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B429" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C429" s="1"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B430" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C430" s="1"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B431" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C431" s="1"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B432" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C432" s="1"/>
     </row>
@@ -5412,13 +5236,13 @@
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B439" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C439" s="1"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B440" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C440" s="1"/>
     </row>
@@ -5442,7 +5266,7 @@
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C444" s="1"/>
     </row>
@@ -5454,7 +5278,7 @@
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B446" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C446" s="1"/>
     </row>
@@ -5472,7 +5296,7 @@
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B449" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C449" s="1"/>
     </row>
@@ -5484,7 +5308,7 @@
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B451" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C451" s="1"/>
     </row>
@@ -5502,7 +5326,7 @@
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B454" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C454" s="1"/>
     </row>
@@ -5526,7 +5350,7 @@
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B458" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C458" s="1"/>
     </row>
@@ -5562,7 +5386,7 @@
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B464" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C464" s="1"/>
     </row>
@@ -5574,13 +5398,13 @@
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B466" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C466" s="1"/>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B467" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C467" s="1"/>
     </row>
@@ -5598,7 +5422,7 @@
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B470" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C470" s="1"/>
     </row>
@@ -5616,7 +5440,7 @@
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B473" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C473" s="1"/>
     </row>
@@ -5646,7 +5470,7 @@
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B478" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C478" s="1"/>
     </row>
@@ -5676,7 +5500,7 @@
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B483" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C483" s="1"/>
     </row>
@@ -5694,7 +5518,7 @@
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B486" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C486" s="1"/>
     </row>
@@ -5718,7 +5542,7 @@
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B490" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C490" s="1"/>
     </row>
@@ -5736,7 +5560,7 @@
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B493" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C493" s="1"/>
     </row>
@@ -5760,7 +5584,7 @@
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B497" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C497" s="1"/>
     </row>
@@ -5802,7 +5626,7 @@
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B504" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C504" s="1"/>
     </row>
@@ -5820,7 +5644,7 @@
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B507" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C507" s="1"/>
     </row>
@@ -5850,7 +5674,7 @@
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B512" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C512" s="1"/>
     </row>
@@ -5874,7 +5698,7 @@
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B516" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C516" s="1"/>
     </row>
@@ -5898,7 +5722,7 @@
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B520" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C520" s="1"/>
     </row>
@@ -5922,13 +5746,13 @@
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B524" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C524" s="1"/>
     </row>
     <row r="525" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B525" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C525" s="1"/>
     </row>
@@ -5946,7 +5770,7 @@
     </row>
     <row r="528" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B528" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C528" s="1"/>
     </row>
@@ -5958,7 +5782,7 @@
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B530" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C530" s="1"/>
     </row>
@@ -5970,13 +5794,13 @@
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B532" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C532" s="1"/>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B533" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C533" s="1"/>
     </row>
@@ -6000,7 +5824,7 @@
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B537" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C537" s="1"/>
     </row>
@@ -6012,13 +5836,13 @@
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B539" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C539" s="1"/>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B540" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C540" s="1"/>
     </row>
@@ -6030,19 +5854,19 @@
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B542" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C542" s="1"/>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B543" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C543" s="1"/>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B544" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C544" s="1"/>
     </row>
@@ -6054,7 +5878,7 @@
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B546" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C546" s="1"/>
     </row>
@@ -6108,13 +5932,13 @@
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B555" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C555" s="1"/>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B556" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C556" s="1"/>
     </row>
@@ -6138,7 +5962,7 @@
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B560" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C560" s="1"/>
     </row>
@@ -6288,7 +6112,7 @@
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B585" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C585" s="1"/>
     </row>
@@ -6304,7 +6128,7 @@
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B588" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="589" spans="2:3" x14ac:dyDescent="0.25">
@@ -6314,7 +6138,7 @@
     </row>
     <row r="590" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B590" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="591" spans="2:3" x14ac:dyDescent="0.25">
@@ -6324,7 +6148,7 @@
     </row>
     <row r="592" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B592" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="593" spans="2:2" x14ac:dyDescent="0.25">
@@ -6339,7 +6163,7 @@
     </row>
     <row r="595" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B595" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="596" spans="2:2" x14ac:dyDescent="0.25">

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$585</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$590</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="652">
   <si>
     <t>怒怒怒怒火</t>
   </si>
@@ -306,9 +306,6 @@
     <t>时钟轻摇孤独</t>
   </si>
   <si>
-    <t>暮川</t>
-  </si>
-  <si>
     <t>吕小栋</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>与尔同销萬古愁</t>
   </si>
   <si>
-    <t>丨龙哥丿</t>
-  </si>
-  <si>
     <t>零拾</t>
   </si>
   <si>
@@ -390,9 +384,6 @@
     <t>剑老白</t>
   </si>
   <si>
-    <t>欢脱的柚子</t>
-  </si>
-  <si>
     <t>白轻寒</t>
   </si>
   <si>
@@ -516,9 +507,6 @@
     <t>蚩尤魔人</t>
   </si>
   <si>
-    <t>南宫元</t>
-  </si>
-  <si>
     <t>雪糕失望</t>
   </si>
   <si>
@@ -546,9 +534,6 @@
     <t>魅丿无情</t>
   </si>
   <si>
-    <t>涛声依旧彡</t>
-  </si>
-  <si>
     <t>轻笑忘</t>
   </si>
   <si>
@@ -588,9 +573,6 @@
     <t>凡哥的父亲</t>
   </si>
   <si>
-    <t>碧空沧海藏云山</t>
-  </si>
-  <si>
     <t>夜袭寡妇寨</t>
   </si>
   <si>
@@ -639,9 +621,6 @@
     <t>东风路大狗蛋</t>
   </si>
   <si>
-    <t>女神、</t>
-  </si>
-  <si>
     <t>伐青</t>
   </si>
   <si>
@@ -732,9 +711,6 @@
     <t>志方</t>
   </si>
   <si>
-    <t>木兰笺字雕白首</t>
-  </si>
-  <si>
     <t>苍镜</t>
   </si>
   <si>
@@ -1176,12 +1152,6 @@
     <t>太阳骑士炮灰</t>
   </si>
   <si>
-    <t>职业副本香</t>
-  </si>
-  <si>
-    <t>殇月未觞</t>
-  </si>
-  <si>
     <t>GoldㅈExperie</t>
   </si>
   <si>
@@ -1194,9 +1164,6 @@
     <t>墨語丶</t>
   </si>
   <si>
-    <t>代奕凡</t>
-  </si>
-  <si>
     <t>道运良</t>
   </si>
   <si>
@@ -1209,9 +1176,6 @@
     <t>务必叫我欧皇</t>
   </si>
   <si>
-    <t>梅雨天丶</t>
-  </si>
-  <si>
     <t>阿茶君</t>
   </si>
   <si>
@@ -1221,12 +1185,6 @@
     <t>颂碑寒</t>
   </si>
   <si>
-    <t>雍和、</t>
-  </si>
-  <si>
-    <t>范范吃西瓜</t>
-  </si>
-  <si>
     <t>洛千觞</t>
   </si>
   <si>
@@ -1257,21 +1215,12 @@
     <t>小针尖</t>
   </si>
   <si>
-    <t>上官凌仙</t>
-  </si>
-  <si>
     <t>墨羽丶离殇</t>
   </si>
   <si>
     <t>拾勾枯爬尖</t>
   </si>
   <si>
-    <t>窦乔博</t>
-  </si>
-  <si>
-    <t>木希紫酱</t>
-  </si>
-  <si>
     <t>元气小石十</t>
   </si>
   <si>
@@ -1311,9 +1260,6 @@
     <t>赤月染红尘</t>
   </si>
   <si>
-    <t>且闻故琴</t>
-  </si>
-  <si>
     <t>风袅纂烟</t>
   </si>
   <si>
@@ -1380,9 +1326,6 @@
     <t>柠檬雪碧、</t>
   </si>
   <si>
-    <t>水湄黛千山</t>
-  </si>
-  <si>
     <t>毅生有妮丶</t>
   </si>
   <si>
@@ -1461,9 +1404,6 @@
     <t>Needle</t>
   </si>
   <si>
-    <t>一见潮哥堕红尘</t>
-  </si>
-  <si>
     <t>齿虎</t>
   </si>
   <si>
@@ -1488,9 +1428,6 @@
     <t>丶若芷</t>
   </si>
   <si>
-    <t>我静静的躺赢</t>
-  </si>
-  <si>
     <t>喝脉动割动脉</t>
   </si>
   <si>
@@ -1506,18 +1443,6 @@
     <t>练武风化</t>
   </si>
   <si>
-    <t>徐海丶骚猪</t>
-  </si>
-  <si>
-    <t>浮雲悠遊</t>
-  </si>
-  <si>
-    <t>河北化药陈冠希</t>
-  </si>
-  <si>
-    <t>天机明月</t>
-  </si>
-  <si>
     <t>懿锦丶</t>
   </si>
   <si>
@@ -1542,9 +1467,6 @@
     <t>一路天水</t>
   </si>
   <si>
-    <t>莫名就是喜欢你</t>
-  </si>
-  <si>
     <t>懒丶羊羊</t>
   </si>
   <si>
@@ -1554,12 +1476,6 @@
     <t>几度</t>
   </si>
   <si>
-    <t>内涵</t>
-  </si>
-  <si>
-    <t>小官人</t>
-  </si>
-  <si>
     <t>蛋蛋</t>
   </si>
   <si>
@@ -1605,9 +1521,6 @@
     <t>天下悍刀出北凉</t>
   </si>
   <si>
-    <t>五里</t>
-  </si>
-  <si>
     <t>小阿淮呀</t>
   </si>
   <si>
@@ -1623,9 +1536,6 @@
     <t>絮絮叨叨的刀</t>
   </si>
   <si>
-    <t>穹祈</t>
-  </si>
-  <si>
     <t>提刀独立荡八荒</t>
   </si>
   <si>
@@ -1650,9 +1560,6 @@
     <t>比剑哥还贱</t>
   </si>
   <si>
-    <t>神刀有情天亦老</t>
-  </si>
-  <si>
     <t>余子乔丶</t>
   </si>
   <si>
@@ -1767,12 +1674,6 @@
     <t>等风与你</t>
   </si>
   <si>
-    <t>年瑾倾城玉蝴蝶+B442</t>
-  </si>
-  <si>
-    <t>白豆就逗</t>
-  </si>
-  <si>
     <t>苏幕清</t>
   </si>
   <si>
@@ -1809,9 +1710,6 @@
     <t>落雨晴天</t>
   </si>
   <si>
-    <t>潇湘风雨情</t>
-  </si>
-  <si>
     <t>卖萌嘟嘟剪刀手</t>
   </si>
   <si>
@@ -1821,117 +1719,36 @@
     <t>汪映雪</t>
   </si>
   <si>
-    <t>凉玄仪</t>
-  </si>
-  <si>
-    <t>ShLe丶神楽</t>
-  </si>
-  <si>
     <t>叫我蜘蛛啦</t>
   </si>
   <si>
-    <t>千靨</t>
-  </si>
-  <si>
-    <t>黑色灬玫瑰丿</t>
-  </si>
-  <si>
     <t>一念生</t>
   </si>
   <si>
     <t>墨炽</t>
   </si>
   <si>
-    <t>天荒</t>
-  </si>
-  <si>
     <t>刀客</t>
   </si>
   <si>
-    <t>好想</t>
-  </si>
-  <si>
     <t>月下</t>
   </si>
   <si>
-    <t>晓汐</t>
-  </si>
-  <si>
     <t>煌煌</t>
   </si>
   <si>
-    <t>淡若清风</t>
-  </si>
-  <si>
     <t>潇洒</t>
   </si>
   <si>
-    <t>鹰老七</t>
-  </si>
-  <si>
-    <t>迷茫</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 唐卿凝</t>
-  </si>
-  <si>
-    <t>余子乔</t>
-  </si>
-  <si>
     <t>仁剑</t>
   </si>
   <si>
-    <t>Gold</t>
-  </si>
-  <si>
     <t>孤傲凡尘</t>
   </si>
   <si>
-    <t>娜迦法</t>
-  </si>
-  <si>
     <t>怒火</t>
   </si>
   <si>
-    <t>蓝莓巧克力</t>
-  </si>
-  <si>
-    <t>樱夢</t>
-  </si>
-  <si>
-    <t>渣渣茶</t>
-  </si>
-  <si>
-    <t>永恒</t>
-  </si>
-  <si>
-    <t>无回</t>
-  </si>
-  <si>
-    <t>九州</t>
-  </si>
-  <si>
-    <t>Fatescorpio</t>
-  </si>
-  <si>
-    <t>古手梨花</t>
-  </si>
-  <si>
-    <t>团灭专用奶</t>
-  </si>
-  <si>
-    <t>夜白衣</t>
-  </si>
-  <si>
-    <t>天蓝色</t>
-  </si>
-  <si>
-    <t>忍野咩咩</t>
-  </si>
-  <si>
-    <t>笑看浮华</t>
-  </si>
-  <si>
     <t>梦太晚</t>
   </si>
   <si>
@@ -1941,40 +1758,226 @@
     <t>树儿</t>
   </si>
   <si>
-    <t>红着脸</t>
-  </si>
-  <si>
-    <t>折扇浪漫</t>
-  </si>
-  <si>
     <t>皇嬴政</t>
   </si>
   <si>
-    <t>阿淮</t>
-  </si>
-  <si>
-    <t>花兮兮</t>
-  </si>
-  <si>
     <t>天下</t>
   </si>
   <si>
-    <t>芍药</t>
-  </si>
-  <si>
-    <t>慕容英</t>
-  </si>
-  <si>
-    <t>汪剑通</t>
-  </si>
-  <si>
-    <t>凌</t>
-  </si>
-  <si>
     <t>浣熊</t>
   </si>
   <si>
-    <t>清莲</t>
+    <t>江湖多寂莫丶人</t>
+  </si>
+  <si>
+    <t>琴瑟愿与</t>
+  </si>
+  <si>
+    <t>牧羊﹣</t>
+  </si>
+  <si>
+    <t>浪琴</t>
+  </si>
+  <si>
+    <t>杨卓儒</t>
+  </si>
+  <si>
+    <t>陈凌风</t>
+  </si>
+  <si>
+    <t>九条夏夜乃</t>
+  </si>
+  <si>
+    <t>绝弦觅知</t>
+  </si>
+  <si>
+    <t>刀灵媛</t>
+  </si>
+  <si>
+    <t>束于其中</t>
+  </si>
+  <si>
+    <t>喵呜酱提小莫</t>
+  </si>
+  <si>
+    <t>纳加法</t>
+  </si>
+  <si>
+    <t>年瑾倾城玉蝴蝶</t>
+  </si>
+  <si>
+    <t>尽余年。</t>
+  </si>
+  <si>
+    <t>神奇宝贝杨泥玛</t>
+  </si>
+  <si>
+    <t>白易轩</t>
+  </si>
+  <si>
+    <t>月牙冲天</t>
+  </si>
+  <si>
+    <t>冷翎峰</t>
+  </si>
+  <si>
+    <t>、陌上看花</t>
+  </si>
+  <si>
+    <t>不知今夕是何年</t>
+  </si>
+  <si>
+    <t>雾星</t>
+  </si>
+  <si>
+    <t>冷汐宇</t>
+  </si>
+  <si>
+    <t>活泼的三叶虫</t>
+  </si>
+  <si>
+    <t>无毒邪神</t>
+  </si>
+  <si>
+    <t>听雪剑</t>
+  </si>
+  <si>
+    <t>千怀</t>
+  </si>
+  <si>
+    <t>辉煌PT</t>
+  </si>
+  <si>
+    <t>万年孤独</t>
+  </si>
+  <si>
+    <t>从前玩真武</t>
+  </si>
+  <si>
+    <t>烈酒味清茶</t>
+  </si>
+  <si>
+    <t>樱</t>
+  </si>
+  <si>
+    <t>浪迹</t>
+  </si>
+  <si>
+    <t>百里</t>
+  </si>
+  <si>
+    <t>花兮</t>
+  </si>
+  <si>
+    <t>这下可好</t>
+  </si>
+  <si>
+    <t>青丝</t>
+  </si>
+  <si>
+    <t>那年今</t>
+  </si>
+  <si>
+    <t>蓝莓</t>
+  </si>
+  <si>
+    <t>轻衣</t>
+  </si>
+  <si>
+    <t>闭月</t>
+  </si>
+  <si>
+    <t>唐言</t>
+  </si>
+  <si>
+    <t>忍野</t>
+  </si>
+  <si>
+    <t>此情</t>
+  </si>
+  <si>
+    <t>独孤杀</t>
+  </si>
+  <si>
+    <t>破烂</t>
+  </si>
+  <si>
+    <t>荆轲</t>
+  </si>
+  <si>
+    <t>超人不</t>
+  </si>
+  <si>
+    <t>猫猫君</t>
+  </si>
+  <si>
+    <t>古愁</t>
+  </si>
+  <si>
+    <t>十里红莲</t>
+  </si>
+  <si>
+    <t>南宫</t>
+  </si>
+  <si>
+    <t>只想做</t>
+  </si>
+  <si>
+    <t>吕小</t>
+  </si>
+  <si>
+    <t>大眼睛</t>
+  </si>
+  <si>
+    <t>我是天</t>
+  </si>
+  <si>
+    <t>梦觞</t>
+  </si>
+  <si>
+    <t>沐伯</t>
+  </si>
+  <si>
+    <t>夜冥</t>
+  </si>
+  <si>
+    <t>丐帮</t>
+  </si>
+  <si>
+    <t>关翔</t>
+  </si>
+  <si>
+    <t>水影</t>
+  </si>
+  <si>
+    <t>紫雨</t>
+  </si>
+  <si>
+    <t>史塔克</t>
+  </si>
+  <si>
+    <t>那年红</t>
+  </si>
+  <si>
+    <t>青羽</t>
+  </si>
+  <si>
+    <t>顾寻</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>咸鱼白</t>
+  </si>
+  <si>
+    <t>万心</t>
+  </si>
+  <si>
+    <t>北城</t>
+  </si>
+  <si>
+    <t>奥利奥</t>
   </si>
 </sst>
 </file>
@@ -2296,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,14 +2315,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>516</v>
+        <v>10</v>
       </c>
       <c r="C1" t="str">
         <f>VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
-        <v>墨炽</v>
+        <v>浪迹小秦</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -2327,5983 +2330,4395 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>613</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="C2" s="2" t="str">
         <f t="shared" ref="C2:C65" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,1,0)</f>
-        <v>奶小牛丶</v>
+        <v>百里轩翊</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>373</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>476</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>哒哒滴滴</v>
+        <v>破穿</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>614</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>477</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>在下唐银</v>
+        <v>花兮兮兮兮</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>518</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>青骢绝骑塑天荒</v>
+        <v>这下可好啦</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>249</v>
+        <v>616</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>天下芒果</v>
+        <v>青丝枫凌</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>303</v>
+        <v>568</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>口味太怪</v>
+        <v>其实想玩刀客</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>320</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>叶菡</v>
+        <v>墨炽</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>321</v>
+        <v>493</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>其实想玩刀客</v>
+        <v>煌煌</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>262</v>
+        <v>617</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>478</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>关翔予</v>
+        <v>那年今若、</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>618</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>水影悠兰</v>
+        <v>√蓝莓巧克力丶</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>619</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>山高丶木易</v>
+        <v>浅歌丶濢曦轻衣</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>519</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>好想告诉伱</v>
+        <v>闭月羞</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>520</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>月下魂兮</v>
+        <v>在下唐言</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>洪时雪</v>
+        <v>墨萧炎</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>499</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>木易丶凝烟</v>
+        <v>丶忍野咩咩</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>646</v>
+        <v>577</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>479</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>七情剑伶慕容英</v>
+        <v>树儿高高长</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>341</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>橙橙喵呜</v>
+        <v>榕月</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>623</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>浩浩丶浩</v>
+        <v>此情珂待</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>610</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>458</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>冷晓汐丶</v>
+        <v>沐浠尘</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>521</v>
+        <v>463</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>煌煌</v>
+        <v>独孤杀生</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>625</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>470</v>
       </c>
       <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>纯洁友善的暮夏</v>
+        <v>破烂刀客</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>626</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>艾莉亞史塔克</v>
+        <v>荆轲已逝高渐离</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>522</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>淡若清风過丶</v>
+        <v>超人不会飞〃</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>323</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>紫雨幽雲</v>
+        <v>鱼小小</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>372</v>
+        <v>288</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>481</v>
+        <v>125</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>神奇宝贝杨尼玛</v>
+        <v>鱼爸爸</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>581</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>等我出轻语</v>
+        <v>鱼香</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>239</v>
+        <v>628</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>白析</v>
+        <v>Mn丶猫猫君</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>524</v>
+        <v>127</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>潇洒仗剑天下</v>
+        <v>与尔同销萬古愁</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>244</v>
+        <v>630</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="2" t="str">
+        <v>460</v>
+      </c>
+      <c r="C30" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>纯洁友善的殇</v>
+        <v>#N/A</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>631</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>355</v>
+        <v>457</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>薄霭</v>
+        <v>南宫絮语</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>632</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>蝶舞旧梦</v>
+        <v>只想做个好人</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>525</v>
+        <v>87</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>追风少年鹰老七</v>
+        <v>吕小栋</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>494</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>迷茫中徘徊</v>
+        <v>大眼睛秋秋</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>91</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>锦衣卫知秋</v>
+        <v>尐浣熊。</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>那年红颜</v>
+        <v>异逍遥</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="2" t="e">
+        <v>88</v>
+      </c>
+      <c r="C37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>我是天香的啊</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>636</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>495</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>青羽墨染云</v>
+        <v>梦觞丶</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>濯清莲而不妖</v>
+        <v>沐伯乾</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>638</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>顾寻清</v>
+        <v>夜冥雪</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>526</v>
+        <v>347</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>余子乔丶</v>
+        <v>丐帮萌主</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>510</v>
+        <v>640</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>497</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>一个有内涵的人</v>
+        <v>关翔予</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>527</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>万心忧</v>
+        <v>叶菡</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>仁剑震音扬</v>
+        <v>天下悍刀出北凉</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>569</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="C45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>い楓ゞ妖い</v>
+        <v>月下魂兮</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>509</v>
+        <v>641</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>丿几度度丶</v>
+        <v>水影悠兰</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>571</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>356</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>任离流</v>
+        <v>潇洒仗剑天下</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>557</v>
+        <v>642</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>498</v>
       </c>
       <c r="C48" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>俱利摩</v>
+        <v>紫雨幽雲</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="C49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>GoldㅈExperie</v>
+        <v>艾莉亞史塔克</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>449</v>
+        <v>644</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>o。o</v>
+        <v>那年红颜</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>620</v>
+        <v>348</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>青羽墨染云</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>646</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>324</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>墨韵轩华</v>
+        <v>顾寻清</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>475</v>
+        <v>647</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>357</v>
+        <v>94</v>
       </c>
       <c r="C53" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>奥利奥。巧轻脆</v>
+        <v>GoldㅈExperie</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>648</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>528</v>
+        <v>465</v>
       </c>
       <c r="C54" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>姬如影</v>
+        <v>友善的咸鱼白</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C55" s="2" t="e">
+        <v>380</v>
+      </c>
+      <c r="C55" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>万心忧</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>572</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C56" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>咸鱼天香</v>
+        <v>仁剑震音扬</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>1</v>
+        <v>483</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>325</v>
+        <v>466</v>
       </c>
       <c r="C57" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>太极至尊</v>
+        <v>丿几度度丶</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>459</v>
+        <v>650</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>487</v>
+        <v>582</v>
       </c>
       <c r="C58" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>吾寄愁心与明月</v>
+        <v>北城初夏</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>651</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>96</v>
+        <v>317</v>
       </c>
       <c r="C59" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>南眸</v>
+        <v>奥利奥。巧轻脆</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>473</v>
+        <v>574</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>97</v>
+        <v>467</v>
       </c>
       <c r="C60" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>可可菌</v>
+        <v>怒怒怒怒火</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>326</v>
+        <v>96</v>
       </c>
       <c r="C61" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>浅歌丶濢曦轻衣</v>
+        <v>蛋蛋疍</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>622</v>
+      <c r="A62" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>529</v>
+        <v>318</v>
       </c>
       <c r="C62" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>怒怒怒怒火</v>
+        <v>o。o</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>623</v>
-      </c>
       <c r="B63" s="1" t="s">
-        <v>98</v>
+        <v>500</v>
       </c>
       <c r="C63" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>√蓝莓巧克力丶</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>75</v>
-      </c>
       <c r="B64" s="1" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="C64" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>淺笙</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>460</v>
-      </c>
       <c r="B65" s="1" t="s">
-        <v>488</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>神她吗</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="e">
-        <f t="shared" ref="C66:C129" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
+        <f t="shared" ref="C66:C95" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>625</v>
-      </c>
       <c r="B67" s="1" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C67" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>仅是一抹渣渣茶</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>626</v>
-      </c>
       <c r="B68" s="1" t="s">
-        <v>9</v>
+        <v>468</v>
       </c>
       <c r="C68" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>永恒永远十八岁</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>511</v>
-      </c>
       <c r="B69" s="1" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>八块腹肌小官人</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>627</v>
-      </c>
       <c r="B70" s="1" t="s">
-        <v>100</v>
+        <v>502</v>
       </c>
       <c r="C70" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>刀无回</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>647</v>
-      </c>
       <c r="B71" s="1" t="s">
-        <v>489</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>丐帮汪剑通</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>68</v>
-      </c>
       <c r="B72" s="1" t="s">
-        <v>52</v>
+        <v>469</v>
       </c>
       <c r="C72" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>乌莲娜</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>168</v>
-      </c>
       <c r="B73" s="1" t="s">
-        <v>101</v>
+        <v>503</v>
       </c>
       <c r="C73" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>阿锟猫</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>600</v>
-      </c>
       <c r="B74" s="1" t="s">
-        <v>531</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ShLe丶神楽</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>472</v>
-      </c>
       <c r="B75" s="1" t="s">
-        <v>102</v>
+        <v>490</v>
       </c>
       <c r="C75" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>龙一萧</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>512</v>
-      </c>
       <c r="B76" s="1" t="s">
-        <v>490</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>蛋蛋疍</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>628</v>
-      </c>
       <c r="B77" s="1" t="s">
-        <v>532</v>
+        <v>471</v>
       </c>
       <c r="C77" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>一人一枪闯九州</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>559</v>
-      </c>
       <c r="B78" s="1" t="s">
-        <v>491</v>
+        <v>319</v>
       </c>
       <c r="C78" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>闭月羞</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>69</v>
-      </c>
       <c r="B79" s="1" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="C79" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>诸天花雨</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>629</v>
-      </c>
       <c r="B80" s="1" t="s">
-        <v>104</v>
+        <v>472</v>
       </c>
       <c r="C80" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>FateScorpio</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>630</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>492</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>古手梨花sama</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>631</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>327</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>＊团灭专用奶</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>34</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>在下唐言</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>30</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>493</v>
+        <v>583</v>
       </c>
       <c r="C84" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>晓月梦澈</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>382</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>执劍小书生</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>316</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>曲终无意</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>632</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>106</v>
+        <v>473</v>
       </c>
       <c r="C87" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>夜白衣</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>633</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>107</v>
+        <v>474</v>
       </c>
       <c r="C88" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>丶天蓝色</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>27</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="C89" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>墨萧炎</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>634</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>533</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>丶忍野咩咩</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>33</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>108</v>
+        <v>504</v>
       </c>
       <c r="C91" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>沐浠尘</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>282</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="C92" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>独孤杀生</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>294</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>甄心</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>38</v>
-      </c>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>109</v>
+        <v>505</v>
       </c>
       <c r="C94" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>白芹</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>635</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>499</v>
+        <v>110</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>笑看浮华红尘事</v>
+        <f t="shared" ref="C66:C129" si="2">VLOOKUP("*"&amp;A96&amp;"*",B:B,1,0)</f>
+        <v>墨河</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>636</v>
+        <v>575</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>500</v>
+        <v>111</v>
       </c>
       <c r="C97" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>637</v>
+        <v>576</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="C98" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>638</v>
-      </c>
       <c r="B99" s="1" t="s">
-        <v>534</v>
+        <v>113</v>
       </c>
       <c r="C99" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>树儿高高长</v>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>639</v>
-      </c>
       <c r="B100" s="1" t="s">
-        <v>501</v>
+        <v>114</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>再见是否红着脸</v>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>405</v>
-      </c>
       <c r="B101" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C101" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>语丶殇</v>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>29</v>
-      </c>
       <c r="B102" s="1" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>鱼香</v>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>59</v>
-      </c>
       <c r="B103" s="1" t="s">
-        <v>358</v>
+        <v>506</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>鱼小小</v>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>8</v>
-      </c>
       <c r="B104" s="1" t="s">
-        <v>112</v>
+        <v>477</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>南宫絮语</v>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>402</v>
-      </c>
       <c r="B105" s="1" t="s">
-        <v>113</v>
+        <v>478</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>超人不会飞〃</v>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>98</v>
-      </c>
       <c r="B106" s="1" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>与尔同销萬古愁</v>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>483</v>
-      </c>
       <c r="B107" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>暮雪醉逍遥</v>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>296</v>
-      </c>
       <c r="B108" s="1" t="s">
-        <v>116</v>
+        <v>507</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>鱼爸爸</v>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>648</v>
-      </c>
       <c r="B109" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C109" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>凌渃尘</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>357</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="C110" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Mn丶猫猫君</v>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>536</v>
+        <v>351</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>649</v>
-      </c>
       <c r="B112" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>111</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>50</v>
+        <v>313</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>只想做个好人</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>539</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>537</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>张灵风</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>128</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>我是天香的啊</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>640</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>504</v>
+        <v>321</v>
       </c>
       <c r="C116" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>折扇浪漫</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>55</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>119</v>
+        <v>459</v>
       </c>
       <c r="C117" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>异逍遥</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>10</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>359</v>
+        <v>121</v>
       </c>
       <c r="C118" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>319</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="C119" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>大眼睛秋秋</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>136</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C120" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>城南穷鬼赵四</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>96</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>120</v>
+        <v>322</v>
       </c>
       <c r="C121" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>明年今日奕十年</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>3</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C122" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>浪迹小秦</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>9</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C123" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>梦觞丶</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>118</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="C124" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>清新荷语</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>130</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>123</v>
+        <v>491</v>
       </c>
       <c r="C125" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>沐伯乾</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>84</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>124</v>
+        <v>585</v>
       </c>
       <c r="C126" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>眉间一点白</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>93</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>539</v>
+        <v>381</v>
       </c>
       <c r="C127" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>时钟轻摇孤独</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>518</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C128" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>晓晨晨晨</v>
+        <f t="shared" si="2"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>641</v>
+        <v>578</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C129" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>52</v>
-      </c>
       <c r="B130" s="1" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C130" s="2" t="str">
-        <f t="shared" ref="C130:C193" si="2">VLOOKUP("*"&amp;A130&amp;"*",B:B,1,0)</f>
-        <v>百里轩翊</v>
+        <f t="shared" ref="C130:C145" si="3">VLOOKUP("*"&amp;A130&amp;"*",B:B,1,0)</f>
+        <v>墨河</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>126</v>
+        <v>492</v>
       </c>
       <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>6</v>
-      </c>
       <c r="B132" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C132" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>素蝶</v>
+        <f t="shared" si="3"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>642</v>
-      </c>
       <c r="B133" s="1" t="s">
-        <v>128</v>
+        <v>480</v>
       </c>
       <c r="C133" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>小阿淮呀</v>
+        <f t="shared" si="3"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>124</v>
-      </c>
       <c r="B134" s="1" t="s">
-        <v>392</v>
+        <v>130</v>
       </c>
       <c r="C134" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>青丝枫凌</v>
+        <f t="shared" si="3"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>108</v>
-      </c>
       <c r="B135" s="1" t="s">
-        <v>540</v>
+        <v>481</v>
       </c>
       <c r="C135" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>破穿</v>
+        <f t="shared" si="3"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>540</v>
-      </c>
       <c r="B137" s="1" t="s">
-        <v>130</v>
+        <v>586</v>
       </c>
       <c r="C137" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>跑调的张学友</v>
+        <f t="shared" si="3"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>643</v>
-      </c>
       <c r="B138" s="1" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="C138" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>花兮兮兮兮</v>
+        <f t="shared" si="3"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>324</v>
-      </c>
       <c r="B139" s="1" t="s">
-        <v>131</v>
+        <v>482</v>
       </c>
       <c r="C139" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>雙生逐梦</v>
+        <f t="shared" si="3"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>132</v>
-      </c>
       <c r="B140" s="1" t="s">
-        <v>132</v>
+        <v>511</v>
       </c>
       <c r="C140" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>这下可好啦</v>
+        <f t="shared" si="3"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>491</v>
-      </c>
       <c r="B141" s="1" t="s">
-        <v>506</v>
+        <v>133</v>
       </c>
       <c r="C141" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>冷霜刃</v>
+        <f t="shared" si="3"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>644</v>
-      </c>
       <c r="B142" s="1" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="C142" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>天下悍刀出北凉</v>
+        <f t="shared" si="3"/>
+        <v>墨河</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>507</v>
+        <v>324</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>388</v>
-      </c>
       <c r="B144" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="C144" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>烈凝风</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>645</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C145" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>芍药児</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C146" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C147" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C148" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C149" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C150" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C151" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C152" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C153" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C154" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C155" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C156" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C157" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="C157" s="2"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C158" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C159" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C160" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C161" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C161" s="2"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C162" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C162" s="2"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C163" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C164" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C164" s="2"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C165" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C166" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C167" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C167" s="2"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C168" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C169" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C170" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="C170" s="2"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C171" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C172" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C173" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C173" s="2"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C174" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C174" s="2"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C175" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C176" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="C176" s="2"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C177" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C178" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C179" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C179" s="2"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C180" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="C180" s="2"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C181" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C181" s="2"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C182" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C182" s="2"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C183" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C183" s="2"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C184" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C185" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C186" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C187" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C188" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="C188" s="2"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C189" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C189" s="2"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C190" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C191" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C191" s="2"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C192" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C193" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C194" s="2" t="str">
-        <f t="shared" ref="C194:C257" si="3">VLOOKUP("*"&amp;A194&amp;"*",B:B,1,0)</f>
-        <v>尐浣熊。</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C194" s="2"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C195" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C196" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C197" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C197" s="2"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C198" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C199" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C199" s="2"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C200" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="C200" s="2"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C201" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C201" s="2"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C202" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C203" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C203" s="2"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C204" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C205" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C206" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C206" s="2"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C207" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C207" s="2"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C208" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C208" s="2"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C209" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C209" s="2"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C210" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C210" s="2"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C211" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C211" s="2"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C212" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="C212" s="2"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C213" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C213" s="2"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C214" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C214" s="2"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C215" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C215" s="2"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C216" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C216" s="2"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C217" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C218" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C218" s="2"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C219" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="C219" s="2"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C220" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C221" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C221" s="2"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C222" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C223" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C223" s="2"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C224" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C224" s="2"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C225" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C226" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C227" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="C227" s="2"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C228" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="C228" s="2"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C229" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="C229" s="2"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C230" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C231" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C231" s="2"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C232" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C233" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C233" s="2"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C234" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C234" s="2"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C235" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="C235" s="2"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C236" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="C236" s="2"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C237" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C237" s="2"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C238" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C238" s="2"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C239" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C239" s="2"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C240" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="C240" s="2"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C241" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C241" s="2"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C242" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="C242" s="2"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C243" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C243" s="2"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C244" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="C244" s="2"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C245" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="C245" s="2"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C246" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C246" s="2"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C247" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C247" s="2"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C248" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C248" s="2"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C249" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C249" s="2"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C250" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C250" s="2"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C251" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C251" s="2"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C252" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C252" s="2"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C253" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C253" s="2"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C254" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C254" s="2"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C255" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C255" s="2"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C256" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C256" s="2"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C257" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C257" s="2"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C258" s="2" t="str">
-        <f t="shared" ref="C258:C321" si="4">VLOOKUP("*"&amp;A258&amp;"*",B:B,1,0)</f>
-        <v>尐浣熊。</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C258" s="2"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C259" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="C259" s="2"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C260" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C260" s="2"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C261" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C261" s="2"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C262" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C262" s="2"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C263" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C263" s="2"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C264" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C264" s="2"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C265" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C265" s="2"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C266" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C266" s="2"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C267" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C268" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C268" s="2"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C269" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C269" s="2"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C270" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C270" s="2"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C271" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C271" s="2"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C272" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+      <c r="C272" s="2"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C273" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C273" s="2"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C274" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="C274" s="2"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C275" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C275" s="2"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C276" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C276" s="2"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C277" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C277" s="2"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C278" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C278" s="2"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C279" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C279" s="2"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C280" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+      <c r="C280" s="2"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C281" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="C281" s="2"/>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C282" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C282" s="2"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C283" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="C283" s="2"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C284" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C284" s="2"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C285" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="C285" s="2"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C286" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C286" s="2"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C287" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C287" s="2"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C288" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C288" s="2"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C289" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="C289" s="2"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C290" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C290" s="2"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C291" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C291" s="2"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C292" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C292" s="2"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C293" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C293" s="2"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C294" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C294" s="2"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C295" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C295" s="2"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C296" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C296" s="2"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C297" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C297" s="2"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C298" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C298" s="2"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C299" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C299" s="2"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C300" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C300" s="2"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C301" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C301" s="2"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C302" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C302" s="2"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C303" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C303" s="2"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C304" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C304" s="2"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C305" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="C305" s="2"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C306" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C306" s="2"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C307" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C307" s="2"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C308" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C308" s="2"/>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C309" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C309" s="2"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C310" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C310" s="2"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C311" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C311" s="2"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C312" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C312" s="2"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C313" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="C313" s="2"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C314" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C314" s="2"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C315" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C315" s="2"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C316" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C316" s="2"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C317" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="C317" s="2"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C318" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C318" s="2"/>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C319" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C319" s="2"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C320" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C320" s="2"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C321" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C321" s="2"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C322" s="2" t="str">
-        <f t="shared" ref="C322:C385" si="5">VLOOKUP("*"&amp;A322&amp;"*",B:B,1,0)</f>
-        <v>尐浣熊。</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C322" s="2"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C323" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C323" s="2"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C324" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C324" s="2"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C325" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C325" s="2"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C326" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C326" s="2"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C327" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C327" s="2"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C328" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C328" s="2"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C329" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C329" s="2"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C330" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C330" s="2"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C331" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C331" s="2"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C332" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C332" s="2"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C333" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C333" s="2"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C334" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C334" s="2"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C335" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C335" s="2"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C336" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C336" s="2"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C337" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C337" s="2"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C338" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C338" s="2"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C339" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C339" s="2"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C340" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C340" s="2"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C341" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C341" s="2"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C342" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C342" s="2"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C343" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C343" s="2"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C344" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="C344" s="2"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C345" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C345" s="2"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C346" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C346" s="2"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C347" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C347" s="2"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C348" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="C348" s="2"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C349" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="C349" s="2"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C350" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C350" s="2"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C351" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C351" s="2"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C352" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C352" s="2"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C353" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C353" s="2"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C354" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C354" s="2"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C355" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C355" s="2"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C356" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C356" s="2"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C357" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="C357" s="2"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C358" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="C358" s="2"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C359" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="C359" s="2"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C360" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C360" s="2"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C361" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C361" s="2"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C362" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="C362" s="2"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B363" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C363" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="C363" s="2"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C364" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C364" s="2"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B365" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C365" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C365" s="2"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C366" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C366" s="2"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C367" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C367" s="2"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B368" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C368" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C368" s="2"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B369" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C369" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C369" s="2"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B370" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C370" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C370" s="2"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B371" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C371" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C371" s="2"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C372" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="C372" s="2"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C373" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="C373" s="2"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B374" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C374" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C374" s="2"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C375" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C375" s="2"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C376" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C376" s="2"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B377" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C377" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C377" s="2"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B378" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C378" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="C378" s="2"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C379" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C379" s="2"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C380" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C380" s="2"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C381" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C381" s="2"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B382" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C382" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C382" s="2"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C383" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C383" s="2"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B384" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C384" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="C384" s="2"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B385" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C385" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="C385" s="2"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B386" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C386" s="2" t="str">
-        <f t="shared" ref="C386:C449" si="6">VLOOKUP("*"&amp;A386&amp;"*",B:B,1,0)</f>
-        <v>尐浣熊。</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C386" s="2"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C387" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C387" s="2"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C388" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C388" s="2"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B389" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C389" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C389" s="2"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B390" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C390" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="C390" s="2"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C391" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="C391" s="2"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B392" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C392" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C392" s="2"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B393" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C393" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C393" s="2"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B394" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C394" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C394" s="2"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B395" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C395" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C395" s="2"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B396" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C396" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C396" s="2"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B397" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C397" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="C397" s="2"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B398" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C398" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C398" s="2"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B399" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C399" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C399" s="2"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C400" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C400" s="2"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B401" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C401" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C401" s="2"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B402" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C402" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C402" s="2"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B403" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C403" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C403" s="2"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B404" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C404" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C404" s="2"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B405" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C405" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C405" s="2"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B406" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C406" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C406" s="2"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B407" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C407" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C407" s="2"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B408" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C408" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C408" s="2"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B409" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C409" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C409" s="2"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B410" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C410" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C410" s="2"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B411" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C411" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="C411" s="2"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B412" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C412" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C412" s="2"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B413" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C413" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C413" s="2"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B414" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C414" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C414" s="2"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B415" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C415" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C415" s="2"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B416" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C416" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="C416" s="2"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B417" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C417" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C417" s="2"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B418" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C418" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C418" s="2"/>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B419" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C419" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C419" s="2"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B420" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C420" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C420" s="2"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B421" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C421" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C421" s="2"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C422" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C422" s="2"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B423" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C423" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C423" s="2"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B424" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C424" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C424" s="2"/>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B425" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C425" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="C425" s="2"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B426" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C426" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C426" s="2"/>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B427" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C427" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C427" s="2"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B428" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C428" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C428" s="2"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B429" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C429" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C429" s="2"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B430" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C430" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C430" s="2"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B431" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C431" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C431" s="2"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B432" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C432" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C432" s="2"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B433" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C433" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C433" s="2"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B434" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C434" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C434" s="2"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B435" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C435" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C435" s="2"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B436" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C436" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C436" s="2"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B437" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C437" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C437" s="2"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B438" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C438" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C438" s="2"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B439" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C439" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C439" s="2"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B440" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C440" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="C440" s="2"/>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B441" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C441" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="C441" s="2"/>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B442" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C442" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C442" s="2"/>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B443" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C443" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C443" s="2"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B444" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C444" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C444" s="2"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B445" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C445" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C445" s="2"/>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B446" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C446" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C446" s="2"/>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B447" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C447" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C447" s="2"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C448" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C448" s="2"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B449" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C449" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C449" s="2"/>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B450" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C450" s="2" t="str">
-        <f t="shared" ref="C450:C513" si="7">VLOOKUP("*"&amp;A450&amp;"*",B:B,1,0)</f>
-        <v>尐浣熊。</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C450" s="2"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B451" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C451" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C451" s="2"/>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B452" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C452" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C452" s="2"/>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B453" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C453" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C453" s="2"/>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B454" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C454" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C454" s="2"/>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B455" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C455" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C455" s="2"/>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B456" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C456" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C456" s="2"/>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B457" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C457" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="C457" s="2"/>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B458" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C458" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C458" s="2"/>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B459" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C459" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C459" s="2"/>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B460" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C460" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C460" s="2"/>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B461" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C461" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C461" s="2"/>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B462" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C462" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C462" s="2"/>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B463" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C463" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C463" s="2"/>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B464" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C464" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C464" s="2"/>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B465" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C465" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C465" s="2"/>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B466" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C466" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C466" s="2"/>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B467" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C467" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C467" s="2"/>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B468" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C468" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C468" s="2"/>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B469" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C469" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C469" s="2"/>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B470" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C470" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C470" s="2"/>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B471" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C471" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C471" s="2"/>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B472" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C472" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C472" s="2"/>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B473" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C473" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C473" s="2"/>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B474" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C474" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C474" s="2"/>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B475" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C475" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C475" s="2"/>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B476" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C476" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="C476" s="2"/>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B477" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C477" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="C477" s="2"/>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B478" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C478" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C478" s="2"/>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B479" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C479" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C479" s="2"/>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B480" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C480" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="C480" s="2"/>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B481" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C481" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="C481" s="2"/>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B482" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C482" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="C482" s="2"/>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B483" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C483" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C483" s="2"/>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B484" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C484" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="C484" s="2"/>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B485" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C485" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C485" s="2"/>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B486" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C486" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C486" s="2"/>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B487" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C487" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C487" s="2"/>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B488" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C488" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="C488" s="2"/>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B489" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C489" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C489" s="2"/>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B490" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C490" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="C490" s="2"/>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B491" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C491" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C491" s="2"/>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B492" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C492" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="C492" s="2"/>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B493" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C493" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="C493" s="2"/>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B494" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C494" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C494" s="2"/>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B495" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C495" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C495" s="2"/>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B496" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C496" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="C496" s="2"/>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B497" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C497" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="C497" s="2"/>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B498" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C498" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C498" s="2"/>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B499" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C499" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C499" s="2"/>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B500" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C500" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="C500" s="2"/>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B501" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C501" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C501" s="2"/>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B502" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C502" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C502" s="2"/>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B503" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C503" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C503" s="2"/>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B504" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C504" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C504" s="2"/>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B505" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C505" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C505" s="2"/>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B506" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C506" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C506" s="2"/>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B507" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C507" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C507" s="2"/>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B508" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C508" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C508" s="2"/>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B509" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C509" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="C509" s="2"/>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B510" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C510" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C510" s="2"/>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B511" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="C511" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C511" s="2"/>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B512" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C512" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C512" s="2"/>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B513" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C513" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C513" s="2"/>
     </row>
     <row r="514" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B514" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C514" s="2" t="str">
-        <f t="shared" ref="C514:C577" si="8">VLOOKUP("*"&amp;A514&amp;"*",B:B,1,0)</f>
-        <v>尐浣熊。</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="C514" s="2"/>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B515" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C515" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="C515" s="2"/>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B516" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C516" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="C516" s="2"/>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B517" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C517" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C517" s="2"/>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B518" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C518" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C518" s="2"/>
     </row>
     <row r="519" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B519" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C519" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C519" s="2"/>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B520" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C520" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C520" s="2"/>
     </row>
     <row r="521" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B521" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C521" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="C521" s="2"/>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B522" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C522" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="C522" s="2"/>
     </row>
     <row r="523" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B523" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C523" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="C523" s="2"/>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B524" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C524" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C524" s="2"/>
     </row>
     <row r="525" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B525" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C525" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="C525" s="2"/>
     </row>
     <row r="526" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B526" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C526" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C526" s="2"/>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B527" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C527" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="C527" s="2"/>
     </row>
     <row r="528" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B528" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C528" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C528" s="2"/>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B529" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C529" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="C529" s="2"/>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B530" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C530" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C530" s="2"/>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B531" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C531" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C531" s="2"/>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B532" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C532" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C532" s="2"/>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B533" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C533" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C533" s="2"/>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B534" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C534" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C534" s="2"/>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B535" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C535" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C535" s="2"/>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B536" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C536" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C536" s="2"/>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B537" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C537" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C537" s="2"/>
     </row>
     <row r="538" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B538" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C538" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C538" s="2"/>
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B539" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C539" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C539" s="2"/>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B540" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C540" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C540" s="2"/>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B541" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C541" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C541" s="2"/>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B542" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C542" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C542" s="2"/>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B543" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C543" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C543" s="2"/>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B544" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C544" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C544" s="2"/>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B545" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C545" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C545" s="2"/>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B546" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C546" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C546" s="2"/>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B547" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C547" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C547" s="2"/>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B548" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C548" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="C548" s="2"/>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B549" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C549" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C549" s="2"/>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B550" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C550" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="C550" s="2"/>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B551" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C551" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C551" s="2"/>
     </row>
     <row r="552" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B552" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C552" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C552" s="2"/>
     </row>
     <row r="553" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B553" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C553" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C553" s="2"/>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B554" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C554" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C554" s="2"/>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B555" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C555" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C555" s="2"/>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B556" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C556" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C556" s="2"/>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B557" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C557" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C557" s="2"/>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B558" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C558" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C558" s="2"/>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B559" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C559" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="C559" s="2"/>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B560" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C560" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="C560" s="2"/>
     </row>
     <row r="561" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B561" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C561" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C561" s="2"/>
     </row>
     <row r="562" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B562" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C562" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C562" s="2"/>
     </row>
     <row r="563" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B563" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C563" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C563" s="2"/>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B564" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C564" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="C564" s="2"/>
     </row>
     <row r="565" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B565" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C565" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C565" s="2"/>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B566" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C566" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C566" s="2"/>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B567" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C567" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C567" s="2"/>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B568" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C568" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C568" s="2"/>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B569" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C569" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C569" s="2"/>
     </row>
     <row r="570" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B570" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C570" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="C570" s="2"/>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B571" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C571" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="C571" s="2"/>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B572" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C572" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C572" s="2"/>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B573" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C573" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C573" s="2"/>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B574" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C574" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C574" s="2"/>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B575" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C575" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C575" s="2"/>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B576" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C576" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="C576" s="2"/>
     </row>
     <row r="577" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B577" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C577" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C577" s="2"/>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B578" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C578" s="2" t="str">
-        <f t="shared" ref="C578:C596" si="9">VLOOKUP("*"&amp;A578&amp;"*",B:B,1,0)</f>
-        <v>尐浣熊。</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C578" s="2"/>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B579" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C579" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="C579" s="2"/>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B580" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C580" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C580" s="2"/>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B581" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C581" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C581" s="2"/>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B582" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C582" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C582" s="2"/>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B583" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C583" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C583" s="2"/>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B584" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C584" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C584" s="2"/>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B585" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C585" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C585" s="2"/>
     </row>
     <row r="586" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B586" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C586" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="C586" s="2"/>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B587" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C587" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C587" s="2"/>
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B588" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C588" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C588" s="2"/>
     </row>
     <row r="589" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B589" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C589" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="C589" s="2"/>
     </row>
     <row r="590" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B590" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C590" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C590" s="2"/>
     </row>
     <row r="591" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B591" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C591" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+      <c r="C591" s="2"/>
     </row>
     <row r="592" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B592" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C592" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="593" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B593" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C593" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="594" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B594" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C594" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="595" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B595" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C595" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
-    </row>
-    <row r="596" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B596" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C596" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>尐浣熊。</v>
-      </c>
+      <c r="C592" s="2"/>
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C593" s="2"/>
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C594" s="2"/>
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C595" s="2"/>
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C596" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C590"/>
   <sortState ref="H2:I46">
     <sortCondition descending="1" ref="I1"/>
   </sortState>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="650">
   <si>
     <t>怒怒怒怒火</t>
   </si>
@@ -1731,9 +1731,6 @@
     <t>刀客</t>
   </si>
   <si>
-    <t>月下</t>
-  </si>
-  <si>
     <t>煌煌</t>
   </si>
   <si>
@@ -1749,21 +1746,9 @@
     <t>怒火</t>
   </si>
   <si>
-    <t>梦太晚</t>
-  </si>
-  <si>
-    <t>苏慕清</t>
-  </si>
-  <si>
     <t>树儿</t>
   </si>
   <si>
-    <t>皇嬴政</t>
-  </si>
-  <si>
-    <t>天下</t>
-  </si>
-  <si>
     <t>浣熊</t>
   </si>
   <si>
@@ -1857,90 +1842,36 @@
     <t>烈酒味清茶</t>
   </si>
   <si>
-    <t>樱</t>
-  </si>
-  <si>
     <t>浪迹</t>
   </si>
   <si>
-    <t>百里</t>
-  </si>
-  <si>
-    <t>花兮</t>
-  </si>
-  <si>
-    <t>这下可好</t>
-  </si>
-  <si>
     <t>青丝</t>
   </si>
   <si>
-    <t>那年今</t>
-  </si>
-  <si>
-    <t>蓝莓</t>
-  </si>
-  <si>
-    <t>轻衣</t>
-  </si>
-  <si>
-    <t>闭月</t>
-  </si>
-  <si>
     <t>唐言</t>
   </si>
   <si>
-    <t>忍野</t>
-  </si>
-  <si>
     <t>此情</t>
   </si>
   <si>
     <t>独孤杀</t>
   </si>
   <si>
-    <t>破烂</t>
-  </si>
-  <si>
     <t>荆轲</t>
   </si>
   <si>
-    <t>超人不</t>
-  </si>
-  <si>
-    <t>猫猫君</t>
-  </si>
-  <si>
     <t>古愁</t>
   </si>
   <si>
-    <t>十里红莲</t>
-  </si>
-  <si>
-    <t>南宫</t>
-  </si>
-  <si>
-    <t>只想做</t>
-  </si>
-  <si>
-    <t>吕小</t>
-  </si>
-  <si>
     <t>大眼睛</t>
   </si>
   <si>
-    <t>我是天</t>
-  </si>
-  <si>
     <t>梦觞</t>
   </si>
   <si>
     <t>沐伯</t>
   </si>
   <si>
-    <t>夜冥</t>
-  </si>
-  <si>
     <t>丐帮</t>
   </si>
   <si>
@@ -1956,40 +1887,116 @@
     <t>史塔克</t>
   </si>
   <si>
-    <t>那年红</t>
-  </si>
-  <si>
     <t>青羽</t>
   </si>
   <si>
-    <t>顾寻</t>
-  </si>
-  <si>
     <t>gold</t>
   </si>
   <si>
-    <t>咸鱼白</t>
-  </si>
-  <si>
     <t>万心</t>
   </si>
   <si>
     <t>北城</t>
   </si>
   <si>
-    <t>奥利奥</t>
+    <t>我是天香</t>
+  </si>
+  <si>
+    <t>奶小牛</t>
+  </si>
+  <si>
+    <t>橙橙</t>
+  </si>
+  <si>
+    <t>天蓝色</t>
+  </si>
+  <si>
+    <t>君雅</t>
+  </si>
+  <si>
+    <t>冥雪</t>
+  </si>
+  <si>
+    <t>月凡</t>
+  </si>
+  <si>
+    <t>哒哒</t>
+  </si>
+  <si>
+    <t>慕容英</t>
+  </si>
+  <si>
+    <t>山高</t>
+  </si>
+  <si>
+    <t>凝烟</t>
+  </si>
+  <si>
+    <t>余子</t>
+  </si>
+  <si>
+    <t>与明月</t>
+  </si>
+  <si>
+    <t>轩华</t>
+  </si>
+  <si>
+    <t>小官人</t>
+  </si>
+  <si>
+    <t>锟猫</t>
+  </si>
+  <si>
+    <t>白衣</t>
+  </si>
+  <si>
+    <t>凯贼</t>
+  </si>
+  <si>
+    <t>沐浠</t>
+  </si>
+  <si>
+    <t>笑看浮</t>
+  </si>
+  <si>
+    <t>红着脸</t>
+  </si>
+  <si>
+    <t>猫猫</t>
+  </si>
+  <si>
+    <t>折扇</t>
+  </si>
+  <si>
+    <t>阿淮</t>
+  </si>
+  <si>
+    <t>老七</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2010,16 +2017,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2300,10 +2321,10 @@
   <dimension ref="A1:I596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="C67" sqref="C1:C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
@@ -2313,31 +2334,31 @@
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>612</v>
+    <row r="1" spans="1:9">
+      <c r="A1" s="8" t="s">
+        <v>629</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="str">
         <f>VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
-        <v>浪迹小秦</v>
+        <v>張君雅。</v>
       </c>
       <c r="I1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>613</v>
+    <row r="2" spans="1:9">
+      <c r="A2" s="8" t="s">
+        <v>630</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>488</v>
       </c>
       <c r="C2" s="2" t="str">
         <f t="shared" ref="C2:C65" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,1,0)</f>
-        <v>百里轩翊</v>
+        <v>夜冥雪</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>286</v>
@@ -2346,16 +2367,16 @@
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>106</v>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8" t="s">
+        <v>616</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>破穿</v>
+        <v>丐帮萌主</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>295</v>
@@ -2364,16 +2385,16 @@
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>614</v>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9" t="s">
+        <v>631</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>花兮兮兮兮</v>
+        <v>何月凡</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>68</v>
@@ -2382,16 +2403,16 @@
         <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>615</v>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8" t="s">
+        <v>617</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>这下可好啦</v>
+        <v>关翔予</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>34</v>
@@ -2400,16 +2421,16 @@
         <v>486</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>616</v>
+    <row r="6" spans="1:9">
+      <c r="A6" s="8" t="s">
+        <v>568</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>青丝枫凌</v>
+        <v>其实想玩刀客</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>339</v>
@@ -2418,16 +2439,16 @@
         <v>486</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>568</v>
+    <row r="7" spans="1:9">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>311</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>其实想玩刀客</v>
+        <v>叶菡</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>32</v>
@@ -2436,16 +2457,16 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>567</v>
+    <row r="8" spans="1:9">
+      <c r="A8" s="8" t="s">
+        <v>632</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>墨炽</v>
+        <v>哒哒滴滴</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>343</v>
@@ -2454,16 +2475,16 @@
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>570</v>
+    <row r="9" spans="1:9">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>煌煌</v>
+        <v>在下唐银</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>308</v>
@@ -2472,16 +2493,16 @@
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>617</v>
+    <row r="10" spans="1:9">
+      <c r="A10" s="8" t="s">
+        <v>633</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>那年今若、</v>
+        <v>七情剑伶慕容英</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>274</v>
@@ -2490,16 +2511,16 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>618</v>
+    <row r="11" spans="1:9">
+      <c r="A11" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>√蓝莓巧克力丶</v>
+        <v>天下芒果</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>63</v>
@@ -2508,16 +2529,16 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>619</v>
+    <row r="12" spans="1:9">
+      <c r="A12" s="8" t="s">
+        <v>626</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>浅歌丶濢曦轻衣</v>
+        <v>奶小牛丶</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>37</v>
@@ -2526,16 +2547,16 @@
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>620</v>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8" t="s">
+        <v>634</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>闭月羞</v>
+        <v>山高丶木易</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>29</v>
@@ -2544,16 +2565,16 @@
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>621</v>
+    <row r="14" spans="1:9">
+      <c r="A14" s="8" t="s">
+        <v>635</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>在下唐言</v>
+        <v>木易丶凝烟</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
@@ -2562,16 +2583,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
+    <row r="15" spans="1:9">
+      <c r="A15" s="8" t="s">
+        <v>627</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>墨萧炎</v>
+        <v>橙橙喵呜</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>22</v>
@@ -2580,16 +2601,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>622</v>
+    <row r="16" spans="1:9">
+      <c r="A16" s="8" t="s">
+        <v>570</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>499</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>丶忍野咩咩</v>
+        <v>潇洒仗剑天下</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>330</v>
@@ -2598,16 +2619,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>577</v>
+    <row r="17" spans="1:9">
+      <c r="A17" s="8" t="s">
+        <v>618</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>树儿高高长</v>
+        <v>水影悠兰</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>54</v>
@@ -2616,16 +2637,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>榕月</v>
+        <v>白析</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>14</v>
@@ -2634,16 +2655,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>623</v>
+    <row r="19" spans="1:9">
+      <c r="A19" s="8" t="s">
+        <v>619</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>此情珂待</v>
+        <v>紫雨幽雲</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>60</v>
@@ -2652,16 +2673,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
+    <row r="20" spans="1:9">
+      <c r="A20" s="8" t="s">
+        <v>620</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>458</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>沐浠尘</v>
+        <v>艾莉亞史塔克</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>19</v>
@@ -2670,16 +2691,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>624</v>
+    <row r="21" spans="1:9">
+      <c r="A21" s="8" t="s">
+        <v>621</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>独孤杀生</v>
+        <v>青羽墨染云</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
@@ -2688,16 +2709,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>625</v>
+    <row r="22" spans="1:9">
+      <c r="A22" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>470</v>
       </c>
       <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>破烂刀客</v>
+        <v>顾寻清</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>366</v>
@@ -2706,16 +2727,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>626</v>
+    <row r="23" spans="1:9">
+      <c r="A23" s="8" t="s">
+        <v>622</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>荆轲已逝高渐离</v>
+        <v>GoldㅈExperie</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>219</v>
@@ -2724,16 +2745,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>627</v>
+    <row r="24" spans="1:9">
+      <c r="A24" s="8" t="s">
+        <v>431</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>超人不会飞〃</v>
+        <v>o。o</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>57</v>
@@ -2742,16 +2763,16 @@
         <v>485</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
+    <row r="25" spans="1:9">
+      <c r="A25" s="8" t="s">
+        <v>571</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>鱼小小</v>
+        <v>仁剑震音扬</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>131</v>
@@ -2760,16 +2781,16 @@
         <v>487</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>288</v>
+    <row r="26" spans="1:9">
+      <c r="A26" s="8" t="s">
+        <v>636</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>鱼爸爸</v>
+        <v>余子乔丶</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>5</v>
@@ -2778,16 +2799,16 @@
         <v>487</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
+    <row r="27" spans="1:9">
+      <c r="A27" s="8" t="s">
+        <v>483</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>鱼香</v>
+        <v>丿几度度丶</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>109</v>
@@ -2796,16 +2817,16 @@
         <v>487</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>628</v>
+    <row r="28" spans="1:9">
+      <c r="A28" s="8" t="s">
+        <v>624</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>510</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Mn丶猫猫君</v>
+        <v>北城初夏</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>10</v>
@@ -2814,16 +2835,16 @@
         <v>487</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>629</v>
+    <row r="29" spans="1:9">
+      <c r="A29" s="8" t="s">
+        <v>637</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>与尔同销萬古愁</v>
+        <v>吾寄愁心与明月</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>311</v>
@@ -2832,16 +2853,16 @@
         <v>487</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>630</v>
+    <row r="30" spans="1:9">
+      <c r="A30" s="10" t="s">
+        <v>638</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C30" s="2" t="e">
+      <c r="C30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>墨韵轩华</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>95</v>
@@ -2850,16 +2871,16 @@
         <v>487</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>631</v>
+    <row r="31" spans="1:9">
+      <c r="A31" s="8" t="s">
+        <v>639</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>457</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>南宫絮语</v>
+        <v>八块腹肌小官人</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>9</v>
@@ -2868,16 +2889,16 @@
         <v>487</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>632</v>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8" t="s">
+        <v>573</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>只想做个好人</v>
+        <v>怒怒怒怒火</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>471</v>
@@ -2886,16 +2907,16 @@
         <v>487</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>633</v>
+    <row r="33" spans="1:9">
+      <c r="A33" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>吕小栋</v>
+        <v>椛灯</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>4</v>
@@ -2904,841 +2925,850 @@
         <v>487</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>634</v>
+    <row r="34" spans="1:9">
+      <c r="A34" s="8" t="s">
+        <v>528</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C34" s="2" t="str">
+      <c r="C34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>闭月羞</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>万心忧</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>阿锟猫</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>乌莲娜</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>在下唐言</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>夜白衣</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>丶天蓝色</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>守护锋</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>树儿高高长</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>凯贼阔里</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>此情珂待</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>沐浠尘</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>独孤杀生</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>白芹</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>笑看浮华红尘事</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>再见是否红着脸</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>荆轲已逝高渐离</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Mn丶猫猫君</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>鱼爸爸</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>大眼睛秋秋</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C35" s="2" t="str">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>与尔同销萬古愁</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>尐浣熊。</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>异逍遥</v>
-      </c>
-      <c r="H36" s="2" t="s">
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="2" t="str">
+      <c r="C56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>我是天香的啊</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>636</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C38" s="2" t="str">
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>折扇浪漫</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>梦觞丶</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>637</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C39" s="2" t="str">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>零拾</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>615</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>沐伯乾</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>638</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>夜冥雪</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>639</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>丐帮萌主</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>640</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>关翔予</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>叶菡</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>579</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>天下悍刀出北凉</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>569</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>月下魂兮</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>641</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>水影悠兰</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>571</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>潇洒仗剑天下</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>642</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>紫雨幽雲</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>643</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>艾莉亞史塔克</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>那年红颜</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>645</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>青羽墨染云</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>646</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>顾寻清</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>647</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>GoldㅈExperie</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>648</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>友善的咸鱼白</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>649</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>万心忧</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>572</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>仁剑震音扬</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>丿几度度丶</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>650</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>北城初夏</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>651</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>奥利奥。巧轻脆</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>574</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>怒怒怒怒火</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>484</v>
+        <v>606</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="2" t="str">
+      <c r="C61" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>蛋蛋疍</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>浪迹小秦</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>431</v>
+        <v>648</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C62" s="2" t="str">
+      <c r="C62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>o。o</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>小阿淮呀</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>607</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C63" s="2" t="str">
+      <c r="C63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>青丝枫凌</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>567</v>
+      </c>
       <c r="B64" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C64" s="2" t="str">
+      <c r="C64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>墨炽</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>649</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="2" t="str">
+      <c r="C65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>追风少年鹰老七</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>611</v>
+        <v>484</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="2" t="e">
-        <f t="shared" ref="C66:C95" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="4" t="str">
+        <f t="shared" ref="C66:C111" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
+        <v>蛋蛋疍</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>569</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="2" t="str">
+      <c r="C67" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>煌煌</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="B68" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C68" s="2" t="str">
+      <c r="C68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="B69" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C69" s="2" t="str">
+      <c r="C69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="B70" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C70" s="2" t="str">
+      <c r="C70" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="B71" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="2" t="str">
+      <c r="C71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="B72" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C72" s="2" t="str">
+      <c r="C72" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="B73" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C73" s="2" t="str">
+      <c r="C73" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="B74" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="2" t="str">
+      <c r="C74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="B75" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C75" s="2" t="str">
+      <c r="C75" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="B76" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="2" t="str">
+      <c r="C76" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="B77" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C77" s="2" t="str">
+      <c r="C77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="B78" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C78" s="2" t="str">
+      <c r="C78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="B79" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C79" s="2" t="str">
+      <c r="C79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="B80" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C80" s="2" t="str">
+      <c r="C80" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3">
       <c r="B81" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="2" t="str">
+      <c r="C81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3">
       <c r="B82" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="2" t="str">
+      <c r="C82" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3">
       <c r="B83" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="2" t="str">
+      <c r="C83" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3">
       <c r="B84" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C84" s="2" t="str">
+        <v>578</v>
+      </c>
+      <c r="C84" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3">
       <c r="B85" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="2" t="str">
+      <c r="C85" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3">
       <c r="B86" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C86" s="2" t="str">
+      <c r="C86" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3">
       <c r="B87" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C87" s="2" t="str">
+      <c r="C87" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3">
       <c r="B88" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C88" s="2" t="str">
+      <c r="C88" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3">
       <c r="B89" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C89" s="2" t="str">
+      <c r="C89" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3">
       <c r="B90" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C90" s="2" t="str">
+      <c r="C90" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3">
       <c r="B91" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C91" s="2" t="str">
+      <c r="C91" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3">
       <c r="B92" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C92" s="2" t="str">
+      <c r="C92" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3">
       <c r="B93" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="2" t="str">
+      <c r="C93" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3">
       <c r="B94" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C94" s="2" t="str">
+      <c r="C94" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3">
       <c r="B95" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C95" s="2" t="str">
+      <c r="C95" s="4" t="str">
         <f t="shared" si="1"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3">
       <c r="B96" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C96" s="2" t="str">
-        <f t="shared" ref="C66:C129" si="2">VLOOKUP("*"&amp;A96&amp;"*",B:B,1,0)</f>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>575</v>
-      </c>
+      <c r="C96" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
       <c r="B97" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C97" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>576</v>
-      </c>
+      <c r="C97" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
       <c r="B98" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C98" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
       <c r="B99" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C99" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
       <c r="B100" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C100" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
       <c r="B101" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C101" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
       <c r="B102" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C102" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+      <c r="C102" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
       <c r="B103" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C103" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
       <c r="B104" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C104" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
       <c r="B105" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C105" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
       <c r="B106" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C106" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
       <c r="B107" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C107" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
       <c r="B108" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C108" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
       <c r="B109" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C109" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
       <c r="B110" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C110" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
       <c r="B111" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
       <c r="B112" s="1" t="s">
         <v>508</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>墨河</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C96:C129" si="2">VLOOKUP("*"&amp;A112&amp;"*",B:B,1,0)</f>
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
       <c r="B113" s="1" t="s">
         <v>313</v>
       </c>
@@ -3747,7 +3777,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3">
       <c r="B114" s="1" t="s">
         <v>118</v>
       </c>
@@ -3756,7 +3786,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3">
       <c r="B115" s="1" t="s">
         <v>119</v>
       </c>
@@ -3765,7 +3795,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3">
       <c r="B116" s="1" t="s">
         <v>321</v>
       </c>
@@ -3774,7 +3804,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3">
       <c r="B117" s="1" t="s">
         <v>459</v>
       </c>
@@ -3783,7 +3813,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3">
       <c r="B118" s="1" t="s">
         <v>121</v>
       </c>
@@ -3792,7 +3822,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3">
       <c r="B119" s="1" t="s">
         <v>509</v>
       </c>
@@ -3801,7 +3831,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3">
       <c r="B120" s="1" t="s">
         <v>122</v>
       </c>
@@ -3810,7 +3840,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3">
       <c r="B121" s="1" t="s">
         <v>322</v>
       </c>
@@ -3819,7 +3849,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3">
       <c r="B122" s="1" t="s">
         <v>82</v>
       </c>
@@ -3828,7 +3858,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3">
       <c r="B123" s="1" t="s">
         <v>123</v>
       </c>
@@ -3837,7 +3867,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3">
       <c r="B124" s="1" t="s">
         <v>124</v>
       </c>
@@ -3846,7 +3876,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3">
       <c r="B125" s="1" t="s">
         <v>491</v>
       </c>
@@ -3855,16 +3885,16 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3">
       <c r="B126" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C126" s="2" t="str">
         <f t="shared" si="2"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3">
       <c r="B127" s="1" t="s">
         <v>381</v>
       </c>
@@ -3873,7 +3903,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3">
       <c r="B128" s="1" t="s">
         <v>126</v>
       </c>
@@ -3882,19 +3912,16 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>578</v>
-      </c>
+    <row r="129" spans="2:3">
       <c r="B129" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C129" s="2" t="e">
+      <c r="C129" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>墨河</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
       <c r="B130" s="1" t="s">
         <v>83</v>
       </c>
@@ -3903,13 +3930,13 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3">
       <c r="B131" s="1" t="s">
         <v>492</v>
       </c>
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3">
       <c r="B132" s="1" t="s">
         <v>128</v>
       </c>
@@ -3918,7 +3945,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3">
       <c r="B133" s="1" t="s">
         <v>480</v>
       </c>
@@ -3927,7 +3954,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3">
       <c r="B134" s="1" t="s">
         <v>130</v>
       </c>
@@ -3936,7 +3963,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3">
       <c r="B135" s="1" t="s">
         <v>481</v>
       </c>
@@ -3945,22 +3972,22 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3">
       <c r="B136" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3">
       <c r="B137" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C137" s="2" t="str">
         <f t="shared" si="3"/>
         <v>墨河</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3">
       <c r="B138" s="1" t="s">
         <v>489</v>
       </c>
@@ -3969,7 +3996,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3">
       <c r="B139" s="1" t="s">
         <v>482</v>
       </c>
@@ -3978,7 +4005,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3">
       <c r="B140" s="1" t="s">
         <v>511</v>
       </c>
@@ -3987,7 +4014,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3">
       <c r="B141" s="1" t="s">
         <v>133</v>
       </c>
@@ -3996,7 +4023,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3">
       <c r="B142" s="1" t="s">
         <v>323</v>
       </c>
@@ -4005,13 +4032,13 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3">
       <c r="B143" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3">
       <c r="B144" s="1" t="s">
         <v>69</v>
       </c>
@@ -4020,7 +4047,7 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3">
       <c r="B145" s="1" t="s">
         <v>1</v>
       </c>
@@ -4029,2692 +4056,2692 @@
         <v>墨河</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3">
       <c r="B146" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3">
       <c r="B147" s="1" t="s">
         <v>526</v>
       </c>
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3">
       <c r="B148" s="1" t="s">
         <v>353</v>
       </c>
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3">
       <c r="B149" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3">
       <c r="B150" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3">
       <c r="B151" s="1" t="s">
         <v>456</v>
       </c>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3">
       <c r="B152" s="1" t="s">
         <v>431</v>
       </c>
       <c r="C152" s="2"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3">
       <c r="B153" s="1" t="s">
         <v>512</v>
       </c>
       <c r="C153" s="2"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3">
       <c r="B154" s="1" t="s">
         <v>376</v>
       </c>
       <c r="C154" s="2"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3">
       <c r="B155" s="1" t="s">
         <v>359</v>
       </c>
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3">
       <c r="B156" s="1" t="s">
         <v>361</v>
       </c>
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3">
       <c r="B157" s="1" t="s">
         <v>440</v>
       </c>
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3">
       <c r="B158" s="1" t="s">
         <v>441</v>
       </c>
       <c r="C158" s="2"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3">
       <c r="B159" s="1" t="s">
         <v>426</v>
       </c>
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3">
       <c r="B160" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3">
       <c r="B161" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C161" s="2"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3">
       <c r="B162" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C162" s="2"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3">
       <c r="B163" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C163" s="2"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3">
       <c r="B164" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C164" s="2"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3">
       <c r="B165" s="1" t="s">
         <v>445</v>
       </c>
       <c r="C165" s="2"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3">
       <c r="B166" s="1" t="s">
         <v>451</v>
       </c>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3">
       <c r="B167" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3">
       <c r="B168" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3">
       <c r="B169" s="1" t="s">
         <v>326</v>
       </c>
       <c r="C169" s="2"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3">
       <c r="B170" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C170" s="2"/>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3">
       <c r="B171" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3">
       <c r="B172" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3">
       <c r="B173" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3">
       <c r="B174" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C174" s="2"/>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3">
       <c r="B175" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C175" s="2"/>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3">
       <c r="B176" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C176" s="2"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3">
       <c r="B177" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C177" s="2"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3">
       <c r="B178" s="1" t="s">
         <v>354</v>
       </c>
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3">
       <c r="B179" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C179" s="2"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3">
       <c r="B180" s="1" t="s">
         <v>427</v>
       </c>
       <c r="C180" s="2"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3">
       <c r="B181" s="1" t="s">
         <v>428</v>
       </c>
       <c r="C181" s="2"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3">
       <c r="B182" s="1" t="s">
         <v>513</v>
       </c>
       <c r="C182" s="2"/>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3">
       <c r="B183" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C183" s="2"/>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3">
       <c r="B184" s="1" t="s">
         <v>514</v>
       </c>
       <c r="C184" s="2"/>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3">
       <c r="B185" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C185" s="2"/>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3">
       <c r="B186" s="1" t="s">
         <v>375</v>
       </c>
       <c r="C186" s="2"/>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3">
       <c r="B187" s="1" t="s">
         <v>516</v>
       </c>
       <c r="C187" s="2"/>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3">
       <c r="B188" s="1" t="s">
         <v>515</v>
       </c>
       <c r="C188" s="2"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3">
       <c r="B189" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C189" s="2"/>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3">
       <c r="B190" s="1" t="s">
         <v>517</v>
       </c>
       <c r="C190" s="2"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3">
       <c r="B191" s="1" t="s">
         <v>355</v>
       </c>
       <c r="C191" s="2"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3">
       <c r="B192" s="1" t="s">
         <v>519</v>
       </c>
       <c r="C192" s="2"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3">
       <c r="B193" s="1" t="s">
         <v>518</v>
       </c>
       <c r="C193" s="2"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3">
       <c r="B194" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C194" s="2"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3">
       <c r="B195" s="1" t="s">
         <v>429</v>
       </c>
       <c r="C195" s="2"/>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3">
       <c r="B196" s="1" t="s">
         <v>430</v>
       </c>
       <c r="C196" s="2"/>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3">
       <c r="B197" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3">
       <c r="B198" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3">
       <c r="B199" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C199" s="2"/>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3">
       <c r="B200" s="1" t="s">
         <v>520</v>
       </c>
       <c r="C200" s="2"/>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3">
       <c r="B201" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3">
       <c r="B202" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3">
       <c r="B203" s="1" t="s">
         <v>356</v>
       </c>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3">
       <c r="B204" s="1" t="s">
         <v>357</v>
       </c>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3">
       <c r="B205" s="1" t="s">
         <v>521</v>
       </c>
       <c r="C205" s="2"/>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3">
       <c r="B206" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C206" s="2"/>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3">
       <c r="B207" s="1" t="s">
         <v>432</v>
       </c>
       <c r="C207" s="2"/>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3">
       <c r="B208" s="1" t="s">
         <v>522</v>
       </c>
       <c r="C208" s="2"/>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:3">
       <c r="B209" s="1" t="s">
         <v>433</v>
       </c>
       <c r="C209" s="2"/>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3">
       <c r="B210" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C210" s="2"/>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3">
       <c r="B211" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C211" s="2"/>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3">
       <c r="B212" s="1" t="s">
         <v>523</v>
       </c>
       <c r="C212" s="2"/>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3">
       <c r="B213" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C213" s="2"/>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3">
       <c r="B214" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C214" s="2"/>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3">
       <c r="B215" s="1" t="s">
         <v>434</v>
       </c>
       <c r="C215" s="2"/>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3">
       <c r="B216" s="1" t="s">
         <v>435</v>
       </c>
       <c r="C216" s="2"/>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3">
       <c r="B217" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3">
       <c r="B218" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C218" s="2"/>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3">
       <c r="B219" s="1" t="s">
         <v>525</v>
       </c>
       <c r="C219" s="2"/>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3">
       <c r="B220" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C220" s="2"/>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3">
       <c r="B221" s="1" t="s">
         <v>436</v>
       </c>
       <c r="C221" s="2"/>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3">
       <c r="B222" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C222" s="2"/>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3">
       <c r="B223" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C223" s="2"/>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3">
       <c r="B224" s="1" t="s">
         <v>437</v>
       </c>
       <c r="C224" s="2"/>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3">
       <c r="B225" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C225" s="2"/>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3">
       <c r="B226" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C226" s="2"/>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3">
       <c r="B227" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C227" s="2"/>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3">
       <c r="B228" s="1" t="s">
         <v>531</v>
       </c>
       <c r="C228" s="2"/>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3">
       <c r="B229" s="1" t="s">
         <v>527</v>
       </c>
       <c r="C229" s="2"/>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3">
       <c r="B230" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C230" s="2"/>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3">
       <c r="B231" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C231" s="2"/>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3">
       <c r="B232" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C232" s="2"/>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3">
       <c r="B233" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C233" s="2"/>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3">
       <c r="B234" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C234" s="2"/>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3">
       <c r="B235" s="1" t="s">
         <v>439</v>
       </c>
       <c r="C235" s="2"/>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3">
       <c r="B236" s="1" t="s">
         <v>524</v>
       </c>
       <c r="C236" s="2"/>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3">
       <c r="B237" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C237" s="2"/>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3">
       <c r="B238" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C238" s="2"/>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3">
       <c r="B239" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C239" s="2"/>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3">
       <c r="B240" s="1" t="s">
         <v>528</v>
       </c>
       <c r="C240" s="2"/>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3">
       <c r="B241" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C241" s="2"/>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:3">
       <c r="B242" s="1" t="s">
         <v>529</v>
       </c>
       <c r="C242" s="2"/>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:3">
       <c r="B243" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C243" s="2"/>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:3">
       <c r="B244" s="1" t="s">
         <v>442</v>
       </c>
       <c r="C244" s="2"/>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:3">
       <c r="B245" s="1" t="s">
         <v>444</v>
       </c>
       <c r="C245" s="2"/>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:3">
       <c r="B246" s="1" t="s">
         <v>443</v>
       </c>
       <c r="C246" s="2"/>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:3">
       <c r="B247" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C247" s="2"/>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:3">
       <c r="B248" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C248" s="2"/>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:3">
       <c r="B249" s="1" t="s">
         <v>422</v>
       </c>
       <c r="C249" s="2"/>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:3">
       <c r="B250" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C250" s="2"/>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:3">
       <c r="B251" s="1" t="s">
         <v>446</v>
       </c>
       <c r="C251" s="2"/>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:3">
       <c r="B252" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C252" s="2"/>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:3">
       <c r="B253" s="1" t="s">
         <v>530</v>
       </c>
       <c r="C253" s="2"/>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:3">
       <c r="B254" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C254" s="2"/>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:3">
       <c r="B255" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C255" s="2"/>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:3">
       <c r="B256" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C256" s="2"/>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:3">
       <c r="B257" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C257" s="2"/>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:3">
       <c r="B258" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C258" s="2"/>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:3">
       <c r="B259" s="1" t="s">
         <v>448</v>
       </c>
       <c r="C259" s="2"/>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:3">
       <c r="B260" s="1" t="s">
         <v>423</v>
       </c>
       <c r="C260" s="2"/>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:3">
       <c r="B261" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C261" s="2"/>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:3">
       <c r="B262" s="1" t="s">
         <v>447</v>
       </c>
       <c r="C262" s="2"/>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:3">
       <c r="B263" s="1" t="s">
         <v>449</v>
       </c>
       <c r="C263" s="2"/>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:3">
       <c r="B264" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C264" s="2"/>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:3">
       <c r="B265" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C265" s="2"/>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:3">
       <c r="B266" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C266" s="2"/>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:3">
       <c r="B267" s="1" t="s">
         <v>450</v>
       </c>
       <c r="C267" s="2"/>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:3">
       <c r="B268" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C268" s="2"/>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:3">
       <c r="B269" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C269" s="2"/>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:3">
       <c r="B270" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C270" s="2"/>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:3">
       <c r="B271" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C271" s="2"/>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:3">
       <c r="B272" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C272" s="2"/>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:3">
       <c r="B273" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C273" s="2"/>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:3">
       <c r="B274" s="1" t="s">
         <v>532</v>
       </c>
       <c r="C274" s="2"/>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:3">
       <c r="B275" s="1" t="s">
         <v>452</v>
       </c>
       <c r="C275" s="2"/>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:3">
       <c r="B276" s="1" t="s">
         <v>360</v>
       </c>
       <c r="C276" s="2"/>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:3">
       <c r="B277" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C277" s="2"/>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:3">
       <c r="B278" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C278" s="2"/>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:3">
       <c r="B279" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C279" s="2"/>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:3">
       <c r="B280" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C280" s="2"/>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:3">
       <c r="B281" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C281" s="2"/>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:3">
       <c r="B282" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C282" s="2"/>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:3">
       <c r="B283" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C283" s="2"/>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:3">
       <c r="B284" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C284" s="2"/>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:3">
       <c r="B285" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C285" s="2"/>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:3">
       <c r="B286" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C286" s="2"/>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:3">
       <c r="B287" s="1" t="s">
         <v>363</v>
       </c>
       <c r="C287" s="2"/>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:3">
       <c r="B288" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C288" s="2"/>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:3">
       <c r="B289" s="1" t="s">
         <v>533</v>
       </c>
       <c r="C289" s="2"/>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:3">
       <c r="B290" s="1" t="s">
         <v>424</v>
       </c>
       <c r="C290" s="2"/>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:3">
       <c r="B291" s="1" t="s">
         <v>534</v>
       </c>
       <c r="C291" s="2"/>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:3">
       <c r="B292" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C292" s="2"/>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:3">
       <c r="B293" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C293" s="2"/>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:3">
       <c r="B294" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C294" s="2"/>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:3">
       <c r="B295" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C295" s="2"/>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:3">
       <c r="B296" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C296" s="2"/>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:3">
       <c r="B297" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C297" s="2"/>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:3">
       <c r="B298" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C298" s="2"/>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:3">
       <c r="B299" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C299" s="2"/>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:3">
       <c r="B300" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C300" s="2"/>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:3">
       <c r="B301" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C301" s="2"/>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:3">
       <c r="B302" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C302" s="2"/>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:3">
       <c r="B303" s="1" t="s">
         <v>405</v>
       </c>
       <c r="C303" s="2"/>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:3">
       <c r="B304" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C304" s="2"/>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:3">
       <c r="B305" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C305" s="2"/>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:3">
       <c r="B306" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C306" s="2"/>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:3">
       <c r="B307" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C307" s="2"/>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:3">
       <c r="B308" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C308" s="2"/>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:3">
       <c r="B309" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C309" s="2"/>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:3">
       <c r="B310" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C310" s="2"/>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:3">
       <c r="B311" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C311" s="2"/>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:3">
       <c r="B312" s="1" t="s">
         <v>330</v>
       </c>
       <c r="C312" s="2"/>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:3">
       <c r="B313" s="1" t="s">
         <v>537</v>
       </c>
       <c r="C313" s="2"/>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:3">
       <c r="B314" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C314" s="2"/>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:3">
       <c r="B315" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C315" s="2"/>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:3">
       <c r="B316" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C316" s="2"/>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:3">
       <c r="B317" s="1" t="s">
         <v>543</v>
       </c>
       <c r="C317" s="2"/>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:3">
       <c r="B318" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C318" s="2"/>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:3">
       <c r="B319" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C319" s="2"/>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:3">
       <c r="B320" s="1" t="s">
         <v>407</v>
       </c>
       <c r="C320" s="2"/>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:3">
       <c r="B321" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C321" s="2"/>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:3">
       <c r="B322" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C322" s="2"/>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:3">
       <c r="B323" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C323" s="2"/>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:3">
       <c r="B324" s="1" t="s">
         <v>536</v>
       </c>
       <c r="C324" s="2"/>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:3">
       <c r="B325" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C325" s="2"/>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:3">
       <c r="B326" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C326" s="2"/>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:3">
       <c r="B327" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C327" s="2"/>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:3">
       <c r="B328" s="1" t="s">
         <v>408</v>
       </c>
       <c r="C328" s="2"/>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:3">
       <c r="B329" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C329" s="2"/>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:3">
       <c r="B330" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C330" s="2"/>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:3">
       <c r="B331" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C331" s="2"/>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:3">
       <c r="B332" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C332" s="2"/>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:3">
       <c r="B333" s="1" t="s">
         <v>406</v>
       </c>
       <c r="C333" s="2"/>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:3">
       <c r="B334" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C334" s="2"/>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:3">
       <c r="B335" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C335" s="2"/>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:3">
       <c r="B336" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C336" s="2"/>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:3">
       <c r="B337" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C337" s="2"/>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:3">
       <c r="B338" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C338" s="2"/>
     </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:3">
       <c r="B339" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C339" s="2"/>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:3">
       <c r="B340" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C340" s="2"/>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:3">
       <c r="B341" s="1" t="s">
         <v>409</v>
       </c>
       <c r="C341" s="2"/>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:3">
       <c r="B342" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C342" s="2"/>
     </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:3">
       <c r="B343" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C343" s="2"/>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:3">
       <c r="B344" s="1" t="s">
         <v>535</v>
       </c>
       <c r="C344" s="2"/>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:3">
       <c r="B345" s="1" t="s">
         <v>410</v>
       </c>
       <c r="C345" s="2"/>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:3">
       <c r="B346" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C346" s="2"/>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:3">
       <c r="B347" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C347" s="2"/>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:3">
       <c r="B348" s="1" t="s">
         <v>411</v>
       </c>
       <c r="C348" s="2"/>
     </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:3">
       <c r="B349" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C349" s="2"/>
     </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:3">
       <c r="B350" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C350" s="2"/>
     </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:3">
       <c r="B351" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C351" s="2"/>
     </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:3">
       <c r="B352" s="1" t="s">
         <v>412</v>
       </c>
       <c r="C352" s="2"/>
     </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:3">
       <c r="B353" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C353" s="2"/>
     </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:3">
       <c r="B354" s="1" t="s">
         <v>214</v>
       </c>
       <c r="C354" s="2"/>
     </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:3">
       <c r="B355" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C355" s="2"/>
     </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:3">
       <c r="B356" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C356" s="2"/>
     </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:3">
       <c r="B357" s="1" t="s">
         <v>538</v>
       </c>
       <c r="C357" s="2"/>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:3">
       <c r="B358" s="1" t="s">
         <v>539</v>
       </c>
       <c r="C358" s="2"/>
     </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:3">
       <c r="B359" s="1" t="s">
         <v>414</v>
       </c>
       <c r="C359" s="2"/>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:3">
       <c r="B360" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C360" s="2"/>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:3">
       <c r="B361" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C361" s="2"/>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:3">
       <c r="B362" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C362" s="2"/>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:3">
       <c r="B363" s="1" t="s">
         <v>540</v>
       </c>
       <c r="C363" s="2"/>
     </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:3">
       <c r="B364" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C364" s="2"/>
     </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:3">
       <c r="B365" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C365" s="2"/>
     </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:3">
       <c r="B366" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C366" s="2"/>
     </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:3">
       <c r="B367" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C367" s="2"/>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:3">
       <c r="B368" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C368" s="2"/>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:3">
       <c r="B369" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C369" s="2"/>
     </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:3">
       <c r="B370" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C370" s="2"/>
     </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:3">
       <c r="B371" s="1" t="s">
         <v>336</v>
       </c>
       <c r="C371" s="2"/>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:3">
       <c r="B372" s="1" t="s">
         <v>541</v>
       </c>
       <c r="C372" s="2"/>
     </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:3">
       <c r="B373" s="1" t="s">
         <v>542</v>
       </c>
       <c r="C373" s="2"/>
     </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:3">
       <c r="B374" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C374" s="2"/>
     </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:3">
       <c r="B375" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C375" s="2"/>
     </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:3">
       <c r="B376" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C376" s="2"/>
     </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:3">
       <c r="B377" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C377" s="2"/>
     </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:3">
       <c r="B378" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C378" s="2"/>
     </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:3">
       <c r="B379" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C379" s="2"/>
     </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:3">
       <c r="B380" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C380" s="2"/>
     </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:3">
       <c r="B381" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C381" s="2"/>
     </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:3">
       <c r="B382" s="1" t="s">
         <v>415</v>
       </c>
       <c r="C382" s="2"/>
     </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:3">
       <c r="B383" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C383" s="2"/>
     </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:3">
       <c r="B384" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C384" s="2"/>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:3">
       <c r="B385" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C385" s="2"/>
     </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:3">
       <c r="B386" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C386" s="2"/>
     </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:3">
       <c r="B387" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C387" s="2"/>
     </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:3">
       <c r="B388" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C388" s="2"/>
     </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:3">
       <c r="B389" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C389" s="2"/>
     </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:3">
       <c r="B390" s="1" t="s">
         <v>544</v>
       </c>
       <c r="C390" s="2"/>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:3">
       <c r="B391" s="1" t="s">
         <v>545</v>
       </c>
       <c r="C391" s="2"/>
     </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:3">
       <c r="B392" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C392" s="2"/>
     </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:3">
       <c r="B393" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C393" s="2"/>
     </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:3">
       <c r="B394" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C394" s="2"/>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:3">
       <c r="B395" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C395" s="2"/>
     </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:3">
       <c r="B396" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C396" s="2"/>
     </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:3">
       <c r="B397" s="1" t="s">
         <v>546</v>
       </c>
       <c r="C397" s="2"/>
     </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:3">
       <c r="B398" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C398" s="2"/>
     </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:3">
       <c r="B399" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C399" s="2"/>
     </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:3">
       <c r="B400" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C400" s="2"/>
     </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:3">
       <c r="B401" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C401" s="2"/>
     </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:3">
       <c r="B402" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C402" s="2"/>
     </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:3">
       <c r="B403" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C403" s="2"/>
     </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:3">
       <c r="B404" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C404" s="2"/>
     </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:3">
       <c r="B405" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C405" s="2"/>
     </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:3">
       <c r="B406" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C406" s="2"/>
     </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:3">
       <c r="B407" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C407" s="2"/>
     </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:3">
       <c r="B408" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C408" s="2"/>
     </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:3">
       <c r="B409" s="1" t="s">
         <v>417</v>
       </c>
       <c r="C409" s="2"/>
     </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:3">
       <c r="B410" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C410" s="2"/>
     </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:3">
       <c r="B411" s="1" t="s">
         <v>418</v>
       </c>
       <c r="C411" s="2"/>
     </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:3">
       <c r="B412" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C412" s="2"/>
     </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:3">
       <c r="B413" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C413" s="2"/>
     </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:3">
       <c r="B414" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C414" s="2"/>
     </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:3">
       <c r="B415" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C415" s="2"/>
     </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:3">
       <c r="B416" s="1" t="s">
         <v>547</v>
       </c>
       <c r="C416" s="2"/>
     </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:3">
       <c r="B417" s="1" t="s">
         <v>419</v>
       </c>
       <c r="C417" s="2"/>
     </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:3">
       <c r="B418" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C418" s="2"/>
     </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:3">
       <c r="B419" s="1" t="s">
         <v>420</v>
       </c>
       <c r="C419" s="2"/>
     </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:3">
       <c r="B420" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C420" s="2"/>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:3">
       <c r="B421" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C421" s="2"/>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:3">
       <c r="B422" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C422" s="2"/>
     </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:3">
       <c r="B423" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C423" s="2"/>
     </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:3">
       <c r="B424" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C424" s="2"/>
     </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:3">
       <c r="B425" s="1" t="s">
         <v>548</v>
       </c>
       <c r="C425" s="2"/>
     </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:3">
       <c r="B426" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C426" s="2"/>
     </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:3">
       <c r="B427" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C427" s="2"/>
     </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:3">
       <c r="B428" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C428" s="2"/>
     </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:3">
       <c r="B429" s="1" t="s">
         <v>337</v>
       </c>
       <c r="C429" s="2"/>
     </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:3">
       <c r="B430" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C430" s="2"/>
     </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:3">
       <c r="B431" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C431" s="2"/>
     </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:3">
       <c r="B432" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C432" s="2"/>
     </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:3">
       <c r="B433" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C433" s="2"/>
     </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:3">
       <c r="B434" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C434" s="2"/>
     </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:3">
       <c r="B435" s="1" t="s">
         <v>331</v>
       </c>
       <c r="C435" s="2"/>
     </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:3">
       <c r="B436" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C436" s="2"/>
     </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:3">
       <c r="B437" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C437" s="2"/>
     </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:3">
       <c r="B438" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C438" s="2"/>
     </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:3">
       <c r="B439" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C439" s="2"/>
     </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:3">
       <c r="B440" s="1" t="s">
         <v>549</v>
       </c>
       <c r="C440" s="2"/>
     </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:3">
       <c r="B441" s="1" t="s">
         <v>421</v>
       </c>
       <c r="C441" s="2"/>
     </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:3">
       <c r="B442" s="1" t="s">
         <v>338</v>
       </c>
       <c r="C442" s="2"/>
     </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:3">
       <c r="B443" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C443" s="2"/>
     </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:3">
       <c r="B444" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C444" s="2"/>
     </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:3">
       <c r="B445" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C445" s="2"/>
     </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:3">
       <c r="B446" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C446" s="2"/>
     </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:3">
       <c r="B447" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C447" s="2"/>
     </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:3">
       <c r="B448" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C448" s="2"/>
     </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:3">
       <c r="B449" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C449" s="2"/>
     </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:3">
       <c r="B450" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C450" s="2"/>
     </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:3">
       <c r="B451" s="1" t="s">
         <v>378</v>
       </c>
       <c r="C451" s="2"/>
     </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:3">
       <c r="B452" s="1" t="s">
         <v>398</v>
       </c>
       <c r="C452" s="2"/>
     </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:3">
       <c r="B453" s="1" t="s">
         <v>307</v>
       </c>
       <c r="C453" s="2"/>
     </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:3">
       <c r="B454" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C454" s="2"/>
     </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:3">
       <c r="B455" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C455" s="2"/>
     </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:3">
       <c r="B456" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C456" s="2"/>
     </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:3">
       <c r="B457" s="1" t="s">
         <v>557</v>
       </c>
       <c r="C457" s="2"/>
     </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:3">
       <c r="B458" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C458" s="2"/>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:3">
       <c r="B459" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C459" s="2"/>
     </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:3">
       <c r="B460" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C460" s="2"/>
     </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:3">
       <c r="B461" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C461" s="2"/>
     </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:3">
       <c r="B462" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C462" s="2"/>
     </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:3">
       <c r="B463" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C463" s="2"/>
     </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:3">
       <c r="B464" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C464" s="2"/>
     </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:3">
       <c r="B465" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C465" s="2"/>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:3">
       <c r="B466" s="1" t="s">
         <v>281</v>
       </c>
       <c r="C466" s="2"/>
     </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:3">
       <c r="B467" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C467" s="2"/>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:3">
       <c r="B468" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C468" s="2"/>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:3">
       <c r="B469" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C469" s="2"/>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:3">
       <c r="B470" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C470" s="2"/>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:3">
       <c r="B471" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C471" s="2"/>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:3">
       <c r="B472" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C472" s="2"/>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:3">
       <c r="B473" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C473" s="2"/>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:3">
       <c r="B474" s="1" t="s">
         <v>384</v>
       </c>
       <c r="C474" s="2"/>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:3">
       <c r="B475" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C475" s="2"/>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:3">
       <c r="B476" s="1" t="s">
         <v>552</v>
       </c>
       <c r="C476" s="2"/>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:3">
       <c r="B477" s="1" t="s">
         <v>551</v>
       </c>
       <c r="C477" s="2"/>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:3">
       <c r="B478" s="1" t="s">
         <v>386</v>
       </c>
       <c r="C478" s="2"/>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:3">
       <c r="B479" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C479" s="2"/>
     </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:3">
       <c r="B480" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C480" s="2"/>
     </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:3">
       <c r="B481" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C481" s="2"/>
     </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:3">
       <c r="B482" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C482" s="2"/>
     </row>
-    <row r="483" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:3">
       <c r="B483" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C483" s="2"/>
     </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:3">
       <c r="B484" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C484" s="2"/>
     </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:3">
       <c r="B485" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C485" s="2"/>
     </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:3">
       <c r="B486" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C486" s="2"/>
     </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:3">
       <c r="B487" s="1" t="s">
         <v>340</v>
       </c>
       <c r="C487" s="2"/>
     </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:3">
       <c r="B488" s="1" t="s">
         <v>553</v>
       </c>
       <c r="C488" s="2"/>
     </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:3">
       <c r="B489" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C489" s="2"/>
     </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:3">
       <c r="B490" s="1" t="s">
         <v>554</v>
       </c>
       <c r="C490" s="2"/>
     </row>
-    <row r="491" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:3">
       <c r="B491" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C491" s="2"/>
     </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:3">
       <c r="B492" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C492" s="2"/>
     </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:3">
       <c r="B493" s="1" t="s">
         <v>273</v>
       </c>
       <c r="C493" s="2"/>
     </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:3">
       <c r="B494" s="1" t="s">
         <v>342</v>
       </c>
       <c r="C494" s="2"/>
     </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:3">
       <c r="B495" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C495" s="2"/>
     </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:3">
       <c r="B496" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C496" s="2"/>
     </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:3">
       <c r="B497" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C497" s="2"/>
     </row>
-    <row r="498" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:3">
       <c r="B498" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C498" s="2"/>
     </row>
-    <row r="499" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:3">
       <c r="B499" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C499" s="2"/>
     </row>
-    <row r="500" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:3">
       <c r="B500" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C500" s="2"/>
     </row>
-    <row r="501" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:3">
       <c r="B501" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C501" s="2"/>
     </row>
-    <row r="502" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:3">
       <c r="B502" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C502" s="2"/>
     </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:3">
       <c r="B503" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C503" s="2"/>
     </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:3">
       <c r="B504" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C504" s="2"/>
     </row>
-    <row r="505" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:3">
       <c r="B505" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C505" s="2"/>
     </row>
-    <row r="506" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:3">
       <c r="B506" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C506" s="2"/>
     </row>
-    <row r="507" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:3">
       <c r="B507" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C507" s="2"/>
     </row>
-    <row r="508" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:3">
       <c r="B508" s="1" t="s">
         <v>370</v>
       </c>
       <c r="C508" s="2"/>
     </row>
-    <row r="509" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:3">
       <c r="B509" s="1" t="s">
         <v>558</v>
       </c>
       <c r="C509" s="2"/>
     </row>
-    <row r="510" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:3">
       <c r="B510" s="1" t="s">
         <v>387</v>
       </c>
       <c r="C510" s="2"/>
     </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:3">
       <c r="B511" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C511" s="2"/>
     </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:3">
       <c r="B512" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C512" s="2"/>
     </row>
-    <row r="513" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:3">
       <c r="B513" s="1" t="s">
         <v>279</v>
       </c>
       <c r="C513" s="2"/>
     </row>
-    <row r="514" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:3">
       <c r="B514" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C514" s="2"/>
     </row>
-    <row r="515" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:3">
       <c r="B515" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C515" s="2"/>
     </row>
-    <row r="516" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:3">
       <c r="B516" s="1" t="s">
         <v>389</v>
       </c>
       <c r="C516" s="2"/>
     </row>
-    <row r="517" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:3">
       <c r="B517" s="1" t="s">
         <v>344</v>
       </c>
       <c r="C517" s="2"/>
     </row>
-    <row r="518" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:3">
       <c r="B518" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C518" s="2"/>
     </row>
-    <row r="519" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:3">
       <c r="B519" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C519" s="2"/>
     </row>
-    <row r="520" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:3">
       <c r="B520" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C520" s="2"/>
     </row>
-    <row r="521" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:3">
       <c r="B521" s="1" t="s">
         <v>560</v>
       </c>
       <c r="C521" s="2"/>
     </row>
-    <row r="522" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:3">
       <c r="B522" s="1" t="s">
         <v>390</v>
       </c>
       <c r="C522" s="2"/>
     </row>
-    <row r="523" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:3">
       <c r="B523" s="1" t="s">
         <v>561</v>
       </c>
       <c r="C523" s="2"/>
     </row>
-    <row r="524" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:3">
       <c r="B524" s="1" t="s">
         <v>391</v>
       </c>
       <c r="C524" s="2"/>
     </row>
-    <row r="525" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:3">
       <c r="B525" s="1" t="s">
         <v>562</v>
       </c>
       <c r="C525" s="2"/>
     </row>
-    <row r="526" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:3">
       <c r="B526" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C526" s="2"/>
     </row>
-    <row r="527" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:3">
       <c r="B527" s="1" t="s">
         <v>563</v>
       </c>
       <c r="C527" s="2"/>
     </row>
-    <row r="528" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:3">
       <c r="B528" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C528" s="2"/>
     </row>
-    <row r="529" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:3">
       <c r="B529" s="1" t="s">
         <v>564</v>
       </c>
       <c r="C529" s="2"/>
     </row>
-    <row r="530" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:3">
       <c r="B530" s="1" t="s">
         <v>392</v>
       </c>
       <c r="C530" s="2"/>
     </row>
-    <row r="531" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:3">
       <c r="B531" s="1" t="s">
         <v>285</v>
       </c>
       <c r="C531" s="2"/>
     </row>
-    <row r="532" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:3">
       <c r="B532" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C532" s="2"/>
     </row>
-    <row r="533" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:3">
       <c r="B533" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C533" s="2"/>
     </row>
-    <row r="534" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:3">
       <c r="B534" s="1" t="s">
         <v>393</v>
       </c>
       <c r="C534" s="2"/>
     </row>
-    <row r="535" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:3">
       <c r="B535" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C535" s="2"/>
     </row>
-    <row r="536" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:3">
       <c r="B536" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C536" s="2"/>
     </row>
-    <row r="537" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:3">
       <c r="B537" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C537" s="2"/>
     </row>
-    <row r="538" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:3">
       <c r="B538" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C538" s="2"/>
     </row>
-    <row r="539" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:3">
       <c r="B539" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C539" s="2"/>
     </row>
-    <row r="540" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:3">
       <c r="B540" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C540" s="2"/>
     </row>
-    <row r="541" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:3">
       <c r="B541" s="1" t="s">
         <v>395</v>
       </c>
       <c r="C541" s="2"/>
     </row>
-    <row r="542" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:3">
       <c r="B542" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C542" s="2"/>
     </row>
-    <row r="543" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:3">
       <c r="B543" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C543" s="2"/>
     </row>
-    <row r="544" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:3">
       <c r="B544" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C544" s="2"/>
     </row>
-    <row r="545" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:3">
       <c r="B545" s="1" t="s">
         <v>293</v>
       </c>
       <c r="C545" s="2"/>
     </row>
-    <row r="546" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:3">
       <c r="B546" s="1" t="s">
         <v>379</v>
       </c>
       <c r="C546" s="2"/>
     </row>
-    <row r="547" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:3">
       <c r="B547" s="1" t="s">
         <v>438</v>
       </c>
       <c r="C547" s="2"/>
     </row>
-    <row r="548" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:3">
       <c r="B548" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C548" s="2"/>
     </row>
-    <row r="549" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:3">
       <c r="B549" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C549" s="2"/>
     </row>
-    <row r="550" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:3">
       <c r="B550" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C550" s="2"/>
     </row>
-    <row r="551" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:3">
       <c r="B551" s="1" t="s">
         <v>396</v>
       </c>
       <c r="C551" s="2"/>
     </row>
-    <row r="552" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:3">
       <c r="B552" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C552" s="2"/>
     </row>
-    <row r="553" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:3">
       <c r="B553" s="1" t="s">
         <v>299</v>
       </c>
       <c r="C553" s="2"/>
     </row>
-    <row r="554" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:3">
       <c r="B554" s="1" t="s">
         <v>298</v>
       </c>
       <c r="C554" s="2"/>
     </row>
-    <row r="555" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:3">
       <c r="B555" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C555" s="2"/>
     </row>
-    <row r="556" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:3">
       <c r="B556" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C556" s="2"/>
     </row>
-    <row r="557" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:3">
       <c r="B557" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C557" s="2"/>
     </row>
-    <row r="558" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:3">
       <c r="B558" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C558" s="2"/>
     </row>
-    <row r="559" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:3">
       <c r="B559" s="1" t="s">
         <v>565</v>
       </c>
       <c r="C559" s="2"/>
     </row>
-    <row r="560" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:3">
       <c r="B560" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C560" s="2"/>
     </row>
-    <row r="561" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:3">
       <c r="B561" s="1" t="s">
         <v>303</v>
       </c>
       <c r="C561" s="2"/>
     </row>
-    <row r="562" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:3">
       <c r="B562" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C562" s="2"/>
     </row>
-    <row r="563" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:3">
       <c r="B563" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C563" s="2"/>
     </row>
-    <row r="564" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:3">
       <c r="B564" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C564" s="2"/>
     </row>
-    <row r="565" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:3">
       <c r="B565" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C565" s="2"/>
     </row>
-    <row r="566" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:3">
       <c r="B566" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C566" s="2"/>
     </row>
-    <row r="567" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:3">
       <c r="B567" s="1" t="s">
         <v>352</v>
       </c>
       <c r="C567" s="2"/>
     </row>
-    <row r="568" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:3">
       <c r="B568" s="1" t="s">
         <v>341</v>
       </c>
       <c r="C568" s="2"/>
     </row>
-    <row r="569" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:3">
       <c r="B569" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C569" s="2"/>
     </row>
-    <row r="570" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:3">
       <c r="B570" s="1" t="s">
         <v>550</v>
       </c>
       <c r="C570" s="2"/>
     </row>
-    <row r="571" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:3">
       <c r="B571" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C571" s="2"/>
     </row>
-    <row r="572" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:3">
       <c r="B572" s="1" t="s">
         <v>305</v>
       </c>
       <c r="C572" s="2"/>
     </row>
-    <row r="573" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:3">
       <c r="B573" s="1" t="s">
         <v>306</v>
       </c>
       <c r="C573" s="2"/>
     </row>
-    <row r="574" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:3">
       <c r="B574" s="1" t="s">
         <v>399</v>
       </c>
       <c r="C574" s="2"/>
     </row>
-    <row r="575" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:3">
       <c r="B575" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C575" s="2"/>
     </row>
-    <row r="576" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:3">
       <c r="B576" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C576" s="2"/>
     </row>
-    <row r="577" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:3">
       <c r="B577" s="1" t="s">
         <v>453</v>
       </c>
       <c r="C577" s="2"/>
     </row>
-    <row r="578" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:3">
       <c r="B578" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C578" s="2"/>
     </row>
-    <row r="579" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:3">
       <c r="B579" s="1" t="s">
         <v>566</v>
       </c>
       <c r="C579" s="2"/>
     </row>
-    <row r="580" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:3">
       <c r="B580" s="1" t="s">
         <v>400</v>
       </c>
       <c r="C580" s="2"/>
     </row>
-    <row r="581" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:3">
       <c r="B581" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C581" s="2"/>
     </row>
-    <row r="582" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:3">
       <c r="B582" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C582" s="2"/>
     </row>
-    <row r="583" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:3">
       <c r="B583" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C583" s="2"/>
     </row>
-    <row r="584" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:3">
       <c r="B584" s="1" t="s">
         <v>309</v>
       </c>
       <c r="C584" s="2"/>
     </row>
-    <row r="585" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:3">
       <c r="B585" s="1" t="s">
         <v>402</v>
       </c>
       <c r="C585" s="2"/>
     </row>
-    <row r="586" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:3">
       <c r="B586" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C586" s="2"/>
     </row>
-    <row r="587" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:3">
       <c r="B587" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C587" s="2"/>
     </row>
-    <row r="588" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:3">
       <c r="B588" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C588" s="2"/>
     </row>
-    <row r="589" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:3">
       <c r="B589" s="1" t="s">
         <v>404</v>
       </c>
       <c r="C589" s="2"/>
     </row>
-    <row r="590" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:3">
       <c r="B590" s="1" t="s">
         <v>346</v>
       </c>
       <c r="C590" s="2"/>
     </row>
-    <row r="591" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:3">
       <c r="C591" s="2"/>
     </row>
-    <row r="592" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:3">
       <c r="C592" s="2"/>
     </row>
-    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3">
       <c r="C593" s="2"/>
     </row>
-    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3">
       <c r="C594" s="2"/>
     </row>
-    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3">
       <c r="C595" s="2"/>
     </row>
-    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3">
       <c r="C596" s="2"/>
     </row>
   </sheetData>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="664">
   <si>
     <t>太极至尊</t>
   </si>
@@ -126,9 +126,6 @@
     <t>花谢人凋零。</t>
   </si>
   <si>
-    <t>白芹</t>
-  </si>
-  <si>
     <t>墨韵轩华</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>倾舞情儿</t>
   </si>
   <si>
-    <t>丐帮萌主</t>
-  </si>
-  <si>
     <t>艾莉亞史塔克</t>
   </si>
   <si>
@@ -240,18 +234,12 @@
     <t>咸鱼天香</t>
   </si>
   <si>
-    <t>任离流</t>
-  </si>
-  <si>
     <t>阿锟猫</t>
   </si>
   <si>
     <t>楪夢</t>
   </si>
   <si>
-    <t>友善的咸鱼白</t>
-  </si>
-  <si>
     <t>青羽墨染云</t>
   </si>
   <si>
@@ -333,9 +321,6 @@
     <t>夜白衣</t>
   </si>
   <si>
-    <t>一人一枪闯九州</t>
-  </si>
-  <si>
     <t>拌蠢蠢</t>
   </si>
   <si>
@@ -435,100 +420,1558 @@
     <t>汪映雪</t>
   </si>
   <si>
+    <t>浪琴</t>
+  </si>
+  <si>
+    <t>年瑾倾城玉蝴蝶</t>
+  </si>
+  <si>
+    <t>机智勇敢的小明</t>
+  </si>
+  <si>
+    <t>除了帅还有酷</t>
+  </si>
+  <si>
+    <t>东越雪纳瑞</t>
+  </si>
+  <si>
+    <t>袅袅余音灬</t>
+  </si>
+  <si>
+    <t>逸仙丶王爷</t>
+  </si>
+  <si>
+    <t>惜玉挽轻裳</t>
+  </si>
+  <si>
+    <t>太子彬</t>
+  </si>
+  <si>
+    <t>凌雲傲雪</t>
+  </si>
+  <si>
+    <t>巴蜀萨摩耶</t>
+  </si>
+  <si>
+    <t>SouLmAte、小狼</t>
+  </si>
+  <si>
+    <t>樱夢</t>
+  </si>
+  <si>
+    <t>南眸</t>
+  </si>
+  <si>
+    <t>椛灯</t>
+  </si>
+  <si>
+    <t>蛋蛋</t>
+  </si>
+  <si>
+    <t>鱼爸爸</t>
+  </si>
+  <si>
+    <t>陈凌风</t>
+  </si>
+  <si>
+    <t>龍父</t>
+  </si>
+  <si>
+    <t>晓晨晨晨</t>
+  </si>
+  <si>
+    <t>谁家娇妻守空房</t>
+  </si>
+  <si>
+    <t>一飚一</t>
+  </si>
+  <si>
+    <t>唐钰名</t>
+  </si>
+  <si>
+    <t>遇见再见</t>
+  </si>
+  <si>
+    <t>Needle</t>
+  </si>
+  <si>
+    <t>颓废老男人</t>
+  </si>
+  <si>
+    <t>格斗小佳</t>
+  </si>
+  <si>
+    <t>丨哆唻咪发唆</t>
+  </si>
+  <si>
+    <t>北夕寒笙丶</t>
+  </si>
+  <si>
+    <t>晚街听风</t>
+  </si>
+  <si>
+    <t>眉间一点白</t>
+  </si>
+  <si>
+    <t>齿虎</t>
+  </si>
+  <si>
+    <t>澪澪</t>
+  </si>
+  <si>
+    <t>隔花初见君一笑</t>
+  </si>
+  <si>
+    <t>冷殘心</t>
+  </si>
+  <si>
+    <t>玉面天魁</t>
+  </si>
+  <si>
+    <t>婠竹海</t>
+  </si>
+  <si>
+    <t>唐门仐少</t>
+  </si>
+  <si>
+    <t>我纯文字</t>
+  </si>
+  <si>
+    <t>慕落弦</t>
+  </si>
+  <si>
+    <t>ParTing丶X</t>
+  </si>
+  <si>
+    <t>柒叶浅</t>
+  </si>
+  <si>
+    <t>陌上花开丶彦</t>
+  </si>
+  <si>
+    <t>劳资好萌好可爱</t>
+  </si>
+  <si>
+    <t>南宫絮语</t>
+  </si>
+  <si>
+    <t>无所不能小奇葩</t>
+  </si>
+  <si>
+    <t>呀丶不要杀我</t>
+  </si>
+  <si>
+    <t>秋叶微寒</t>
+  </si>
+  <si>
+    <t>明月多情笑我怪</t>
+  </si>
+  <si>
+    <t>暮雪醉逍遥</t>
+  </si>
+  <si>
+    <t>天下悍刀出北凉</t>
+  </si>
+  <si>
+    <t>江湖多寂莫丶人</t>
+  </si>
+  <si>
+    <t>时钟轻摇孤独</t>
+  </si>
+  <si>
+    <t>箫中剑丶</t>
+  </si>
+  <si>
+    <t>凰荼歌</t>
+  </si>
+  <si>
+    <t>傲气孤狼</t>
+  </si>
+  <si>
+    <t>巡山的人</t>
+  </si>
+  <si>
+    <t>神么刀</t>
+  </si>
+  <si>
+    <t>道运良</t>
+  </si>
+  <si>
+    <t>少华丶</t>
+  </si>
+  <si>
+    <t>琴瑟愿与</t>
+  </si>
+  <si>
+    <t>丶若芷</t>
+  </si>
+  <si>
+    <t>薛涛笺</t>
+  </si>
+  <si>
+    <t>苍昊天</t>
+  </si>
+  <si>
+    <t>妄皈</t>
+  </si>
+  <si>
+    <t>独孤沐白</t>
+  </si>
+  <si>
+    <t>喝脉动割动脉</t>
+  </si>
+  <si>
+    <t>顾云深</t>
+  </si>
+  <si>
+    <t>傲江湖</t>
+  </si>
+  <si>
+    <t>神荼夜</t>
+  </si>
+  <si>
+    <t>冷霜刃</t>
+  </si>
+  <si>
+    <t>墨如渊</t>
+  </si>
+  <si>
+    <t>太极神尊</t>
+  </si>
+  <si>
+    <t>白素。</t>
+  </si>
+  <si>
+    <t>飞舞的菊花</t>
+  </si>
+  <si>
+    <t>练武风化</t>
+  </si>
+  <si>
+    <t>沐玉洁</t>
+  </si>
+  <si>
+    <t>帝喾</t>
+  </si>
+  <si>
+    <t>晚下</t>
+  </si>
+  <si>
+    <t>牧羊﹣</t>
+  </si>
+  <si>
+    <t>祗园之舞</t>
+  </si>
+  <si>
+    <t>懿锦丶</t>
+  </si>
+  <si>
+    <t>叶榖城</t>
+  </si>
+  <si>
+    <t>龍霸世</t>
+  </si>
+  <si>
+    <t>请叫我孟纶镁</t>
+  </si>
+  <si>
+    <t>提刀独立荡八荒</t>
+  </si>
+  <si>
+    <t>茕疚</t>
+  </si>
+  <si>
+    <t>青丶玄</t>
+  </si>
+  <si>
+    <t>林傲霜</t>
+  </si>
+  <si>
+    <t>邓紫棋的小鲜肉</t>
+  </si>
+  <si>
+    <t>千丶色</t>
+  </si>
+  <si>
+    <t>唏嘘流年</t>
+  </si>
+  <si>
+    <t>何如此地学长生</t>
+  </si>
+  <si>
+    <t>傲娇的臭雪碧</t>
+  </si>
+  <si>
+    <t>古巷烟雨断桥殇</t>
+  </si>
+  <si>
+    <t>清新荷语</t>
+  </si>
+  <si>
+    <t>凌夜寒</t>
+  </si>
+  <si>
+    <t>秦友善。</t>
+  </si>
+  <si>
+    <t>天香国际</t>
+  </si>
+  <si>
+    <t>是但拉</t>
+  </si>
+  <si>
+    <t>异逍遥</t>
+  </si>
+  <si>
+    <t>醉饮砒霜</t>
+  </si>
+  <si>
+    <t>剑老白</t>
+  </si>
+  <si>
+    <t>暮色佳人待我归</t>
+  </si>
+  <si>
+    <t>贺兰丶宁儿</t>
+  </si>
+  <si>
+    <t>白轻寒</t>
+  </si>
+  <si>
+    <t>蝶舞云</t>
+  </si>
+  <si>
+    <t>老滚</t>
+  </si>
+  <si>
+    <t>ޓ一梦换须臾</t>
+  </si>
+  <si>
+    <t>殺丶无忌</t>
+  </si>
+  <si>
+    <t>杨卓儒</t>
+  </si>
+  <si>
+    <t>叨叨</t>
+  </si>
+  <si>
+    <t>跑调的张学友</t>
+  </si>
+  <si>
+    <t>剑舞天涯</t>
+  </si>
+  <si>
+    <t>右逝</t>
+  </si>
+  <si>
+    <t>我是赵医生</t>
+  </si>
+  <si>
+    <t>懒丶羊羊</t>
+  </si>
+  <si>
+    <t>⑦玥</t>
+  </si>
+  <si>
+    <t>比剑哥还贱</t>
+  </si>
+  <si>
+    <t>箫剑刃</t>
+  </si>
+  <si>
+    <t>琴若璃</t>
+  </si>
+  <si>
+    <t>宇佐见灬莲子</t>
+  </si>
+  <si>
+    <t>董汉卿</t>
+  </si>
+  <si>
+    <t>一子漾一</t>
+  </si>
+  <si>
+    <t>意邪</t>
+  </si>
+  <si>
+    <t>太白三圣</t>
+  </si>
+  <si>
+    <t>久成病</t>
+  </si>
+  <si>
+    <t>紫藤花下</t>
+  </si>
+  <si>
+    <t>武藏野剑太</t>
+  </si>
+  <si>
+    <t>帝君虹</t>
+  </si>
+  <si>
+    <t>孤影惊残梦</t>
+  </si>
+  <si>
+    <t>黑崎—护</t>
+  </si>
+  <si>
+    <t>一只萌正太丶</t>
+  </si>
+  <si>
+    <t>小马的天</t>
+  </si>
+  <si>
+    <t>一曲月霜寒</t>
+  </si>
+  <si>
+    <t>泪成殇</t>
+  </si>
+  <si>
+    <t>艾尔艾路弗</t>
+  </si>
+  <si>
+    <t>肾亏道人</t>
+  </si>
+  <si>
+    <t>绝弦觅知</t>
+  </si>
+  <si>
+    <t>蛋蛋疍</t>
+  </si>
+  <si>
+    <t>天刀什么刀</t>
+  </si>
+  <si>
+    <t>雪域星空</t>
+  </si>
+  <si>
+    <t>咲冭陽</t>
+  </si>
+  <si>
+    <t>是轻狂</t>
+  </si>
+  <si>
+    <t>凱蒂喵</t>
+  </si>
+  <si>
+    <t>大岛遥香</t>
+  </si>
+  <si>
+    <t>宫黎妍</t>
+  </si>
+  <si>
+    <t>姬如影</t>
+  </si>
+  <si>
+    <t>太阳骑士炮灰</t>
+  </si>
+  <si>
+    <t>汐月暮云</t>
+  </si>
+  <si>
+    <t>我有一颗星</t>
+  </si>
+  <si>
+    <t>楼踌曙楼</t>
+  </si>
+  <si>
+    <t>寄给你的风丶</t>
+  </si>
+  <si>
+    <t>云海小明</t>
+  </si>
+  <si>
+    <t>凡人的梦</t>
+  </si>
+  <si>
+    <t>Smile海绵宝宝</t>
+  </si>
+  <si>
+    <t>孤傲凡尘</t>
+  </si>
+  <si>
+    <t>红毛</t>
+  </si>
+  <si>
+    <t>北城初夏</t>
+  </si>
+  <si>
+    <t>花无疃</t>
+  </si>
+  <si>
+    <t>怒怒怒怒火</t>
+  </si>
+  <si>
+    <t>氹萌萌</t>
+  </si>
+  <si>
+    <t>洛小洛丶</t>
+  </si>
+  <si>
+    <t>我讨厌用名字</t>
+  </si>
+  <si>
+    <t>闻素问</t>
+  </si>
+  <si>
+    <t>欧阳丶少恭</t>
+  </si>
+  <si>
+    <t>蚩尤魔人</t>
+  </si>
+  <si>
+    <t>青梅淡煮酒</t>
+  </si>
+  <si>
+    <t>kingdan</t>
+  </si>
+  <si>
+    <t>刀灵媛</t>
+  </si>
+  <si>
+    <t>冷嫣然丶</t>
+  </si>
+  <si>
+    <t>雅诗兰黛灬玛丽</t>
+  </si>
+  <si>
+    <t>凋谢的灬花</t>
+  </si>
+  <si>
+    <t>离殇天丶</t>
+  </si>
+  <si>
+    <t>丶雨潇潇丶</t>
+  </si>
+  <si>
+    <t>顾小忘</t>
+  </si>
+  <si>
+    <t>画芊骨</t>
+  </si>
+  <si>
+    <t>我有一颗榶</t>
+  </si>
+  <si>
+    <t>喵呜酱提小莫</t>
+  </si>
+  <si>
+    <t>火之鸟</t>
+  </si>
+  <si>
+    <t>小女儿可可</t>
+  </si>
+  <si>
+    <t>笛梦一秋</t>
+  </si>
+  <si>
+    <t>烂心</t>
+  </si>
+  <si>
+    <t>神她吗</t>
+  </si>
+  <si>
+    <t>唐糖～</t>
+  </si>
+  <si>
+    <t>夏神他爸爸</t>
+  </si>
+  <si>
+    <t>闭月羞</t>
+  </si>
+  <si>
+    <t>魅丿无情</t>
+  </si>
+  <si>
+    <t>轻笑忘</t>
+  </si>
+  <si>
+    <t>刀无回</t>
+  </si>
+  <si>
+    <t>红颜痴情笑</t>
+  </si>
+  <si>
+    <t>唯剑道不灭</t>
+  </si>
+  <si>
+    <t>区洛云</t>
+  </si>
+  <si>
+    <t>就叫玫瑰吧</t>
+  </si>
+  <si>
+    <t>ParTing丶R</t>
+  </si>
+  <si>
+    <t>绑定小蜜的</t>
+  </si>
+  <si>
+    <t>丶公子影</t>
+  </si>
+  <si>
+    <t>刃歌</t>
+  </si>
+  <si>
+    <t>灭世狂雷</t>
+  </si>
+  <si>
+    <t>君i陌离</t>
+  </si>
+  <si>
+    <t>浅歌丶濢曦轻衣</t>
+  </si>
+  <si>
+    <t>冬凝寒</t>
+  </si>
+  <si>
+    <t>初墨凝</t>
+  </si>
+  <si>
+    <t>你爸你边哭一边</t>
+  </si>
+  <si>
+    <t>凡哥的父亲</t>
+  </si>
+  <si>
+    <t>念欢娱事</t>
+  </si>
+  <si>
+    <t>万俟独秋乄</t>
+  </si>
+  <si>
+    <t>夜袭寡妇寨</t>
+  </si>
+  <si>
+    <t>明天不见</t>
+  </si>
+  <si>
+    <t>倾国不倾城</t>
+  </si>
+  <si>
+    <t>可可菌</t>
+  </si>
+  <si>
+    <t>染琴</t>
+  </si>
+  <si>
+    <t>手中玫瑰赠予谁</t>
+  </si>
+  <si>
+    <t>纳加法</t>
+  </si>
+  <si>
+    <t>奥利奥。巧轻脆</t>
+  </si>
+  <si>
+    <t>裤衩子丶满地撩</t>
+  </si>
+  <si>
+    <t>梵天Swagger</t>
+  </si>
+  <si>
+    <t>套套嗷呜</t>
+  </si>
+  <si>
+    <t>夜冥雪</t>
+  </si>
+  <si>
+    <t>司寇听雨</t>
+  </si>
+  <si>
+    <t>纯情少妇马芳玲</t>
+  </si>
+  <si>
+    <t>徐耶比</t>
+  </si>
+  <si>
+    <t>青春亮丽欣妈妈</t>
+  </si>
+  <si>
+    <t>东风路大狗蛋</t>
+  </si>
+  <si>
+    <t>彼眸</t>
+  </si>
+  <si>
+    <t>伐青</t>
+  </si>
+  <si>
+    <t>最可爱的师姐</t>
+  </si>
+  <si>
+    <t>莫倾城灬</t>
+  </si>
+  <si>
+    <t>东风路四蛋</t>
+  </si>
+  <si>
+    <t>乏乏</t>
+  </si>
+  <si>
+    <t>蠢小椰丶</t>
+  </si>
+  <si>
+    <t>剣殊雨寒丶</t>
+  </si>
+  <si>
+    <t>天刀小师妹—</t>
+  </si>
+  <si>
+    <t>神奇宝贝杨尼玛</t>
+  </si>
+  <si>
+    <t>九袋丐</t>
+  </si>
+  <si>
+    <t>锁麟囊</t>
+  </si>
+  <si>
+    <t>凛柒っ</t>
+  </si>
+  <si>
+    <t>二狗娃</t>
+  </si>
+  <si>
+    <t>刀之芳华</t>
+  </si>
+  <si>
+    <t>好想告诉伱</t>
+  </si>
+  <si>
+    <t>落花丶醉</t>
+  </si>
+  <si>
+    <t>花落时节与君别</t>
+  </si>
+  <si>
+    <t>枯葉丷为谁落</t>
+  </si>
+  <si>
+    <t>丘森森</t>
+  </si>
+  <si>
+    <t>赤月染红尘</t>
+  </si>
+  <si>
+    <t>尽余年。</t>
+  </si>
+  <si>
+    <t>小兔兔几</t>
+  </si>
+  <si>
+    <t>哒哒滴滴</t>
+  </si>
+  <si>
+    <t>大牛又鸟又鸟</t>
+  </si>
+  <si>
+    <t>maskxi</t>
+  </si>
+  <si>
+    <t>风暖伤</t>
+  </si>
+  <si>
+    <t>二瞳</t>
+  </si>
+  <si>
+    <t>转身落尽空城泪</t>
+  </si>
+  <si>
+    <t>马来西亚的咪咪</t>
+  </si>
+  <si>
+    <t>Yada丶leo</t>
+  </si>
+  <si>
+    <t>霜雪寒梅</t>
+  </si>
+  <si>
+    <t>濯清莲而不妖</t>
+  </si>
+  <si>
+    <t>萝卜土豆丝</t>
+  </si>
+  <si>
+    <t>伊似君心</t>
+  </si>
+  <si>
+    <t>唐舞桐灬</t>
+  </si>
+  <si>
+    <t>小阿鏡</t>
+  </si>
+  <si>
+    <t>橙橙喵呜</t>
+  </si>
+  <si>
+    <t>翩翩少年灬析</t>
+  </si>
+  <si>
+    <t>Tusy</t>
+  </si>
+  <si>
+    <t>生气的小黄瓜</t>
+  </si>
+  <si>
+    <t>荡荡</t>
+  </si>
+  <si>
+    <t>夜雨流年</t>
+  </si>
+  <si>
+    <t>说谎的男孩</t>
+  </si>
+  <si>
+    <t>一丿登</t>
+  </si>
+  <si>
+    <t>志方</t>
+  </si>
+  <si>
+    <t>墨炽</t>
+  </si>
+  <si>
+    <t>苍镜</t>
+  </si>
+  <si>
+    <t>凋零之光</t>
+  </si>
+  <si>
+    <t>平凡的少年郎</t>
+  </si>
+  <si>
+    <t>月牙冲天</t>
+  </si>
+  <si>
+    <t>入梦落樱满熏香</t>
+  </si>
+  <si>
+    <t>炖猪肘丶</t>
+  </si>
+  <si>
+    <t>冷晓汐灬</t>
+  </si>
+  <si>
+    <t>宫离嫣</t>
+  </si>
+  <si>
+    <t>友善的小内衣</t>
+  </si>
+  <si>
+    <t>杀秋</t>
+  </si>
+  <si>
+    <t>歌风路丶三狗蛋</t>
+  </si>
+  <si>
+    <t>冉灬子墨</t>
+  </si>
+  <si>
+    <t>柒果果</t>
+  </si>
+  <si>
+    <t>纯洁友善的殇</t>
+  </si>
+  <si>
+    <t>丶吴宇森</t>
+  </si>
+  <si>
+    <t>昔昔</t>
+  </si>
+  <si>
+    <t>、征戮天下</t>
+  </si>
+  <si>
+    <t>Yennefer</t>
+  </si>
+  <si>
+    <t>茶凉言尽丶</t>
+  </si>
+  <si>
+    <t>劍問兲涯覓紅颜</t>
+  </si>
+  <si>
+    <t>这刀用砍</t>
+  </si>
+  <si>
+    <t>懒扶赋役</t>
+  </si>
+  <si>
+    <t>纯洁友善的暮夏</t>
+  </si>
+  <si>
+    <t>可爱琳</t>
+  </si>
+  <si>
+    <t>妄于</t>
+  </si>
+  <si>
+    <t>阿翔翔</t>
+  </si>
+  <si>
+    <t>彡电竞丿柯南乄</t>
+  </si>
+  <si>
+    <t>恶酒。</t>
+  </si>
+  <si>
+    <t>水红芍</t>
+  </si>
+  <si>
+    <t>紫舞流年</t>
+  </si>
+  <si>
+    <t>冬瓜小荞</t>
+  </si>
+  <si>
+    <t>五六柒</t>
+  </si>
+  <si>
+    <t>嚜韵轩華</t>
+  </si>
+  <si>
+    <t>丿晴栀渝宛歌丶</t>
+  </si>
+  <si>
+    <t>燕雨莲</t>
+  </si>
+  <si>
+    <t>锦衣卫知秋</t>
+  </si>
+  <si>
+    <t>项辰帝</t>
+  </si>
+  <si>
+    <t>一根直肠通大脑</t>
+  </si>
+  <si>
+    <t>魔法少女杜芸松</t>
+  </si>
+  <si>
+    <t>淡若清风過丶</t>
+  </si>
+  <si>
+    <t>一息衍一</t>
+  </si>
+  <si>
+    <t>储舜</t>
+  </si>
+  <si>
+    <t>Sunnyboy丶桔子</t>
+  </si>
+  <si>
+    <t>苏樰</t>
+  </si>
+  <si>
+    <t>冉灬子灬墨</t>
+  </si>
+  <si>
+    <t>江山难改丶洛</t>
+  </si>
+  <si>
+    <t>虎皮喵大人丶</t>
+  </si>
+  <si>
+    <t>萧劲城</t>
+  </si>
+  <si>
+    <t>务必叫我欧皇</t>
+  </si>
+  <si>
+    <t>雷凌钥</t>
+  </si>
+  <si>
+    <t>千樽雪</t>
+  </si>
+  <si>
+    <t>辉煌PT</t>
+  </si>
+  <si>
+    <t>丶薛日天</t>
+  </si>
+  <si>
+    <t>陌路莫回</t>
+  </si>
+  <si>
+    <t>偷得浮珄半日闲</t>
+  </si>
+  <si>
+    <t>倚刀望江湖</t>
+  </si>
+  <si>
+    <t>回头我就在身后</t>
+  </si>
+  <si>
+    <t>雪遥</t>
+  </si>
+  <si>
+    <t>阿茶君</t>
+  </si>
+  <si>
+    <t>颂碑寒</t>
+  </si>
+  <si>
+    <t>慕瑾遥</t>
+  </si>
+  <si>
+    <t>壕坑</t>
+  </si>
+  <si>
+    <t>冷翎峰</t>
+  </si>
+  <si>
+    <t>芝麻花生馅儿饺</t>
+  </si>
+  <si>
+    <t>、陌上看花</t>
+  </si>
+  <si>
+    <t>雾星</t>
+  </si>
+  <si>
+    <t>柠小檬丶</t>
+  </si>
+  <si>
+    <t>邱少</t>
+  </si>
+  <si>
+    <t>芍药児</t>
+  </si>
+  <si>
+    <t>浮生半日</t>
+  </si>
+  <si>
+    <t>暖心城</t>
+  </si>
+  <si>
+    <t>钟离三昧</t>
+  </si>
+  <si>
+    <t>冷汐宇</t>
+  </si>
+  <si>
+    <t>破烂刀客</t>
+  </si>
+  <si>
+    <t>一叶知秋づ</t>
+  </si>
+  <si>
+    <t>逍遥芙蕖</t>
+  </si>
+  <si>
+    <t>听说我是亚索</t>
+  </si>
+  <si>
+    <t>古手梨花sama</t>
+  </si>
+  <si>
+    <t>范范吃西瓜</t>
+  </si>
+  <si>
+    <t>梨花黛雨</t>
+  </si>
+  <si>
+    <t>李破风</t>
+  </si>
+  <si>
+    <t>格里斯贝恩</t>
+  </si>
+  <si>
+    <t>F丨小乖</t>
+  </si>
+  <si>
+    <t>浪哩个浪</t>
+  </si>
+  <si>
+    <t>烈凝风</t>
+  </si>
+  <si>
+    <t>丶神楽</t>
+  </si>
+  <si>
+    <t>无毒邪神</t>
+  </si>
+  <si>
+    <t>唐卿凝</t>
+  </si>
+  <si>
+    <t>慕暖</t>
+  </si>
+  <si>
+    <t>碧月飞星箭</t>
+  </si>
+  <si>
+    <t>余夜阑珊</t>
+  </si>
+  <si>
+    <t>曾岀山</t>
+  </si>
+  <si>
+    <t>易小川</t>
+  </si>
+  <si>
+    <t>首领之傲毛润之</t>
+  </si>
+  <si>
+    <t>落雨晴天</t>
+  </si>
+  <si>
+    <t>冷煌</t>
+  </si>
+  <si>
+    <t>西北峰</t>
+  </si>
+  <si>
+    <t>荆轲已逝高渐离</t>
+  </si>
+  <si>
+    <t>葉窕</t>
+  </si>
+  <si>
+    <t>冬初暮雪</t>
+  </si>
+  <si>
+    <t>琉璎</t>
+  </si>
+  <si>
+    <t>雪糕失望</t>
+  </si>
+  <si>
+    <t>水晶般的人儿</t>
+  </si>
+  <si>
+    <t>琴韵红衣丶心</t>
+  </si>
+  <si>
+    <t>神威司空阿龙</t>
+  </si>
+  <si>
+    <t>时光不矜持</t>
+  </si>
+  <si>
+    <t>墨語丶</t>
+  </si>
+  <si>
+    <t>叶天簌</t>
+  </si>
+  <si>
+    <t>千怀</t>
+  </si>
+  <si>
+    <t>薛无衡</t>
+  </si>
+  <si>
+    <t>花儿盛盛开</t>
+  </si>
+  <si>
+    <t>别碰我的葫芦</t>
+  </si>
+  <si>
+    <t>墨韵玄风</t>
+  </si>
+  <si>
+    <t>狄万钧</t>
+  </si>
+  <si>
+    <t>暮小曦丶</t>
+  </si>
+  <si>
+    <t>万年孤独</t>
+  </si>
+  <si>
+    <t>舞花丶弄剑</t>
+  </si>
+  <si>
+    <t>丐帮汪剑通</t>
+  </si>
+  <si>
+    <t>梓珏</t>
+  </si>
+  <si>
+    <t>从前玩真武</t>
+  </si>
+  <si>
+    <t>逆天懵</t>
+  </si>
+  <si>
+    <t>秦川吉娃娃</t>
+  </si>
+  <si>
+    <t>太白洗衣液</t>
+  </si>
+  <si>
+    <t>丐帮金鹏长老</t>
+  </si>
+  <si>
+    <t>元气小石十</t>
+  </si>
+  <si>
+    <t>皈依奶小牛丶</t>
+  </si>
+  <si>
+    <t>龙一萧</t>
+  </si>
+  <si>
+    <t>烈酒味清茶</t>
+  </si>
+  <si>
+    <t>Actors丶纤旧</t>
+  </si>
+  <si>
+    <t>跟寂寞再和好丶</t>
+  </si>
+  <si>
+    <t>楚歌谣</t>
+  </si>
+  <si>
+    <t>凝眸丶忆曲彡</t>
+  </si>
+  <si>
+    <t>唐倾梦吟</t>
+  </si>
+  <si>
+    <t>天真无邪大胡子</t>
+  </si>
+  <si>
+    <t>苏洛伊</t>
+  </si>
+  <si>
+    <t>容子欢</t>
+  </si>
+  <si>
+    <t>酒倾轻竹影</t>
+  </si>
+  <si>
+    <t>仁剑</t>
+  </si>
+  <si>
+    <t>俱利</t>
+  </si>
+  <si>
+    <t>神威小枪将</t>
+  </si>
+  <si>
+    <t>阴萤儿</t>
+  </si>
+  <si>
+    <t>箫布吉</t>
+  </si>
+  <si>
+    <t>秋末黑白</t>
+  </si>
+  <si>
+    <t>忍折神龟</t>
+  </si>
+  <si>
+    <t>梦訁</t>
+  </si>
+  <si>
+    <t>ジSunshineづ</t>
+  </si>
+  <si>
+    <t>少年阿波</t>
+  </si>
+  <si>
+    <t>神刀丶天降</t>
+  </si>
+  <si>
+    <t>、若白</t>
+  </si>
+  <si>
+    <t>白马落叶总相依</t>
+  </si>
+  <si>
+    <t>碧眼狐狸、赵四</t>
+  </si>
+  <si>
+    <t>￣放空</t>
+  </si>
+  <si>
+    <t>丶伴我几度</t>
+  </si>
+  <si>
+    <t>柠檬雪碧、</t>
+  </si>
+  <si>
+    <t>仁剑震音扬</t>
+  </si>
+  <si>
+    <t>毒情</t>
+  </si>
+  <si>
+    <t>小缘哟</t>
+  </si>
+  <si>
+    <t>友善的大夫</t>
+  </si>
+  <si>
+    <t>落樱千瓣剪成霜</t>
+  </si>
+  <si>
+    <t>顾輕</t>
+  </si>
+  <si>
+    <t>上官可可</t>
+  </si>
+  <si>
+    <t>清风不染尘</t>
+  </si>
+  <si>
+    <t>丶七七七七夜</t>
+  </si>
+  <si>
+    <t>千武琉璃夜</t>
+  </si>
+  <si>
+    <t>灰狼叔叔会打雷</t>
+  </si>
+  <si>
+    <t>若纨扇青玉案</t>
+  </si>
+  <si>
+    <t>侯琪掎</t>
+  </si>
+  <si>
+    <t>萝莉添棒棒糖嘛</t>
+  </si>
+  <si>
+    <t>乞丐也能很强</t>
+  </si>
+  <si>
+    <t>酒足饭饱戏大嫂</t>
+  </si>
+  <si>
+    <t>屠屠屠丶</t>
+  </si>
+  <si>
+    <t>一花无缺一</t>
+  </si>
+  <si>
+    <t>慕狂歌</t>
+  </si>
+  <si>
+    <t>青衣一曲碎作雪</t>
+  </si>
+  <si>
+    <t>花炮炮炮炮</t>
+  </si>
+  <si>
+    <t>阿普丶</t>
+  </si>
+  <si>
+    <t>轮回苍生笑红尘</t>
+  </si>
+  <si>
+    <t>训练大师森三白</t>
+  </si>
+  <si>
+    <t>荆湖丶骚猪达</t>
+  </si>
+  <si>
+    <t>神奇宝贝妮小白</t>
+  </si>
+  <si>
+    <t>冷丶殤</t>
+  </si>
+  <si>
+    <t>琉璃千雪</t>
+  </si>
+  <si>
+    <t>壹江秋明月</t>
+  </si>
+  <si>
+    <t>暗裔凋零</t>
+  </si>
+  <si>
+    <t>蝃方圆几里丶</t>
+  </si>
+  <si>
+    <t>企及</t>
+  </si>
+  <si>
+    <t>偌米粥丶</t>
+  </si>
+  <si>
+    <t>诸葛炎炎</t>
+  </si>
+  <si>
+    <t>慕榕月</t>
+  </si>
+  <si>
+    <t>大大大大西瓜丶</t>
+  </si>
+  <si>
+    <t>慕溶月</t>
+  </si>
+  <si>
+    <t>千雪冰鳳</t>
+  </si>
+  <si>
+    <t>二两花非夜</t>
+  </si>
+  <si>
+    <t>斯蒂芬丶库里</t>
+  </si>
+  <si>
+    <t>友善的小鱼</t>
+  </si>
+  <si>
+    <t>丅⌒丅</t>
+  </si>
+  <si>
+    <t>南宫灼影</t>
+  </si>
+  <si>
+    <t>茴香。</t>
+  </si>
+  <si>
+    <t>泪忆寒、</t>
+  </si>
+  <si>
+    <t>潇洒</t>
+  </si>
+  <si>
+    <t>墨炽</t>
+  </si>
+  <si>
     <t>刀客</t>
   </si>
   <si>
     <t>煌煌</t>
   </si>
   <si>
+    <t>迷茫</t>
+  </si>
+  <si>
+    <t>小官人</t>
+  </si>
+  <si>
+    <t>几度</t>
+  </si>
+  <si>
+    <t>怒火</t>
+  </si>
+  <si>
+    <t>此情</t>
+  </si>
+  <si>
+    <t>树儿</t>
+  </si>
+  <si>
+    <t>红着脸</t>
+  </si>
+  <si>
+    <t>阿淮</t>
+  </si>
+  <si>
+    <t>君雅</t>
+  </si>
+  <si>
     <t>浣熊</t>
   </si>
   <si>
-    <t>浪琴</t>
-  </si>
-  <si>
-    <t>年瑾倾城玉蝴蝶</t>
-  </si>
-  <si>
-    <t>白易轩</t>
-  </si>
-  <si>
-    <t>此情</t>
-  </si>
-  <si>
-    <t>机智勇敢的小明</t>
-  </si>
-  <si>
-    <t>丶初馨</t>
-  </si>
-  <si>
-    <t>除了帅还有酷</t>
-  </si>
-  <si>
-    <t>东越雪纳瑞</t>
-  </si>
-  <si>
-    <t>袅袅余音灬</t>
-  </si>
-  <si>
-    <t>逸仙丶王爷</t>
-  </si>
-  <si>
-    <t>惜玉挽轻裳</t>
-  </si>
-  <si>
-    <t>太子彬</t>
-  </si>
-  <si>
-    <t>凌雲傲雪</t>
-  </si>
-  <si>
-    <t>巴蜀萨摩耶</t>
-  </si>
-  <si>
-    <t>Angelミ墨娘彡</t>
-  </si>
-  <si>
-    <t>SouLmAte、小狼</t>
-  </si>
-  <si>
-    <t>小明</t>
-  </si>
-  <si>
-    <t>三狗蛋</t>
-  </si>
-  <si>
-    <t>月下</t>
-  </si>
-  <si>
-    <t>迷茫</t>
-  </si>
-  <si>
-    <t>那年</t>
-  </si>
-  <si>
-    <t>内涵</t>
-  </si>
-  <si>
-    <t>樱夢</t>
-  </si>
-  <si>
-    <t>&lt;dd</t>
-  </si>
-  <si>
-    <t>data-uid="105037701"</t>
-  </si>
-  <si>
-    <t>class="</t>
-  </si>
-  <si>
-    <t>&gt;&lt;span_x000D_class=jue</t>
-  </si>
-  <si>
-    <t>萧四无</t>
-  </si>
-  <si>
-    <t>须臾</t>
+    <t>白马</t>
+  </si>
+  <si>
+    <t>暮雪</t>
+  </si>
+  <si>
+    <t>大眼睛</t>
+  </si>
+  <si>
+    <t>百里</t>
+  </si>
+  <si>
+    <t>青丝</t>
+  </si>
+  <si>
+    <t>与明月</t>
+  </si>
+  <si>
+    <t>奥利</t>
+  </si>
+  <si>
+    <t>凡尘</t>
+  </si>
+  <si>
+    <t>史塔克</t>
+  </si>
+  <si>
+    <t>顾寻</t>
+  </si>
+  <si>
+    <t>FateL</t>
+  </si>
+  <si>
+    <t>口味</t>
+  </si>
+  <si>
+    <t>小书生</t>
+  </si>
+  <si>
+    <t>花谢</t>
+  </si>
+  <si>
+    <t>超人不会</t>
+  </si>
+  <si>
+    <t>吕小</t>
+  </si>
+  <si>
+    <t>灵风</t>
+  </si>
+  <si>
+    <t>是天香</t>
+  </si>
+  <si>
+    <t>沐伯</t>
+  </si>
+  <si>
+    <t>张学友</t>
+  </si>
+  <si>
+    <t>子乔</t>
+  </si>
+  <si>
+    <t>初夏</t>
+  </si>
+  <si>
+    <t>月凡</t>
+  </si>
+  <si>
+    <t>奶小牛</t>
+  </si>
+  <si>
+    <t>水影</t>
+  </si>
+  <si>
+    <t>老七</t>
+  </si>
+  <si>
+    <t>凯贼</t>
+  </si>
+  <si>
+    <t>唐舞桐</t>
+  </si>
+  <si>
+    <t>套套</t>
+  </si>
+  <si>
+    <t>山高</t>
+  </si>
+  <si>
+    <t>淡若清风</t>
+  </si>
+  <si>
+    <t>妮小白</t>
+  </si>
+  <si>
+    <t>紫雨幽</t>
+  </si>
+  <si>
+    <t>三白</t>
   </si>
   <si>
     <t>霜雪</t>
@@ -537,1459 +1980,40 @@
     <t>青羽墨</t>
   </si>
   <si>
-    <t>寻清</t>
-  </si>
-  <si>
-    <t>俱利</t>
-  </si>
-  <si>
-    <t>几度</t>
-  </si>
-  <si>
-    <t>北城</t>
-  </si>
-  <si>
-    <t>南眸</t>
-  </si>
-  <si>
-    <t>陽</t>
-  </si>
-  <si>
-    <t>奥利奥</t>
-  </si>
-  <si>
-    <t>怒火</t>
-  </si>
-  <si>
-    <t>椛灯</t>
-  </si>
-  <si>
-    <t>蛋蛋</t>
-  </si>
-  <si>
-    <t>风过</t>
-  </si>
-  <si>
-    <t>太子</t>
-  </si>
-  <si>
-    <t>守护</t>
-  </si>
-  <si>
-    <t>咩咩</t>
-  </si>
-  <si>
-    <t>凯贼</t>
-  </si>
-  <si>
-    <t>沐浠</t>
-  </si>
-  <si>
-    <t>独孤杀</t>
-  </si>
-  <si>
-    <t>花谢</t>
-  </si>
-  <si>
-    <t>荆轲</t>
-  </si>
-  <si>
-    <t>王爷</t>
-  </si>
-  <si>
-    <t>鱼爸爸</t>
-  </si>
-  <si>
-    <t>暮雪醉</t>
-  </si>
-  <si>
-    <t>猫猫君</t>
-  </si>
-  <si>
-    <t>古愁</t>
-  </si>
-  <si>
-    <t>潇洒</t>
-  </si>
-  <si>
-    <t>xiao</t>
-  </si>
-  <si>
-    <t>月凡</t>
-  </si>
-  <si>
-    <t>关翔</t>
-  </si>
-  <si>
-    <t>舞桐</t>
-  </si>
-  <si>
-    <t>水影</t>
-  </si>
-  <si>
-    <t>紫雨</t>
-  </si>
-  <si>
-    <t>史塔克</t>
-  </si>
-  <si>
-    <t>好人</t>
-  </si>
-  <si>
-    <t>吕小</t>
-  </si>
-  <si>
-    <t>屁股</t>
-  </si>
-  <si>
-    <t>浪漫</t>
-  </si>
-  <si>
-    <t>明年</t>
-  </si>
-  <si>
-    <t>梦觞</t>
-  </si>
-  <si>
-    <t>沐伯</t>
-  </si>
-  <si>
-    <t>浪迹</t>
-  </si>
-  <si>
-    <t>百里轩</t>
-  </si>
-  <si>
-    <t>陈凌风</t>
-  </si>
-  <si>
-    <t>青丝</t>
-  </si>
-  <si>
-    <t>天下</t>
-  </si>
-  <si>
-    <t>龍父</t>
-  </si>
-  <si>
-    <t>冷无情丶天</t>
-  </si>
-  <si>
-    <t>晓晨晨晨</t>
-  </si>
-  <si>
-    <t>谁家娇妻守空房</t>
-  </si>
-  <si>
-    <t>一飚一</t>
-  </si>
-  <si>
-    <t>唐钰名</t>
-  </si>
-  <si>
-    <t>遇见再见</t>
-  </si>
-  <si>
-    <t>Needle</t>
-  </si>
-  <si>
-    <t>颓废老男人</t>
-  </si>
-  <si>
-    <t>格斗小佳</t>
-  </si>
-  <si>
-    <t>丨哆唻咪发唆</t>
-  </si>
-  <si>
-    <t>北夕寒笙丶</t>
-  </si>
-  <si>
-    <t>晚街听风</t>
-  </si>
-  <si>
-    <t>眉间一点白</t>
-  </si>
-  <si>
-    <t>齿虎</t>
-  </si>
-  <si>
-    <t>澪澪</t>
-  </si>
-  <si>
-    <t>隔花初见君一笑</t>
-  </si>
-  <si>
-    <t>冷殘心</t>
-  </si>
-  <si>
-    <t>玉面天魁</t>
-  </si>
-  <si>
-    <t>婠竹海</t>
-  </si>
-  <si>
-    <t>唐门仐少</t>
-  </si>
-  <si>
-    <t>我纯文字</t>
-  </si>
-  <si>
-    <t>慕落弦</t>
-  </si>
-  <si>
-    <t>裂劈天</t>
-  </si>
-  <si>
-    <t>ParTing丶X</t>
-  </si>
-  <si>
-    <t>柒叶浅</t>
-  </si>
-  <si>
-    <t>陌上花开丶彦</t>
-  </si>
-  <si>
-    <t>劳资好萌好可爱</t>
-  </si>
-  <si>
-    <t>南宫絮语</t>
-  </si>
-  <si>
-    <t>无所不能小奇葩</t>
-  </si>
-  <si>
-    <t>呀丶不要杀我</t>
-  </si>
-  <si>
-    <t>秋叶微寒</t>
-  </si>
-  <si>
-    <t>明月多情笑我怪</t>
-  </si>
-  <si>
-    <t>暮雪醉逍遥</t>
-  </si>
-  <si>
-    <t>天下悍刀出北凉</t>
-  </si>
-  <si>
-    <t>江湖多寂莫丶人</t>
-  </si>
-  <si>
-    <t>时钟轻摇孤独</t>
-  </si>
-  <si>
-    <t>箫中剑丶</t>
-  </si>
-  <si>
-    <t>凰荼歌</t>
-  </si>
-  <si>
-    <t>傲气孤狼</t>
-  </si>
-  <si>
-    <t>巡山的人</t>
-  </si>
-  <si>
-    <t>神么刀</t>
-  </si>
-  <si>
-    <t>道运良</t>
-  </si>
-  <si>
-    <t>少华丶</t>
-  </si>
-  <si>
-    <t>琴瑟愿与</t>
-  </si>
-  <si>
-    <t>丶若芷</t>
-  </si>
-  <si>
-    <t>薛涛笺</t>
-  </si>
-  <si>
-    <t>苍昊天</t>
-  </si>
-  <si>
-    <t>妄皈</t>
-  </si>
-  <si>
-    <t>独孤沐白</t>
-  </si>
-  <si>
-    <t>喝脉动割动脉</t>
-  </si>
-  <si>
-    <t>顾云深</t>
-  </si>
-  <si>
-    <t>傲江湖</t>
-  </si>
-  <si>
-    <t>神荼夜</t>
-  </si>
-  <si>
-    <t>冷霜刃</t>
-  </si>
-  <si>
-    <t>墨如渊</t>
-  </si>
-  <si>
-    <t>太极神尊</t>
-  </si>
-  <si>
-    <t>白素。</t>
-  </si>
-  <si>
-    <t>飞舞的菊花</t>
-  </si>
-  <si>
-    <t>练武风化</t>
-  </si>
-  <si>
-    <t>沐玉洁</t>
-  </si>
-  <si>
-    <t>帝喾</t>
-  </si>
-  <si>
-    <t>晚下</t>
-  </si>
-  <si>
-    <t>牧羊﹣</t>
-  </si>
-  <si>
-    <t>祗园之舞</t>
-  </si>
-  <si>
-    <t>懿锦丶</t>
-  </si>
-  <si>
-    <t>叶榖城</t>
-  </si>
-  <si>
-    <t>龍霸世</t>
-  </si>
-  <si>
-    <t>请叫我孟纶镁</t>
-  </si>
-  <si>
-    <t>提刀独立荡八荒</t>
-  </si>
-  <si>
-    <t>茕疚</t>
-  </si>
-  <si>
-    <t>青丶玄</t>
-  </si>
-  <si>
-    <t>林傲霜</t>
-  </si>
-  <si>
-    <t>邓紫棋的小鲜肉</t>
-  </si>
-  <si>
-    <t>天偌有晴</t>
-  </si>
-  <si>
-    <t>千丶色</t>
-  </si>
-  <si>
-    <t>唏嘘流年</t>
-  </si>
-  <si>
-    <t>醉念。</t>
-  </si>
-  <si>
-    <t>何如此地学长生</t>
-  </si>
-  <si>
-    <t>傲娇的臭雪碧</t>
-  </si>
-  <si>
-    <t>古巷烟雨断桥殇</t>
-  </si>
-  <si>
-    <t>清新荷语</t>
-  </si>
-  <si>
-    <t>凌夜寒</t>
-  </si>
-  <si>
-    <t>秦友善。</t>
-  </si>
-  <si>
-    <t>天香国际</t>
-  </si>
-  <si>
-    <t>是但拉</t>
-  </si>
-  <si>
-    <t>异逍遥</t>
-  </si>
-  <si>
-    <t>醉饮砒霜</t>
-  </si>
-  <si>
-    <t>剑老白</t>
-  </si>
-  <si>
-    <t>暮色佳人待我归</t>
-  </si>
-  <si>
-    <t>贺兰丶宁儿</t>
-  </si>
-  <si>
-    <t>白轻寒</t>
-  </si>
-  <si>
-    <t>蝶舞云</t>
-  </si>
-  <si>
-    <t>老滚</t>
-  </si>
-  <si>
-    <t>ޓ一梦换须臾</t>
-  </si>
-  <si>
-    <t>殺丶无忌</t>
-  </si>
-  <si>
-    <t>杨卓儒</t>
-  </si>
-  <si>
-    <t>叨叨</t>
-  </si>
-  <si>
-    <t>洛天岚</t>
-  </si>
-  <si>
-    <t>跑调的张学友</t>
-  </si>
-  <si>
-    <t>剑舞天涯</t>
-  </si>
-  <si>
-    <t>右逝</t>
-  </si>
-  <si>
-    <t>我是赵医生</t>
-  </si>
-  <si>
-    <t>懒丶羊羊</t>
-  </si>
-  <si>
-    <t>⑦玥</t>
-  </si>
-  <si>
-    <t>凹凸三三</t>
-  </si>
-  <si>
-    <t>比剑哥还贱</t>
-  </si>
-  <si>
-    <t>城南穷鬼赵四</t>
-  </si>
-  <si>
-    <t>箫剑刃</t>
-  </si>
-  <si>
-    <t>琴若璃</t>
-  </si>
-  <si>
-    <t>宇佐见灬莲子</t>
-  </si>
-  <si>
-    <t>董汉卿</t>
-  </si>
-  <si>
-    <t>一子漾一</t>
-  </si>
-  <si>
-    <t>意邪</t>
-  </si>
-  <si>
-    <t>沈波的波</t>
-  </si>
-  <si>
-    <t>太白三圣</t>
-  </si>
-  <si>
-    <t>久成病</t>
-  </si>
-  <si>
-    <t>紫藤花下</t>
-  </si>
-  <si>
-    <t>武藏野剑太</t>
-  </si>
-  <si>
-    <t>帝君虹</t>
-  </si>
-  <si>
-    <t>孤影惊残梦</t>
-  </si>
-  <si>
-    <t>伊念之间</t>
-  </si>
-  <si>
-    <t>黑崎—护</t>
-  </si>
-  <si>
-    <t>毒儿</t>
-  </si>
-  <si>
-    <t>一只萌正太丶</t>
-  </si>
-  <si>
-    <t>九条夏夜乃</t>
-  </si>
-  <si>
-    <t>裴述</t>
-  </si>
-  <si>
-    <t>小马的天</t>
-  </si>
-  <si>
-    <t>一曲月霜寒</t>
-  </si>
-  <si>
-    <t>泪成殇</t>
-  </si>
-  <si>
-    <t>水中的燕麦</t>
-  </si>
-  <si>
-    <t>艾尔艾路弗</t>
-  </si>
-  <si>
-    <t>肾亏道人</t>
-  </si>
-  <si>
-    <t>绝弦觅知</t>
-  </si>
-  <si>
-    <t>蛋蛋疍</t>
-  </si>
-  <si>
-    <t>天刀什么刀</t>
-  </si>
-  <si>
-    <t>我一直没有曾经</t>
-  </si>
-  <si>
-    <t>雪域星空</t>
-  </si>
-  <si>
-    <t>咲冭陽</t>
-  </si>
-  <si>
-    <t>是轻狂</t>
-  </si>
-  <si>
-    <t>凱蒂喵</t>
-  </si>
-  <si>
-    <t>大岛遥香</t>
-  </si>
-  <si>
-    <t>宫黎妍</t>
-  </si>
-  <si>
-    <t>姬如影</t>
-  </si>
-  <si>
-    <t>太阳骑士炮灰</t>
-  </si>
-  <si>
-    <t>汐月暮云</t>
-  </si>
-  <si>
-    <t>回忆不曾悲伤</t>
-  </si>
-  <si>
-    <t>棒棒噠</t>
-  </si>
-  <si>
-    <t>我有一颗星</t>
-  </si>
-  <si>
-    <t>楼踌曙楼</t>
-  </si>
-  <si>
-    <t>寄给你的风丶</t>
-  </si>
-  <si>
-    <t>云海小明</t>
-  </si>
-  <si>
-    <t>凡人的梦</t>
-  </si>
-  <si>
-    <t>南邦佳人呀</t>
-  </si>
-  <si>
-    <t>Smile海绵宝宝</t>
-  </si>
-  <si>
-    <t>潇懿风</t>
-  </si>
-  <si>
-    <t>孤傲凡尘</t>
-  </si>
-  <si>
-    <t>红毛</t>
-  </si>
-  <si>
-    <t>北城初夏</t>
-  </si>
-  <si>
-    <t>花无疃</t>
-  </si>
-  <si>
-    <t>怒怒怒怒火</t>
-  </si>
-  <si>
-    <t>向小楠</t>
-  </si>
-  <si>
-    <t>氹萌萌</t>
-  </si>
-  <si>
-    <t>放肆流逝的年华</t>
-  </si>
-  <si>
-    <t>洛小洛丶</t>
-  </si>
-  <si>
-    <t>我讨厌用名字</t>
-  </si>
-  <si>
-    <t>似有若无</t>
-  </si>
-  <si>
-    <t>猴上去了</t>
-  </si>
-  <si>
-    <t>Garfielddd</t>
-  </si>
-  <si>
-    <t>闻素问</t>
-  </si>
-  <si>
-    <t>欧阳丶少恭</t>
-  </si>
-  <si>
-    <t>蚩尤魔人</t>
-  </si>
-  <si>
-    <t>青梅淡煮酒</t>
-  </si>
-  <si>
-    <t>kingdan</t>
-  </si>
-  <si>
-    <t>刀灵媛</t>
-  </si>
-  <si>
-    <t>冷嫣然丶</t>
-  </si>
-  <si>
-    <t>雅诗兰黛灬玛丽</t>
-  </si>
-  <si>
-    <t>凋谢的灬花</t>
-  </si>
-  <si>
-    <t>胡泉款</t>
-  </si>
-  <si>
-    <t>离殇天丶</t>
-  </si>
-  <si>
-    <t>丶雨潇潇丶</t>
-  </si>
-  <si>
-    <t>顾小忘</t>
-  </si>
-  <si>
-    <t>画芊骨</t>
-  </si>
-  <si>
-    <t>我有一颗榶</t>
-  </si>
-  <si>
-    <t>束于其中</t>
-  </si>
-  <si>
-    <t>喵呜酱提小莫</t>
-  </si>
-  <si>
-    <t>火之鸟</t>
-  </si>
-  <si>
-    <t>小女儿可可</t>
-  </si>
-  <si>
-    <t>笛梦一秋</t>
-  </si>
-  <si>
-    <t>烂心</t>
-  </si>
-  <si>
-    <t>神她吗</t>
-  </si>
-  <si>
-    <t>唐糖～</t>
-  </si>
-  <si>
-    <t>夏神他爸爸</t>
-  </si>
-  <si>
-    <t>闭月羞</t>
-  </si>
-  <si>
-    <t>魅丿无情</t>
-  </si>
-  <si>
-    <t>神刀距离</t>
-  </si>
-  <si>
-    <t>轻笑忘</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>舞水</t>
-  </si>
-  <si>
-    <t>刀无回</t>
-  </si>
-  <si>
-    <t>红颜痴情笑</t>
-  </si>
-  <si>
-    <t>抠脚香i</t>
-  </si>
-  <si>
-    <t>唯剑道不灭</t>
-  </si>
-  <si>
-    <t>十年丶</t>
-  </si>
-  <si>
-    <t>区洛云</t>
-  </si>
-  <si>
-    <t>就叫玫瑰吧</t>
-  </si>
-  <si>
-    <t>ParTing丶R</t>
-  </si>
-  <si>
-    <t>绑定小蜜的</t>
-  </si>
-  <si>
-    <t>丶公子影</t>
-  </si>
-  <si>
-    <t>千觞丶醉酒</t>
-  </si>
-  <si>
-    <t>刃歌</t>
-  </si>
-  <si>
-    <t>灭世狂雷</t>
-  </si>
-  <si>
-    <t>君i陌离</t>
-  </si>
-  <si>
-    <t>浅歌丶濢曦轻衣</t>
-  </si>
-  <si>
-    <t>顾奈丶</t>
-  </si>
-  <si>
-    <t>冬凝寒</t>
-  </si>
-  <si>
-    <t>初墨凝</t>
-  </si>
-  <si>
-    <t>你爸你边哭一边</t>
-  </si>
-  <si>
-    <t>凡哥的父亲</t>
-  </si>
-  <si>
-    <t>念欢娱事</t>
-  </si>
-  <si>
-    <t>万俟独秋乄</t>
-  </si>
-  <si>
-    <t>夜袭寡妇寨</t>
-  </si>
-  <si>
-    <t>明天不见</t>
-  </si>
-  <si>
-    <t>倾国不倾城</t>
-  </si>
-  <si>
-    <t>可可菌</t>
-  </si>
-  <si>
-    <t>染琴</t>
-  </si>
-  <si>
-    <t>手中玫瑰赠予谁</t>
-  </si>
-  <si>
-    <t>纳加法</t>
-  </si>
-  <si>
-    <t>奥利奥。巧轻脆</t>
-  </si>
-  <si>
-    <t>裤衩子丶满地撩</t>
-  </si>
-  <si>
-    <t>神刀弑八荒</t>
-  </si>
-  <si>
-    <t>梵天Swagger</t>
-  </si>
-  <si>
-    <t>套套嗷呜</t>
-  </si>
-  <si>
-    <t>夜冥雪</t>
-  </si>
-  <si>
-    <t>司寇听雨</t>
-  </si>
-  <si>
-    <t>纯情少妇马芳玲</t>
-  </si>
-  <si>
-    <t>徐耶比</t>
-  </si>
-  <si>
-    <t>青春亮丽欣妈妈</t>
-  </si>
-  <si>
-    <t>东风路大狗蛋</t>
-  </si>
-  <si>
-    <t>彼眸</t>
-  </si>
-  <si>
-    <t>伐青</t>
-  </si>
-  <si>
-    <t>最可爱的师姐</t>
-  </si>
-  <si>
-    <t>莫倾城灬</t>
-  </si>
-  <si>
-    <t>东风路四蛋</t>
-  </si>
-  <si>
-    <t>乏乏</t>
-  </si>
-  <si>
-    <t>蠢小椰丶</t>
-  </si>
-  <si>
-    <t>剣殊雨寒丶</t>
-  </si>
-  <si>
-    <t>天刀小师妹—</t>
-  </si>
-  <si>
-    <t>神奇宝贝杨尼玛</t>
-  </si>
-  <si>
-    <t>九袋丐</t>
-  </si>
-  <si>
-    <t>锁麟囊</t>
-  </si>
-  <si>
-    <t>凛柒っ</t>
-  </si>
-  <si>
-    <t>二狗娃</t>
-  </si>
-  <si>
-    <t>刀之芳华</t>
-  </si>
-  <si>
-    <t>好想告诉伱</t>
-  </si>
-  <si>
-    <t>落花丶醉</t>
-  </si>
-  <si>
-    <t>花落时节与君别</t>
-  </si>
-  <si>
-    <t>枯葉丷为谁落</t>
-  </si>
-  <si>
-    <t>畔水</t>
-  </si>
-  <si>
-    <t>丘森森</t>
-  </si>
-  <si>
-    <t>赤月染红尘</t>
-  </si>
-  <si>
-    <t>尽余年。</t>
-  </si>
-  <si>
-    <t>小兔兔几</t>
-  </si>
-  <si>
-    <t>哒哒滴滴</t>
-  </si>
-  <si>
-    <t>大牛又鸟又鸟</t>
-  </si>
-  <si>
-    <t>maskxi</t>
-  </si>
-  <si>
-    <t>风暖伤</t>
-  </si>
-  <si>
-    <t>二瞳</t>
-  </si>
-  <si>
-    <t>转身落尽空城泪</t>
-  </si>
-  <si>
-    <t>马来西亚的咪咪</t>
-  </si>
-  <si>
-    <t>Yada丶leo</t>
-  </si>
-  <si>
-    <t>霜雪寒梅</t>
-  </si>
-  <si>
-    <t>濯清莲而不妖</t>
-  </si>
-  <si>
-    <t>萝卜土豆丝</t>
-  </si>
-  <si>
-    <t>神奇宝贝杨泥玛</t>
-  </si>
-  <si>
-    <t>伊似君心</t>
-  </si>
-  <si>
-    <t>唐舞桐灬</t>
-  </si>
-  <si>
-    <t>小阿鏡</t>
-  </si>
-  <si>
-    <t>橙橙喵呜</t>
-  </si>
-  <si>
-    <t>翩翩少年灬析</t>
-  </si>
-  <si>
-    <t>Tusy</t>
-  </si>
-  <si>
-    <t>生气的小黄瓜</t>
-  </si>
-  <si>
-    <t>荡荡</t>
-  </si>
-  <si>
-    <t>夜雨流年</t>
-  </si>
-  <si>
-    <t>说谎的男孩</t>
-  </si>
-  <si>
-    <t>一丿登</t>
-  </si>
-  <si>
-    <t>志方</t>
-  </si>
-  <si>
-    <t>墨炽</t>
-  </si>
-  <si>
-    <t>苍镜</t>
-  </si>
-  <si>
-    <t>凋零之光</t>
-  </si>
-  <si>
-    <t>平凡的少年郎</t>
-  </si>
-  <si>
-    <t>月牙冲天</t>
-  </si>
-  <si>
-    <t>入梦落樱满熏香</t>
-  </si>
-  <si>
-    <t>炖猪肘丶</t>
-  </si>
-  <si>
-    <t>冷晓汐灬</t>
-  </si>
-  <si>
-    <t>宫离嫣</t>
-  </si>
-  <si>
-    <t>友善的小内衣</t>
-  </si>
-  <si>
-    <t>杀秋</t>
-  </si>
-  <si>
-    <t>歌风路丶三狗蛋</t>
-  </si>
-  <si>
-    <t>冉灬子墨</t>
-  </si>
-  <si>
-    <t>柒果果</t>
-  </si>
-  <si>
-    <t>纯洁友善的殇</t>
-  </si>
-  <si>
-    <t>丶吴宇森</t>
-  </si>
-  <si>
-    <t>昔昔</t>
-  </si>
-  <si>
-    <t>慕容靉</t>
-  </si>
-  <si>
-    <t>、征戮天下</t>
-  </si>
-  <si>
-    <t>Yennefer</t>
-  </si>
-  <si>
-    <t>茶凉言尽丶</t>
-  </si>
-  <si>
-    <t>劍問兲涯覓紅颜</t>
-  </si>
-  <si>
-    <t>这刀用砍</t>
-  </si>
-  <si>
-    <t>懒扶赋役</t>
-  </si>
-  <si>
-    <t>纯洁友善的暮夏</t>
-  </si>
-  <si>
-    <t>可爱琳</t>
-  </si>
-  <si>
-    <t>妄于</t>
-  </si>
-  <si>
-    <t>阿翔翔</t>
-  </si>
-  <si>
-    <t>彡电竞丿柯南乄</t>
-  </si>
-  <si>
-    <t>恶酒。</t>
-  </si>
-  <si>
-    <t>水红芍</t>
-  </si>
-  <si>
-    <t>紫舞流年</t>
-  </si>
-  <si>
-    <t>冬瓜小荞</t>
-  </si>
-  <si>
-    <t>五六柒</t>
-  </si>
-  <si>
-    <t>黑寡妇的小胸罩</t>
-  </si>
-  <si>
-    <t>嚜韵轩華</t>
-  </si>
-  <si>
-    <t>丿晴栀渝宛歌丶</t>
-  </si>
-  <si>
-    <t>燕雨莲</t>
-  </si>
-  <si>
-    <t>锦衣卫知秋</t>
-  </si>
-  <si>
-    <t>项辰帝</t>
-  </si>
-  <si>
-    <t>一根直肠通大脑</t>
-  </si>
-  <si>
-    <t>魔法少女杜芸松</t>
-  </si>
-  <si>
-    <t>淡若清风過丶</t>
-  </si>
-  <si>
-    <t>一息衍一</t>
-  </si>
-  <si>
-    <t>储舜</t>
-  </si>
-  <si>
-    <t>Sunnyboy丶桔子</t>
-  </si>
-  <si>
-    <t>苏樰</t>
-  </si>
-  <si>
-    <t>冉灬子灬墨</t>
-  </si>
-  <si>
-    <t>江山难改丶洛</t>
-  </si>
-  <si>
-    <t>虎皮喵大人丶</t>
-  </si>
-  <si>
-    <t>萧劲城</t>
-  </si>
-  <si>
-    <t>务必叫我欧皇</t>
-  </si>
-  <si>
-    <t>机智勇敢的小月</t>
-  </si>
-  <si>
-    <t>雷凌钥</t>
-  </si>
-  <si>
-    <t>千樽雪</t>
-  </si>
-  <si>
-    <t>辉煌PT</t>
-  </si>
-  <si>
-    <t>丶薛日天</t>
-  </si>
-  <si>
-    <t>章鱼宝宝</t>
-  </si>
-  <si>
-    <t>不败才是姿态</t>
-  </si>
-  <si>
-    <t>陌路莫回</t>
-  </si>
-  <si>
-    <t>偷得浮珄半日闲</t>
-  </si>
-  <si>
-    <t>倚刀望江湖</t>
-  </si>
-  <si>
-    <t>回头我就在身后</t>
-  </si>
-  <si>
-    <t>雪遥</t>
-  </si>
-  <si>
-    <t>阿茶君</t>
-  </si>
-  <si>
-    <t>颂碑寒</t>
-  </si>
-  <si>
-    <t>慕瑾遥</t>
-  </si>
-  <si>
-    <t>姬舞辛</t>
-  </si>
-  <si>
-    <t>壕坑</t>
-  </si>
-  <si>
-    <t>冷翎峰</t>
-  </si>
-  <si>
-    <t>芝麻花生馅儿饺</t>
-  </si>
-  <si>
-    <t>、陌上看花</t>
-  </si>
-  <si>
-    <t>雾星</t>
-  </si>
-  <si>
-    <t>柠小檬丶</t>
-  </si>
-  <si>
-    <t>邱少</t>
-  </si>
-  <si>
-    <t>芍药児</t>
-  </si>
-  <si>
-    <t>浮生半日</t>
-  </si>
-  <si>
-    <t>顾里丶</t>
-  </si>
-  <si>
-    <t>暖心城</t>
-  </si>
-  <si>
-    <t>钟离三昧</t>
-  </si>
-  <si>
-    <t>冷汐宇</t>
-  </si>
-  <si>
-    <t>梦中、有你</t>
-  </si>
-  <si>
-    <t>破烂刀客</t>
-  </si>
-  <si>
-    <t>一叶知秋づ</t>
-  </si>
-  <si>
-    <t>逍遥芙蕖</t>
-  </si>
-  <si>
-    <t>听说我是亚索</t>
-  </si>
-  <si>
-    <t>古手梨花sama</t>
-  </si>
-  <si>
-    <t>范范吃西瓜</t>
-  </si>
-  <si>
-    <t>梨花黛雨</t>
-  </si>
-  <si>
-    <t>李破风</t>
-  </si>
-  <si>
-    <t>格里斯贝恩</t>
-  </si>
-  <si>
-    <t>洛千觞</t>
-  </si>
-  <si>
-    <t>F丨小乖</t>
-  </si>
-  <si>
-    <t>浪哩个浪</t>
-  </si>
-  <si>
-    <t>烈凝风</t>
-  </si>
-  <si>
-    <t>丶神楽</t>
-  </si>
-  <si>
-    <t>无毒邪神</t>
-  </si>
-  <si>
-    <t>唐卿凝</t>
-  </si>
-  <si>
-    <t>慕暖</t>
-  </si>
-  <si>
-    <t>碧月飞星箭</t>
-  </si>
-  <si>
-    <t>余夜阑珊</t>
-  </si>
-  <si>
-    <t>曾岀山</t>
-  </si>
-  <si>
-    <t>易小川</t>
-  </si>
-  <si>
-    <t>首领之傲毛润之</t>
-  </si>
-  <si>
-    <t>落雨晴天</t>
-  </si>
-  <si>
-    <t>冷煌</t>
-  </si>
-  <si>
-    <t>西北峰</t>
-  </si>
-  <si>
-    <t>荆轲已逝高渐离</t>
-  </si>
-  <si>
-    <t>葉窕</t>
-  </si>
-  <si>
-    <t>冬初暮雪</t>
-  </si>
-  <si>
-    <t>琉璎</t>
-  </si>
-  <si>
-    <t>丧尸杀手金克斯</t>
-  </si>
-  <si>
-    <t>雪糕失望</t>
-  </si>
-  <si>
-    <t>水晶般的人儿</t>
-  </si>
-  <si>
-    <t>琴韵红衣丶心</t>
-  </si>
-  <si>
-    <t>神威司空阿龙</t>
-  </si>
-  <si>
-    <t>时光不矜持</t>
-  </si>
-  <si>
-    <t>墨語丶</t>
-  </si>
-  <si>
-    <t>叶天簌</t>
-  </si>
-  <si>
-    <t>听雪剑</t>
-  </si>
-  <si>
-    <t>封思绝</t>
-  </si>
-  <si>
-    <t>千怀</t>
-  </si>
-  <si>
-    <t>小针尖</t>
-  </si>
-  <si>
-    <t>薛无衡</t>
-  </si>
-  <si>
-    <t>花儿盛盛开</t>
-  </si>
-  <si>
-    <t>别碰我的葫芦</t>
-  </si>
-  <si>
-    <t>墨韵玄风</t>
-  </si>
-  <si>
-    <t>叫我蜘蛛啦</t>
-  </si>
-  <si>
-    <t>狄万钧</t>
-  </si>
-  <si>
-    <t>暮小曦丶</t>
-  </si>
-  <si>
-    <t>万年孤独</t>
-  </si>
-  <si>
-    <t>舞花丶弄剑</t>
-  </si>
-  <si>
-    <t>丐帮汪剑通</t>
-  </si>
-  <si>
-    <t>梓珏</t>
-  </si>
-  <si>
-    <t>墨羽丶离殇</t>
-  </si>
-  <si>
-    <t>从前玩真武</t>
-  </si>
-  <si>
-    <t>逆天懵</t>
-  </si>
-  <si>
-    <t>秦川吉娃娃</t>
-  </si>
-  <si>
-    <t>太白洗衣液</t>
-  </si>
-  <si>
-    <t>丐帮金鹏长老</t>
-  </si>
-  <si>
-    <t>元气小石十</t>
-  </si>
-  <si>
-    <t>皈依奶小牛丶</t>
-  </si>
-  <si>
-    <t>龙一萧</t>
-  </si>
-  <si>
-    <t>烈酒味清茶</t>
-  </si>
-  <si>
-    <t>一念生</t>
-  </si>
-  <si>
-    <t>Actors丶纤旧</t>
-  </si>
-  <si>
-    <t>跟寂寞再和好丶</t>
-  </si>
-  <si>
-    <t>楚歌谣</t>
-  </si>
-  <si>
-    <t>凝眸丶忆曲彡</t>
-  </si>
-  <si>
-    <t>唐倾梦吟</t>
-  </si>
-  <si>
-    <t>天真无邪大胡子</t>
-  </si>
-  <si>
-    <t>苏洛伊</t>
-  </si>
-  <si>
-    <t>容子欢</t>
-  </si>
-  <si>
-    <t>酒倾轻竹影</t>
+    <t>小枪</t>
+  </si>
+  <si>
+    <t>fatesc</t>
+  </si>
+  <si>
+    <t>米粥</t>
+  </si>
+  <si>
+    <t>晴天</t>
+  </si>
+  <si>
+    <t>蠢蠢</t>
+  </si>
+  <si>
+    <t>竹影</t>
+  </si>
+  <si>
+    <t>个好人</t>
+  </si>
+  <si>
+    <t>时钟轻</t>
+  </si>
+  <si>
+    <t>苏洛</t>
+  </si>
+  <si>
+    <t>萤儿</t>
+  </si>
+  <si>
+    <t>浪迹小</t>
+  </si>
+  <si>
+    <t>花兮兮</t>
   </si>
 </sst>
 </file>
@@ -2336,11 +2360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C80" sqref="C1:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2355,14 +2378,14 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
-        <v>160</v>
+        <v>614</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="C1" t="str">
         <f>VLOOKUP("*"&amp;A1&amp;"*",B:B,1,0)</f>
-        <v>那年今若、</v>
+        <v>張君雅。</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -2370,3007 +2393,3128 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="C2" s="10" t="str">
         <f t="shared" ref="C2:C65" si="0">VLOOKUP("*"&amp;A2&amp;"*",B:B,1,0)</f>
-        <v>那年红颜</v>
+        <v>夜冥雪</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>169</v>
+        <v>638</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>霜雪寒梅</v>
+        <v>何月凡</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="C4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>青羽墨染云</v>
+        <v>关翔予</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>171</v>
+        <v>604</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="C5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>顾寻清</v>
+        <v>其实想玩刀客</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>俱利摩</v>
+        <v>叶菡</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>161</v>
+        <v>643</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>一个有内涵的人</v>
+        <v>唐舞桐灬</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>173</v>
+        <v>603</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>丿几度度丶</v>
+        <v>墨炽</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>174</v>
+        <v>644</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>北城初夏</v>
+        <v>套套嗷呜</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>175</v>
+        <v>639</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>南眸</v>
+        <v>奶小牛丶</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>176</v>
+        <v>645</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>咲冭陽</v>
+        <v>山高丶木易</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>177</v>
+        <v>640</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>奥利奥。巧轻脆</v>
+        <v>水影悠兰</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>178</v>
+        <v>646</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="C13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>怒怒怒怒火</v>
+        <v>淡若清风過丶</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
-        <v>179</v>
+        <v>602</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>椛灯</v>
+        <v>潇洒仗剑天下</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>180</v>
+        <v>605</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>蛋蛋疍</v>
+        <v>煌煌</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
-        <v>181</v>
+        <v>647</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10" t="e">
+        <v>143</v>
+      </c>
+      <c r="C16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>神奇宝贝妮小白</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
-        <v>182</v>
+        <v>648</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="C17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>太子彬</v>
+        <v>紫雨幽雲</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
-        <v>183</v>
+        <v>624</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="C18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>守护锋</v>
+        <v>艾莉亞史塔克</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
-        <v>184</v>
+        <v>649</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>230</v>
+        <v>543</v>
       </c>
       <c r="C19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>丶忍野咩咩</v>
+        <v>训练大师森三白</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
-        <v>185</v>
+        <v>606</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="C20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>凯贼阔里</v>
+        <v>迷茫中徘徊</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
-        <v>40</v>
+        <v>650</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>榕月</v>
+        <v>霜雪寒梅</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
-        <v>143</v>
+        <v>651</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="C22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>此情珂待</v>
+        <v>青羽墨染云</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
-        <v>186</v>
+        <v>625</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="C23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>沐浠尘</v>
+        <v>顾寻清</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
-        <v>187</v>
+        <v>641</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="C24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>独孤杀生</v>
+        <v>追风少年鹰老七</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
-        <v>188</v>
+        <v>652</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="C25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>花谢人凋零。</v>
+        <v>神威小枪将</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
-        <v>189</v>
+        <v>540</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="C26" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>荆轲已逝高渐离</v>
+        <v>仁剑震音扬</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
-        <v>190</v>
+        <v>636</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="C27" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>逸仙丶王爷</v>
+        <v>余子乔丶</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
-        <v>46</v>
+        <v>541</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="C28" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>鱼小小</v>
+        <v>俱利摩</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>191</v>
+        <v>608</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="C29" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>鱼爸爸</v>
+        <v>丶伴我几度</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
-        <v>192</v>
+        <v>637</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="C30" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>暮雪醉逍遥</v>
+        <v>北城初夏</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
-        <v>193</v>
+        <v>621</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="C31" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Mn丶猫猫君</v>
+        <v>吾寄愁心与明月</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
-        <v>168</v>
+        <v>622</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="C32" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>ޓ一梦换须臾</v>
+        <v>奥利奥。巧轻脆</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
-        <v>194</v>
+        <v>623</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="C33" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>与尔同销萬古愁</v>
+        <v>孤傲凡尘</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="7" t="s">
-        <v>156</v>
+        <v>607</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="C34" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>机智勇敢的小明</v>
+        <v>八块腹肌小官人</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
-        <v>195</v>
+        <v>609</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="C35" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>潇洒仗剑天下</v>
+        <v>怒怒怒怒火</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
-        <v>196</v>
+        <v>345</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C36" s="10" t="e">
+        <v>171</v>
+      </c>
+      <c r="C36" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>纳加法</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
-        <v>157</v>
+        <v>626</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="C37" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>东风路三狗蛋</v>
+        <v>FateLibra</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
-        <v>197</v>
+        <v>653</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="C38" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>何月凡</v>
+        <v>FateScorpio</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
-        <v>198</v>
+        <v>654</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="C39" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>关翔予</v>
+        <v>偌米粥丶</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>137</v>
+        <v>627</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>249</v>
+        <v>544</v>
       </c>
       <c r="C40" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>其实想玩刀客</v>
+        <v>口味太怪</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
-        <v>1</v>
+        <v>628</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="C41" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>叶菡</v>
+        <v>执劍小书生</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="5" t="s">
-        <v>199</v>
+        <v>655</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="C42" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>唐舞桐灬</v>
+        <v>落雨晴天</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
-        <v>167</v>
+        <v>656</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="C43" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>空虚公子萧四无</v>
+        <v>拌蠢蠢</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>158</v>
+        <v>611</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="C44" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>月下魂兮</v>
+        <v>树儿高高长</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>200</v>
+        <v>642</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="C45" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>水影悠兰</v>
+        <v>凯贼阔里</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="C46" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>煌煌</v>
+        <v>慕榕月</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>201</v>
+        <v>610</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>255</v>
+        <v>56</v>
       </c>
       <c r="C47" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>紫雨幽雲</v>
+        <v>此情珂待</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="C48" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>艾莉亞史塔克</v>
+        <v>沐浠尘</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C49" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>薄霭</v>
+        <v>甄心</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
       <c r="C50" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>迷茫中徘徊</v>
+        <v>神威再见</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>203</v>
+        <v>612</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="C51" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>只想做个好人</v>
+        <v>再见是否红着脸</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>204</v>
+        <v>657</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="C52" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>吕小栋</v>
+        <v>酒倾轻竹影</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>8</v>
+        <v>629</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="C53" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>墨河</v>
+        <v>花谢人凋零。</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>205</v>
+        <v>630</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="C54" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>娇软の小屁股</v>
+        <v>超人不会飞〃</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="C55" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>尐浣熊。</v>
+        <v>鱼小小</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="C56" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>折扇浪漫</v>
+        <v>鱼爸爸</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4" t="s">
-        <v>207</v>
+        <v>617</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="C57" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>明年今日奕十年</v>
+        <v>暮雪醉逍遥</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>208</v>
+        <v>658</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C58" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>梦觞丶</v>
+        <v>只想做个好人</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
-        <v>209</v>
+        <v>631</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C59" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>沐伯乾</v>
+        <v>吕小栋</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="C60" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>浪琴</v>
+        <v>墨河</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>210</v>
+        <v>618</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="C61" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>浪迹小寿</v>
+        <v>大眼睛秋秋</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>211</v>
+        <v>615</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c r="C62" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>百里轩翊</v>
+        <v>尐浣熊。</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="C63" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>陈凌风</v>
+        <v>异逍遥</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>213</v>
+        <v>632</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="C64" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>青丝枫凌</v>
+        <v>张灵风</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>214</v>
+        <v>633</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>7</v>
+        <v>545</v>
       </c>
       <c r="C65" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>天下悍刀出北凉</v>
+        <v>我是天香的啊</v>
       </c>
     </row>
     <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>659</v>
+      </c>
       <c r="B66" s="10" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="C66" s="10" t="str">
-        <f t="shared" ref="C66:C95" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
-        <v>龍父</v>
+        <f t="shared" ref="C66:C126" si="1">VLOOKUP("*"&amp;A66&amp;"*",B:B,1,0)</f>
+        <v>时钟轻摇孤独</v>
       </c>
     </row>
     <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
       <c r="B67" s="10" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="C67" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
+        <v>浪琴</v>
       </c>
     </row>
     <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>619</v>
+      </c>
       <c r="B68" s="10" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C68" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
+        <v>百里轩翊</v>
       </c>
     </row>
     <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>660</v>
+      </c>
       <c r="B69" s="10" t="s">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="C69" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
+        <v>苏洛伊</v>
       </c>
     </row>
     <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>661</v>
+      </c>
       <c r="B70" s="10" t="s">
-        <v>42</v>
+        <v>546</v>
       </c>
       <c r="C70" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
+        <v>阴萤儿</v>
       </c>
     </row>
     <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>635</v>
+      </c>
       <c r="B71" s="10" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="C71" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
+        <v>跑调的张学友</v>
       </c>
     </row>
     <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
       <c r="B72" s="10" t="s">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="C72" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
+        <v>零拾</v>
       </c>
     </row>
     <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>620</v>
+      </c>
       <c r="B73" s="10" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="C73" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
+        <v>青丝枫凌</v>
       </c>
     </row>
     <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
       <c r="B74" s="10" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="C74" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
+        <v>蛋蛋疍</v>
       </c>
     </row>
     <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>634</v>
+      </c>
       <c r="B75" s="10" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="C75" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
+        <v>沐伯乾</v>
       </c>
     </row>
     <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>662</v>
+      </c>
       <c r="B76" s="10" t="s">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="C76" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
+        <v>浪迹小寿</v>
       </c>
     </row>
     <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>616</v>
+      </c>
       <c r="B77" s="10" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="C77" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
+        <v>白马落叶总相依</v>
       </c>
     </row>
     <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>663</v>
+      </c>
       <c r="B78" s="10" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="C78" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
+        <v>花兮兮兮兮</v>
       </c>
     </row>
     <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>613</v>
+      </c>
       <c r="B79" s="10" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="C79" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
+        <v>小阿淮呀</v>
       </c>
     </row>
     <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>26</v>
+      </c>
       <c r="B80" s="10" t="s">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="C80" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3">
+        <v>鱼香</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="B81" s="10" t="s">
-        <v>273</v>
+        <v>547</v>
       </c>
       <c r="C81" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="B82" s="10" t="s">
-        <v>274</v>
+        <v>114</v>
       </c>
       <c r="C82" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="B83" s="10" t="s">
-        <v>275</v>
+        <v>548</v>
       </c>
       <c r="C83" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="B84" s="10" t="s">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="C84" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="C85" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="B86" s="10" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="C86" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="B87" s="10" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="C87" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="B88" s="10" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="C88" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="B89" s="10" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="C89" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="B90" s="10" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="C90" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="B91" s="10" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="C91" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="B92" s="10" t="s">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="C92" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="B93" s="10" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="C93" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="B94" s="10" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="C94" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="B95" s="10" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="C95" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="B96" s="10" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="C96" s="3" t="str">
-        <f t="shared" ref="C66:C111" si="2">VLOOKUP("*"&amp;A96&amp;"*",B:B,1,0)</f>
-        <v>龍父</v>
+        <f t="shared" ref="C96" si="2">VLOOKUP("*"&amp;A96&amp;"*",B:B,1,0)</f>
+        <v>机智勇敢的小明</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C97" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="C97" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C98" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="C98" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C99" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="C99" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C100" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>龍父</v>
+        <v>62</v>
+      </c>
+      <c r="C100" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C101" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="C101" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C102" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="C102" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C103" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="C103" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C104" s="3"/>
+        <v>549</v>
+      </c>
+      <c r="C104" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C105" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="C105" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C106" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="C106" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="107" spans="2:3">
       <c r="B107" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C107" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="C107" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C108" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="C108" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C109" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="C109" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C110" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="C110" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C111" s="3"/>
+        <v>226</v>
+      </c>
+      <c r="C111" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C112" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="C112" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="C113" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="114" spans="2:3">
       <c r="B114" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C114" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="C114" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C115" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C115" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C116" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="C116" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C117" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="C117" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="C118" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="119" spans="2:3">
       <c r="B119" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C119" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="120" spans="2:3">
       <c r="B120" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C120" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="C120" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="121" spans="2:3">
       <c r="B121" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C121" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C121" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="122" spans="2:3">
       <c r="B122" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C122" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="C122" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="123" spans="2:3">
       <c r="B123" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="C123" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="124" spans="2:3">
       <c r="B124" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C124" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="C124" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="125" spans="2:3">
       <c r="B125" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C125" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="C125" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="126" spans="2:3">
       <c r="B126" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C126" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="C126" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>机智勇敢的小明</v>
+      </c>
     </row>
     <row r="127" spans="2:3">
       <c r="B127" s="10" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="2:3">
       <c r="B128" s="10" t="s">
-        <v>311</v>
+        <v>2</v>
       </c>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="2:3">
       <c r="B129" s="10" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="2:3">
       <c r="B130" s="10" t="s">
-        <v>313</v>
+        <v>155</v>
       </c>
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="2:3">
       <c r="B131" s="10" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="2:3">
       <c r="B132" s="10" t="s">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="C132" s="2" t="str">
         <f t="shared" ref="C132:C145" si="3">VLOOKUP("*"&amp;A132&amp;"*",B:B,1,0)</f>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
       <c r="B133" s="1" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="C133" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
       <c r="B134" s="1" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="C134" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
       <c r="B135" s="1" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="C135" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
       <c r="B136" s="1" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="2:3">
       <c r="B137" s="1" t="s">
-        <v>318</v>
+        <v>551</v>
       </c>
       <c r="C137" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
       <c r="B138" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C138" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
       <c r="B139" s="1" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="C139" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1">
-      <c r="A140" t="s">
-        <v>163</v>
-      </c>
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
       <c r="B140" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C140" s="2" t="e">
+        <v>157</v>
+      </c>
+      <c r="C140" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1">
-      <c r="A141" t="s">
-        <v>164</v>
-      </c>
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3">
       <c r="B141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="2" t="e">
+        <v>247</v>
+      </c>
+      <c r="C141" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1">
-      <c r="A142" t="s">
-        <v>165</v>
-      </c>
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3">
       <c r="B142" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C142" s="2" t="e">
+        <v>248</v>
+      </c>
+      <c r="C142" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
       <c r="B143" s="1" t="s">
-        <v>321</v>
+        <v>552</v>
       </c>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="2:3">
       <c r="B144" s="1" t="s">
-        <v>322</v>
+        <v>149</v>
       </c>
       <c r="C144" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>龍父</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1">
-      <c r="A145" t="s">
-        <v>166</v>
-      </c>
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
       <c r="B145" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C145" s="2" t="e">
+        <v>249</v>
+      </c>
+      <c r="C145" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>机智勇敢的小明</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
       <c r="B146" s="1" t="s">
-        <v>324</v>
+        <v>158</v>
       </c>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="2:3">
       <c r="B147" s="1" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="2:3">
       <c r="B148" s="1" t="s">
-        <v>326</v>
+        <v>553</v>
       </c>
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="2:3">
       <c r="B149" s="1" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="2:3">
       <c r="B150" s="1" t="s">
-        <v>328</v>
+        <v>34</v>
       </c>
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="2:3">
       <c r="B151" s="1" t="s">
-        <v>329</v>
+        <v>554</v>
       </c>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="2:3">
       <c r="B152" s="1" t="s">
-        <v>330</v>
+        <v>555</v>
       </c>
       <c r="C152" s="2"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="2:3">
       <c r="B153" s="1" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="C153" s="2"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="2:3">
       <c r="B154" s="1" t="s">
-        <v>332</v>
+        <v>124</v>
       </c>
       <c r="C154" s="2"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="2:3">
       <c r="B155" s="1" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="2:3">
       <c r="B156" s="1" t="s">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="2:3">
       <c r="B157" s="1" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="2:3">
       <c r="B158" s="1" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="C158" s="2"/>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="2:3">
       <c r="B159" s="1" t="s">
-        <v>336</v>
+        <v>111</v>
       </c>
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="2:3">
       <c r="B160" s="1" t="s">
-        <v>337</v>
+        <v>102</v>
       </c>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" s="1" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="C161" s="2"/>
     </row>
     <row r="162" spans="2:3">
       <c r="B162" s="1" t="s">
-        <v>339</v>
+        <v>35</v>
       </c>
       <c r="C162" s="2"/>
     </row>
     <row r="163" spans="2:3">
       <c r="B163" s="1" t="s">
-        <v>340</v>
+        <v>557</v>
       </c>
       <c r="C163" s="2"/>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" s="1" t="s">
-        <v>341</v>
+        <v>255</v>
       </c>
       <c r="C164" s="2"/>
     </row>
     <row r="165" spans="2:3">
       <c r="B165" s="1" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="C165" s="2"/>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" s="1" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" s="1" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="C167" s="2"/>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" s="1" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" s="1" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="C169" s="2"/>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" s="1" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="C170" s="2"/>
     </row>
     <row r="171" spans="2:3">
       <c r="B171" s="1" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c r="C171" s="2"/>
     </row>
     <row r="172" spans="2:3">
       <c r="B172" s="1" t="s">
-        <v>347</v>
+        <v>558</v>
       </c>
       <c r="C172" s="2"/>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" s="1" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="C173" s="2"/>
     </row>
     <row r="174" spans="2:3">
       <c r="B174" s="1" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" s="1" t="s">
-        <v>350</v>
+        <v>559</v>
       </c>
       <c r="C175" s="2"/>
     </row>
     <row r="176" spans="2:3">
       <c r="B176" s="1" t="s">
-        <v>351</v>
+        <v>265</v>
       </c>
       <c r="C176" s="2"/>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" s="1" t="s">
-        <v>352</v>
+        <v>560</v>
       </c>
       <c r="C177" s="2"/>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" s="1" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="C178" s="2"/>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" s="1" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="C179" s="2"/>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" s="1" t="s">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="C180" s="2"/>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" s="1" t="s">
-        <v>355</v>
+        <v>69</v>
       </c>
       <c r="C181" s="2"/>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="1" t="s">
-        <v>356</v>
+        <v>561</v>
       </c>
       <c r="C182" s="2"/>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" s="1" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" s="1" t="s">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="C184" s="2"/>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" s="1" t="s">
-        <v>358</v>
+        <v>562</v>
       </c>
       <c r="C185" s="2"/>
     </row>
     <row r="186" spans="2:3">
       <c r="B186" s="1" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="C186" s="2"/>
     </row>
     <row r="187" spans="2:3">
       <c r="B187" s="1" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
       <c r="C187" s="2"/>
     </row>
     <row r="188" spans="2:3">
       <c r="B188" s="1" t="s">
-        <v>361</v>
+        <v>563</v>
       </c>
       <c r="C188" s="2"/>
     </row>
     <row r="189" spans="2:3">
       <c r="B189" s="1" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="C189" s="2"/>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" s="1" t="s">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="C190" s="2"/>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" s="1" t="s">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="C191" s="2"/>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" s="1" t="s">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="C192" s="2"/>
     </row>
     <row r="193" spans="2:3">
       <c r="B193" s="1" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="C193" s="2"/>
     </row>
     <row r="194" spans="2:3">
       <c r="B194" s="1" t="s">
-        <v>365</v>
+        <v>279</v>
       </c>
       <c r="C194" s="2"/>
     </row>
     <row r="195" spans="2:3">
       <c r="B195" s="1" t="s">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="C195" s="2"/>
     </row>
     <row r="196" spans="2:3">
       <c r="B196" s="1" t="s">
-        <v>367</v>
+        <v>50</v>
       </c>
       <c r="C196" s="2"/>
     </row>
     <row r="197" spans="2:3">
       <c r="B197" s="1" t="s">
-        <v>368</v>
+        <v>282</v>
       </c>
       <c r="C197" s="2"/>
     </row>
     <row r="198" spans="2:3">
       <c r="B198" s="1" t="s">
-        <v>369</v>
+        <v>283</v>
       </c>
       <c r="C198" s="2"/>
     </row>
     <row r="199" spans="2:3">
       <c r="B199" s="1" t="s">
-        <v>370</v>
+        <v>564</v>
       </c>
       <c r="C199" s="2"/>
     </row>
     <row r="200" spans="2:3">
       <c r="B200" s="1" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C200" s="2"/>
     </row>
     <row r="201" spans="2:3">
       <c r="B201" s="1" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="C201" s="2"/>
     </row>
     <row r="202" spans="2:3">
       <c r="B202" s="1" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="C202" s="2"/>
     </row>
     <row r="203" spans="2:3">
       <c r="B203" s="1" t="s">
-        <v>100</v>
+        <v>565</v>
       </c>
       <c r="C203" s="2"/>
     </row>
     <row r="204" spans="2:3">
       <c r="B204" s="1" t="s">
-        <v>374</v>
+        <v>566</v>
       </c>
       <c r="C204" s="2"/>
     </row>
     <row r="205" spans="2:3">
       <c r="B205" s="1" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="C205" s="2"/>
     </row>
     <row r="206" spans="2:3">
       <c r="B206" s="1" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="C206" s="2"/>
     </row>
     <row r="207" spans="2:3">
       <c r="B207" s="1" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="C207" s="2"/>
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="1" t="s">
-        <v>378</v>
+        <v>567</v>
       </c>
       <c r="C208" s="2"/>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="1" t="s">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="C209" s="2"/>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="1" t="s">
-        <v>380</v>
+        <v>96</v>
       </c>
       <c r="C210" s="2"/>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="1" t="s">
-        <v>130</v>
+        <v>291</v>
       </c>
       <c r="C211" s="2"/>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="1" t="s">
-        <v>381</v>
+        <v>292</v>
       </c>
       <c r="C212" s="2"/>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="1" t="s">
-        <v>382</v>
+        <v>568</v>
       </c>
       <c r="C213" s="2"/>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="1" t="s">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="C214" s="2"/>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="1" t="s">
-        <v>383</v>
+        <v>294</v>
       </c>
       <c r="C215" s="2"/>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="1" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="C216" s="2"/>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="1" t="s">
-        <v>384</v>
+        <v>569</v>
       </c>
       <c r="C217" s="2"/>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="1" t="s">
-        <v>385</v>
+        <v>125</v>
       </c>
       <c r="C218" s="2"/>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="1" t="s">
-        <v>386</v>
+        <v>570</v>
       </c>
       <c r="C219" s="2"/>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="1" t="s">
-        <v>152</v>
+        <v>571</v>
       </c>
       <c r="C220" s="2"/>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="1" t="s">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="C221" s="2"/>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="1" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="C222" s="2"/>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="1" t="s">
-        <v>116</v>
+        <v>298</v>
       </c>
       <c r="C223" s="2"/>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="1" t="s">
-        <v>389</v>
+        <v>141</v>
       </c>
       <c r="C224" s="2"/>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="1" t="s">
-        <v>390</v>
+        <v>299</v>
       </c>
       <c r="C225" s="2"/>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="1" t="s">
-        <v>391</v>
+        <v>572</v>
       </c>
       <c r="C226" s="2"/>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="1" t="s">
-        <v>392</v>
+        <v>300</v>
       </c>
       <c r="C227" s="2"/>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="1" t="s">
-        <v>393</v>
+        <v>252</v>
       </c>
       <c r="C228" s="2"/>
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="1" t="s">
-        <v>394</v>
+        <v>301</v>
       </c>
       <c r="C229" s="2"/>
     </row>
     <row r="230" spans="2:3">
       <c r="B230" s="1" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="C230" s="2"/>
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="1" t="s">
-        <v>73</v>
+        <v>303</v>
       </c>
       <c r="C231" s="2"/>
     </row>
     <row r="232" spans="2:3">
       <c r="B232" s="1" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="C232" s="2"/>
     </row>
     <row r="233" spans="2:3">
       <c r="B233" s="1" t="s">
-        <v>397</v>
+        <v>305</v>
       </c>
       <c r="C233" s="2"/>
     </row>
     <row r="234" spans="2:3">
       <c r="B234" s="1" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="C234" s="2"/>
     </row>
     <row r="235" spans="2:3">
       <c r="B235" s="1" t="s">
-        <v>398</v>
+        <v>70</v>
       </c>
       <c r="C235" s="2"/>
     </row>
     <row r="236" spans="2:3">
       <c r="B236" s="1" t="s">
-        <v>36</v>
+        <v>307</v>
       </c>
       <c r="C236" s="2"/>
     </row>
     <row r="237" spans="2:3">
       <c r="B237" s="1" t="s">
-        <v>399</v>
+        <v>308</v>
       </c>
       <c r="C237" s="2"/>
     </row>
     <row r="238" spans="2:3">
       <c r="B238" s="1" t="s">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="C238" s="2"/>
     </row>
     <row r="239" spans="2:3">
       <c r="B239" s="1" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="C239" s="2"/>
     </row>
     <row r="240" spans="2:3">
       <c r="B240" s="1" t="s">
-        <v>402</v>
+        <v>253</v>
       </c>
       <c r="C240" s="2"/>
     </row>
     <row r="241" spans="2:3">
       <c r="B241" s="1" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="C241" s="2"/>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" s="1" t="s">
-        <v>403</v>
+        <v>573</v>
       </c>
       <c r="C242" s="2"/>
     </row>
     <row r="243" spans="2:3">
       <c r="B243" s="1" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="C243" s="2"/>
     </row>
     <row r="244" spans="2:3">
       <c r="B244" s="1" t="s">
-        <v>117</v>
+        <v>312</v>
       </c>
       <c r="C244" s="2"/>
     </row>
     <row r="245" spans="2:3">
       <c r="B245" s="1" t="s">
-        <v>405</v>
+        <v>574</v>
       </c>
       <c r="C245" s="2"/>
     </row>
     <row r="246" spans="2:3">
       <c r="B246" s="1" t="s">
-        <v>406</v>
+        <v>575</v>
       </c>
       <c r="C246" s="2"/>
     </row>
     <row r="247" spans="2:3">
       <c r="B247" s="1" t="s">
-        <v>407</v>
+        <v>146</v>
       </c>
       <c r="C247" s="2"/>
     </row>
     <row r="248" spans="2:3">
       <c r="B248" s="1" t="s">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="C248" s="2"/>
     </row>
     <row r="249" spans="2:3">
       <c r="B249" s="1" t="s">
-        <v>408</v>
+        <v>576</v>
       </c>
       <c r="C249" s="2"/>
     </row>
     <row r="250" spans="2:3">
       <c r="B250" s="1" t="s">
-        <v>409</v>
+        <v>577</v>
       </c>
       <c r="C250" s="2"/>
     </row>
     <row r="251" spans="2:3">
       <c r="B251" s="1" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="C251" s="2"/>
     </row>
     <row r="252" spans="2:3">
       <c r="B252" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C252" s="2"/>
     </row>
     <row r="253" spans="2:3">
       <c r="B253" s="1" t="s">
-        <v>411</v>
+        <v>315</v>
       </c>
       <c r="C253" s="2"/>
     </row>
     <row r="254" spans="2:3">
       <c r="B254" s="1" t="s">
-        <v>412</v>
+        <v>316</v>
       </c>
       <c r="C254" s="2"/>
     </row>
     <row r="255" spans="2:3">
       <c r="B255" s="1" t="s">
-        <v>413</v>
+        <v>317</v>
       </c>
       <c r="C255" s="2"/>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" s="1" t="s">
-        <v>414</v>
+        <v>105</v>
       </c>
       <c r="C256" s="2"/>
     </row>
     <row r="257" spans="2:3">
       <c r="B257" s="1" t="s">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="C257" s="2"/>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" s="1" t="s">
-        <v>415</v>
+        <v>319</v>
       </c>
       <c r="C258" s="2"/>
     </row>
     <row r="259" spans="2:3">
       <c r="B259" s="1" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="C259" s="2"/>
     </row>
     <row r="260" spans="2:3">
       <c r="B260" s="1" t="s">
-        <v>416</v>
+        <v>320</v>
       </c>
       <c r="C260" s="2"/>
     </row>
     <row r="261" spans="2:3">
       <c r="B261" s="1" t="s">
-        <v>417</v>
+        <v>321</v>
       </c>
       <c r="C261" s="2"/>
     </row>
     <row r="262" spans="2:3">
       <c r="B262" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C262" s="2"/>
     </row>
     <row r="263" spans="2:3">
       <c r="B263" s="1" t="s">
-        <v>418</v>
+        <v>578</v>
       </c>
       <c r="C263" s="2"/>
     </row>
     <row r="264" spans="2:3">
       <c r="B264" s="1" t="s">
-        <v>37</v>
+        <v>322</v>
       </c>
       <c r="C264" s="2"/>
     </row>
     <row r="265" spans="2:3">
       <c r="B265" s="1" t="s">
-        <v>419</v>
+        <v>542</v>
       </c>
       <c r="C265" s="2"/>
     </row>
     <row r="266" spans="2:3">
       <c r="B266" s="1" t="s">
-        <v>420</v>
+        <v>323</v>
       </c>
       <c r="C266" s="2"/>
     </row>
     <row r="267" spans="2:3">
       <c r="B267" s="1" t="s">
-        <v>421</v>
+        <v>579</v>
       </c>
       <c r="C267" s="2"/>
     </row>
     <row r="268" spans="2:3">
       <c r="B268" s="1" t="s">
-        <v>422</v>
+        <v>54</v>
       </c>
       <c r="C268" s="2"/>
     </row>
     <row r="269" spans="2:3">
       <c r="B269" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C269" s="2"/>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="1" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="C270" s="2"/>
     </row>
     <row r="271" spans="2:3">
       <c r="B271" s="1" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="C271" s="2"/>
     </row>
     <row r="272" spans="2:3">
       <c r="B272" s="1" t="s">
-        <v>425</v>
+        <v>326</v>
       </c>
       <c r="C272" s="2"/>
     </row>
     <row r="273" spans="2:3">
       <c r="B273" s="1" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
       <c r="C273" s="2"/>
     </row>
     <row r="274" spans="2:3">
       <c r="B274" s="1" t="s">
-        <v>427</v>
+        <v>48</v>
       </c>
       <c r="C274" s="2"/>
     </row>
     <row r="275" spans="2:3">
       <c r="B275" s="1" t="s">
-        <v>106</v>
+        <v>328</v>
       </c>
       <c r="C275" s="2"/>
     </row>
     <row r="276" spans="2:3">
       <c r="B276" s="1" t="s">
-        <v>428</v>
+        <v>329</v>
       </c>
       <c r="C276" s="2"/>
     </row>
     <row r="277" spans="2:3">
       <c r="B277" s="1" t="s">
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="C277" s="2"/>
     </row>
     <row r="278" spans="2:3">
       <c r="B278" s="1" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
       <c r="C278" s="2"/>
     </row>
     <row r="279" spans="2:3">
       <c r="B279" s="1" t="s">
-        <v>431</v>
+        <v>101</v>
       </c>
       <c r="C279" s="2"/>
     </row>
     <row r="280" spans="2:3">
       <c r="B280" s="1" t="s">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="C280" s="2"/>
     </row>
     <row r="281" spans="2:3">
       <c r="B281" s="1" t="s">
-        <v>433</v>
+        <v>333</v>
       </c>
       <c r="C281" s="2"/>
     </row>
     <row r="282" spans="2:3">
       <c r="B282" s="1" t="s">
-        <v>434</v>
+        <v>334</v>
       </c>
       <c r="C282" s="2"/>
     </row>
     <row r="283" spans="2:3">
       <c r="B283" s="1" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="C283" s="2"/>
     </row>
     <row r="284" spans="2:3">
       <c r="B284" s="1" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
       <c r="C284" s="2"/>
     </row>
     <row r="285" spans="2:3">
       <c r="B285" s="1" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="C285" s="2"/>
     </row>
     <row r="286" spans="2:3">
       <c r="B286" s="1" t="s">
-        <v>107</v>
+        <v>338</v>
       </c>
       <c r="C286" s="2"/>
     </row>
     <row r="287" spans="2:3">
       <c r="B287" s="1" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
       <c r="C287" s="2"/>
     </row>
     <row r="288" spans="2:3">
       <c r="B288" s="1" t="s">
-        <v>439</v>
+        <v>340</v>
       </c>
       <c r="C288" s="2"/>
     </row>
     <row r="289" spans="2:3">
       <c r="B289" s="1" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="C289" s="2"/>
     </row>
     <row r="290" spans="2:3">
       <c r="B290" s="1" t="s">
-        <v>441</v>
+        <v>341</v>
       </c>
       <c r="C290" s="2"/>
     </row>
     <row r="291" spans="2:3">
       <c r="B291" s="1" t="s">
-        <v>442</v>
+        <v>342</v>
       </c>
       <c r="C291" s="2"/>
     </row>
     <row r="292" spans="2:3">
       <c r="B292" s="1" t="s">
-        <v>443</v>
+        <v>343</v>
       </c>
       <c r="C292" s="2"/>
     </row>
     <row r="293" spans="2:3">
       <c r="B293" s="1" t="s">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="C293" s="2"/>
     </row>
     <row r="294" spans="2:3">
       <c r="B294" s="1" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
       <c r="C294" s="2"/>
     </row>
     <row r="295" spans="2:3">
       <c r="B295" s="1" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="C295" s="2"/>
     </row>
     <row r="296" spans="2:3">
       <c r="B296" s="1" t="s">
-        <v>446</v>
+        <v>127</v>
       </c>
       <c r="C296" s="2"/>
     </row>
     <row r="297" spans="2:3">
       <c r="B297" s="1" t="s">
-        <v>447</v>
+        <v>347</v>
       </c>
       <c r="C297" s="2"/>
     </row>
     <row r="298" spans="2:3">
       <c r="B298" s="1" t="s">
-        <v>448</v>
+        <v>580</v>
       </c>
       <c r="C298" s="2"/>
     </row>
     <row r="299" spans="2:3">
       <c r="B299" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C299" s="2"/>
     </row>
     <row r="300" spans="2:3">
       <c r="B300" s="1" t="s">
-        <v>449</v>
+        <v>83</v>
       </c>
       <c r="C300" s="2"/>
     </row>
     <row r="301" spans="2:3">
       <c r="B301" s="1" t="s">
-        <v>450</v>
+        <v>46</v>
       </c>
       <c r="C301" s="2"/>
     </row>
     <row r="302" spans="2:3">
       <c r="B302" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C302" s="2"/>
     </row>
     <row r="303" spans="2:3">
       <c r="B303" s="1" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="C303" s="2"/>
     </row>
     <row r="304" spans="2:3">
       <c r="B304" s="1" t="s">
-        <v>451</v>
+        <v>581</v>
       </c>
       <c r="C304" s="2"/>
     </row>
     <row r="305" spans="2:3">
       <c r="B305" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C305" s="2"/>
     </row>
     <row r="306" spans="2:3">
       <c r="B306" s="1" t="s">
-        <v>452</v>
+        <v>16</v>
       </c>
       <c r="C306" s="2"/>
     </row>
     <row r="307" spans="2:3">
       <c r="B307" s="1" t="s">
-        <v>39</v>
+        <v>414</v>
       </c>
       <c r="C307" s="2"/>
     </row>
     <row r="308" spans="2:3">
       <c r="B308" s="1" t="s">
-        <v>453</v>
+        <v>78</v>
       </c>
       <c r="C308" s="2"/>
     </row>
     <row r="309" spans="2:3">
       <c r="B309" s="1" t="s">
-        <v>454</v>
+        <v>86</v>
       </c>
       <c r="C309" s="2"/>
     </row>
     <row r="310" spans="2:3">
       <c r="B310" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C310" s="2"/>
     </row>
     <row r="311" spans="2:3">
       <c r="B311" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C311" s="2"/>
     </row>
     <row r="312" spans="2:3">
       <c r="B312" s="1" t="s">
-        <v>455</v>
+        <v>1</v>
       </c>
       <c r="C312" s="2"/>
     </row>
     <row r="313" spans="2:3">
       <c r="B313" s="1" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C313" s="2"/>
     </row>
     <row r="314" spans="2:3">
       <c r="B314" s="1" t="s">
-        <v>456</v>
+        <v>350</v>
       </c>
       <c r="C314" s="2"/>
     </row>
     <row r="315" spans="2:3">
       <c r="B315" s="1" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="C315" s="2"/>
     </row>
     <row r="316" spans="2:3">
       <c r="B316" s="1" t="s">
-        <v>457</v>
+        <v>97</v>
       </c>
       <c r="C316" s="2"/>
     </row>
     <row r="317" spans="2:3">
       <c r="B317" s="1" t="s">
-        <v>458</v>
+        <v>582</v>
       </c>
       <c r="C317" s="2"/>
     </row>
     <row r="318" spans="2:3">
       <c r="B318" s="1" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="C318" s="2"/>
     </row>
     <row r="319" spans="2:3">
       <c r="B319" s="1" t="s">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="C319" s="2"/>
     </row>
     <row r="320" spans="2:3">
       <c r="B320" s="1" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C320" s="2"/>
     </row>
     <row r="321" spans="2:3">
       <c r="B321" s="1" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
       <c r="C321" s="2"/>
     </row>
     <row r="322" spans="2:3">
       <c r="B322" s="1" t="s">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="C322" s="2"/>
     </row>
     <row r="323" spans="2:3">
       <c r="B323" s="1" t="s">
-        <v>463</v>
+        <v>358</v>
       </c>
       <c r="C323" s="2"/>
     </row>
     <row r="324" spans="2:3">
       <c r="B324" s="1" t="s">
-        <v>464</v>
+        <v>359</v>
       </c>
       <c r="C324" s="2"/>
     </row>
     <row r="325" spans="2:3">
       <c r="B325" s="1" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="C325" s="2"/>
     </row>
     <row r="326" spans="2:3">
       <c r="B326" s="1" t="s">
-        <v>14</v>
+        <v>361</v>
       </c>
       <c r="C326" s="2"/>
     </row>
     <row r="327" spans="2:3">
       <c r="B327" s="1" t="s">
-        <v>466</v>
+        <v>362</v>
       </c>
       <c r="C327" s="2"/>
     </row>
     <row r="328" spans="2:3">
       <c r="B328" s="1" t="s">
-        <v>9</v>
+        <v>363</v>
       </c>
       <c r="C328" s="2"/>
     </row>
     <row r="329" spans="2:3">
       <c r="B329" s="1" t="s">
-        <v>10</v>
+        <v>364</v>
       </c>
       <c r="C329" s="2"/>
     </row>
     <row r="330" spans="2:3">
       <c r="B330" s="1" t="s">
-        <v>467</v>
+        <v>73</v>
       </c>
       <c r="C330" s="2"/>
     </row>
     <row r="331" spans="2:3">
       <c r="B331" s="1" t="s">
-        <v>468</v>
+        <v>365</v>
       </c>
       <c r="C331" s="2"/>
     </row>
     <row r="332" spans="2:3">
       <c r="B332" s="1" t="s">
-        <v>469</v>
+        <v>366</v>
       </c>
       <c r="C332" s="2"/>
     </row>
     <row r="333" spans="2:3">
       <c r="B333" s="1" t="s">
-        <v>470</v>
+        <v>367</v>
       </c>
       <c r="C333" s="2"/>
     </row>
     <row r="334" spans="2:3">
       <c r="B334" s="1" t="s">
-        <v>471</v>
+        <v>14</v>
       </c>
       <c r="C334" s="2"/>
     </row>
     <row r="335" spans="2:3">
       <c r="B335" s="1" t="s">
-        <v>472</v>
+        <v>368</v>
       </c>
       <c r="C335" s="2"/>
     </row>
     <row r="336" spans="2:3">
       <c r="B336" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C336" s="2"/>
     </row>
     <row r="337" spans="2:3">
       <c r="B337" s="1" t="s">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="C337" s="2"/>
     </row>
     <row r="338" spans="2:3">
       <c r="B338" s="1" t="s">
-        <v>473</v>
+        <v>370</v>
       </c>
       <c r="C338" s="2"/>
     </row>
     <row r="339" spans="2:3">
       <c r="B339" s="1" t="s">
-        <v>474</v>
+        <v>371</v>
       </c>
       <c r="C339" s="2"/>
     </row>
     <row r="340" spans="2:3">
       <c r="B340" s="1" t="s">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="C340" s="2"/>
     </row>
     <row r="341" spans="2:3">
       <c r="B341" s="1" t="s">
-        <v>475</v>
+        <v>373</v>
       </c>
       <c r="C341" s="2"/>
     </row>
     <row r="342" spans="2:3">
       <c r="B342" s="1" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
       <c r="C342" s="2"/>
     </row>
     <row r="343" spans="2:3">
       <c r="B343" s="1" t="s">
-        <v>476</v>
+        <v>375</v>
       </c>
       <c r="C343" s="2"/>
     </row>
     <row r="344" spans="2:3">
       <c r="B344" s="1" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="C344" s="2"/>
     </row>
     <row r="345" spans="2:3">
       <c r="B345" s="1" t="s">
-        <v>477</v>
+        <v>376</v>
       </c>
       <c r="C345" s="2"/>
     </row>
     <row r="346" spans="2:3">
       <c r="B346" s="1" t="s">
-        <v>478</v>
+        <v>377</v>
       </c>
       <c r="C346" s="2"/>
     </row>
     <row r="347" spans="2:3">
       <c r="B347" s="1" t="s">
-        <v>479</v>
+        <v>378</v>
       </c>
       <c r="C347" s="2"/>
     </row>
     <row r="348" spans="2:3">
       <c r="B348" s="1" t="s">
-        <v>480</v>
+        <v>379</v>
       </c>
       <c r="C348" s="2"/>
     </row>
     <row r="349" spans="2:3">
       <c r="B349" s="1" t="s">
-        <v>481</v>
+        <v>380</v>
       </c>
       <c r="C349" s="2"/>
     </row>
     <row r="350" spans="2:3">
       <c r="B350" s="1" t="s">
-        <v>482</v>
+        <v>381</v>
       </c>
       <c r="C350" s="2"/>
     </row>
     <row r="351" spans="2:3">
       <c r="B351" s="1" t="s">
-        <v>483</v>
+        <v>382</v>
       </c>
       <c r="C351" s="2"/>
     </row>
     <row r="352" spans="2:3">
       <c r="B352" s="1" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="C352" s="2"/>
     </row>
     <row r="353" spans="2:3">
       <c r="B353" s="1" t="s">
-        <v>115</v>
+        <v>384</v>
       </c>
       <c r="C353" s="2"/>
     </row>
     <row r="354" spans="2:3">
       <c r="B354" s="1" t="s">
-        <v>484</v>
+        <v>75</v>
       </c>
       <c r="C354" s="2"/>
     </row>
     <row r="355" spans="2:3">
       <c r="B355" s="1" t="s">
-        <v>485</v>
+        <v>110</v>
       </c>
       <c r="C355" s="2"/>
     </row>
     <row r="356" spans="2:3">
       <c r="B356" s="1" t="s">
-        <v>486</v>
+        <v>385</v>
       </c>
       <c r="C356" s="2"/>
     </row>
     <row r="357" spans="2:3">
       <c r="B357" s="1" t="s">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="C357" s="2"/>
     </row>
     <row r="358" spans="2:3">
       <c r="B358" s="1" t="s">
-        <v>487</v>
+        <v>387</v>
       </c>
       <c r="C358" s="2"/>
     </row>
     <row r="359" spans="2:3">
       <c r="B359" s="1" t="s">
-        <v>488</v>
+        <v>583</v>
       </c>
       <c r="C359" s="2"/>
     </row>
     <row r="360" spans="2:3">
       <c r="B360" s="1" t="s">
-        <v>13</v>
+        <v>388</v>
       </c>
       <c r="C360" s="2"/>
     </row>
     <row r="361" spans="2:3">
       <c r="B361" s="1" t="s">
-        <v>489</v>
+        <v>389</v>
       </c>
       <c r="C361" s="2"/>
     </row>
     <row r="362" spans="2:3">
       <c r="B362" s="1" t="s">
-        <v>490</v>
+        <v>13</v>
       </c>
       <c r="C362" s="2"/>
     </row>
     <row r="363" spans="2:3">
       <c r="B363" s="1" t="s">
-        <v>54</v>
+        <v>390</v>
       </c>
       <c r="C363" s="2"/>
     </row>
     <row r="364" spans="2:3">
       <c r="B364" s="1" t="s">
-        <v>491</v>
+        <v>52</v>
       </c>
       <c r="C364" s="2"/>
     </row>
     <row r="365" spans="2:3">
       <c r="B365" s="1" t="s">
-        <v>492</v>
+        <v>391</v>
       </c>
       <c r="C365" s="2"/>
     </row>
     <row r="366" spans="2:3">
       <c r="B366" s="1" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="C366" s="2"/>
     </row>
     <row r="367" spans="2:3">
       <c r="B367" s="1" t="s">
-        <v>494</v>
+        <v>393</v>
       </c>
       <c r="C367" s="2"/>
     </row>
     <row r="368" spans="2:3">
       <c r="B368" s="1" t="s">
-        <v>12</v>
+        <v>394</v>
       </c>
       <c r="C368" s="2"/>
     </row>
     <row r="369" spans="2:3">
       <c r="B369" s="1" t="s">
-        <v>495</v>
+        <v>395</v>
       </c>
       <c r="C369" s="2"/>
     </row>
     <row r="370" spans="2:3">
       <c r="B370" s="1" t="s">
-        <v>496</v>
+        <v>396</v>
       </c>
       <c r="C370" s="2"/>
     </row>
     <row r="371" spans="2:3">
       <c r="B371" s="1" t="s">
-        <v>497</v>
+        <v>397</v>
       </c>
       <c r="C371" s="2"/>
     </row>
     <row r="372" spans="2:3">
       <c r="B372" s="1" t="s">
-        <v>498</v>
+        <v>398</v>
       </c>
       <c r="C372" s="2"/>
     </row>
     <row r="373" spans="2:3">
       <c r="B373" s="1" t="s">
-        <v>48</v>
+        <v>348</v>
       </c>
       <c r="C373" s="2"/>
     </row>
     <row r="374" spans="2:3">
       <c r="B374" s="1" t="s">
-        <v>499</v>
+        <v>399</v>
       </c>
       <c r="C374" s="2"/>
     </row>
     <row r="375" spans="2:3">
       <c r="B375" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C375" s="2"/>
     </row>
     <row r="376" spans="2:3">
       <c r="B376" s="1" t="s">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C376" s="2"/>
     </row>
     <row r="377" spans="2:3">
       <c r="B377" s="1" t="s">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="C377" s="2"/>
     </row>
@@ -5382,55 +5526,55 @@
     </row>
     <row r="379" spans="2:3">
       <c r="B379" s="1" t="s">
-        <v>142</v>
+        <v>349</v>
       </c>
       <c r="C379" s="2"/>
     </row>
     <row r="380" spans="2:3">
       <c r="B380" s="1" t="s">
-        <v>502</v>
+        <v>17</v>
       </c>
       <c r="C380" s="2"/>
     </row>
     <row r="381" spans="2:3">
       <c r="B381" s="1" t="s">
-        <v>503</v>
+        <v>403</v>
       </c>
       <c r="C381" s="2"/>
     </row>
     <row r="382" spans="2:3">
       <c r="B382" s="1" t="s">
-        <v>504</v>
+        <v>404</v>
       </c>
       <c r="C382" s="2"/>
     </row>
     <row r="383" spans="2:3">
       <c r="B383" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C383" s="2"/>
     </row>
     <row r="384" spans="2:3">
       <c r="B384" s="1" t="s">
-        <v>505</v>
+        <v>405</v>
       </c>
       <c r="C384" s="2"/>
     </row>
     <row r="385" spans="2:3">
       <c r="B385" s="1" t="s">
-        <v>506</v>
+        <v>406</v>
       </c>
       <c r="C385" s="2"/>
     </row>
     <row r="386" spans="2:3">
       <c r="B386" s="1" t="s">
-        <v>507</v>
+        <v>351</v>
       </c>
       <c r="C386" s="2"/>
     </row>
     <row r="387" spans="2:3">
       <c r="B387" s="1" t="s">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="C387" s="2"/>
     </row>
@@ -5442,1015 +5586,1015 @@
     </row>
     <row r="389" spans="2:3">
       <c r="B389" s="1" t="s">
-        <v>508</v>
+        <v>408</v>
       </c>
       <c r="C389" s="2"/>
     </row>
     <row r="390" spans="2:3">
       <c r="B390" s="1" t="s">
-        <v>509</v>
+        <v>409</v>
       </c>
       <c r="C390" s="2"/>
     </row>
     <row r="391" spans="2:3">
       <c r="B391" s="1" t="s">
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="C391" s="2"/>
     </row>
     <row r="392" spans="2:3">
       <c r="B392" s="1" t="s">
-        <v>511</v>
+        <v>584</v>
       </c>
       <c r="C392" s="2"/>
     </row>
     <row r="393" spans="2:3">
       <c r="B393" s="1" t="s">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="C393" s="2"/>
     </row>
     <row r="394" spans="2:3">
       <c r="B394" s="1" t="s">
-        <v>513</v>
+        <v>412</v>
       </c>
       <c r="C394" s="2"/>
     </row>
     <row r="395" spans="2:3">
       <c r="B395" s="1" t="s">
-        <v>514</v>
+        <v>413</v>
       </c>
       <c r="C395" s="2"/>
     </row>
     <row r="396" spans="2:3">
       <c r="B396" s="1" t="s">
-        <v>515</v>
+        <v>39</v>
       </c>
       <c r="C396" s="2"/>
     </row>
     <row r="397" spans="2:3">
       <c r="B397" s="1" t="s">
-        <v>516</v>
+        <v>415</v>
       </c>
       <c r="C397" s="2"/>
     </row>
     <row r="398" spans="2:3">
       <c r="B398" s="1" t="s">
-        <v>517</v>
+        <v>585</v>
       </c>
       <c r="C398" s="2"/>
     </row>
     <row r="399" spans="2:3">
       <c r="B399" s="1" t="s">
-        <v>47</v>
+        <v>416</v>
       </c>
       <c r="C399" s="2"/>
     </row>
     <row r="400" spans="2:3">
       <c r="B400" s="1" t="s">
-        <v>518</v>
+        <v>417</v>
       </c>
       <c r="C400" s="2"/>
     </row>
     <row r="401" spans="2:3">
       <c r="B401" s="1" t="s">
-        <v>519</v>
+        <v>45</v>
       </c>
       <c r="C401" s="2"/>
     </row>
     <row r="402" spans="2:3">
       <c r="B402" s="1" t="s">
-        <v>520</v>
+        <v>418</v>
       </c>
       <c r="C402" s="2"/>
     </row>
     <row r="403" spans="2:3">
       <c r="B403" s="1" t="s">
-        <v>21</v>
+        <v>419</v>
       </c>
       <c r="C403" s="2"/>
     </row>
     <row r="404" spans="2:3">
       <c r="B404" s="1" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C404" s="2"/>
     </row>
     <row r="405" spans="2:3">
       <c r="B405" s="1" t="s">
-        <v>521</v>
+        <v>353</v>
       </c>
       <c r="C405" s="2"/>
     </row>
     <row r="406" spans="2:3">
       <c r="B406" s="1" t="s">
-        <v>522</v>
+        <v>420</v>
       </c>
       <c r="C406" s="2"/>
     </row>
     <row r="407" spans="2:3">
       <c r="B407" s="1" t="s">
-        <v>523</v>
+        <v>421</v>
       </c>
       <c r="C407" s="2"/>
     </row>
     <row r="408" spans="2:3">
       <c r="B408" s="1" t="s">
-        <v>83</v>
+        <v>422</v>
       </c>
       <c r="C408" s="2"/>
     </row>
     <row r="409" spans="2:3">
       <c r="B409" s="1" t="s">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="C409" s="2"/>
     </row>
     <row r="410" spans="2:3">
       <c r="B410" s="1" t="s">
-        <v>22</v>
+        <v>423</v>
       </c>
       <c r="C410" s="2"/>
     </row>
     <row r="411" spans="2:3">
       <c r="B411" s="1" t="s">
-        <v>525</v>
+        <v>22</v>
       </c>
       <c r="C411" s="2"/>
     </row>
     <row r="412" spans="2:3">
       <c r="B412" s="1" t="s">
-        <v>526</v>
+        <v>424</v>
       </c>
       <c r="C412" s="2"/>
     </row>
     <row r="413" spans="2:3">
       <c r="B413" s="1" t="s">
-        <v>527</v>
+        <v>425</v>
       </c>
       <c r="C413" s="2"/>
     </row>
     <row r="414" spans="2:3">
       <c r="B414" s="1" t="s">
-        <v>528</v>
+        <v>426</v>
       </c>
       <c r="C414" s="2"/>
     </row>
     <row r="415" spans="2:3">
       <c r="B415" s="1" t="s">
-        <v>529</v>
+        <v>427</v>
       </c>
       <c r="C415" s="2"/>
     </row>
     <row r="416" spans="2:3">
       <c r="B416" s="1" t="s">
-        <v>84</v>
+        <v>428</v>
       </c>
       <c r="C416" s="2"/>
     </row>
     <row r="417" spans="2:3">
       <c r="B417" s="1" t="s">
-        <v>530</v>
+        <v>586</v>
       </c>
       <c r="C417" s="2"/>
     </row>
     <row r="418" spans="2:3">
       <c r="B418" s="1" t="s">
-        <v>531</v>
+        <v>72</v>
       </c>
       <c r="C418" s="2"/>
     </row>
     <row r="419" spans="2:3">
       <c r="B419" s="1" t="s">
-        <v>532</v>
+        <v>429</v>
       </c>
       <c r="C419" s="2"/>
     </row>
     <row r="420" spans="2:3">
       <c r="B420" s="1" t="s">
-        <v>533</v>
+        <v>430</v>
       </c>
       <c r="C420" s="2"/>
     </row>
     <row r="421" spans="2:3">
       <c r="B421" s="1" t="s">
-        <v>534</v>
+        <v>431</v>
       </c>
       <c r="C421" s="2"/>
     </row>
     <row r="422" spans="2:3">
       <c r="B422" s="1" t="s">
-        <v>108</v>
+        <v>432</v>
       </c>
       <c r="C422" s="2"/>
     </row>
     <row r="423" spans="2:3">
       <c r="B423" s="1" t="s">
-        <v>535</v>
+        <v>433</v>
       </c>
       <c r="C423" s="2"/>
     </row>
     <row r="424" spans="2:3">
       <c r="B424" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C424" s="2"/>
     </row>
     <row r="425" spans="2:3">
       <c r="B425" s="1" t="s">
-        <v>536</v>
+        <v>434</v>
       </c>
       <c r="C425" s="2"/>
     </row>
     <row r="426" spans="2:3">
       <c r="B426" s="1" t="s">
-        <v>537</v>
+        <v>11</v>
       </c>
       <c r="C426" s="2"/>
     </row>
     <row r="427" spans="2:3">
       <c r="B427" s="1" t="s">
-        <v>538</v>
+        <v>435</v>
       </c>
       <c r="C427" s="2"/>
     </row>
     <row r="428" spans="2:3">
       <c r="B428" s="1" t="s">
-        <v>85</v>
+        <v>436</v>
       </c>
       <c r="C428" s="2"/>
     </row>
     <row r="429" spans="2:3">
       <c r="B429" s="1" t="s">
-        <v>539</v>
+        <v>81</v>
       </c>
       <c r="C429" s="2"/>
     </row>
     <row r="430" spans="2:3">
       <c r="B430" s="1" t="s">
-        <v>86</v>
+        <v>437</v>
       </c>
       <c r="C430" s="2"/>
     </row>
     <row r="431" spans="2:3">
       <c r="B431" s="1" t="s">
-        <v>540</v>
+        <v>587</v>
       </c>
       <c r="C431" s="2"/>
     </row>
     <row r="432" spans="2:3">
       <c r="B432" s="1" t="s">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="C432" s="2"/>
     </row>
     <row r="433" spans="2:3">
       <c r="B433" s="1" t="s">
-        <v>542</v>
+        <v>438</v>
       </c>
       <c r="C433" s="2"/>
     </row>
     <row r="434" spans="2:3">
       <c r="B434" s="1" t="s">
-        <v>543</v>
+        <v>439</v>
       </c>
       <c r="C434" s="2"/>
     </row>
     <row r="435" spans="2:3">
       <c r="B435" s="1" t="s">
-        <v>544</v>
+        <v>440</v>
       </c>
       <c r="C435" s="2"/>
     </row>
     <row r="436" spans="2:3">
       <c r="B436" s="1" t="s">
-        <v>545</v>
+        <v>354</v>
       </c>
       <c r="C436" s="2"/>
     </row>
     <row r="437" spans="2:3">
       <c r="B437" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C437" s="2"/>
     </row>
     <row r="438" spans="2:3">
       <c r="B438" s="1" t="s">
-        <v>87</v>
+        <v>443</v>
       </c>
       <c r="C438" s="2"/>
     </row>
     <row r="439" spans="2:3">
       <c r="B439" s="1" t="s">
-        <v>546</v>
+        <v>355</v>
       </c>
       <c r="C439" s="2"/>
     </row>
     <row r="440" spans="2:3">
       <c r="B440" s="1" t="s">
-        <v>547</v>
+        <v>356</v>
       </c>
       <c r="C440" s="2"/>
     </row>
     <row r="441" spans="2:3">
       <c r="B441" s="1" t="s">
-        <v>548</v>
+        <v>53</v>
       </c>
       <c r="C441" s="2"/>
     </row>
     <row r="442" spans="2:3">
       <c r="B442" s="1" t="s">
-        <v>549</v>
+        <v>444</v>
       </c>
       <c r="C442" s="2"/>
     </row>
     <row r="443" spans="2:3">
       <c r="B443" s="1" t="s">
-        <v>550</v>
+        <v>445</v>
       </c>
       <c r="C443" s="2"/>
     </row>
     <row r="444" spans="2:3">
       <c r="B444" s="1" t="s">
-        <v>551</v>
+        <v>446</v>
       </c>
       <c r="C444" s="2"/>
     </row>
     <row r="445" spans="2:3">
       <c r="B445" s="1" t="s">
-        <v>552</v>
+        <v>447</v>
       </c>
       <c r="C445" s="2"/>
     </row>
     <row r="446" spans="2:3">
       <c r="B446" s="1" t="s">
-        <v>553</v>
+        <v>448</v>
       </c>
       <c r="C446" s="2"/>
     </row>
     <row r="447" spans="2:3">
       <c r="B447" s="1" t="s">
-        <v>554</v>
+        <v>28</v>
       </c>
       <c r="C447" s="2"/>
     </row>
     <row r="448" spans="2:3">
       <c r="B448" s="1" t="s">
-        <v>555</v>
+        <v>93</v>
       </c>
       <c r="C448" s="2"/>
     </row>
     <row r="449" spans="2:3">
       <c r="B449" s="1" t="s">
-        <v>556</v>
+        <v>30</v>
       </c>
       <c r="C449" s="2"/>
     </row>
     <row r="450" spans="2:3">
       <c r="B450" s="1" t="s">
-        <v>557</v>
+        <v>31</v>
       </c>
       <c r="C450" s="2"/>
     </row>
     <row r="451" spans="2:3">
       <c r="B451" s="1" t="s">
-        <v>558</v>
+        <v>26</v>
       </c>
       <c r="C451" s="2"/>
     </row>
     <row r="452" spans="2:3">
       <c r="B452" s="1" t="s">
-        <v>559</v>
+        <v>24</v>
       </c>
       <c r="C452" s="2"/>
     </row>
     <row r="453" spans="2:3">
       <c r="B453" s="1" t="s">
-        <v>560</v>
+        <v>88</v>
       </c>
       <c r="C453" s="2"/>
     </row>
     <row r="454" spans="2:3">
       <c r="B454" s="1" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="C454" s="2"/>
     </row>
     <row r="455" spans="2:3">
       <c r="B455" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C455" s="2"/>
     </row>
     <row r="456" s